--- a/1_Result_Tables/1_Naive_Forecaster_Outputs/Results_SMA_2_9/AR2_50_model_statistics.xlsx
+++ b/1_Result_Tables/1_Naive_Forecaster_Outputs/Results_SMA_2_9/AR2_50_model_statistics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="15">
   <si>
     <t>coefficient_Intercept</t>
   </si>
@@ -416,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O121"/>
+  <dimension ref="A1:O164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,46 +471,46 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>0.8266785320106345</v>
+        <v>0.4089909744362552</v>
       </c>
       <c r="C2">
-        <v>0.0001478009708943311</v>
+        <v>0.0170689149187959</v>
       </c>
       <c r="D2">
-        <v>0.2178487920737958</v>
+        <v>0.1714688754696649</v>
       </c>
       <c r="E2">
-        <v>3.794735440766634</v>
+        <v>2.38521990253917</v>
       </c>
       <c r="F2">
-        <v>-0.1614875928409391</v>
+        <v>-0.02044251537751675</v>
       </c>
       <c r="G2">
-        <v>0.2628526106204411</v>
+        <v>0.8888971853766366</v>
       </c>
       <c r="H2">
-        <v>0.1442273016207797</v>
+        <v>0.1463317452999748</v>
       </c>
       <c r="I2">
-        <v>-1.119674229679082</v>
+        <v>-0.1396997988072263</v>
       </c>
       <c r="J2">
-        <v>-0.01190008497104612</v>
+        <v>0.228800168391993</v>
       </c>
       <c r="K2">
-        <v>0.9343641904121228</v>
+        <v>0.1337101322036766</v>
       </c>
       <c r="L2">
-        <v>0.1444969144566538</v>
+        <v>0.1525710248562397</v>
       </c>
       <c r="M2">
-        <v>-0.08235528776371147</v>
+        <v>1.499630539990016</v>
       </c>
       <c r="N2">
-        <v>149.1029006987745</v>
+        <v>137.008924183317</v>
       </c>
       <c r="O2">
-        <v>156.587704742406</v>
+        <v>144.4937282269486</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -518,46 +518,46 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>0.8220726475677422</v>
+        <v>0.4377804449858119</v>
       </c>
       <c r="C3">
-        <v>0.000142972943062871</v>
+        <v>0.01014750199526506</v>
       </c>
       <c r="D3">
-        <v>0.2161660813572345</v>
+        <v>0.1702920903830368</v>
       </c>
       <c r="E3">
-        <v>3.802967803303011</v>
+        <v>2.570762059477428</v>
       </c>
       <c r="F3">
-        <v>-0.1584805155215425</v>
+        <v>-0.009541982525137424</v>
       </c>
       <c r="G3">
-        <v>0.270614017379616</v>
+        <v>0.9460041995589075</v>
       </c>
       <c r="H3">
-        <v>0.1438574564511678</v>
+        <v>0.140892150276615</v>
       </c>
       <c r="I3">
-        <v>-1.101649642855589</v>
+        <v>-0.06772543755208188</v>
       </c>
       <c r="J3">
-        <v>-0.001893733184550724</v>
+        <v>0.1646449489851025</v>
       </c>
       <c r="K3">
-        <v>0.9894971735623852</v>
+        <v>0.2515044567886615</v>
       </c>
       <c r="L3">
-        <v>0.1438600211411447</v>
+        <v>0.143581181979174</v>
       </c>
       <c r="M3">
-        <v>-0.01316372102220626</v>
+        <v>1.14670283887887</v>
       </c>
       <c r="N3">
-        <v>148.7898250160968</v>
+        <v>136.8873568019857</v>
       </c>
       <c r="O3">
-        <v>156.2746290597283</v>
+        <v>144.3721608456173</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -565,46 +565,46 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>0.7808102856911785</v>
+        <v>0.4613327370257006</v>
       </c>
       <c r="C4">
-        <v>0.0003638916955644933</v>
+        <v>0.007538293917467491</v>
       </c>
       <c r="D4">
-        <v>0.2190226903852004</v>
+        <v>0.1726493744246048</v>
       </c>
       <c r="E4">
-        <v>3.564974406614899</v>
+        <v>2.672078821966207</v>
       </c>
       <c r="F4">
-        <v>-0.1364305159432343</v>
+        <v>-0.03620956115365011</v>
       </c>
       <c r="G4">
-        <v>0.3495387705301237</v>
+        <v>0.8017156842756128</v>
       </c>
       <c r="H4">
-        <v>0.1458394501223281</v>
+        <v>0.1441880677210244</v>
       </c>
       <c r="I4">
-        <v>-0.9354843002273958</v>
+        <v>-0.2511273070370047</v>
       </c>
       <c r="J4">
-        <v>-0.01179976210652846</v>
+        <v>0.06643748541938864</v>
       </c>
       <c r="K4">
-        <v>0.9351950883013378</v>
+        <v>0.6413666882676498</v>
       </c>
       <c r="L4">
-        <v>0.1451199275369776</v>
+        <v>0.1426343581638596</v>
       </c>
       <c r="M4">
-        <v>-0.08131041895346726</v>
+        <v>0.4657887922281997</v>
       </c>
       <c r="N4">
-        <v>149.6246390820631</v>
+        <v>138.0851109251383</v>
       </c>
       <c r="O4">
-        <v>157.1094431256947</v>
+        <v>145.5699149687698</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -612,46 +612,46 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>0.707113060464248</v>
+        <v>0.4745697017636504</v>
       </c>
       <c r="C5">
-        <v>0.001037955821577716</v>
+        <v>0.005455627091681322</v>
       </c>
       <c r="D5">
-        <v>0.2155811949928536</v>
+        <v>0.1707808412284167</v>
       </c>
       <c r="E5">
-        <v>3.280031268440128</v>
+        <v>2.778822837211118</v>
       </c>
       <c r="F5">
-        <v>-0.1289316261755481</v>
+        <v>-0.05083598289819707</v>
       </c>
       <c r="G5">
-        <v>0.3748563425402556</v>
+        <v>0.7245643842117286</v>
       </c>
       <c r="H5">
-        <v>0.1452892398311654</v>
+        <v>0.144270718172697</v>
       </c>
       <c r="I5">
-        <v>-0.8874134541923008</v>
+        <v>-0.3523652168789002</v>
       </c>
       <c r="J5">
-        <v>0.03128610479543494</v>
+        <v>0.06488802138903735</v>
       </c>
       <c r="K5">
-        <v>0.8298813539145141</v>
+        <v>0.653484668119347</v>
       </c>
       <c r="L5">
-        <v>0.1456158269599732</v>
+        <v>0.1445404074997588</v>
       </c>
       <c r="M5">
-        <v>0.2148537384197588</v>
+        <v>0.4489265148165965</v>
       </c>
       <c r="N5">
-        <v>149.4946988403225</v>
+        <v>138.2571091164476</v>
       </c>
       <c r="O5">
-        <v>156.979502883954</v>
+        <v>145.7419131600791</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -659,46 +659,46 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.7434178244556414</v>
+        <v>0.5003305945304364</v>
       </c>
       <c r="C6">
-        <v>0.0002108343369784955</v>
+        <v>0.00332557004071206</v>
       </c>
       <c r="D6">
-        <v>0.2006164144983767</v>
+        <v>0.1704168050325915</v>
       </c>
       <c r="E6">
-        <v>3.705667984917838</v>
+        <v>2.935922865322761</v>
       </c>
       <c r="F6">
-        <v>-0.1122357480748423</v>
+        <v>-0.04033284367426861</v>
       </c>
       <c r="G6">
-        <v>0.4170703435170544</v>
+        <v>0.7813540675444711</v>
       </c>
       <c r="H6">
-        <v>0.1383040795189461</v>
+        <v>0.1453148393594015</v>
       </c>
       <c r="I6">
-        <v>-0.8115143708358019</v>
+        <v>-0.2775548860121226</v>
       </c>
       <c r="J6">
-        <v>0.0507280700015962</v>
+        <v>0.04790170776840233</v>
       </c>
       <c r="K6">
-        <v>0.7159694717262663</v>
+        <v>0.7422619356574385</v>
       </c>
       <c r="L6">
-        <v>0.1394200000647877</v>
+        <v>0.1456601285817254</v>
       </c>
       <c r="M6">
-        <v>0.3638507386172941</v>
+        <v>0.3288594362425415</v>
       </c>
       <c r="N6">
-        <v>145.0492370571056</v>
+        <v>139.1060226359518</v>
       </c>
       <c r="O6">
-        <v>152.5340411007372</v>
+        <v>146.5908266795833</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -706,46 +706,46 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.6662575296551996</v>
+        <v>0.5069594294366235</v>
       </c>
       <c r="C7">
-        <v>0.0007391805215920999</v>
+        <v>0.003071281288170645</v>
       </c>
       <c r="D7">
-        <v>0.1974319485757166</v>
+        <v>0.1712404559228212</v>
       </c>
       <c r="E7">
-        <v>3.374618619031078</v>
+        <v>2.96051202798194</v>
       </c>
       <c r="F7">
-        <v>-0.03066860765773786</v>
+        <v>-0.0391558208040071</v>
       </c>
       <c r="G7">
-        <v>0.8254956251661638</v>
+        <v>0.7857468441945257</v>
       </c>
       <c r="H7">
-        <v>0.1390978779330181</v>
+        <v>0.144041191108971</v>
       </c>
       <c r="I7">
-        <v>-0.2204822108968921</v>
+        <v>-0.2718376632583153</v>
       </c>
       <c r="J7">
-        <v>0.03393872130272645</v>
+        <v>0.0507097325508372</v>
       </c>
       <c r="K7">
-        <v>0.7990934585371856</v>
+        <v>0.7267398291172715</v>
       </c>
       <c r="L7">
-        <v>0.1333437563732651</v>
+        <v>0.1451065275723621</v>
       </c>
       <c r="M7">
-        <v>0.2545205131894052</v>
+        <v>0.349465550580067</v>
       </c>
       <c r="N7">
-        <v>141.9963176715672</v>
+        <v>139.0167248261211</v>
       </c>
       <c r="O7">
-        <v>149.4811217151987</v>
+        <v>146.5015288697526</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -753,46 +753,46 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.6669346092278441</v>
+        <v>0.4874162061468005</v>
       </c>
       <c r="C8">
-        <v>0.0006980534955092005</v>
+        <v>0.005328474280498811</v>
       </c>
       <c r="D8">
-        <v>0.1967159975547174</v>
+        <v>0.1749221585843107</v>
       </c>
       <c r="E8">
-        <v>3.390342511631944</v>
+        <v>2.786474910277709</v>
       </c>
       <c r="F8">
-        <v>-0.0513845996032099</v>
+        <v>-0.04029779607558203</v>
       </c>
       <c r="G8">
-        <v>0.7225326695485611</v>
+        <v>0.7824902028685904</v>
       </c>
       <c r="H8">
-        <v>0.1447143773122712</v>
+        <v>0.1459666643261863</v>
       </c>
       <c r="I8">
-        <v>-0.3550759817894935</v>
+        <v>-0.2760753372121325</v>
       </c>
       <c r="J8">
-        <v>0.007068554642407437</v>
+        <v>0.03114744583356055</v>
       </c>
       <c r="K8">
-        <v>0.9592745014774146</v>
+        <v>0.8308855785337033</v>
       </c>
       <c r="L8">
-        <v>0.1384253291943339</v>
+        <v>0.1458446455943312</v>
       </c>
       <c r="M8">
-        <v>0.05106402624106434</v>
+        <v>0.2135659194523848</v>
       </c>
       <c r="N8">
-        <v>141.6239758177929</v>
+        <v>140.2161514730331</v>
       </c>
       <c r="O8">
-        <v>149.1087798614244</v>
+        <v>147.7009555166647</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -800,46 +800,46 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6446141175895677</v>
+        <v>0.5186472597050484</v>
       </c>
       <c r="C9">
-        <v>0.0007855193924580261</v>
+        <v>0.002779352764100286</v>
       </c>
       <c r="D9">
-        <v>0.1919724224209542</v>
+        <v>0.1733943358577159</v>
       </c>
       <c r="E9">
-        <v>3.357847494240957</v>
+        <v>2.991143033245565</v>
       </c>
       <c r="F9">
-        <v>-0.0406888269599496</v>
+        <v>-0.05109731599420322</v>
       </c>
       <c r="G9">
-        <v>0.7744173347427263</v>
+        <v>0.7234057135311067</v>
       </c>
       <c r="H9">
-        <v>0.1419699571352037</v>
+        <v>0.1443790702274994</v>
       </c>
       <c r="I9">
-        <v>-0.2866016710929904</v>
+        <v>-0.3539108259506639</v>
       </c>
       <c r="J9">
-        <v>0.06087291428180062</v>
+        <v>0.02841997036246355</v>
       </c>
       <c r="K9">
-        <v>0.6690701636925321</v>
+        <v>0.8457411393134542</v>
       </c>
       <c r="L9">
-        <v>0.1424179332149302</v>
+        <v>0.1460766052369508</v>
       </c>
       <c r="M9">
-        <v>0.4274245027129707</v>
+        <v>0.1945552493937242</v>
       </c>
       <c r="N9">
-        <v>140.0388097347407</v>
+        <v>140.2893401614519</v>
       </c>
       <c r="O9">
-        <v>147.5236137783723</v>
+        <v>147.7741442050834</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -847,46 +847,46 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.6275174492065232</v>
+        <v>0.5386116125924751</v>
       </c>
       <c r="C10">
-        <v>0.001084600168713327</v>
+        <v>0.001818603040523511</v>
       </c>
       <c r="D10">
-        <v>0.1920417685404205</v>
+        <v>0.1727226979913843</v>
       </c>
       <c r="E10">
-        <v>3.267609197602472</v>
+        <v>3.118360347864308</v>
       </c>
       <c r="F10">
-        <v>-0.03986847208845762</v>
+        <v>-0.05394694055820395</v>
       </c>
       <c r="G10">
-        <v>0.7818666775107123</v>
+        <v>0.7078351608824528</v>
       </c>
       <c r="H10">
-        <v>0.1439881072727775</v>
+        <v>0.1439486719323159</v>
       </c>
       <c r="I10">
-        <v>-0.2768872571741567</v>
+        <v>-0.374765114773477</v>
       </c>
       <c r="J10">
-        <v>0.07528155427265362</v>
+        <v>0.02545632979154958</v>
       </c>
       <c r="K10">
-        <v>0.596049668376434</v>
+        <v>0.8597982149497995</v>
       </c>
       <c r="L10">
-        <v>0.1420166050860007</v>
+        <v>0.1441215004598113</v>
       </c>
       <c r="M10">
-        <v>0.530089803421688</v>
+        <v>0.1766310349970867</v>
       </c>
       <c r="N10">
-        <v>140.5718928727847</v>
+        <v>140.0681706786406</v>
       </c>
       <c r="O10">
-        <v>148.0566969164163</v>
+        <v>147.5529747222721</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -894,46 +894,46 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.6066370950875095</v>
+        <v>0.6044563742830713</v>
       </c>
       <c r="C11">
-        <v>0.001599433639816557</v>
+        <v>0.0003532929763788324</v>
       </c>
       <c r="D11">
-        <v>0.1922164665486978</v>
+        <v>0.1691866251486105</v>
       </c>
       <c r="E11">
-        <v>3.156010023385893</v>
+        <v>3.572719615112173</v>
       </c>
       <c r="F11">
-        <v>-0.04614370626165165</v>
+        <v>-0.0729313689804377</v>
       </c>
       <c r="G11">
-        <v>0.7469523678961359</v>
+        <v>0.6001485431076374</v>
       </c>
       <c r="H11">
-        <v>0.1430100861625549</v>
+        <v>0.1391323730397292</v>
       </c>
       <c r="I11">
-        <v>-0.3226605024851296</v>
+        <v>-0.5241869119821034</v>
       </c>
       <c r="J11">
-        <v>0.09287896661072724</v>
+        <v>0.007290847699912811</v>
       </c>
       <c r="K11">
-        <v>0.5161504663364249</v>
+        <v>0.9581162272590721</v>
       </c>
       <c r="L11">
-        <v>0.143046804905035</v>
+        <v>0.1388266013592511</v>
       </c>
       <c r="M11">
-        <v>0.6492907455876915</v>
+        <v>0.05251765604378506</v>
       </c>
       <c r="N11">
-        <v>139.7990162325381</v>
+        <v>136.5733779903395</v>
       </c>
       <c r="O11">
-        <v>147.2838202761697</v>
+        <v>144.058182033971</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -941,46 +941,46 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.5852448817787568</v>
+        <v>0.6373070502210219</v>
       </c>
       <c r="C12">
-        <v>0.002142682637703265</v>
+        <v>0.0008125207275211637</v>
       </c>
       <c r="D12">
-        <v>0.1906516557517289</v>
+        <v>0.1903264785304463</v>
       </c>
       <c r="E12">
-        <v>3.069707836898497</v>
+        <v>3.348493888721177</v>
       </c>
       <c r="F12">
-        <v>-0.03602814748288605</v>
+        <v>-0.1627615844392491</v>
       </c>
       <c r="G12">
-        <v>0.8020790151983281</v>
+        <v>0.2986994247803446</v>
       </c>
       <c r="H12">
-        <v>0.1437346372213259</v>
+        <v>0.1566180133631319</v>
       </c>
       <c r="I12">
-        <v>-0.2506573793163654</v>
+        <v>-1.039226465361125</v>
       </c>
       <c r="J12">
-        <v>0.1052669071142093</v>
+        <v>-0.02854044684260448</v>
       </c>
       <c r="K12">
-        <v>0.4617365809944728</v>
+        <v>0.8502611119524772</v>
       </c>
       <c r="L12">
-        <v>0.1430275676477299</v>
+        <v>0.1511794106211022</v>
       </c>
       <c r="M12">
-        <v>0.7359903328110613</v>
+        <v>-0.1887852765489</v>
       </c>
       <c r="N12">
-        <v>138.8493691881008</v>
+        <v>144.4150190176928</v>
       </c>
       <c r="O12">
-        <v>146.3341732317324</v>
+        <v>151.8998230613243</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -988,46 +988,46 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.6085322281436516</v>
+        <v>0.7847585358353616</v>
       </c>
       <c r="C13">
-        <v>0.00108205860970858</v>
+        <v>3.669281738440957E-05</v>
       </c>
       <c r="D13">
-        <v>0.186193806497339</v>
+        <v>0.1901350335788304</v>
       </c>
       <c r="E13">
-        <v>3.268273201946427</v>
+        <v>4.127374745538408</v>
       </c>
       <c r="F13">
-        <v>-0.04106498082446347</v>
+        <v>-0.2757574193221679</v>
       </c>
       <c r="G13">
-        <v>0.7706012107493738</v>
+        <v>0.05358391004724124</v>
       </c>
       <c r="H13">
-        <v>0.1408319260233055</v>
+        <v>0.1428657918686349</v>
       </c>
       <c r="I13">
-        <v>-0.2915885764259722</v>
+        <v>-1.930185075904852</v>
       </c>
       <c r="J13">
-        <v>0.1260159418888459</v>
+        <v>-0.09051132148835164</v>
       </c>
       <c r="K13">
-        <v>0.3714853001875148</v>
+        <v>0.5625842316010381</v>
       </c>
       <c r="L13">
-        <v>0.1410055939472755</v>
+        <v>0.1563215486298998</v>
       </c>
       <c r="M13">
-        <v>0.8936946284270503</v>
+        <v>-0.5790073235689495</v>
       </c>
       <c r="N13">
-        <v>137.1676804634924</v>
+        <v>143.466731847675</v>
       </c>
       <c r="O13">
-        <v>144.6524845071239</v>
+        <v>150.9515358913066</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1035,46 +1035,46 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.5801452642162591</v>
+        <v>0.7912915757346921</v>
       </c>
       <c r="C14">
-        <v>0.002207531649884111</v>
+        <v>3.980105338515464E-05</v>
       </c>
       <c r="D14">
-        <v>0.1895409629908329</v>
+        <v>0.1925924905172039</v>
       </c>
       <c r="E14">
-        <v>3.0607909502091</v>
+        <v>4.108631513148264</v>
       </c>
       <c r="F14">
-        <v>-0.04155707600330502</v>
+        <v>-0.2665474568744003</v>
       </c>
       <c r="G14">
-        <v>0.771455501935749</v>
+        <v>0.06405635128111109</v>
       </c>
       <c r="H14">
-        <v>0.1430676221934905</v>
+        <v>0.1439406329613825</v>
       </c>
       <c r="I14">
-        <v>-0.290471564188727</v>
+        <v>-1.85178744452174</v>
       </c>
       <c r="J14">
-        <v>0.1352535641706808</v>
+        <v>-0.1051413858907581</v>
       </c>
       <c r="K14">
-        <v>0.3400518560826156</v>
+        <v>0.472722954216287</v>
       </c>
       <c r="L14">
-        <v>0.1417658926968105</v>
+        <v>0.1464251149746609</v>
       </c>
       <c r="M14">
-        <v>0.9540627974596304</v>
+        <v>-0.7180556826535731</v>
       </c>
       <c r="N14">
-        <v>138.6711231390464</v>
+        <v>143.5364483132621</v>
       </c>
       <c r="O14">
-        <v>146.155927182678</v>
+        <v>151.0212523568936</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1082,46 +1082,46 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.5708750010218681</v>
+        <v>0.7416524022605426</v>
       </c>
       <c r="C15">
-        <v>0.002795545239360861</v>
+        <v>0.0001218922186280892</v>
       </c>
       <c r="D15">
-        <v>0.1909684113475377</v>
+        <v>0.1930235891555794</v>
       </c>
       <c r="E15">
-        <v>2.989368749488886</v>
+        <v>3.842288942533141</v>
       </c>
       <c r="F15">
-        <v>-0.04833489540428682</v>
+        <v>-0.2605690596902319</v>
       </c>
       <c r="G15">
-        <v>0.7349884303172909</v>
+        <v>0.06723149136212191</v>
       </c>
       <c r="H15">
-        <v>0.1427925407637105</v>
+        <v>0.1423778649637311</v>
       </c>
       <c r="I15">
-        <v>-0.3384973412880872</v>
+        <v>-1.83012338158469</v>
       </c>
       <c r="J15">
-        <v>0.1479200460055909</v>
+        <v>-0.03362359027880751</v>
       </c>
       <c r="K15">
-        <v>0.3008174398947823</v>
+        <v>0.8128663303212598</v>
       </c>
       <c r="L15">
-        <v>0.1429618418654425</v>
+        <v>0.1420335538338168</v>
       </c>
       <c r="M15">
-        <v>1.034682010776101</v>
+        <v>-0.2367299090336643</v>
       </c>
       <c r="N15">
-        <v>138.5564436254008</v>
+        <v>142.7369606919189</v>
       </c>
       <c r="O15">
-        <v>146.0412476690323</v>
+        <v>150.2217647355505</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1129,46 +1129,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5359737934381914</v>
+        <v>0.7435045774532438</v>
       </c>
       <c r="C16">
-        <v>0.004910462122493033</v>
+        <v>0.000135165515901422</v>
       </c>
       <c r="D16">
-        <v>0.1905447785463848</v>
+        <v>0.1947952639536369</v>
       </c>
       <c r="E16">
-        <v>2.812849543960177</v>
+        <v>3.816851407795031</v>
       </c>
       <c r="F16">
-        <v>-0.05582018931750612</v>
+        <v>-0.3095582393020988</v>
       </c>
       <c r="G16">
-        <v>0.6975455410091397</v>
+        <v>0.0333449592468358</v>
       </c>
       <c r="H16">
-        <v>0.1436310853061295</v>
+        <v>0.1454755904549314</v>
       </c>
       <c r="I16">
-        <v>-0.3886358527371232</v>
+        <v>-2.12790502058832</v>
       </c>
       <c r="J16">
-        <v>0.1695813261595977</v>
+        <v>-0.05598340686740649</v>
       </c>
       <c r="K16">
-        <v>0.2380055492324339</v>
+        <v>0.6977099108586393</v>
       </c>
       <c r="L16">
-        <v>0.1437146217383511</v>
+        <v>0.1441334524002399</v>
       </c>
       <c r="M16">
-        <v>1.179986588061581</v>
+        <v>-0.388413695329713</v>
       </c>
       <c r="N16">
-        <v>138.9979745009784</v>
+        <v>143.5469084906815</v>
       </c>
       <c r="O16">
-        <v>146.4827785446099</v>
+        <v>151.031712534313</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1176,46 +1176,46 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>0.6054167299092134</v>
+        <v>0.7736921154405019</v>
       </c>
       <c r="C17">
-        <v>0.0002937403713638462</v>
+        <v>5.486710954702497E-05</v>
       </c>
       <c r="D17">
-        <v>0.167207146181598</v>
+        <v>0.1917992621470511</v>
       </c>
       <c r="E17">
-        <v>3.620758704007128</v>
+        <v>4.033863878200521</v>
       </c>
       <c r="F17">
-        <v>-0.02632512203298443</v>
+        <v>-0.3486109832043511</v>
       </c>
       <c r="G17">
-        <v>0.8369844946433006</v>
+        <v>0.01491584967954454</v>
       </c>
       <c r="H17">
-        <v>0.127945772884305</v>
+        <v>0.1432010846788468</v>
       </c>
       <c r="I17">
-        <v>-0.2057521826593593</v>
+        <v>-2.43441580059377</v>
       </c>
       <c r="J17">
-        <v>0.08322322176036534</v>
+        <v>-0.08152320117962839</v>
       </c>
       <c r="K17">
-        <v>0.5170963101566327</v>
+        <v>0.576678312042705</v>
       </c>
       <c r="L17">
-        <v>0.1284650292774559</v>
+        <v>0.1460352734512365</v>
       </c>
       <c r="M17">
-        <v>0.6478278347691159</v>
+        <v>-0.5582432192784594</v>
       </c>
       <c r="N17">
-        <v>130.9062791114581</v>
+        <v>142.9386624305603</v>
       </c>
       <c r="O17">
-        <v>138.3910831550897</v>
+        <v>150.4234664741918</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1223,46 +1223,46 @@
         <v>14</v>
       </c>
       <c r="B18">
-        <v>0.4979668465930522</v>
+        <v>0.7944131255234372</v>
       </c>
       <c r="C18">
-        <v>0.003588155511352982</v>
+        <v>3.423376200912223E-05</v>
       </c>
       <c r="D18">
-        <v>0.1709894086180355</v>
+        <v>0.1917342102409693</v>
       </c>
       <c r="E18">
-        <v>2.912267201914446</v>
+        <v>4.143304027617336</v>
       </c>
       <c r="F18">
-        <v>0.07273425341207654</v>
+        <v>-0.3296899055590768</v>
       </c>
       <c r="G18">
-        <v>0.6016111247712952</v>
+        <v>0.02292053572637995</v>
       </c>
       <c r="H18">
-        <v>0.1393149552080012</v>
+        <v>0.1449341468796782</v>
       </c>
       <c r="I18">
-        <v>0.5220850360500223</v>
+        <v>-2.27475658881671</v>
       </c>
       <c r="J18">
-        <v>0.07001464178718524</v>
+        <v>-0.09877540944491459</v>
       </c>
       <c r="K18">
-        <v>0.5747553338623606</v>
+        <v>0.4984590943971892</v>
       </c>
       <c r="L18">
-        <v>0.1247895118952867</v>
+        <v>0.1459196905258943</v>
       </c>
       <c r="M18">
-        <v>0.5610619091605702</v>
+        <v>-0.6769162481699913</v>
       </c>
       <c r="N18">
-        <v>130.9861448833853</v>
+        <v>143.6452624506602</v>
       </c>
       <c r="O18">
-        <v>138.4709489270168</v>
+        <v>151.1300664942918</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1270,46 +1270,46 @@
         <v>14</v>
       </c>
       <c r="B19">
-        <v>0.5011057082775096</v>
+        <v>0.7704593471080061</v>
       </c>
       <c r="C19">
-        <v>0.003742528087772853</v>
+        <v>5.418346547172738E-05</v>
       </c>
       <c r="D19">
-        <v>0.1728495783276821</v>
+        <v>0.1908585745161832</v>
       </c>
       <c r="E19">
-        <v>2.89908551195613</v>
+        <v>4.036807615592234</v>
       </c>
       <c r="F19">
-        <v>0.04715441879617926</v>
+        <v>-0.3050379208647678</v>
       </c>
       <c r="G19">
-        <v>0.7427849013201271</v>
+        <v>0.03253589775572711</v>
       </c>
       <c r="H19">
-        <v>0.1436900251320226</v>
+        <v>0.1426901720940471</v>
       </c>
       <c r="I19">
-        <v>0.328167656403802</v>
+        <v>-2.137764054722124</v>
       </c>
       <c r="J19">
-        <v>0.09487785682721619</v>
+        <v>-0.09085720499822367</v>
       </c>
       <c r="K19">
-        <v>0.4954293447437889</v>
+        <v>0.5243572731647217</v>
       </c>
       <c r="L19">
-        <v>0.1391785328875655</v>
+        <v>0.1427129099597167</v>
       </c>
       <c r="M19">
-        <v>0.6816989291291259</v>
+        <v>-0.6366432092504438</v>
       </c>
       <c r="N19">
-        <v>130.9823069427827</v>
+        <v>142.9993090166954</v>
       </c>
       <c r="O19">
-        <v>138.4671109864142</v>
+        <v>150.484113060327</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1317,46 +1317,46 @@
         <v>14</v>
       </c>
       <c r="B20">
-        <v>0.5022958503634486</v>
+        <v>0.7665027382538869</v>
       </c>
       <c r="C20">
-        <v>0.002709150507102698</v>
+        <v>6.075910051911123E-05</v>
       </c>
       <c r="D20">
-        <v>0.1674907784080235</v>
+        <v>0.191155293050196</v>
       </c>
       <c r="E20">
-        <v>2.998946301030425</v>
+        <v>4.009843128186929</v>
       </c>
       <c r="F20">
-        <v>0.06753471165033351</v>
+        <v>-0.3094307044260253</v>
       </c>
       <c r="G20">
-        <v>0.6347211519065639</v>
+        <v>0.03143104757784149</v>
       </c>
       <c r="H20">
-        <v>0.1421507036491199</v>
+        <v>0.1438160779084735</v>
       </c>
       <c r="I20">
-        <v>0.4750923485896628</v>
+        <v>-2.151572403628968</v>
       </c>
       <c r="J20">
-        <v>0.05356452450832267</v>
+        <v>-0.07778605307174213</v>
       </c>
       <c r="K20">
-        <v>0.7065512832954246</v>
+        <v>0.5839221525622738</v>
       </c>
       <c r="L20">
-        <v>0.1422727382233404</v>
+        <v>0.1420322555234379</v>
       </c>
       <c r="M20">
-        <v>0.3764918365754432</v>
+        <v>-0.5476647032399342</v>
       </c>
       <c r="N20">
-        <v>128.3940847855326</v>
+        <v>143.0554473183674</v>
       </c>
       <c r="O20">
-        <v>135.8788888291642</v>
+        <v>150.540251361999</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1364,46 +1364,46 @@
         <v>14</v>
       </c>
       <c r="B21">
-        <v>0.5015358188571248</v>
+        <v>0.7675013921934425</v>
       </c>
       <c r="C21">
-        <v>0.001770982136813841</v>
+        <v>5.893916628556357E-05</v>
       </c>
       <c r="D21">
-        <v>0.160431317338768</v>
+        <v>0.1910624618225359</v>
       </c>
       <c r="E21">
-        <v>3.126171542916885</v>
+        <v>4.017018229914357</v>
       </c>
       <c r="F21">
-        <v>0.1195772180848063</v>
+        <v>-0.3116790610805322</v>
       </c>
       <c r="G21">
-        <v>0.3887955170801984</v>
+        <v>0.03023076622080884</v>
       </c>
       <c r="H21">
-        <v>0.1387522589637026</v>
+        <v>0.1438261882168376</v>
       </c>
       <c r="I21">
-        <v>0.8618037571272084</v>
+        <v>-2.167053614816195</v>
       </c>
       <c r="J21">
-        <v>0.05959070107686146</v>
+        <v>-0.08297890404612182</v>
       </c>
       <c r="K21">
-        <v>0.6632295049242523</v>
+        <v>0.5644414855977011</v>
       </c>
       <c r="L21">
-        <v>0.1368458134104913</v>
+        <v>0.1439963499645608</v>
       </c>
       <c r="M21">
-        <v>0.4354587078094194</v>
+        <v>-0.5762569958651306</v>
       </c>
       <c r="N21">
-        <v>124.844836246766</v>
+        <v>143.0137247175128</v>
       </c>
       <c r="O21">
-        <v>132.3296402903976</v>
+        <v>150.4985287611443</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1411,46 +1411,46 @@
         <v>14</v>
       </c>
       <c r="B22">
-        <v>0.4632993235452697</v>
+        <v>0.7819039079715406</v>
       </c>
       <c r="C22">
-        <v>0.003223184408476178</v>
+        <v>4.102072739345949E-05</v>
       </c>
       <c r="D22">
-        <v>0.1572846751528744</v>
+        <v>0.1906313646722141</v>
       </c>
       <c r="E22">
-        <v>2.945610073549513</v>
+        <v>4.10165404478956</v>
       </c>
       <c r="F22">
-        <v>0.1831701560625518</v>
+        <v>-0.3105020414652404</v>
       </c>
       <c r="G22">
-        <v>0.1910388146534991</v>
+        <v>0.03049158078603684</v>
       </c>
       <c r="H22">
-        <v>0.1400905905375749</v>
+        <v>0.1435087530694565</v>
       </c>
       <c r="I22">
-        <v>1.307512198782703</v>
+        <v>-2.163645316567981</v>
       </c>
       <c r="J22">
-        <v>0.03265036223584632</v>
+        <v>-0.07593689284909647</v>
       </c>
       <c r="K22">
-        <v>0.8097963937843091</v>
+        <v>0.5967737093245125</v>
       </c>
       <c r="L22">
-        <v>0.1356539029901648</v>
+        <v>0.1435355865006264</v>
       </c>
       <c r="M22">
-        <v>0.240688704977501</v>
+        <v>-0.5290457558325794</v>
       </c>
       <c r="N22">
-        <v>122.0199374073091</v>
+        <v>142.7918141014975</v>
       </c>
       <c r="O22">
-        <v>129.5047414509407</v>
+        <v>150.276618145129</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1458,46 +1458,46 @@
         <v>14</v>
       </c>
       <c r="B23">
-        <v>0.4533983169851622</v>
+        <v>0.7650911257944666</v>
       </c>
       <c r="C23">
-        <v>0.004038315886130899</v>
+        <v>6.266713992437946E-05</v>
       </c>
       <c r="D23">
-        <v>0.1576953630057825</v>
+        <v>0.1911515933667138</v>
       </c>
       <c r="E23">
-        <v>2.875153132870094</v>
+        <v>4.002535957556375</v>
       </c>
       <c r="F23">
-        <v>0.1722896293343067</v>
+        <v>-0.293532340192175</v>
       </c>
       <c r="G23">
-        <v>0.2315926598269356</v>
+        <v>0.040387507667609</v>
       </c>
       <c r="H23">
-        <v>0.1440228074584856</v>
+        <v>0.1432030228809896</v>
       </c>
       <c r="I23">
-        <v>1.196266288476352</v>
+        <v>-2.049763575424789</v>
       </c>
       <c r="J23">
-        <v>0.04706755845099329</v>
+        <v>-0.07304724361297982</v>
       </c>
       <c r="K23">
-        <v>0.7391603381632165</v>
+        <v>0.6091324356847651</v>
       </c>
       <c r="L23">
-        <v>0.1413586716830622</v>
+        <v>0.1428623019712295</v>
       </c>
       <c r="M23">
-        <v>0.3329654834089176</v>
+        <v>-0.5113122398636032</v>
       </c>
       <c r="N23">
-        <v>121.5815832308167</v>
+        <v>142.3133153167701</v>
       </c>
       <c r="O23">
-        <v>129.0663872744482</v>
+        <v>149.7981193604017</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1505,46 +1505,46 @@
         <v>14</v>
       </c>
       <c r="B24">
-        <v>0.4515044354569274</v>
+        <v>0.7741697926837159</v>
       </c>
       <c r="C24">
-        <v>0.004197455699413982</v>
+        <v>8.676755982823336E-05</v>
       </c>
       <c r="D24">
-        <v>0.1577072117086172</v>
+        <v>0.1972459858858079</v>
       </c>
       <c r="E24">
-        <v>2.86292827427027</v>
+        <v>3.924895045174241</v>
       </c>
       <c r="F24">
-        <v>0.1712524530063749</v>
+        <v>-0.2703760767325923</v>
       </c>
       <c r="G24">
-        <v>0.2338646567808869</v>
+        <v>0.06832602449064611</v>
       </c>
       <c r="H24">
-        <v>0.1438537136663981</v>
+        <v>0.1483259678911316</v>
       </c>
       <c r="I24">
-        <v>1.190462509737604</v>
+        <v>-1.822850580897898</v>
       </c>
       <c r="J24">
-        <v>0.01744001151347732</v>
+        <v>-0.05392918587934514</v>
       </c>
       <c r="K24">
-        <v>0.9032578717586026</v>
+        <v>0.7135551486413998</v>
       </c>
       <c r="L24">
-        <v>0.143483807273736</v>
+        <v>0.1469117340196772</v>
       </c>
       <c r="M24">
-        <v>0.1215468967881899</v>
+        <v>-0.367085626204112</v>
       </c>
       <c r="N24">
-        <v>121.7915904056743</v>
+        <v>145.190772259587</v>
       </c>
       <c r="O24">
-        <v>129.2763944493059</v>
+        <v>152.6755763032186</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1552,46 +1552,46 @@
         <v>14</v>
       </c>
       <c r="B25">
-        <v>0.446747707784392</v>
+        <v>0.7715823925068086</v>
       </c>
       <c r="C25">
-        <v>0.004054516742294898</v>
+        <v>9.102732650592675E-05</v>
       </c>
       <c r="D25">
-        <v>0.1554505887332773</v>
+        <v>0.1971671062760352</v>
       </c>
       <c r="E25">
-        <v>2.873888812032249</v>
+        <v>3.913342377843636</v>
       </c>
       <c r="F25">
-        <v>0.166099789114328</v>
+        <v>-0.2588715213831549</v>
       </c>
       <c r="G25">
-        <v>0.2488579056647654</v>
+        <v>0.07270903141331625</v>
       </c>
       <c r="H25">
-        <v>0.1440428195972688</v>
+        <v>0.1442460168559406</v>
       </c>
       <c r="I25">
-        <v>1.153127865580031</v>
+        <v>-1.794652823181187</v>
       </c>
       <c r="J25">
-        <v>0.01374345097137601</v>
+        <v>-0.04338070762338359</v>
       </c>
       <c r="K25">
-        <v>0.9236691335279543</v>
+        <v>0.7685184584719368</v>
       </c>
       <c r="L25">
-        <v>0.1434404350877465</v>
+        <v>0.1473963207759122</v>
       </c>
       <c r="M25">
-        <v>0.09581294816185382</v>
+        <v>-0.2943133681697225</v>
       </c>
       <c r="N25">
-        <v>121.6101224360664</v>
+        <v>145.264425118038</v>
       </c>
       <c r="O25">
-        <v>129.094926479698</v>
+        <v>152.7492291616696</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1599,46 +1599,46 @@
         <v>14</v>
       </c>
       <c r="B26">
-        <v>0.4394241467556857</v>
+        <v>0.7546483082996314</v>
       </c>
       <c r="C26">
-        <v>0.005682348531957886</v>
+        <v>0.0001960386079312496</v>
       </c>
       <c r="D26">
-        <v>0.1588910124453665</v>
+        <v>0.2026408874795245</v>
       </c>
       <c r="E26">
-        <v>2.765569556092913</v>
+        <v>3.724067327606249</v>
       </c>
       <c r="F26">
-        <v>0.1343127220059082</v>
+        <v>-0.2477529277142724</v>
       </c>
       <c r="G26">
-        <v>0.353464751567896</v>
+        <v>0.09171839713010424</v>
       </c>
       <c r="H26">
-        <v>0.1447507304967678</v>
+        <v>0.1469121408787853</v>
       </c>
       <c r="I26">
-        <v>0.9278897698475339</v>
+        <v>-1.686401996678335</v>
       </c>
       <c r="J26">
-        <v>0.05120739182937427</v>
+        <v>0.005737018061302834</v>
       </c>
       <c r="K26">
-        <v>0.7227349915425668</v>
+        <v>0.9688447114422479</v>
       </c>
       <c r="L26">
-        <v>0.1443250764806462</v>
+        <v>0.1468872480980039</v>
       </c>
       <c r="M26">
-        <v>0.3548059220064999</v>
+        <v>0.03905729146396061</v>
       </c>
       <c r="N26">
-        <v>125.1358654124153</v>
+        <v>147.0482429467154</v>
       </c>
       <c r="O26">
-        <v>132.6206694560468</v>
+        <v>154.533046990347</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1646,46 +1646,46 @@
         <v>14</v>
       </c>
       <c r="B27">
-        <v>0.4151923521094243</v>
+        <v>0.745192560619705</v>
       </c>
       <c r="C27">
-        <v>0.008508818657700814</v>
+        <v>0.0003089655121765237</v>
       </c>
       <c r="D27">
-        <v>0.1577968314796635</v>
+        <v>0.2065581588610949</v>
       </c>
       <c r="E27">
-        <v>2.631183073932212</v>
+        <v>3.607664614791749</v>
       </c>
       <c r="F27">
-        <v>0.1466339042897455</v>
+        <v>-0.2124499458908243</v>
       </c>
       <c r="G27">
-        <v>0.3105914201619943</v>
+        <v>0.147858878684409</v>
       </c>
       <c r="H27">
-        <v>0.1446119636911757</v>
+        <v>0.1468071886287864</v>
       </c>
       <c r="I27">
-        <v>1.013981834883923</v>
+        <v>-1.447135851283282</v>
       </c>
       <c r="J27">
-        <v>0.04714056195935076</v>
+        <v>0.01373602066306207</v>
       </c>
       <c r="K27">
-        <v>0.7456207542924485</v>
+        <v>0.9266954836322991</v>
       </c>
       <c r="L27">
-        <v>0.1453075993609349</v>
+        <v>0.1492993518033337</v>
       </c>
       <c r="M27">
-        <v>0.3244191093010667</v>
+        <v>0.09200321700763978</v>
       </c>
       <c r="N27">
-        <v>125.443917709466</v>
+        <v>148.6784381846584</v>
       </c>
       <c r="O27">
-        <v>132.9287217530975</v>
+        <v>156.16324222829</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1693,46 +1693,46 @@
         <v>14</v>
       </c>
       <c r="B28">
-        <v>0.3894012718863752</v>
+        <v>0.7057321204355155</v>
       </c>
       <c r="C28">
-        <v>0.01341809932484734</v>
+        <v>0.001014850544909513</v>
       </c>
       <c r="D28">
-        <v>0.1574945056384066</v>
+        <v>0.2147447181360063</v>
       </c>
       <c r="E28">
-        <v>2.472475279743446</v>
+        <v>3.286377083270321</v>
       </c>
       <c r="F28">
-        <v>0.1164409804180529</v>
+        <v>-0.1414599448405341</v>
       </c>
       <c r="G28">
-        <v>0.4191911641759297</v>
+        <v>0.3478276682494601</v>
       </c>
       <c r="H28">
-        <v>0.1441412912340044</v>
+        <v>0.1506798589387863</v>
       </c>
       <c r="I28">
-        <v>0.8078252901801626</v>
+        <v>-0.9388112375257948</v>
       </c>
       <c r="J28">
-        <v>0.06572249427397883</v>
+        <v>0.0993082021417153</v>
       </c>
       <c r="K28">
-        <v>0.650048545287811</v>
+        <v>0.5138514261101846</v>
       </c>
       <c r="L28">
-        <v>0.144860600882372</v>
+        <v>0.1521143205521785</v>
       </c>
       <c r="M28">
-        <v>0.4536947511859765</v>
+        <v>0.6528524190307936</v>
       </c>
       <c r="N28">
-        <v>127.1968301809137</v>
+        <v>152.8151586509209</v>
       </c>
       <c r="O28">
-        <v>134.6816342245453</v>
+        <v>160.2999626945525</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1740,46 +1740,46 @@
         <v>14</v>
       </c>
       <c r="B29">
-        <v>0.3719007229553573</v>
+        <v>0.6438161963884947</v>
       </c>
       <c r="C29">
-        <v>0.01237985635239018</v>
+        <v>0.001649649131474561</v>
       </c>
       <c r="D29">
-        <v>0.1486932223372653</v>
+        <v>0.2045820797528549</v>
       </c>
       <c r="E29">
-        <v>2.50112760426843</v>
+        <v>3.146982361144515</v>
       </c>
       <c r="F29">
-        <v>0.09165293870977448</v>
+        <v>-0.0991319989808746</v>
       </c>
       <c r="G29">
-        <v>0.5099416207998106</v>
+        <v>0.4700699048705904</v>
       </c>
       <c r="H29">
-        <v>0.139093885180916</v>
+        <v>0.1372325009179162</v>
       </c>
       <c r="I29">
-        <v>0.6589285976918666</v>
+        <v>-0.7223653166546099</v>
       </c>
       <c r="J29">
-        <v>0.05556842768512929</v>
+        <v>0.09663317013354035</v>
       </c>
       <c r="K29">
-        <v>0.6900056669279246</v>
+        <v>0.4971770579819387</v>
       </c>
       <c r="L29">
-        <v>0.139322535741192</v>
+        <v>0.1423298594900306</v>
       </c>
       <c r="M29">
-        <v>0.3988473751895685</v>
+        <v>0.6789381404561069</v>
       </c>
       <c r="N29">
-        <v>123.8496880126517</v>
+        <v>148.3935866479033</v>
       </c>
       <c r="O29">
-        <v>131.3344920562833</v>
+        <v>155.8783906915349</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1787,46 +1787,46 @@
         <v>14</v>
       </c>
       <c r="B30">
-        <v>0.3972713820058391</v>
+        <v>0.6595050258517998</v>
       </c>
       <c r="C30">
-        <v>0.007903915383353491</v>
+        <v>0.001472415951239936</v>
       </c>
       <c r="D30">
-        <v>0.1495667909412516</v>
+        <v>0.2073872238855824</v>
       </c>
       <c r="E30">
-        <v>2.656146992963721</v>
+        <v>3.180065837689478</v>
       </c>
       <c r="F30">
-        <v>0.09040945607541898</v>
+        <v>-0.1021332996315149</v>
       </c>
       <c r="G30">
-        <v>0.5311354017493541</v>
+        <v>0.4839016013234722</v>
       </c>
       <c r="H30">
-        <v>0.144360922448989</v>
+        <v>0.1458961354839991</v>
       </c>
       <c r="I30">
-        <v>0.6262737487519574</v>
+        <v>-0.7000411579970617</v>
       </c>
       <c r="J30">
-        <v>0.009495207723090551</v>
+        <v>0.04407647872184554</v>
       </c>
       <c r="K30">
-        <v>0.9456012014086128</v>
+        <v>0.7505699072041021</v>
       </c>
       <c r="L30">
-        <v>0.1391612582674302</v>
+        <v>0.1386541199138302</v>
       </c>
       <c r="M30">
-        <v>0.0682316892022012</v>
+        <v>0.3178879844986783</v>
       </c>
       <c r="N30">
-        <v>126.6524951564532</v>
+        <v>149.8834030131133</v>
       </c>
       <c r="O30">
-        <v>134.1372992000847</v>
+        <v>157.3682070567449</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -1834,46 +1834,46 @@
         <v>14</v>
       </c>
       <c r="B31">
-        <v>0.3889016238057809</v>
+        <v>0.6618619190300952</v>
       </c>
       <c r="C31">
-        <v>0.005902564489732191</v>
+        <v>0.001225611683450643</v>
       </c>
       <c r="D31">
-        <v>0.1412571963619586</v>
+        <v>0.2047300588381932</v>
       </c>
       <c r="E31">
-        <v>2.75314556583196</v>
+        <v>3.232851701338066</v>
       </c>
       <c r="F31">
-        <v>0.09707538323778948</v>
+        <v>-0.1054382403611872</v>
       </c>
       <c r="G31">
-        <v>0.4808985727849442</v>
+        <v>0.464508940600512</v>
       </c>
       <c r="H31">
-        <v>0.1377233074684246</v>
+        <v>0.1441511077931024</v>
       </c>
       <c r="I31">
-        <v>0.7048580594105006</v>
+        <v>-0.7314424562905261</v>
       </c>
       <c r="J31">
-        <v>-0.06779359268765577</v>
+        <v>0.05251744187154485</v>
       </c>
       <c r="K31">
-        <v>0.62297822010149</v>
+        <v>0.7184045980719684</v>
       </c>
       <c r="L31">
-        <v>0.1378944814030866</v>
+        <v>0.1456423511940133</v>
       </c>
       <c r="M31">
-        <v>-0.4916338347833135</v>
+        <v>0.3605918295124558</v>
       </c>
       <c r="N31">
-        <v>122.228674301993</v>
+        <v>149.8602537721731</v>
       </c>
       <c r="O31">
-        <v>129.7134783456246</v>
+        <v>157.3450578158046</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -1881,46 +1881,46 @@
         <v>14</v>
       </c>
       <c r="B32">
-        <v>0.3792062566052663</v>
+        <v>0.683376660101212</v>
       </c>
       <c r="C32">
-        <v>0.005421451239922672</v>
+        <v>0.0008599052021419966</v>
       </c>
       <c r="D32">
-        <v>0.1363627680549893</v>
+        <v>0.2050485523092521</v>
       </c>
       <c r="E32">
-        <v>2.780863589189893</v>
+        <v>3.332755351866861</v>
       </c>
       <c r="F32">
-        <v>0.02964147805383555</v>
+        <v>-0.1036106557393075</v>
       </c>
       <c r="G32">
-        <v>0.832849444922809</v>
+        <v>0.4746921189845831</v>
       </c>
       <c r="H32">
-        <v>0.1404486715141415</v>
+        <v>0.1449372600160005</v>
       </c>
       <c r="I32">
-        <v>0.2110484758188048</v>
+        <v>-0.7148655613323259</v>
       </c>
       <c r="J32">
-        <v>-0.05996878398467979</v>
+        <v>0.03681183704765552</v>
       </c>
       <c r="K32">
-        <v>0.6553888840541784</v>
+        <v>0.799612837293797</v>
       </c>
       <c r="L32">
-        <v>0.1343722458836051</v>
+        <v>0.1450151608983312</v>
       </c>
       <c r="M32">
-        <v>-0.4462884696935518</v>
+        <v>0.2538481964204003</v>
       </c>
       <c r="N32">
-        <v>119.8361971402753</v>
+        <v>150.3881382719306</v>
       </c>
       <c r="O32">
-        <v>127.3210011839068</v>
+        <v>157.8729423155622</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -1928,46 +1928,46 @@
         <v>14</v>
       </c>
       <c r="B33">
-        <v>0.4082288784498245</v>
+        <v>0.7023444003601962</v>
       </c>
       <c r="C33">
-        <v>0.0005682585051968788</v>
+        <v>0.0005559463153813402</v>
       </c>
       <c r="D33">
-        <v>0.1184532593047027</v>
+        <v>0.2034458038543661</v>
       </c>
       <c r="E33">
-        <v>3.446328795391935</v>
+        <v>3.452243236547458</v>
       </c>
       <c r="F33">
-        <v>-0.07806888401058314</v>
+        <v>-0.1084505587046366</v>
       </c>
       <c r="G33">
-        <v>0.5357232345425398</v>
+        <v>0.4468315536029124</v>
       </c>
       <c r="H33">
-        <v>0.1260612681659815</v>
+        <v>0.1425653109846684</v>
       </c>
       <c r="I33">
-        <v>-0.6192931829607798</v>
+        <v>-0.7607079026138378</v>
       </c>
       <c r="J33">
-        <v>-0.1918758309792275</v>
+        <v>0.03345411304214232</v>
       </c>
       <c r="K33">
-        <v>0.1169962173186521</v>
+        <v>0.8152753808898618</v>
       </c>
       <c r="L33">
-        <v>0.1224082722723663</v>
+        <v>0.1431951938871787</v>
       </c>
       <c r="M33">
-        <v>-1.567507059917417</v>
+        <v>0.2336259488464419</v>
       </c>
       <c r="N33">
-        <v>107.037832418823</v>
+        <v>149.2664965762354</v>
       </c>
       <c r="O33">
-        <v>114.5226364624546</v>
+        <v>156.7513006198669</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -1975,46 +1975,46 @@
         <v>14</v>
       </c>
       <c r="B34">
-        <v>0.3933310829492113</v>
+        <v>0.727810082913941</v>
       </c>
       <c r="C34">
-        <v>0.0008651525223113806</v>
+        <v>0.0003724251819877396</v>
       </c>
       <c r="D34">
-        <v>0.1180797754817882</v>
+        <v>0.2045047873719131</v>
       </c>
       <c r="E34">
-        <v>3.331062252992477</v>
+        <v>3.558890196493753</v>
       </c>
       <c r="F34">
-        <v>-0.03745936462468441</v>
+        <v>-0.1273173950287867</v>
       </c>
       <c r="G34">
-        <v>0.7902457026087935</v>
+        <v>0.3744037106029492</v>
       </c>
       <c r="H34">
-        <v>0.1408291429912725</v>
+        <v>0.1433343179459779</v>
       </c>
       <c r="I34">
-        <v>-0.2659915684284598</v>
+        <v>-0.8882547937805944</v>
       </c>
       <c r="J34">
-        <v>-0.1878817314821149</v>
+        <v>0.02302506561104227</v>
       </c>
       <c r="K34">
-        <v>0.1377961187021314</v>
+        <v>0.8709643940796882</v>
       </c>
       <c r="L34">
-        <v>0.1266008234928817</v>
+        <v>0.1417506117575199</v>
       </c>
       <c r="M34">
-        <v>-1.48404825733759</v>
+        <v>0.1624336242754931</v>
       </c>
       <c r="N34">
-        <v>106.7331705892996</v>
+        <v>148.6514481738702</v>
       </c>
       <c r="O34">
-        <v>114.2179746329311</v>
+        <v>156.1362522175017</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2022,46 +2022,46 @@
         <v>14</v>
       </c>
       <c r="B35">
-        <v>0.380092491776297</v>
+        <v>0.7393364486094323</v>
       </c>
       <c r="C35">
-        <v>0.0009274031444909437</v>
+        <v>0.0003649764677229633</v>
       </c>
       <c r="D35">
-        <v>0.114773603138322</v>
+        <v>0.2074344229331303</v>
       </c>
       <c r="E35">
-        <v>3.311671685676889</v>
+        <v>3.564193628787296</v>
       </c>
       <c r="F35">
-        <v>-0.04578366657062735</v>
+        <v>-0.1333609755858153</v>
       </c>
       <c r="G35">
-        <v>0.7433046029005566</v>
+        <v>0.3552329973447579</v>
       </c>
       <c r="H35">
-        <v>0.1398058435945187</v>
+        <v>0.144254084289212</v>
       </c>
       <c r="I35">
-        <v>-0.3274803498444208</v>
+        <v>-0.9244866531365771</v>
       </c>
       <c r="J35">
-        <v>-0.1173344667836503</v>
+        <v>0.01192586011221393</v>
       </c>
       <c r="K35">
-        <v>0.3995486041037987</v>
+        <v>0.9338112827383899</v>
       </c>
       <c r="L35">
-        <v>0.1392813524863599</v>
+        <v>0.1435974693694763</v>
       </c>
       <c r="M35">
-        <v>-0.8424276810145208</v>
+        <v>0.08305062870940082</v>
       </c>
       <c r="N35">
-        <v>106.0059517500986</v>
+        <v>148.6222843678065</v>
       </c>
       <c r="O35">
-        <v>113.4907557937302</v>
+        <v>156.1070884114381</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2069,46 +2069,46 @@
         <v>14</v>
       </c>
       <c r="B36">
-        <v>0.3260469079587777</v>
+        <v>0.6066088323864807</v>
       </c>
       <c r="C36">
-        <v>0.004172442087584403</v>
+        <v>0.005720152172957039</v>
       </c>
       <c r="D36">
-        <v>0.1138105443591424</v>
+        <v>0.2195148947147769</v>
       </c>
       <c r="E36">
-        <v>2.864821619075108</v>
+        <v>2.763406251656262</v>
       </c>
       <c r="F36">
-        <v>0.006996467234812065</v>
+        <v>-0.08144499988397198</v>
       </c>
       <c r="G36">
-        <v>0.9599541859510967</v>
+        <v>0.5923280017358614</v>
       </c>
       <c r="H36">
-        <v>0.1393411156078678</v>
+        <v>0.1521012997624443</v>
       </c>
       <c r="I36">
-        <v>0.05021107520411595</v>
+        <v>-0.5354655089152748</v>
       </c>
       <c r="J36">
-        <v>-0.0824201388863909</v>
+        <v>0.0665223589430545</v>
       </c>
       <c r="K36">
-        <v>0.544764511888314</v>
+        <v>0.6618797951101598</v>
       </c>
       <c r="L36">
-        <v>0.1360912863334857</v>
+        <v>0.1521139309997998</v>
       </c>
       <c r="M36">
-        <v>-0.6056239242564287</v>
+        <v>0.4373193073495816</v>
       </c>
       <c r="N36">
-        <v>103.3407708122961</v>
+        <v>153.6588105093543</v>
       </c>
       <c r="O36">
-        <v>110.8255748559277</v>
+        <v>161.1436145529859</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2116,46 +2116,46 @@
         <v>14</v>
       </c>
       <c r="B37">
-        <v>0.2931083722171199</v>
+        <v>0.6187250281826153</v>
       </c>
       <c r="C37">
-        <v>0.003872586831304422</v>
+        <v>0.00308830442835938</v>
       </c>
       <c r="D37">
-        <v>0.1014792347237291</v>
+        <v>0.2091128649375975</v>
       </c>
       <c r="E37">
-        <v>2.888358125828296</v>
+        <v>2.958809006644581</v>
       </c>
       <c r="F37">
-        <v>-0.07932639918147003</v>
+        <v>-0.06974691992871419</v>
       </c>
       <c r="G37">
-        <v>0.5404927182979157</v>
+        <v>0.6265176805966133</v>
       </c>
       <c r="H37">
-        <v>0.1296038828748394</v>
+        <v>0.1433251910929908</v>
       </c>
       <c r="I37">
-        <v>-0.6120680755998402</v>
+        <v>-0.4866340620014362</v>
       </c>
       <c r="J37">
-        <v>-0.008987948069407906</v>
+        <v>0.05802873417186215</v>
       </c>
       <c r="K37">
-        <v>0.9429204441134529</v>
+        <v>0.6998326872160279</v>
       </c>
       <c r="L37">
-        <v>0.1255304504562159</v>
+        <v>0.1505104043296395</v>
       </c>
       <c r="M37">
-        <v>-0.07159974362190979</v>
+        <v>0.3855463310348357</v>
       </c>
       <c r="N37">
-        <v>92.84092131591275</v>
+        <v>153.1739671971245</v>
       </c>
       <c r="O37">
-        <v>100.3257253595443</v>
+        <v>160.6587712407561</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2163,46 +2163,46 @@
         <v>14</v>
       </c>
       <c r="B38">
-        <v>0.2530211503112246</v>
+        <v>0.6408656424108929</v>
       </c>
       <c r="C38">
-        <v>0.007934001362461758</v>
+        <v>0.001616616850794253</v>
       </c>
       <c r="D38">
-        <v>0.09530469293856839</v>
+        <v>0.2032628050001269</v>
       </c>
       <c r="E38">
-        <v>2.654865594859188</v>
+        <v>3.152891855499548</v>
       </c>
       <c r="F38">
-        <v>0.08895183374453272</v>
+        <v>-0.07656549377291103</v>
       </c>
       <c r="G38">
-        <v>0.5082009429199602</v>
+        <v>0.5948019774813159</v>
       </c>
       <c r="H38">
-        <v>0.1344411148012589</v>
+        <v>0.1439497845780738</v>
       </c>
       <c r="I38">
-        <v>0.6616415958468369</v>
+        <v>-0.5318902976988086</v>
       </c>
       <c r="J38">
-        <v>0.07265281491354139</v>
+        <v>0.05169908213794357</v>
       </c>
       <c r="K38">
-        <v>0.5472451287084167</v>
+        <v>0.717762746987392</v>
       </c>
       <c r="L38">
-        <v>0.1207071227485991</v>
+        <v>0.1430322842640051</v>
       </c>
       <c r="M38">
-        <v>0.6018933535915518</v>
+        <v>0.3614504403951125</v>
       </c>
       <c r="N38">
-        <v>86.54025948621224</v>
+        <v>153.0641191960817</v>
       </c>
       <c r="O38">
-        <v>94.02506352984381</v>
+        <v>160.5489232397132</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2210,46 +2210,46 @@
         <v>14</v>
       </c>
       <c r="B39">
-        <v>0.2639604355650362</v>
+        <v>0.6500946914679746</v>
       </c>
       <c r="C39">
-        <v>0.004327084054854705</v>
+        <v>0.001591520253167326</v>
       </c>
       <c r="D39">
-        <v>0.09251131415204598</v>
+        <v>0.2058918970105656</v>
       </c>
       <c r="E39">
-        <v>2.853277331367349</v>
+        <v>3.157456417212059</v>
       </c>
       <c r="F39">
-        <v>-0.001503653894545188</v>
+        <v>-0.0831249642810335</v>
       </c>
       <c r="G39">
-        <v>0.9914070790345626</v>
+        <v>0.5646001741145213</v>
       </c>
       <c r="H39">
-        <v>0.1396171382910258</v>
+        <v>0.1443086114141806</v>
       </c>
       <c r="I39">
-        <v>-0.01076983752102759</v>
+        <v>-0.576022203154989</v>
       </c>
       <c r="J39">
-        <v>0.1722523978031073</v>
+        <v>0.04018041242703344</v>
       </c>
       <c r="K39">
-        <v>0.1867730538642568</v>
+        <v>0.7804876113991883</v>
       </c>
       <c r="L39">
-        <v>0.1304758936716758</v>
+        <v>0.1441792961225931</v>
       </c>
       <c r="M39">
-        <v>1.320185614030407</v>
+        <v>0.2786836495086558</v>
       </c>
       <c r="N39">
-        <v>83.65464892343365</v>
+        <v>153.1753274347352</v>
       </c>
       <c r="O39">
-        <v>91.13945296706522</v>
+        <v>160.6601314783668</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2257,46 +2257,46 @@
         <v>14</v>
       </c>
       <c r="B40">
-        <v>0.2434766685034349</v>
+        <v>0.6728873939910827</v>
       </c>
       <c r="C40">
-        <v>0.01339027036885766</v>
+        <v>0.001146397776470889</v>
       </c>
       <c r="D40">
-        <v>0.09844532069540884</v>
+        <v>0.2069218470473314</v>
       </c>
       <c r="E40">
-        <v>2.47321728227952</v>
+        <v>3.251891492333171</v>
       </c>
       <c r="F40">
-        <v>0.01406462672941721</v>
+        <v>-0.09328399412093763</v>
       </c>
       <c r="G40">
-        <v>0.9218501628759643</v>
+        <v>0.5182854134769508</v>
       </c>
       <c r="H40">
-        <v>0.1433652884585735</v>
+        <v>0.1444045587083116</v>
       </c>
       <c r="I40">
-        <v>0.09810343131616057</v>
+        <v>-0.6459906456926029</v>
       </c>
       <c r="J40">
-        <v>0.1748552261719328</v>
+        <v>0.03858939929227637</v>
       </c>
       <c r="K40">
-        <v>0.2144274773011633</v>
+        <v>0.7895151271340175</v>
       </c>
       <c r="L40">
-        <v>0.1408438661047029</v>
+        <v>0.1445619087188016</v>
       </c>
       <c r="M40">
-        <v>1.24148272131316</v>
+        <v>0.266940300071297</v>
       </c>
       <c r="N40">
-        <v>84.88170267113725</v>
+        <v>153.2974754015216</v>
       </c>
       <c r="O40">
-        <v>92.36650671476882</v>
+        <v>160.7822794451532</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2304,46 +2304,46 @@
         <v>14</v>
       </c>
       <c r="B41">
-        <v>0.3768287136013244</v>
+        <v>0.7298695767329756</v>
       </c>
       <c r="C41">
-        <v>0.0001752233703541348</v>
+        <v>0.0003953353338251409</v>
       </c>
       <c r="D41">
-        <v>0.100426206403678</v>
+        <v>0.2059929016410445</v>
       </c>
       <c r="E41">
-        <v>3.752294616074669</v>
+        <v>3.543178288758798</v>
       </c>
       <c r="F41">
-        <v>0.01376442326713444</v>
+        <v>-0.09443245247177537</v>
       </c>
       <c r="G41">
-        <v>0.9191192362687559</v>
+        <v>0.5080313675646908</v>
       </c>
       <c r="H41">
-        <v>0.1355523380186976</v>
+        <v>0.1426674338969967</v>
       </c>
       <c r="I41">
-        <v>0.1015432376034401</v>
+        <v>-0.6619061539997553</v>
       </c>
       <c r="J41">
-        <v>0.02377684280666749</v>
+        <v>0.01313018249217379</v>
       </c>
       <c r="K41">
-        <v>0.8612890273367593</v>
+        <v>0.9268276742084098</v>
       </c>
       <c r="L41">
-        <v>0.1360748797793114</v>
+        <v>0.1429729354184991</v>
       </c>
       <c r="M41">
-        <v>0.1747335205824116</v>
+        <v>0.09183683928528258</v>
       </c>
       <c r="N41">
-        <v>84.41654384639294</v>
+        <v>152.2513847569343</v>
       </c>
       <c r="O41">
-        <v>91.90134789002451</v>
+        <v>159.7361888005658</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2351,46 +2351,46 @@
         <v>14</v>
       </c>
       <c r="B42">
-        <v>0.3624785058054921</v>
+        <v>0.8008989436018312</v>
       </c>
       <c r="C42">
-        <v>0.0005763960422714138</v>
+        <v>8.818592007278959E-05</v>
       </c>
       <c r="D42">
-        <v>0.1052955978922192</v>
+        <v>0.2042593686934988</v>
       </c>
       <c r="E42">
-        <v>3.442484900237955</v>
+        <v>3.920990007580114</v>
       </c>
       <c r="F42">
-        <v>0.009086025995362512</v>
+        <v>-0.1355128310186008</v>
       </c>
       <c r="G42">
-        <v>0.9499881471889903</v>
+        <v>0.3336643536917604</v>
       </c>
       <c r="H42">
-        <v>0.1448626461090392</v>
+        <v>0.140172248723936</v>
       </c>
       <c r="I42">
-        <v>0.06272166248104701</v>
+        <v>-0.9667593425392514</v>
       </c>
       <c r="J42">
-        <v>0.03146906057486817</v>
+        <v>0.002322226325974966</v>
       </c>
       <c r="K42">
-        <v>0.8153279133281044</v>
+        <v>0.9866290687115699</v>
       </c>
       <c r="L42">
-        <v>0.134737503081258</v>
+        <v>0.1385678951078897</v>
       </c>
       <c r="M42">
-        <v>0.2335582881915935</v>
+        <v>0.0167587616465334</v>
       </c>
       <c r="N42">
-        <v>85.62337616589537</v>
+        <v>149.4486731428362</v>
       </c>
       <c r="O42">
-        <v>93.10818020952694</v>
+        <v>156.9334771864678</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2398,46 +2398,46 @@
         <v>14</v>
       </c>
       <c r="B43">
-        <v>0.3342928952823093</v>
+        <v>0.845534555276712</v>
       </c>
       <c r="C43">
-        <v>0.001988038636470755</v>
+        <v>6.856668744826163E-05</v>
       </c>
       <c r="D43">
-        <v>0.108114956259904</v>
+        <v>0.2123815494046033</v>
       </c>
       <c r="E43">
-        <v>3.092013416521972</v>
+        <v>3.981205324318936</v>
       </c>
       <c r="F43">
-        <v>0.02403211465513586</v>
+        <v>-0.1602965053811418</v>
       </c>
       <c r="G43">
-        <v>0.866819422729924</v>
+        <v>0.2642040533401662</v>
       </c>
       <c r="H43">
-        <v>0.1433043393216069</v>
+        <v>0.1435693003068693</v>
       </c>
       <c r="I43">
-        <v>0.1676998391598069</v>
+        <v>-1.116509623147283</v>
       </c>
       <c r="J43">
-        <v>0.08269983535069922</v>
+        <v>-0.01849843828381749</v>
       </c>
       <c r="K43">
-        <v>0.5636971842613852</v>
+        <v>0.894979648914767</v>
       </c>
       <c r="L43">
-        <v>0.1432382310979328</v>
+        <v>0.1401334524377313</v>
       </c>
       <c r="M43">
-        <v>0.5773586752419251</v>
+        <v>-0.1320058698477962</v>
       </c>
       <c r="N43">
-        <v>84.27070052030653</v>
+        <v>148.9366091084953</v>
       </c>
       <c r="O43">
-        <v>91.7555045639381</v>
+        <v>156.4214131521268</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2445,46 +2445,46 @@
         <v>14</v>
       </c>
       <c r="B44">
-        <v>0.3340851239102414</v>
+        <v>0.8280557681368071</v>
       </c>
       <c r="C44">
-        <v>0.0020753932111602</v>
+        <v>0.0001523185076353015</v>
       </c>
       <c r="D44">
-        <v>0.1084964683024082</v>
+        <v>0.2186425170668332</v>
       </c>
       <c r="E44">
-        <v>3.079225795433804</v>
+        <v>3.78725866883289</v>
       </c>
       <c r="F44">
-        <v>0.02692589861430188</v>
+        <v>-0.1578090970326701</v>
       </c>
       <c r="G44">
-        <v>0.8519726875823905</v>
+        <v>0.2753085657977198</v>
       </c>
       <c r="H44">
-        <v>0.144295862861131</v>
+        <v>0.1446570370005857</v>
       </c>
       <c r="I44">
-        <v>0.1866020139483495</v>
+        <v>-1.090918909337478</v>
       </c>
       <c r="J44">
-        <v>0.07809113811153597</v>
+        <v>-0.01442552187367235</v>
       </c>
       <c r="K44">
-        <v>0.5870174675155141</v>
+        <v>0.9203844180784855</v>
       </c>
       <c r="L44">
-        <v>0.1437710499232197</v>
+        <v>0.1443281050188301</v>
       </c>
       <c r="M44">
-        <v>0.5431631622168732</v>
+        <v>-0.09994949959185208</v>
       </c>
       <c r="N44">
-        <v>84.51707024795022</v>
+        <v>149.1662783928611</v>
       </c>
       <c r="O44">
-        <v>92.00187429158179</v>
+        <v>156.6510824364926</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2492,46 +2492,46 @@
         <v>14</v>
       </c>
       <c r="B45">
-        <v>0.3232784079778101</v>
+        <v>0.8266785320106345</v>
       </c>
       <c r="C45">
-        <v>0.002205942162868025</v>
+        <v>0.0001478009708943311</v>
       </c>
       <c r="D45">
-        <v>0.1056117963792571</v>
+        <v>0.2178487920737958</v>
       </c>
       <c r="E45">
-        <v>3.061006621049239</v>
+        <v>3.794735440766634</v>
       </c>
       <c r="F45">
-        <v>0.0462687555788872</v>
+        <v>-0.1614875928409391</v>
       </c>
       <c r="G45">
-        <v>0.7416928062147174</v>
+        <v>0.2628526106204411</v>
       </c>
       <c r="H45">
-        <v>0.1403731992112953</v>
+        <v>0.1442273016207797</v>
       </c>
       <c r="I45">
-        <v>0.3296124604899944</v>
+        <v>-1.119674229679082</v>
       </c>
       <c r="J45">
-        <v>0.04716450234194525</v>
+        <v>-0.01190008497104612</v>
       </c>
       <c r="K45">
-        <v>0.7375869134823697</v>
+        <v>0.9343641904121228</v>
       </c>
       <c r="L45">
-        <v>0.1407682951646189</v>
+        <v>0.1444969144566538</v>
       </c>
       <c r="M45">
-        <v>0.3350506041633138</v>
+        <v>-0.08235528776371147</v>
       </c>
       <c r="N45">
-        <v>82.10565608060026</v>
+        <v>149.1029006987745</v>
       </c>
       <c r="O45">
-        <v>89.59046012423183</v>
+        <v>156.587704742406</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2539,46 +2539,46 @@
         <v>14</v>
       </c>
       <c r="B46">
-        <v>0.3219204927523893</v>
+        <v>0.8220726475677422</v>
       </c>
       <c r="C46">
-        <v>0.002367118337891157</v>
+        <v>0.000142972943062871</v>
       </c>
       <c r="D46">
-        <v>0.1059008260630551</v>
+        <v>0.2161660813572345</v>
       </c>
       <c r="E46">
-        <v>3.039829855158188</v>
+        <v>3.802967803303011</v>
       </c>
       <c r="F46">
-        <v>0.04368431348562872</v>
+        <v>-0.1584805155215425</v>
       </c>
       <c r="G46">
-        <v>0.7637403192943477</v>
+        <v>0.270614017379616</v>
       </c>
       <c r="H46">
-        <v>0.1453369096244077</v>
+        <v>0.1438574564511678</v>
       </c>
       <c r="I46">
-        <v>0.3005727423166044</v>
+        <v>-1.101649642855589</v>
       </c>
       <c r="J46">
-        <v>0.07841317681632951</v>
+        <v>-0.001893733184550724</v>
       </c>
       <c r="K46">
-        <v>0.580468956135884</v>
+        <v>0.9894971735623852</v>
       </c>
       <c r="L46">
-        <v>0.1418729837284783</v>
+        <v>0.1438600211411447</v>
       </c>
       <c r="M46">
-        <v>0.5526998499333707</v>
+        <v>-0.01316372102220626</v>
       </c>
       <c r="N46">
-        <v>84.60349893988811</v>
+        <v>148.7898250160968</v>
       </c>
       <c r="O46">
-        <v>92.08830298351968</v>
+        <v>156.2746290597283</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -2586,46 +2586,46 @@
         <v>14</v>
       </c>
       <c r="B47">
-        <v>0.323746993852595</v>
+        <v>0.7808102856911785</v>
       </c>
       <c r="C47">
-        <v>0.00239730770053788</v>
+        <v>0.0003638916955644933</v>
       </c>
       <c r="D47">
-        <v>0.1066356525759772</v>
+        <v>0.2190226903852004</v>
       </c>
       <c r="E47">
-        <v>3.03601080906714</v>
+        <v>3.564974406614899</v>
       </c>
       <c r="F47">
-        <v>0.06298220519482819</v>
+        <v>-0.1364305159432343</v>
       </c>
       <c r="G47">
-        <v>0.6603726238916465</v>
+        <v>0.3495387705301237</v>
       </c>
       <c r="H47">
-        <v>0.1433372388320654</v>
+        <v>0.1458394501223281</v>
       </c>
       <c r="I47">
-        <v>0.4393987613269045</v>
+        <v>-0.9354843002273958</v>
       </c>
       <c r="J47">
-        <v>0.05998004011020665</v>
+        <v>-0.01179976210652846</v>
       </c>
       <c r="K47">
-        <v>0.6810180871878636</v>
+        <v>0.9351950883013378</v>
       </c>
       <c r="L47">
-        <v>0.1459104757581548</v>
+        <v>0.1451199275369776</v>
       </c>
       <c r="M47">
-        <v>0.4110742549398783</v>
+        <v>-0.08131041895346726</v>
       </c>
       <c r="N47">
-        <v>85.2302999814943</v>
+        <v>149.6246390820631</v>
       </c>
       <c r="O47">
-        <v>92.71510402512587</v>
+        <v>157.1094431256947</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2633,46 +2633,46 @@
         <v>14</v>
       </c>
       <c r="B48">
-        <v>0.3157981188223178</v>
+        <v>0.707113060464248</v>
       </c>
       <c r="C48">
-        <v>0.003361684010588153</v>
+        <v>0.001037955821577716</v>
       </c>
       <c r="D48">
-        <v>0.107686447814641</v>
+        <v>0.2155811949928536</v>
       </c>
       <c r="E48">
-        <v>2.932570673757353</v>
+        <v>3.280031268440128</v>
       </c>
       <c r="F48">
-        <v>0.07563431719011117</v>
+        <v>-0.1289316261755481</v>
       </c>
       <c r="G48">
-        <v>0.5999426905872137</v>
+        <v>0.3748563425402556</v>
       </c>
       <c r="H48">
-        <v>0.1442073956945893</v>
+        <v>0.1452892398311654</v>
       </c>
       <c r="I48">
-        <v>0.5244829283949756</v>
+        <v>-0.8874134541923008</v>
       </c>
       <c r="J48">
-        <v>0.08713381462977739</v>
+        <v>0.03128610479543494</v>
       </c>
       <c r="K48">
-        <v>0.5453446960694848</v>
+        <v>0.8298813539145141</v>
       </c>
       <c r="L48">
-        <v>0.144082220140402</v>
+        <v>0.1456158269599732</v>
       </c>
       <c r="M48">
-        <v>0.6047506385234013</v>
+        <v>0.2148537384197588</v>
       </c>
       <c r="N48">
-        <v>86.19968796680176</v>
+        <v>149.4946988403225</v>
       </c>
       <c r="O48">
-        <v>93.68449201043333</v>
+        <v>156.979502883954</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -2680,46 +2680,46 @@
         <v>14</v>
       </c>
       <c r="B49">
-        <v>0.3140622373519842</v>
+        <v>0.7434178244556414</v>
       </c>
       <c r="C49">
-        <v>0.003586717261941778</v>
+        <v>0.0002108343369784955</v>
       </c>
       <c r="D49">
-        <v>0.1078365110696358</v>
+        <v>0.2006164144983767</v>
       </c>
       <c r="E49">
-        <v>2.912392419198147</v>
+        <v>3.705667984917838</v>
       </c>
       <c r="F49">
-        <v>0.09409773656592169</v>
+        <v>-0.1122357480748423</v>
       </c>
       <c r="G49">
-        <v>0.5106501255831212</v>
+        <v>0.4170703435170544</v>
       </c>
       <c r="H49">
-        <v>0.1430435657249083</v>
+        <v>0.1383040795189461</v>
       </c>
       <c r="I49">
-        <v>0.6578257196614077</v>
+        <v>-0.8115143708358019</v>
       </c>
       <c r="J49">
-        <v>0.1055855541688528</v>
+        <v>0.0507280700015962</v>
       </c>
       <c r="K49">
-        <v>0.463638871615209</v>
+        <v>0.7159694717262663</v>
       </c>
       <c r="L49">
-        <v>0.144071698493285</v>
+        <v>0.1394200000647877</v>
       </c>
       <c r="M49">
-        <v>0.7328681154805294</v>
+        <v>0.3638507386172941</v>
       </c>
       <c r="N49">
-        <v>86.43886032391286</v>
+        <v>145.0492370571056</v>
       </c>
       <c r="O49">
-        <v>93.92366436754443</v>
+        <v>152.5340411007372</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -2727,46 +2727,46 @@
         <v>14</v>
       </c>
       <c r="B50">
-        <v>0.2810027429982421</v>
+        <v>0.6662575296551996</v>
       </c>
       <c r="C50">
-        <v>0.00741832821372435</v>
+        <v>0.0007391805215920999</v>
       </c>
       <c r="D50">
-        <v>0.1049513398185754</v>
+        <v>0.1974319485757166</v>
       </c>
       <c r="E50">
-        <v>2.677457414874348</v>
+        <v>3.374618619031078</v>
       </c>
       <c r="F50">
-        <v>0.1132978163670363</v>
+        <v>-0.03066860765773786</v>
       </c>
       <c r="G50">
-        <v>0.4231176508110562</v>
+        <v>0.8254956251661638</v>
       </c>
       <c r="H50">
-        <v>0.1414411948517658</v>
+        <v>0.1390978779330181</v>
       </c>
       <c r="I50">
-        <v>0.801024174645693</v>
+        <v>-0.2204822108968921</v>
       </c>
       <c r="J50">
-        <v>0.1188800603568959</v>
+        <v>0.03393872130272645</v>
       </c>
       <c r="K50">
-        <v>0.4002327303593505</v>
+        <v>0.7990934585371856</v>
       </c>
       <c r="L50">
-        <v>0.1413210419752344</v>
+        <v>0.1333437563732651</v>
       </c>
       <c r="M50">
-        <v>0.8412056597893528</v>
+        <v>0.2545205131894052</v>
       </c>
       <c r="N50">
-        <v>83.92577526190605</v>
+        <v>141.9963176715672</v>
       </c>
       <c r="O50">
-        <v>91.41057930553762</v>
+        <v>149.4811217151987</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -2774,46 +2774,46 @@
         <v>14</v>
       </c>
       <c r="B51">
-        <v>0.2905192371184852</v>
+        <v>0.6669346092278441</v>
       </c>
       <c r="C51">
-        <v>0.00550514474671315</v>
+        <v>0.0006980534955092005</v>
       </c>
       <c r="D51">
-        <v>0.1046581883859568</v>
+        <v>0.1967159975547174</v>
       </c>
       <c r="E51">
-        <v>2.775886355371572</v>
+        <v>3.390342511631944</v>
       </c>
       <c r="F51">
-        <v>0.1229380628970874</v>
+        <v>-0.0513845996032099</v>
       </c>
       <c r="G51">
-        <v>0.3910725906471387</v>
+        <v>0.7225326695485611</v>
       </c>
       <c r="H51">
-        <v>0.1433389449150857</v>
+        <v>0.1447143773122712</v>
       </c>
       <c r="I51">
-        <v>0.8576738371411636</v>
+        <v>-0.3550759817894935</v>
       </c>
       <c r="J51">
-        <v>0.1166151692444002</v>
+        <v>0.007068554642407437</v>
       </c>
       <c r="K51">
-        <v>0.4104035237007647</v>
+        <v>0.9592745014774146</v>
       </c>
       <c r="L51">
-        <v>0.1416635995062623</v>
+        <v>0.1384253291943339</v>
       </c>
       <c r="M51">
-        <v>0.8231837229241455</v>
+        <v>0.05106402624106434</v>
       </c>
       <c r="N51">
-        <v>83.9617373726096</v>
+        <v>141.6239758177929</v>
       </c>
       <c r="O51">
-        <v>91.44654141624117</v>
+        <v>149.1087798614244</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -2821,46 +2821,46 @@
         <v>14</v>
       </c>
       <c r="B52">
-        <v>0.2959357644256006</v>
+        <v>0.6446141175895677</v>
       </c>
       <c r="C52">
-        <v>0.004148077057686508</v>
+        <v>0.0007855193924580261</v>
       </c>
       <c r="D52">
-        <v>0.1032330773747282</v>
+        <v>0.1919724224209542</v>
       </c>
       <c r="E52">
-        <v>2.866675797635831</v>
+        <v>3.357847494240957</v>
       </c>
       <c r="F52">
-        <v>0.1049756429758978</v>
+        <v>-0.0406888269599496</v>
       </c>
       <c r="G52">
-        <v>0.4577816926175287</v>
+        <v>0.7744173347427263</v>
       </c>
       <c r="H52">
-        <v>0.14138046988303</v>
+        <v>0.1419699571352037</v>
       </c>
       <c r="I52">
-        <v>0.7425045557052437</v>
+        <v>-0.2866016710929904</v>
       </c>
       <c r="J52">
-        <v>0.1463397349742969</v>
+        <v>0.06087291428180062</v>
       </c>
       <c r="K52">
-        <v>0.3010612866893817</v>
+        <v>0.6690701636925321</v>
       </c>
       <c r="L52">
-        <v>0.1415058691345712</v>
+        <v>0.1424179332149302</v>
       </c>
       <c r="M52">
-        <v>1.03416017914514</v>
+        <v>0.4274245027129707</v>
       </c>
       <c r="N52">
-        <v>82.86992682083354</v>
+        <v>140.0388097347407</v>
       </c>
       <c r="O52">
-        <v>90.35473086446511</v>
+        <v>147.5236137783723</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -2868,46 +2868,46 @@
         <v>14</v>
       </c>
       <c r="B53">
-        <v>0.3548210807849718</v>
+        <v>0.6275174492065232</v>
       </c>
       <c r="C53">
-        <v>0.0007850001513301794</v>
+        <v>0.001084600168713327</v>
       </c>
       <c r="D53">
-        <v>0.1056634550158886</v>
+        <v>0.1920417685404205</v>
       </c>
       <c r="E53">
-        <v>3.358030273869215</v>
+        <v>3.267609197602472</v>
       </c>
       <c r="F53">
-        <v>0.05340647811430706</v>
+        <v>-0.03986847208845762</v>
       </c>
       <c r="G53">
-        <v>0.7099913779539857</v>
+        <v>0.7818666775107123</v>
       </c>
       <c r="H53">
-        <v>0.1436168899660638</v>
+        <v>0.1439881072727775</v>
       </c>
       <c r="I53">
-        <v>0.3718676690946783</v>
+        <v>-0.2768872571741567</v>
       </c>
       <c r="J53">
-        <v>0.1580331068619967</v>
+        <v>0.07528155427265362</v>
       </c>
       <c r="K53">
-        <v>0.2658298373646807</v>
+        <v>0.596049668376434</v>
       </c>
       <c r="L53">
-        <v>0.1420244821873208</v>
+        <v>0.1420166050860007</v>
       </c>
       <c r="M53">
-        <v>1.112717359909551</v>
+        <v>0.530089803421688</v>
       </c>
       <c r="N53">
-        <v>83.44714501037832</v>
+        <v>140.5718928727847</v>
       </c>
       <c r="O53">
-        <v>90.93194905400989</v>
+        <v>148.0566969164163</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -2915,46 +2915,46 @@
         <v>14</v>
       </c>
       <c r="B54">
-        <v>0.2873495152144097</v>
+        <v>0.6066370950875095</v>
       </c>
       <c r="C54">
-        <v>0.00878849540382118</v>
+        <v>0.001599433639816557</v>
       </c>
       <c r="D54">
-        <v>0.1096681109163615</v>
+        <v>0.1922164665486978</v>
       </c>
       <c r="E54">
-        <v>2.620173839171508</v>
+        <v>3.156010023385893</v>
       </c>
       <c r="F54">
-        <v>0.06754850134152615</v>
+        <v>-0.04614370626165165</v>
       </c>
       <c r="G54">
-        <v>0.6248661199572956</v>
+        <v>0.7469523678961359</v>
       </c>
       <c r="H54">
-        <v>0.1381457402002617</v>
+        <v>0.1430100861625549</v>
       </c>
       <c r="I54">
-        <v>0.4889655029797161</v>
+        <v>-0.3226605024851296</v>
       </c>
       <c r="J54">
-        <v>0.1940561431758522</v>
+        <v>0.09287896661072724</v>
       </c>
       <c r="K54">
-        <v>0.1492063481309071</v>
+        <v>0.5161504663364249</v>
       </c>
       <c r="L54">
-        <v>0.1345425348344095</v>
+        <v>0.143046804905035</v>
       </c>
       <c r="M54">
-        <v>1.442340471841787</v>
+        <v>0.6492907455876915</v>
       </c>
       <c r="N54">
-        <v>82.3589101429653</v>
+        <v>139.7990162325381</v>
       </c>
       <c r="O54">
-        <v>89.84371418659687</v>
+        <v>147.2838202761697</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -2962,46 +2962,46 @@
         <v>14</v>
       </c>
       <c r="B55">
-        <v>0.269400603288053</v>
+        <v>0.5852448817787568</v>
       </c>
       <c r="C55">
-        <v>0.01817993913180582</v>
+        <v>0.002142682637703265</v>
       </c>
       <c r="D55">
-        <v>0.1140593870919393</v>
+        <v>0.1906516557517289</v>
       </c>
       <c r="E55">
-        <v>2.361932762893935</v>
+        <v>3.069707836898497</v>
       </c>
       <c r="F55">
-        <v>0.1070161030133297</v>
+        <v>-0.03602814748288605</v>
       </c>
       <c r="G55">
-        <v>0.4645250630715185</v>
+        <v>0.8020790151983281</v>
       </c>
       <c r="H55">
-        <v>0.1463135825598437</v>
+        <v>0.1437346372213259</v>
       </c>
       <c r="I55">
-        <v>0.7314160527069251</v>
+        <v>-0.2506573793163654</v>
       </c>
       <c r="J55">
-        <v>0.1459379829144549</v>
+        <v>0.1052669071142093</v>
       </c>
       <c r="K55">
-        <v>0.3069611660272709</v>
+        <v>0.4617365809944728</v>
       </c>
       <c r="L55">
-        <v>0.142849686743596</v>
+        <v>0.1430275676477299</v>
       </c>
       <c r="M55">
-        <v>1.021619201562564</v>
+        <v>0.7359903328110613</v>
       </c>
       <c r="N55">
-        <v>86.06519334996251</v>
+        <v>138.8493691881008</v>
       </c>
       <c r="O55">
-        <v>93.54999739359408</v>
+        <v>146.3341732317324</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3009,46 +3009,46 @@
         <v>14</v>
       </c>
       <c r="B56">
-        <v>0.1313073217930865</v>
+        <v>0.6085322281436516</v>
       </c>
       <c r="C56">
-        <v>0.2959331609738857</v>
+        <v>0.00108205860970858</v>
       </c>
       <c r="D56">
-        <v>0.1256295765724633</v>
+        <v>0.186193806497339</v>
       </c>
       <c r="E56">
-        <v>1.045194335406745</v>
+        <v>3.268273201946427</v>
       </c>
       <c r="F56">
-        <v>0.2215313540793546</v>
+        <v>-0.04106498082446347</v>
       </c>
       <c r="G56">
-        <v>0.174524428202102</v>
+        <v>0.7706012107493738</v>
       </c>
       <c r="H56">
-        <v>0.1631535958353473</v>
+        <v>0.1408319260233055</v>
       </c>
       <c r="I56">
-        <v>1.357808591009674</v>
+        <v>-0.2915885764259722</v>
       </c>
       <c r="J56">
-        <v>0.2709292661586103</v>
+        <v>0.1260159418888459</v>
       </c>
       <c r="K56">
-        <v>0.1066454025949058</v>
+        <v>0.3714853001875148</v>
       </c>
       <c r="L56">
-        <v>0.1679185611607472</v>
+        <v>0.1410055939472755</v>
       </c>
       <c r="M56">
-        <v>1.61345633434324</v>
+        <v>0.8936946284270503</v>
       </c>
       <c r="N56">
-        <v>100.4612842704981</v>
+        <v>137.1676804634924</v>
       </c>
       <c r="O56">
-        <v>107.9460883141297</v>
+        <v>144.6524845071239</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3056,46 +3056,46 @@
         <v>14</v>
       </c>
       <c r="B57">
-        <v>-0.08546400015792109</v>
+        <v>0.5801452642162591</v>
       </c>
       <c r="C57">
-        <v>0.5209782404456228</v>
+        <v>0.002207531649884111</v>
       </c>
       <c r="D57">
-        <v>0.1331550528816381</v>
+        <v>0.1895409629908329</v>
       </c>
       <c r="E57">
-        <v>-0.6418382052229761</v>
+        <v>3.0607909502091</v>
       </c>
       <c r="F57">
-        <v>0.5954234564897963</v>
+        <v>-0.04155707600330502</v>
       </c>
       <c r="G57">
-        <v>0.0002286220686143741</v>
+        <v>0.771455501935749</v>
       </c>
       <c r="H57">
-        <v>0.161576378823306</v>
+        <v>0.1430676221934905</v>
       </c>
       <c r="I57">
-        <v>3.685089744095142</v>
+        <v>-0.290471564188727</v>
       </c>
       <c r="J57">
-        <v>0.386834735082626</v>
+        <v>0.1352535641706808</v>
       </c>
       <c r="K57">
-        <v>0.04551241549156998</v>
+        <v>0.3400518560826156</v>
       </c>
       <c r="L57">
-        <v>0.1934282499050019</v>
+        <v>0.1417658926968105</v>
       </c>
       <c r="M57">
-        <v>1.999887479065811</v>
+        <v>0.9540627974596304</v>
       </c>
       <c r="N57">
-        <v>115.0695484075056</v>
+        <v>138.6711231390464</v>
       </c>
       <c r="O57">
-        <v>122.5543524511372</v>
+        <v>146.155927182678</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3103,46 +3103,46 @@
         <v>14</v>
       </c>
       <c r="B58">
-        <v>0.1061468185485747</v>
+        <v>0.5708750010218681</v>
       </c>
       <c r="C58">
-        <v>0.4008898388807653</v>
+        <v>0.002795545239360861</v>
       </c>
       <c r="D58">
-        <v>0.1263602838942971</v>
+        <v>0.1909684113475377</v>
       </c>
       <c r="E58">
-        <v>0.8400330806265733</v>
+        <v>2.989368749488886</v>
       </c>
       <c r="F58">
-        <v>0.3404315777627142</v>
+        <v>-0.04833489540428682</v>
       </c>
       <c r="G58">
-        <v>0.02124123183642945</v>
+        <v>0.7349884303172909</v>
       </c>
       <c r="H58">
-        <v>0.147777992061618</v>
+        <v>0.1427925407637105</v>
       </c>
       <c r="I58">
-        <v>2.303668990310592</v>
+        <v>-0.3384973412880872</v>
       </c>
       <c r="J58">
-        <v>0.1380019767957041</v>
+        <v>0.1479200460055909</v>
       </c>
       <c r="K58">
-        <v>0.4612192334412506</v>
+        <v>0.3008174398947823</v>
       </c>
       <c r="L58">
-        <v>0.1872887560115014</v>
+        <v>0.1429618418654425</v>
       </c>
       <c r="M58">
-        <v>0.7368406931339186</v>
+        <v>1.034682010776101</v>
       </c>
       <c r="N58">
-        <v>121.7949681273592</v>
+        <v>138.5564436254008</v>
       </c>
       <c r="O58">
-        <v>129.2797721709908</v>
+        <v>146.0412476690323</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3150,46 +3150,46 @@
         <v>14</v>
       </c>
       <c r="B59">
-        <v>0.153440573224372</v>
+        <v>0.5359737934381914</v>
       </c>
       <c r="C59">
-        <v>0.2102793769738714</v>
+        <v>0.004910462122493033</v>
       </c>
       <c r="D59">
-        <v>0.1224783426972012</v>
+        <v>0.1905447785463848</v>
       </c>
       <c r="E59">
-        <v>1.25279759543871</v>
+        <v>2.812849543960177</v>
       </c>
       <c r="F59">
-        <v>0.3863258135949832</v>
+        <v>-0.05582018931750612</v>
       </c>
       <c r="G59">
-        <v>0.007506604069138108</v>
+        <v>0.6975455410091397</v>
       </c>
       <c r="H59">
-        <v>0.1445023201348044</v>
+        <v>0.1436310853061295</v>
       </c>
       <c r="I59">
-        <v>2.67349211579845</v>
+        <v>-0.3886358527371232</v>
       </c>
       <c r="J59">
-        <v>0.01104832376143852</v>
+        <v>0.1695813261595977</v>
       </c>
       <c r="K59">
-        <v>0.9381772750396548</v>
+        <v>0.2380055492324339</v>
       </c>
       <c r="L59">
-        <v>0.1424469167825276</v>
+        <v>0.1437146217383511</v>
       </c>
       <c r="M59">
-        <v>0.07756098911081308</v>
+        <v>1.179986588061581</v>
       </c>
       <c r="N59">
-        <v>123.0739561925895</v>
+        <v>138.9979745009784</v>
       </c>
       <c r="O59">
-        <v>130.5587602362211</v>
+        <v>146.4827785446099</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3197,46 +3197,46 @@
         <v>14</v>
       </c>
       <c r="B60">
-        <v>0.1389652923054716</v>
+        <v>0.6054167299092134</v>
       </c>
       <c r="C60">
-        <v>0.2545535209862264</v>
+        <v>0.0002937403713638462</v>
       </c>
       <c r="D60">
-        <v>0.1219679778540446</v>
+        <v>0.167207146181598</v>
       </c>
       <c r="E60">
-        <v>1.139358828034086</v>
+        <v>3.620758704007128</v>
       </c>
       <c r="F60">
-        <v>0.3855241204054858</v>
+        <v>-0.02632512203298443</v>
       </c>
       <c r="G60">
-        <v>0.007509479124353981</v>
+        <v>0.8369844946433006</v>
       </c>
       <c r="H60">
-        <v>0.14420938089176</v>
+        <v>0.127945772884305</v>
       </c>
       <c r="I60">
-        <v>2.673363674550761</v>
+        <v>-0.2057521826593593</v>
       </c>
       <c r="J60">
-        <v>-0.003912425545139916</v>
+        <v>0.08322322176036534</v>
       </c>
       <c r="K60">
-        <v>0.9784224048728732</v>
+        <v>0.5170963101566327</v>
       </c>
       <c r="L60">
-        <v>0.1446539043351014</v>
+        <v>0.1284650292774559</v>
       </c>
       <c r="M60">
-        <v>-0.02704680224929495</v>
+        <v>0.6478278347691159</v>
       </c>
       <c r="N60">
-        <v>122.7989114937188</v>
+        <v>130.9062791114581</v>
       </c>
       <c r="O60">
-        <v>130.2837155373504</v>
+        <v>138.3910831550897</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3244,46 +3244,46 @@
         <v>14</v>
       </c>
       <c r="B61">
-        <v>0.1313400336858587</v>
+        <v>0.4979668465930522</v>
       </c>
       <c r="C61">
-        <v>0.2779616598211592</v>
+        <v>0.003588155511352982</v>
       </c>
       <c r="D61">
-        <v>0.1210607997966735</v>
+        <v>0.1709894086180355</v>
       </c>
       <c r="E61">
-        <v>1.084909680973937</v>
+        <v>2.912267201914446</v>
       </c>
       <c r="F61">
-        <v>0.3795302202084146</v>
+        <v>0.07273425341207654</v>
       </c>
       <c r="G61">
-        <v>0.008229855625669642</v>
+        <v>0.6016111247712952</v>
       </c>
       <c r="H61">
-        <v>0.1436259057531887</v>
+        <v>0.1393149552080012</v>
       </c>
       <c r="I61">
-        <v>2.642491396089863</v>
+        <v>0.5220850360500223</v>
       </c>
       <c r="J61">
-        <v>-0.002682705365234184</v>
+        <v>0.07001464178718524</v>
       </c>
       <c r="K61">
-        <v>0.985043575429961</v>
+        <v>0.5747553338623606</v>
       </c>
       <c r="L61">
-        <v>0.1431066509433078</v>
+        <v>0.1247895118952867</v>
       </c>
       <c r="M61">
-        <v>-0.01874619626377077</v>
+        <v>0.5610619091605702</v>
       </c>
       <c r="N61">
-        <v>122.1509300743132</v>
+        <v>130.9861448833853</v>
       </c>
       <c r="O61">
-        <v>129.6357341179448</v>
+        <v>138.4709489270168</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3291,46 +3291,46 @@
         <v>14</v>
       </c>
       <c r="B62">
-        <v>0.1868023009942607</v>
+        <v>0.5011057082775096</v>
       </c>
       <c r="C62">
-        <v>0.1278183494869503</v>
+        <v>0.003742528087772853</v>
       </c>
       <c r="D62">
-        <v>0.1226733690295733</v>
+        <v>0.1728495783276821</v>
       </c>
       <c r="E62">
-        <v>1.522761643150337</v>
+        <v>2.89908551195613</v>
       </c>
       <c r="F62">
-        <v>0.4113958219334716</v>
+        <v>0.04715441879617926</v>
       </c>
       <c r="G62">
-        <v>0.006067210025629616</v>
+        <v>0.7427849013201271</v>
       </c>
       <c r="H62">
-        <v>0.1499186641768847</v>
+        <v>0.1436900251320226</v>
       </c>
       <c r="I62">
-        <v>2.744126784961727</v>
+        <v>0.328167656403802</v>
       </c>
       <c r="J62">
-        <v>0.02963340013839363</v>
+        <v>0.09487785682721619</v>
       </c>
       <c r="K62">
-        <v>0.8421938703773613</v>
+        <v>0.4954293447437889</v>
       </c>
       <c r="L62">
-        <v>0.1488457013425155</v>
+        <v>0.1391785328875655</v>
       </c>
       <c r="M62">
-        <v>0.1990880480330626</v>
+        <v>0.6816989291291259</v>
       </c>
       <c r="N62">
-        <v>123.2673346782205</v>
+        <v>130.9823069427827</v>
       </c>
       <c r="O62">
-        <v>130.7521387218521</v>
+        <v>138.4671109864142</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -3338,46 +3338,46 @@
         <v>14</v>
       </c>
       <c r="B63">
-        <v>0.1778404656212904</v>
+        <v>0.5022958503634486</v>
       </c>
       <c r="C63">
-        <v>0.1525787492686552</v>
+        <v>0.002709150507102698</v>
       </c>
       <c r="D63">
-        <v>0.1243220639517583</v>
+        <v>0.1674907784080235</v>
       </c>
       <c r="E63">
-        <v>1.430481927088175</v>
+        <v>2.998946301030425</v>
       </c>
       <c r="F63">
-        <v>0.3994869257531224</v>
+        <v>0.06753471165033351</v>
       </c>
       <c r="G63">
-        <v>0.005693615253467004</v>
+        <v>0.6347211519065639</v>
       </c>
       <c r="H63">
-        <v>0.1444839000596118</v>
+        <v>0.1421507036491199</v>
       </c>
       <c r="I63">
-        <v>2.764923466132215</v>
+        <v>0.4750923485896628</v>
       </c>
       <c r="J63">
-        <v>0.03092678940585661</v>
+        <v>0.05356452450832267</v>
       </c>
       <c r="K63">
-        <v>0.838745372664206</v>
+        <v>0.7065512832954246</v>
       </c>
       <c r="L63">
-        <v>0.1519754720238874</v>
+        <v>0.1422727382233404</v>
       </c>
       <c r="M63">
-        <v>0.2034985579843803</v>
+        <v>0.3764918365754432</v>
       </c>
       <c r="N63">
-        <v>123.6893922951941</v>
+        <v>128.3940847855326</v>
       </c>
       <c r="O63">
-        <v>131.1741963388257</v>
+        <v>135.8788888291642</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3385,46 +3385,46 @@
         <v>14</v>
       </c>
       <c r="B64">
-        <v>0.187634532504858</v>
+        <v>0.5015358188571248</v>
       </c>
       <c r="C64">
-        <v>0.1319319088176206</v>
+        <v>0.001770982136813841</v>
       </c>
       <c r="D64">
-        <v>0.1245477291280004</v>
+        <v>0.160431317338768</v>
       </c>
       <c r="E64">
-        <v>1.506527126737268</v>
+        <v>3.126171542916885</v>
       </c>
       <c r="F64">
-        <v>0.4131258787367731</v>
+        <v>0.1195772180848063</v>
       </c>
       <c r="G64">
-        <v>0.004052536418874447</v>
+        <v>0.3887955170801984</v>
       </c>
       <c r="H64">
-        <v>0.1437438002108983</v>
+        <v>0.1387522589637026</v>
       </c>
       <c r="I64">
-        <v>2.874043110942122</v>
+        <v>0.8618037571272084</v>
       </c>
       <c r="J64">
-        <v>0.007056566488745988</v>
+        <v>0.05959070107686146</v>
       </c>
       <c r="K64">
-        <v>0.9609286410467289</v>
+        <v>0.6632295049242523</v>
       </c>
       <c r="L64">
-        <v>0.1440460333233273</v>
+        <v>0.1368458134104913</v>
       </c>
       <c r="M64">
-        <v>0.04898827358131232</v>
+        <v>0.4354587078094194</v>
       </c>
       <c r="N64">
-        <v>122.8074141792978</v>
+        <v>124.844836246766</v>
       </c>
       <c r="O64">
-        <v>130.2922182229294</v>
+        <v>132.3296402903976</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -3432,46 +3432,46 @@
         <v>14</v>
       </c>
       <c r="B65">
-        <v>0.1906159009485571</v>
+        <v>0.4632993235452697</v>
       </c>
       <c r="C65">
-        <v>0.1354344528897257</v>
+        <v>0.003223184408476178</v>
       </c>
       <c r="D65">
-        <v>0.1276721818167276</v>
+        <v>0.1572846751528744</v>
       </c>
       <c r="E65">
-        <v>1.493010444688607</v>
+        <v>2.945610073549513</v>
       </c>
       <c r="F65">
-        <v>0.4148182220656881</v>
+        <v>0.1831701560625518</v>
       </c>
       <c r="G65">
-        <v>0.004297588680240346</v>
+        <v>0.1910388146534991</v>
       </c>
       <c r="H65">
-        <v>0.1452724507749169</v>
+        <v>0.1400905905375749</v>
       </c>
       <c r="I65">
-        <v>2.855450017212154</v>
+        <v>1.307512198782703</v>
       </c>
       <c r="J65">
-        <v>0.009131918905765882</v>
+        <v>0.03265036223584632</v>
       </c>
       <c r="K65">
-        <v>0.9497149434151364</v>
+        <v>0.8097963937843091</v>
       </c>
       <c r="L65">
-        <v>0.144802268002729</v>
+        <v>0.1356539029901648</v>
       </c>
       <c r="M65">
-        <v>0.06306475051615752</v>
+        <v>0.240688704977501</v>
       </c>
       <c r="N65">
-        <v>124.7934509433777</v>
+        <v>122.0199374073091</v>
       </c>
       <c r="O65">
-        <v>132.2782549870093</v>
+        <v>129.5047414509407</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -3479,46 +3479,46 @@
         <v>14</v>
       </c>
       <c r="B66">
-        <v>0.1937322482572149</v>
+        <v>0.4533983169851622</v>
       </c>
       <c r="C66">
-        <v>0.139548348946029</v>
+        <v>0.004038315886130899</v>
       </c>
       <c r="D66">
-        <v>0.1311238737360054</v>
+        <v>0.1576953630057825</v>
       </c>
       <c r="E66">
-        <v>1.477475022185969</v>
+        <v>2.875153132870094</v>
       </c>
       <c r="F66">
-        <v>0.4688531496802593</v>
+        <v>0.1722896293343067</v>
       </c>
       <c r="G66">
-        <v>0.001197083697343839</v>
+        <v>0.2315926598269356</v>
       </c>
       <c r="H66">
-        <v>0.1447267879642263</v>
+        <v>0.1440228074584856</v>
       </c>
       <c r="I66">
-        <v>3.239574071084551</v>
+        <v>1.196266288476352</v>
       </c>
       <c r="J66">
-        <v>-0.05063097652872951</v>
+        <v>0.04706755845099329</v>
       </c>
       <c r="K66">
-        <v>0.7290322691392677</v>
+        <v>0.7391603381632165</v>
       </c>
       <c r="L66">
-        <v>0.1461577928882969</v>
+        <v>0.1413586716830622</v>
       </c>
       <c r="M66">
-        <v>-0.3464131164557535</v>
+        <v>0.3329654834089176</v>
       </c>
       <c r="N66">
-        <v>127.5051766197943</v>
+        <v>121.5815832308167</v>
       </c>
       <c r="O66">
-        <v>134.9899806634259</v>
+        <v>129.0663872744482</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -3526,46 +3526,46 @@
         <v>14</v>
       </c>
       <c r="B67">
-        <v>0.1813531020696283</v>
+        <v>0.4515044354569274</v>
       </c>
       <c r="C67">
-        <v>0.1613290626696737</v>
+        <v>0.004197455699413982</v>
       </c>
       <c r="D67">
-        <v>0.1294809982586071</v>
+        <v>0.1577072117086172</v>
       </c>
       <c r="E67">
-        <v>1.400615569146441</v>
+        <v>2.86292827427027</v>
       </c>
       <c r="F67">
-        <v>0.4815593473788521</v>
+        <v>0.1712524530063749</v>
       </c>
       <c r="G67">
-        <v>0.0007165065877248954</v>
+        <v>0.2338646567808869</v>
       </c>
       <c r="H67">
-        <v>0.142339102401152</v>
+        <v>0.1438537136663981</v>
       </c>
       <c r="I67">
-        <v>3.38318381425282</v>
+        <v>1.190462509737604</v>
       </c>
       <c r="J67">
-        <v>-0.06003489181687346</v>
+        <v>0.01744001151347732</v>
       </c>
       <c r="K67">
-        <v>0.6730146221256563</v>
+        <v>0.9032578717586026</v>
       </c>
       <c r="L67">
-        <v>0.1422579757933514</v>
+        <v>0.143483807273736</v>
       </c>
       <c r="M67">
-        <v>-0.4220142419577382</v>
+        <v>0.1215468967881899</v>
       </c>
       <c r="N67">
-        <v>126.0247466189283</v>
+        <v>121.7915904056743</v>
       </c>
       <c r="O67">
-        <v>133.5095506625599</v>
+        <v>129.2763944493059</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -3573,46 +3573,46 @@
         <v>14</v>
       </c>
       <c r="B68">
-        <v>0.1635772049666466</v>
+        <v>0.446747707784392</v>
       </c>
       <c r="C68">
-        <v>0.2076060110317646</v>
+        <v>0.004054516742294898</v>
       </c>
       <c r="D68">
-        <v>0.1298050848595911</v>
+        <v>0.1554505887332773</v>
       </c>
       <c r="E68">
-        <v>1.260175632900564</v>
+        <v>2.873888812032249</v>
       </c>
       <c r="F68">
-        <v>0.464914722369805</v>
+        <v>0.166099789114328</v>
       </c>
       <c r="G68">
-        <v>0.001302816315492801</v>
+        <v>0.2488579056647654</v>
       </c>
       <c r="H68">
-        <v>0.1445918700747854</v>
+        <v>0.1440428195972688</v>
       </c>
       <c r="I68">
-        <v>3.215358665250978</v>
+        <v>1.153127865580031</v>
       </c>
       <c r="J68">
-        <v>-0.04783654825621333</v>
+        <v>0.01374345097137601</v>
       </c>
       <c r="K68">
-        <v>0.7389584619708147</v>
+        <v>0.9236691335279543</v>
       </c>
       <c r="L68">
-        <v>0.1435528839170215</v>
+        <v>0.1434404350877465</v>
       </c>
       <c r="M68">
-        <v>-0.3332329309654588</v>
+        <v>0.09581294816185382</v>
       </c>
       <c r="N68">
-        <v>126.4233027457904</v>
+        <v>121.6101224360664</v>
       </c>
       <c r="O68">
-        <v>133.908106789422</v>
+        <v>129.094926479698</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -3620,46 +3620,46 @@
         <v>14</v>
       </c>
       <c r="B69">
-        <v>0.1674726304671326</v>
+        <v>0.4394241467556857</v>
       </c>
       <c r="C69">
-        <v>0.1937562934022992</v>
+        <v>0.005682348531957886</v>
       </c>
       <c r="D69">
-        <v>0.128870011968908</v>
+        <v>0.1588910124453665</v>
       </c>
       <c r="E69">
-        <v>1.299546945859974</v>
+        <v>2.765569556092913</v>
       </c>
       <c r="F69">
-        <v>0.4504719243100628</v>
+        <v>0.1343127220059082</v>
       </c>
       <c r="G69">
-        <v>0.001771070488578957</v>
+        <v>0.353464751567896</v>
       </c>
       <c r="H69">
-        <v>0.1440976709235778</v>
+        <v>0.1447507304967678</v>
       </c>
       <c r="I69">
-        <v>3.126156872785061</v>
+        <v>0.9278897698475339</v>
       </c>
       <c r="J69">
-        <v>-0.04823451507273305</v>
+        <v>0.05120739182937427</v>
       </c>
       <c r="K69">
-        <v>0.7367141451580093</v>
+        <v>0.7227349915425668</v>
       </c>
       <c r="L69">
-        <v>0.1434663624191288</v>
+        <v>0.1443250764806462</v>
       </c>
       <c r="M69">
-        <v>-0.3362078347802439</v>
+        <v>0.3548059220064999</v>
       </c>
       <c r="N69">
-        <v>126.3745290610684</v>
+        <v>125.1358654124153</v>
       </c>
       <c r="O69">
-        <v>133.8593331047</v>
+        <v>132.6206694560468</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -3667,46 +3667,46 @@
         <v>14</v>
       </c>
       <c r="B70">
-        <v>0.1593966401179251</v>
+        <v>0.4151923521094243</v>
       </c>
       <c r="C70">
-        <v>0.2130825517771089</v>
+        <v>0.008508818657700814</v>
       </c>
       <c r="D70">
-        <v>0.1280156664354913</v>
+        <v>0.1577968314796635</v>
       </c>
       <c r="E70">
-        <v>1.245133853974405</v>
+        <v>2.631183073932212</v>
       </c>
       <c r="F70">
-        <v>0.4573219201382489</v>
+        <v>0.1466339042897455</v>
       </c>
       <c r="G70">
-        <v>0.001454995763677111</v>
+        <v>0.3105914201619943</v>
       </c>
       <c r="H70">
-        <v>0.1436532281178843</v>
+        <v>0.1446119636911757</v>
       </c>
       <c r="I70">
-        <v>3.183513006494799</v>
+        <v>1.013981834883923</v>
       </c>
       <c r="J70">
-        <v>-0.05259876675180582</v>
+        <v>0.04714056195935076</v>
       </c>
       <c r="K70">
-        <v>0.7123959912635205</v>
+        <v>0.7456207542924485</v>
       </c>
       <c r="L70">
-        <v>0.1426832422830842</v>
+        <v>0.1453075993609349</v>
       </c>
       <c r="M70">
-        <v>-0.3686401143551928</v>
+        <v>0.3244191093010667</v>
       </c>
       <c r="N70">
-        <v>126.2030745787335</v>
+        <v>125.443917709466</v>
       </c>
       <c r="O70">
-        <v>133.6878786223651</v>
+        <v>132.9287217530975</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -3714,46 +3714,46 @@
         <v>14</v>
       </c>
       <c r="B71">
-        <v>0.1682202431116401</v>
+        <v>0.3894012718863752</v>
       </c>
       <c r="C71">
-        <v>0.1831583278799114</v>
+        <v>0.01341809932484734</v>
       </c>
       <c r="D71">
-        <v>0.1263775039059984</v>
+        <v>0.1574945056384066</v>
       </c>
       <c r="E71">
-        <v>1.331093255622179</v>
+        <v>2.472475279743446</v>
       </c>
       <c r="F71">
-        <v>0.4679879927902221</v>
+        <v>0.1164409804180529</v>
       </c>
       <c r="G71">
-        <v>0.001063152908909157</v>
+        <v>0.4191911641759297</v>
       </c>
       <c r="H71">
-        <v>0.1429731345757304</v>
+        <v>0.1441412912340044</v>
       </c>
       <c r="I71">
-        <v>3.273258253580059</v>
+        <v>0.8078252901801626</v>
       </c>
       <c r="J71">
-        <v>-0.04388248383733274</v>
+        <v>0.06572249427397883</v>
       </c>
       <c r="K71">
-        <v>0.7569722616148826</v>
+        <v>0.650048545287811</v>
       </c>
       <c r="L71">
-        <v>0.1418037892857789</v>
+        <v>0.144860600882372</v>
       </c>
       <c r="M71">
-        <v>-0.3094591763616121</v>
+        <v>0.4536947511859765</v>
       </c>
       <c r="N71">
-        <v>125.4269671264555</v>
+        <v>127.1968301809137</v>
       </c>
       <c r="O71">
-        <v>132.9117711700871</v>
+        <v>134.6816342245453</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -3761,46 +3761,46 @@
         <v>14</v>
       </c>
       <c r="B72">
-        <v>0.1527331828441004</v>
+        <v>0.3719007229553573</v>
       </c>
       <c r="C72">
-        <v>0.2309732921779243</v>
+        <v>0.01237985635239018</v>
       </c>
       <c r="D72">
-        <v>0.1275055196758276</v>
+        <v>0.1486932223372653</v>
       </c>
       <c r="E72">
-        <v>1.197855459374717</v>
+        <v>2.50112760426843</v>
       </c>
       <c r="F72">
-        <v>0.46592440982823</v>
+        <v>0.09165293870977448</v>
       </c>
       <c r="G72">
-        <v>0.001390793575276744</v>
+        <v>0.5099416207998106</v>
       </c>
       <c r="H72">
-        <v>0.1457583006093889</v>
+        <v>0.139093885180916</v>
       </c>
       <c r="I72">
-        <v>3.196554898625223</v>
+        <v>0.6589285976918666</v>
       </c>
       <c r="J72">
-        <v>-0.0400237524754839</v>
+        <v>0.05556842768512929</v>
       </c>
       <c r="K72">
-        <v>0.7832541889066964</v>
+        <v>0.6900056669279246</v>
       </c>
       <c r="L72">
-        <v>0.145498186508017</v>
+        <v>0.139322535741192</v>
       </c>
       <c r="M72">
-        <v>-0.275080765170077</v>
+        <v>0.3988473751895685</v>
       </c>
       <c r="N72">
-        <v>126.4752691116682</v>
+        <v>123.8496880126517</v>
       </c>
       <c r="O72">
-        <v>133.9600731552998</v>
+        <v>131.3344920562833</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -3808,46 +3808,46 @@
         <v>14</v>
       </c>
       <c r="B73">
-        <v>0.1236351140389721</v>
+        <v>0.3972713820058391</v>
       </c>
       <c r="C73">
-        <v>0.3208326809803563</v>
+        <v>0.007903915383353491</v>
       </c>
       <c r="D73">
-        <v>0.1245382408954171</v>
+        <v>0.1495667909412516</v>
       </c>
       <c r="E73">
-        <v>0.9927481964579588</v>
+        <v>2.656146992963721</v>
       </c>
       <c r="F73">
-        <v>0.460051689923771</v>
+        <v>0.09040945607541898</v>
       </c>
       <c r="G73">
-        <v>0.001047623250488404</v>
+        <v>0.5311354017493541</v>
       </c>
       <c r="H73">
-        <v>0.1403702953767788</v>
+        <v>0.144360922448989</v>
       </c>
       <c r="I73">
-        <v>3.277414845419472</v>
+        <v>0.6262737487519574</v>
       </c>
       <c r="J73">
-        <v>-0.02034516958386008</v>
+        <v>0.009495207723090551</v>
       </c>
       <c r="K73">
-        <v>0.8858985101641483</v>
+        <v>0.9456012014086128</v>
       </c>
       <c r="L73">
-        <v>0.1417821874997043</v>
+        <v>0.1391612582674302</v>
       </c>
       <c r="M73">
-        <v>-0.1434959492630378</v>
+        <v>0.0682316892022012</v>
       </c>
       <c r="N73">
-        <v>124.3548468704919</v>
+        <v>126.6524951564532</v>
       </c>
       <c r="O73">
-        <v>131.8396509141234</v>
+        <v>134.1372992000847</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -3855,46 +3855,46 @@
         <v>14</v>
       </c>
       <c r="B74">
-        <v>0.1473744456073934</v>
+        <v>0.3889016238057809</v>
       </c>
       <c r="C74">
-        <v>0.2345970486927672</v>
+        <v>0.005902564489732191</v>
       </c>
       <c r="D74">
-        <v>0.1239899267763752</v>
+        <v>0.1412571963619586</v>
       </c>
       <c r="E74">
-        <v>1.188600150342808</v>
+        <v>2.75314556583196</v>
       </c>
       <c r="F74">
-        <v>0.4660357658320716</v>
+        <v>0.09707538323778948</v>
       </c>
       <c r="G74">
-        <v>0.001214078791150184</v>
+        <v>0.4808985727849442</v>
       </c>
       <c r="H74">
-        <v>0.1440359490526446</v>
+        <v>0.1377233074684246</v>
       </c>
       <c r="I74">
-        <v>3.235551741751202</v>
+        <v>0.7048580594105006</v>
       </c>
       <c r="J74">
-        <v>-0.01012993450457401</v>
+        <v>-0.06779359268765577</v>
       </c>
       <c r="K74">
-        <v>0.942972929435906</v>
+        <v>0.62297822010149</v>
       </c>
       <c r="L74">
-        <v>0.1416104737120424</v>
+        <v>0.1378944814030866</v>
       </c>
       <c r="M74">
-        <v>-0.07153379435177032</v>
+        <v>-0.4916338347833135</v>
       </c>
       <c r="N74">
-        <v>124.5466106068051</v>
+        <v>122.228674301993</v>
       </c>
       <c r="O74">
-        <v>132.0314146504366</v>
+        <v>129.7134783456246</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -3902,46 +3902,46 @@
         <v>14</v>
       </c>
       <c r="B75">
-        <v>0.1524556589478365</v>
+        <v>0.3792062566052663</v>
       </c>
       <c r="C75">
-        <v>0.2156573314845034</v>
+        <v>0.005421451239922672</v>
       </c>
       <c r="D75">
-        <v>0.1231309809903997</v>
+        <v>0.1363627680549893</v>
       </c>
       <c r="E75">
-        <v>1.238158404339548</v>
+        <v>2.780863589189893</v>
       </c>
       <c r="F75">
-        <v>0.4519839642418489</v>
+        <v>0.02964147805383555</v>
       </c>
       <c r="G75">
-        <v>0.001669248514992524</v>
+        <v>0.832849444922809</v>
       </c>
       <c r="H75">
-        <v>0.1437824211077476</v>
+        <v>0.1404486715141415</v>
       </c>
       <c r="I75">
-        <v>3.14352728768659</v>
+        <v>0.2110484758188048</v>
       </c>
       <c r="J75">
-        <v>0.01248720495748847</v>
+        <v>-0.05996878398467979</v>
       </c>
       <c r="K75">
-        <v>0.9309625428774362</v>
+        <v>0.6553888840541784</v>
       </c>
       <c r="L75">
-        <v>0.1441376794432548</v>
+        <v>0.1343722458836051</v>
       </c>
       <c r="M75">
-        <v>0.08663386982308482</v>
+        <v>-0.4462884696935518</v>
       </c>
       <c r="N75">
-        <v>124.1817836283841</v>
+        <v>119.8361971402753</v>
       </c>
       <c r="O75">
-        <v>131.6665876720157</v>
+        <v>127.3210011839068</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -3949,46 +3949,46 @@
         <v>14</v>
       </c>
       <c r="B76">
-        <v>0.1494889065307788</v>
+        <v>0.4082288784498245</v>
       </c>
       <c r="C76">
-        <v>0.2268881469102022</v>
+        <v>0.0005682585051968788</v>
       </c>
       <c r="D76">
-        <v>0.1237067224831436</v>
+        <v>0.1184532593047027</v>
       </c>
       <c r="E76">
-        <v>1.208413767094576</v>
+        <v>3.446328795391935</v>
       </c>
       <c r="F76">
-        <v>0.454557691195776</v>
+        <v>-0.07806888401058314</v>
       </c>
       <c r="G76">
-        <v>0.001627806988687372</v>
+        <v>0.5357232345425398</v>
       </c>
       <c r="H76">
-        <v>0.1442638371792091</v>
+        <v>0.1260612681659815</v>
       </c>
       <c r="I76">
-        <v>3.150877587091421</v>
+        <v>-0.6192931829607798</v>
       </c>
       <c r="J76">
-        <v>0.01284711006901799</v>
+        <v>-0.1918758309792275</v>
       </c>
       <c r="K76">
-        <v>0.9287464029889146</v>
+        <v>0.1169962173186521</v>
       </c>
       <c r="L76">
-        <v>0.1436680603568993</v>
+        <v>0.1224082722723663</v>
       </c>
       <c r="M76">
-        <v>0.08942217245157544</v>
+        <v>-1.567507059917417</v>
       </c>
       <c r="N76">
-        <v>124.1402374846148</v>
+        <v>107.037832418823</v>
       </c>
       <c r="O76">
-        <v>131.6250415282464</v>
+        <v>114.5226364624546</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -3996,46 +3996,46 @@
         <v>14</v>
       </c>
       <c r="B77">
-        <v>0.1731573876294063</v>
+        <v>0.3933310829492113</v>
       </c>
       <c r="C77">
-        <v>0.1622543939427562</v>
+        <v>0.0008651525223113806</v>
       </c>
       <c r="D77">
-        <v>0.1239024895839553</v>
+        <v>0.1180797754817882</v>
       </c>
       <c r="E77">
-        <v>1.397529526733813</v>
+        <v>3.331062252992477</v>
       </c>
       <c r="F77">
-        <v>0.4592642560495261</v>
+        <v>-0.03745936462468441</v>
       </c>
       <c r="G77">
-        <v>0.001431458930271891</v>
+        <v>0.7902457026087935</v>
       </c>
       <c r="H77">
-        <v>0.1440498467786448</v>
+        <v>0.1408291429912725</v>
       </c>
       <c r="I77">
-        <v>3.188231479032794</v>
+        <v>-0.2659915684284598</v>
       </c>
       <c r="J77">
-        <v>0.002833026377453085</v>
+        <v>-0.1878817314821149</v>
       </c>
       <c r="K77">
-        <v>0.9843100299994386</v>
+        <v>0.1377961187021314</v>
       </c>
       <c r="L77">
-        <v>0.1440590590867591</v>
+        <v>0.1266008234928817</v>
       </c>
       <c r="M77">
-        <v>0.0196657287324562</v>
+        <v>-1.48404825733759</v>
       </c>
       <c r="N77">
-        <v>123.9566770796168</v>
+        <v>106.7331705892996</v>
       </c>
       <c r="O77">
-        <v>131.4414811232483</v>
+        <v>114.2179746329311</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4043,46 +4043,46 @@
         <v>14</v>
       </c>
       <c r="B78">
-        <v>0.1454628405775277</v>
+        <v>0.380092491776297</v>
       </c>
       <c r="C78">
-        <v>0.2683424407389586</v>
+        <v>0.0009274031444909437</v>
       </c>
       <c r="D78">
-        <v>0.1314160662314246</v>
+        <v>0.114773603138322</v>
       </c>
       <c r="E78">
-        <v>1.106887801080324</v>
+        <v>3.311671685676889</v>
       </c>
       <c r="F78">
-        <v>0.4579295938939568</v>
+        <v>-0.04578366657062735</v>
       </c>
       <c r="G78">
-        <v>0.001588383363393579</v>
+        <v>0.7433046029005566</v>
       </c>
       <c r="H78">
-        <v>0.1450047533291084</v>
+        <v>0.1398058435945187</v>
       </c>
       <c r="I78">
-        <v>3.158031605037264</v>
+        <v>-0.3274803498444208</v>
       </c>
       <c r="J78">
-        <v>-0.01520781428071194</v>
+        <v>-0.1173344667836503</v>
       </c>
       <c r="K78">
-        <v>0.9163149032131654</v>
+        <v>0.3995486041037987</v>
       </c>
       <c r="L78">
-        <v>0.1447305270968368</v>
+        <v>0.1392813524863599</v>
       </c>
       <c r="M78">
-        <v>-0.1050767559945155</v>
+        <v>-0.8424276810145208</v>
       </c>
       <c r="N78">
-        <v>130.5040364359911</v>
+        <v>106.0059517500986</v>
       </c>
       <c r="O78">
-        <v>137.9888404796227</v>
+        <v>113.4907557937302</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -4090,46 +4090,46 @@
         <v>14</v>
       </c>
       <c r="B79">
-        <v>0.142443991117107</v>
+        <v>0.3260469079587777</v>
       </c>
       <c r="C79">
-        <v>0.2798327402238375</v>
+        <v>0.004172442087584403</v>
       </c>
       <c r="D79">
-        <v>0.1318077450643252</v>
+        <v>0.1138105443591424</v>
       </c>
       <c r="E79">
-        <v>1.080695152227899</v>
+        <v>2.864821619075108</v>
       </c>
       <c r="F79">
-        <v>0.4564036408837822</v>
+        <v>0.006996467234812065</v>
       </c>
       <c r="G79">
-        <v>0.001553701169208045</v>
+        <v>0.9599541859510967</v>
       </c>
       <c r="H79">
-        <v>0.1442278928068469</v>
+        <v>0.1393411156078678</v>
       </c>
       <c r="I79">
-        <v>3.164461686305074</v>
+        <v>0.05021107520411595</v>
       </c>
       <c r="J79">
-        <v>-0.01181504281295744</v>
+        <v>-0.0824201388863909</v>
       </c>
       <c r="K79">
-        <v>0.9348003855458463</v>
+        <v>0.544764511888314</v>
       </c>
       <c r="L79">
-        <v>0.1444262521687673</v>
+        <v>0.1360912863334857</v>
       </c>
       <c r="M79">
-        <v>-0.08180675351979036</v>
+        <v>-0.6056239242564287</v>
       </c>
       <c r="N79">
-        <v>130.4835160384042</v>
+        <v>103.3407708122961</v>
       </c>
       <c r="O79">
-        <v>137.9683200820358</v>
+        <v>110.8255748559277</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -4137,46 +4137,46 @@
         <v>14</v>
       </c>
       <c r="B80">
-        <v>0.1657945550386411</v>
+        <v>0.2931083722171199</v>
       </c>
       <c r="C80">
-        <v>0.2070709255091289</v>
+        <v>0.003872586831304422</v>
       </c>
       <c r="D80">
-        <v>0.1314097862118489</v>
+        <v>0.1014792347237291</v>
       </c>
       <c r="E80">
-        <v>1.261660640489588</v>
+        <v>2.888358125828296</v>
       </c>
       <c r="F80">
-        <v>0.459177413032191</v>
+        <v>-0.07932639918147003</v>
       </c>
       <c r="G80">
-        <v>0.001455304850798433</v>
+        <v>0.5404927182979157</v>
       </c>
       <c r="H80">
-        <v>0.1442388587430024</v>
+        <v>0.1296038828748394</v>
       </c>
       <c r="I80">
-        <v>3.183451512538173</v>
+        <v>-0.6120680755998402</v>
       </c>
       <c r="J80">
-        <v>-0.01802434434456361</v>
+        <v>-0.008987948069407906</v>
       </c>
       <c r="K80">
-        <v>0.9005563994407312</v>
+        <v>0.9429204441134529</v>
       </c>
       <c r="L80">
-        <v>0.1442426352768171</v>
+        <v>0.1255304504562159</v>
       </c>
       <c r="M80">
-        <v>-0.1249585069627504</v>
+        <v>-0.07159974362190979</v>
       </c>
       <c r="N80">
-        <v>130.4417950041899</v>
+        <v>92.84092131591275</v>
       </c>
       <c r="O80">
-        <v>137.9265990478214</v>
+        <v>100.3257253595443</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -4184,46 +4184,46 @@
         <v>14</v>
       </c>
       <c r="B81">
-        <v>0.1905344611958936</v>
+        <v>0.2530211503112246</v>
       </c>
       <c r="C81">
-        <v>0.138236670748857</v>
+        <v>0.007934001362461758</v>
       </c>
       <c r="D81">
-        <v>0.1285319774093361</v>
+        <v>0.09530469293856839</v>
       </c>
       <c r="E81">
-        <v>1.482389558118274</v>
+        <v>2.654865594859188</v>
       </c>
       <c r="F81">
-        <v>0.4357868227942802</v>
+        <v>0.08895183374453272</v>
       </c>
       <c r="G81">
-        <v>0.001978639861824578</v>
+        <v>0.5082009429199602</v>
       </c>
       <c r="H81">
-        <v>0.1408754203400923</v>
+        <v>0.1344411148012589</v>
       </c>
       <c r="I81">
-        <v>3.09341985807199</v>
+        <v>0.6616415958468369</v>
       </c>
       <c r="J81">
-        <v>-0.0008178631723952667</v>
+        <v>0.07265281491354139</v>
       </c>
       <c r="K81">
-        <v>0.9953661186541444</v>
+        <v>0.5472451287084167</v>
       </c>
       <c r="L81">
-        <v>0.1408229259567613</v>
+        <v>0.1207071227485991</v>
       </c>
       <c r="M81">
-        <v>-0.005807741650293406</v>
+        <v>0.6018933535915518</v>
       </c>
       <c r="N81">
-        <v>128.1266406238047</v>
+        <v>86.54025948621224</v>
       </c>
       <c r="O81">
-        <v>135.6114446674363</v>
+        <v>94.02506352984381</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -4231,46 +4231,46 @@
         <v>14</v>
       </c>
       <c r="B82">
-        <v>0.1835415354877174</v>
+        <v>0.2639604355650362</v>
       </c>
       <c r="C82">
-        <v>0.1547848108379379</v>
+        <v>0.004327084054854705</v>
       </c>
       <c r="D82">
-        <v>0.1289973183829684</v>
+        <v>0.09251131415204598</v>
       </c>
       <c r="E82">
-        <v>1.422832178129608</v>
+        <v>2.853277331367349</v>
       </c>
       <c r="F82">
-        <v>0.4614080227650884</v>
+        <v>-0.001503653894545188</v>
       </c>
       <c r="G82">
-        <v>0.001355172531107668</v>
+        <v>0.9914070790345626</v>
       </c>
       <c r="H82">
-        <v>0.1440085410213699</v>
+        <v>0.1396171382910258</v>
       </c>
       <c r="I82">
-        <v>3.204032340669424</v>
+        <v>-0.01076983752102759</v>
       </c>
       <c r="J82">
-        <v>-0.008910428852220362</v>
+        <v>0.1722523978031073</v>
       </c>
       <c r="K82">
-        <v>0.9493151164184694</v>
+        <v>0.1867730538642568</v>
       </c>
       <c r="L82">
-        <v>0.1401741124094676</v>
+        <v>0.1304758936716758</v>
       </c>
       <c r="M82">
-        <v>-0.06356686480162463</v>
+        <v>1.320185614030407</v>
       </c>
       <c r="N82">
-        <v>127.091178222071</v>
+        <v>83.65464892343365</v>
       </c>
       <c r="O82">
-        <v>134.5759822657026</v>
+        <v>91.13945296706522</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -4278,46 +4278,46 @@
         <v>14</v>
       </c>
       <c r="B83">
-        <v>0.1734242336039087</v>
+        <v>0.2434766685034349</v>
       </c>
       <c r="C83">
-        <v>0.1824078089282362</v>
+        <v>0.01339027036885766</v>
       </c>
       <c r="D83">
-        <v>0.1300638241933387</v>
+        <v>0.09844532069540884</v>
       </c>
       <c r="E83">
-        <v>1.333377937174254</v>
+        <v>2.47321728227952</v>
       </c>
       <c r="F83">
-        <v>0.4576416625109767</v>
+        <v>0.01406462672941721</v>
       </c>
       <c r="G83">
-        <v>0.001498899647577605</v>
+        <v>0.9218501628759643</v>
       </c>
       <c r="H83">
-        <v>0.1441438060883312</v>
+        <v>0.1433652884585735</v>
       </c>
       <c r="I83">
-        <v>3.174896479634611</v>
+        <v>0.09810343131616057</v>
       </c>
       <c r="J83">
-        <v>0.003344021869328848</v>
+        <v>0.1748552261719328</v>
       </c>
       <c r="K83">
-        <v>0.9814756521541504</v>
+        <v>0.2144274773011633</v>
       </c>
       <c r="L83">
-        <v>0.1440214641537036</v>
+        <v>0.1408438661047029</v>
       </c>
       <c r="M83">
-        <v>0.02321891315977747</v>
+        <v>1.24148272131316</v>
       </c>
       <c r="N83">
-        <v>126.9662601854801</v>
+        <v>84.88170267113725</v>
       </c>
       <c r="O83">
-        <v>134.4510642291116</v>
+        <v>92.36650671476882</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -4325,46 +4325,46 @@
         <v>14</v>
       </c>
       <c r="B84">
-        <v>0.1731190208031083</v>
+        <v>0.3768287136013244</v>
       </c>
       <c r="C84">
-        <v>0.183447522116971</v>
+        <v>0.0001752233703541348</v>
       </c>
       <c r="D84">
-        <v>0.1301436624339267</v>
+        <v>0.100426206403678</v>
       </c>
       <c r="E84">
-        <v>1.330214760868589</v>
+        <v>3.752294616074669</v>
       </c>
       <c r="F84">
-        <v>0.4591327922505591</v>
+        <v>0.01376442326713444</v>
       </c>
       <c r="G84">
-        <v>0.001467573164224855</v>
+        <v>0.9191192362687559</v>
       </c>
       <c r="H84">
-        <v>0.1443350688220748</v>
+        <v>0.1355523380186976</v>
       </c>
       <c r="I84">
-        <v>3.181020357682739</v>
+        <v>0.1015432376034401</v>
       </c>
       <c r="J84">
-        <v>0.001515050593106915</v>
+        <v>0.02377684280666749</v>
       </c>
       <c r="K84">
-        <v>0.9916222399649189</v>
+        <v>0.8612890273367593</v>
       </c>
       <c r="L84">
-        <v>0.1442883610129998</v>
+        <v>0.1360748797793114</v>
       </c>
       <c r="M84">
-        <v>0.01050015803402476</v>
+        <v>0.1747335205824116</v>
       </c>
       <c r="N84">
-        <v>126.9407236149319</v>
+        <v>84.41654384639294</v>
       </c>
       <c r="O84">
-        <v>134.4255276585635</v>
+        <v>91.90134789002451</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -4372,46 +4372,46 @@
         <v>14</v>
       </c>
       <c r="B85">
-        <v>0.1878596770226298</v>
+        <v>0.3624785058054921</v>
       </c>
       <c r="C85">
-        <v>0.1483479854076586</v>
+        <v>0.0005763960422714138</v>
       </c>
       <c r="D85">
-        <v>0.1299714946466841</v>
+        <v>0.1052955978922192</v>
       </c>
       <c r="E85">
-        <v>1.445391372418311</v>
+        <v>3.442484900237955</v>
       </c>
       <c r="F85">
-        <v>0.4582869162469976</v>
+        <v>0.009086025995362512</v>
       </c>
       <c r="G85">
-        <v>0.001498699065817346</v>
+        <v>0.9499881471889903</v>
       </c>
       <c r="H85">
-        <v>0.144345276654219</v>
+        <v>0.1448626461090392</v>
       </c>
       <c r="I85">
-        <v>3.174935313919762</v>
+        <v>0.06272166248104701</v>
       </c>
       <c r="J85">
-        <v>0.002942535555725753</v>
+        <v>0.03146906057486817</v>
       </c>
       <c r="K85">
-        <v>0.9837363006237323</v>
+        <v>0.8153279133281044</v>
       </c>
       <c r="L85">
-        <v>0.1443485299434051</v>
+        <v>0.134737503081258</v>
       </c>
       <c r="M85">
-        <v>0.02038493607714215</v>
+        <v>0.2335582881915935</v>
       </c>
       <c r="N85">
-        <v>126.9459612823066</v>
+        <v>85.62337616589537</v>
       </c>
       <c r="O85">
-        <v>134.4307653259382</v>
+        <v>93.10818020952694</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -4419,46 +4419,46 @@
         <v>14</v>
       </c>
       <c r="B86">
-        <v>0.189100668803601</v>
+        <v>0.3342928952823093</v>
       </c>
       <c r="C86">
-        <v>0.1515002009044669</v>
+        <v>0.001988038636470755</v>
       </c>
       <c r="D86">
-        <v>0.1318461428305505</v>
+        <v>0.108114956259904</v>
       </c>
       <c r="E86">
-        <v>1.43425256699875</v>
+        <v>3.092013416521972</v>
       </c>
       <c r="F86">
-        <v>0.4451376070776404</v>
+        <v>0.02403211465513586</v>
       </c>
       <c r="G86">
-        <v>0.002036027507615199</v>
+        <v>0.866819422729924</v>
       </c>
       <c r="H86">
-        <v>0.1442944161269062</v>
+        <v>0.1433043393216069</v>
       </c>
       <c r="I86">
-        <v>3.084926077015649</v>
+        <v>0.1676998391598069</v>
       </c>
       <c r="J86">
-        <v>0.01230678371774277</v>
+        <v>0.08269983535069922</v>
       </c>
       <c r="K86">
-        <v>0.9320377838256035</v>
+        <v>0.5636971842613852</v>
       </c>
       <c r="L86">
-        <v>0.1443081712061973</v>
+        <v>0.1432382310979328</v>
       </c>
       <c r="M86">
-        <v>0.0852812672690447</v>
+        <v>0.5773586752419251</v>
       </c>
       <c r="N86">
-        <v>127.6877459108621</v>
+        <v>84.27070052030653</v>
       </c>
       <c r="O86">
-        <v>135.1725499544937</v>
+        <v>91.7555045639381</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -4466,46 +4466,46 @@
         <v>14</v>
       </c>
       <c r="B87">
-        <v>0.197849955609833</v>
+        <v>0.3340851239102414</v>
       </c>
       <c r="C87">
-        <v>0.1333905886390255</v>
+        <v>0.0020753932111602</v>
       </c>
       <c r="D87">
-        <v>0.1318239879888397</v>
+        <v>0.1084964683024082</v>
       </c>
       <c r="E87">
-        <v>1.500864589429529</v>
+        <v>3.079225795433804</v>
       </c>
       <c r="F87">
-        <v>0.4482534147201921</v>
+        <v>0.02692589861430188</v>
       </c>
       <c r="G87">
-        <v>0.001823746879121024</v>
+        <v>0.8519726875823905</v>
       </c>
       <c r="H87">
-        <v>0.143784893044282</v>
+        <v>0.144295862861131</v>
       </c>
       <c r="I87">
-        <v>3.117527893435519</v>
+        <v>0.1866020139483495</v>
       </c>
       <c r="J87">
-        <v>0.004685530037240024</v>
+        <v>0.07809113811153597</v>
       </c>
       <c r="K87">
-        <v>0.9740051541789283</v>
+        <v>0.5870174675155141</v>
       </c>
       <c r="L87">
-        <v>0.1437919888738971</v>
+        <v>0.1437710499232197</v>
       </c>
       <c r="M87">
-        <v>0.03258547346020193</v>
+        <v>0.5431631622168732</v>
       </c>
       <c r="N87">
-        <v>127.3267249023322</v>
+        <v>84.51707024795022</v>
       </c>
       <c r="O87">
-        <v>134.8115289459638</v>
+        <v>92.00187429158179</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -4513,46 +4513,46 @@
         <v>14</v>
       </c>
       <c r="B88">
-        <v>0.2015787776417707</v>
+        <v>0.3232784079778101</v>
       </c>
       <c r="C88">
-        <v>0.1275867482605932</v>
+        <v>0.002205942162868025</v>
       </c>
       <c r="D88">
-        <v>0.1322966511869593</v>
+        <v>0.1056117963792571</v>
       </c>
       <c r="E88">
-        <v>1.523687680929301</v>
+        <v>3.061006621049239</v>
       </c>
       <c r="F88">
-        <v>0.4470189702831492</v>
+        <v>0.0462687555788872</v>
       </c>
       <c r="G88">
-        <v>0.001962555884402316</v>
+        <v>0.7416928062147174</v>
       </c>
       <c r="H88">
-        <v>0.1443933893379302</v>
+        <v>0.1403731992112953</v>
       </c>
       <c r="I88">
-        <v>3.095840968432226</v>
+        <v>0.3296124604899944</v>
       </c>
       <c r="J88">
-        <v>0.004959497390602266</v>
+        <v>0.04716450234194525</v>
       </c>
       <c r="K88">
-        <v>0.9725196793956105</v>
+        <v>0.7375869134823697</v>
       </c>
       <c r="L88">
-        <v>0.143969350071533</v>
+        <v>0.1407682951646189</v>
       </c>
       <c r="M88">
-        <v>0.03444828630634283</v>
+        <v>0.3350506041633138</v>
       </c>
       <c r="N88">
-        <v>127.4148538560688</v>
+        <v>82.10565608060026</v>
       </c>
       <c r="O88">
-        <v>134.8996578997004</v>
+        <v>89.59046012423183</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -4560,46 +4560,46 @@
         <v>14</v>
       </c>
       <c r="B89">
-        <v>0.2174376940700317</v>
+        <v>0.3219204927523893</v>
       </c>
       <c r="C89">
-        <v>0.1006782852732963</v>
+        <v>0.002367118337891157</v>
       </c>
       <c r="D89">
-        <v>0.1324568201925506</v>
+        <v>0.1059008260630551</v>
       </c>
       <c r="E89">
-        <v>1.641574165482349</v>
+        <v>3.039829855158188</v>
       </c>
       <c r="F89">
-        <v>0.4479210084834345</v>
+        <v>0.04368431348562872</v>
       </c>
       <c r="G89">
-        <v>0.001867941754480813</v>
+        <v>0.7637403192943477</v>
       </c>
       <c r="H89">
-        <v>0.1440046002888248</v>
+        <v>0.1453369096244077</v>
       </c>
       <c r="I89">
-        <v>3.110463190655407</v>
+        <v>0.3005727423166044</v>
       </c>
       <c r="J89">
-        <v>-0.001901304529919767</v>
+        <v>0.07841317681632951</v>
       </c>
       <c r="K89">
-        <v>0.989457642964053</v>
+        <v>0.580468956135884</v>
       </c>
       <c r="L89">
-        <v>0.1438935698030488</v>
+        <v>0.1418729837284783</v>
       </c>
       <c r="M89">
-        <v>-0.01321326958892004</v>
+        <v>0.5526998499333707</v>
       </c>
       <c r="N89">
-        <v>127.1647539822728</v>
+        <v>84.60349893988811</v>
       </c>
       <c r="O89">
-        <v>134.6495580259043</v>
+        <v>92.08830298351968</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -4607,46 +4607,46 @@
         <v>14</v>
       </c>
       <c r="B90">
-        <v>0.2128904213668585</v>
+        <v>0.323746993852595</v>
       </c>
       <c r="C90">
-        <v>0.1118694103828293</v>
+        <v>0.00239730770053788</v>
       </c>
       <c r="D90">
-        <v>0.1339062745486123</v>
+        <v>0.1066356525759772</v>
       </c>
       <c r="E90">
-        <v>1.589846495875534</v>
+        <v>3.03601080906714</v>
       </c>
       <c r="F90">
-        <v>0.4490708923547012</v>
+        <v>0.06298220519482819</v>
       </c>
       <c r="G90">
-        <v>0.001783243586305235</v>
+        <v>0.6603726238916465</v>
       </c>
       <c r="H90">
-        <v>0.1437421501458204</v>
+        <v>0.1433372388320654</v>
       </c>
       <c r="I90">
-        <v>3.124142027228184</v>
+        <v>0.4393987613269045</v>
       </c>
       <c r="J90">
-        <v>0.004912516838736239</v>
+        <v>0.05998004011020665</v>
       </c>
       <c r="K90">
-        <v>0.9726649468922969</v>
+        <v>0.6810180871878636</v>
       </c>
       <c r="L90">
-        <v>0.1433637027130024</v>
+        <v>0.1459104757581548</v>
       </c>
       <c r="M90">
-        <v>0.03426611301028219</v>
+        <v>0.4110742549398783</v>
       </c>
       <c r="N90">
-        <v>127.0876968667508</v>
+        <v>85.2302999814943</v>
       </c>
       <c r="O90">
-        <v>134.5725009103823</v>
+        <v>92.71510402512587</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -4654,46 +4654,46 @@
         <v>14</v>
       </c>
       <c r="B91">
-        <v>0.2137875956553765</v>
+        <v>0.3157981188223178</v>
       </c>
       <c r="C91">
-        <v>0.1131761178792094</v>
+        <v>0.003361684010588153</v>
       </c>
       <c r="D91">
-        <v>0.1349603260031548</v>
+        <v>0.107686447814641</v>
       </c>
       <c r="E91">
-        <v>1.584077350631022</v>
+        <v>2.932570673757353</v>
       </c>
       <c r="F91">
-        <v>0.4441953483950547</v>
+        <v>0.07563431719011117</v>
       </c>
       <c r="G91">
-        <v>0.002090658591344018</v>
+        <v>0.5999426905872137</v>
       </c>
       <c r="H91">
-        <v>0.1443579099878061</v>
+        <v>0.1442073956945893</v>
       </c>
       <c r="I91">
-        <v>3.077041974579542</v>
+        <v>0.5244829283949756</v>
       </c>
       <c r="J91">
-        <v>0.01477413129616106</v>
+        <v>0.08713381462977739</v>
       </c>
       <c r="K91">
-        <v>0.9184673825173949</v>
+        <v>0.5453446960694848</v>
       </c>
       <c r="L91">
-        <v>0.1443287008465282</v>
+        <v>0.144082220140402</v>
       </c>
       <c r="M91">
-        <v>0.1023644722740983</v>
+        <v>0.6047506385234013</v>
       </c>
       <c r="N91">
-        <v>127.297840324091</v>
+        <v>86.19968796680176</v>
       </c>
       <c r="O91">
-        <v>134.7826443677226</v>
+        <v>93.68449201043333</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -4701,46 +4701,46 @@
         <v>14</v>
       </c>
       <c r="B92">
-        <v>0.2167665372991584</v>
+        <v>0.3140622373519842</v>
       </c>
       <c r="C92">
-        <v>0.1076974488445637</v>
+        <v>0.003586717261941778</v>
       </c>
       <c r="D92">
-        <v>0.1347523341189193</v>
+        <v>0.1078365110696358</v>
       </c>
       <c r="E92">
-        <v>1.608629184173251</v>
+        <v>2.912392419198147</v>
       </c>
       <c r="F92">
-        <v>0.4462622309016551</v>
+        <v>0.09409773656592169</v>
       </c>
       <c r="G92">
-        <v>0.001975721385539121</v>
+        <v>0.5106501255831212</v>
       </c>
       <c r="H92">
-        <v>0.1442413502817753</v>
+        <v>0.1430435657249083</v>
       </c>
       <c r="I92">
-        <v>3.093857829463482</v>
+        <v>0.6578257196614077</v>
       </c>
       <c r="J92">
-        <v>0.01446074124354893</v>
+        <v>0.1055855541688528</v>
       </c>
       <c r="K92">
-        <v>0.9200882328583426</v>
+        <v>0.463638871615209</v>
       </c>
       <c r="L92">
-        <v>0.1441424399006715</v>
+        <v>0.144071698493285</v>
       </c>
       <c r="M92">
-        <v>0.1003225785099366</v>
+        <v>0.7328681154805294</v>
       </c>
       <c r="N92">
-        <v>127.1865054733433</v>
+        <v>86.43886032391286</v>
       </c>
       <c r="O92">
-        <v>134.6713095169748</v>
+        <v>93.92366436754443</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -4748,46 +4748,46 @@
         <v>14</v>
       </c>
       <c r="B93">
-        <v>0.2035928814595658</v>
+        <v>0.2810027429982421</v>
       </c>
       <c r="C93">
-        <v>0.1296208240577135</v>
+        <v>0.00741832821372435</v>
       </c>
       <c r="D93">
-        <v>0.1343316436641403</v>
+        <v>0.1049513398185754</v>
       </c>
       <c r="E93">
-        <v>1.515598826205048</v>
+        <v>2.677457414874348</v>
       </c>
       <c r="F93">
-        <v>0.4491847582726342</v>
+        <v>0.1132978163670363</v>
       </c>
       <c r="G93">
-        <v>0.001782953951682068</v>
+        <v>0.4231176508110562</v>
       </c>
       <c r="H93">
-        <v>0.1437763977969557</v>
+        <v>0.1414411948517658</v>
       </c>
       <c r="I93">
-        <v>3.124189819437423</v>
+        <v>0.801024174645693</v>
       </c>
       <c r="J93">
-        <v>0.006262203255451612</v>
+        <v>0.1188800603568959</v>
       </c>
       <c r="K93">
-        <v>0.9652772323627085</v>
+        <v>0.4002327303593505</v>
       </c>
       <c r="L93">
-        <v>0.1438519440379922</v>
+        <v>0.1413210419752344</v>
       </c>
       <c r="M93">
-        <v>0.04353228103610283</v>
+        <v>0.8412056597893528</v>
       </c>
       <c r="N93">
-        <v>126.8226035473705</v>
+        <v>83.92577526190605</v>
       </c>
       <c r="O93">
-        <v>134.3074075910021</v>
+        <v>91.41057930553762</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -4795,46 +4795,46 @@
         <v>14</v>
       </c>
       <c r="B94">
-        <v>0.1990603423910912</v>
+        <v>0.2905192371184852</v>
       </c>
       <c r="C94">
-        <v>0.1414137714040944</v>
+        <v>0.00550514474671315</v>
       </c>
       <c r="D94">
-        <v>0.1353648642485421</v>
+        <v>0.1046581883859568</v>
       </c>
       <c r="E94">
-        <v>1.470546611161952</v>
+        <v>2.775886355371572</v>
       </c>
       <c r="F94">
-        <v>0.4136559955837855</v>
+        <v>0.1229380628970874</v>
       </c>
       <c r="G94">
-        <v>0.003633414208211329</v>
+        <v>0.3910725906471387</v>
       </c>
       <c r="H94">
-        <v>0.1422304721616523</v>
+        <v>0.1433389449150857</v>
       </c>
       <c r="I94">
-        <v>2.908350013164858</v>
+        <v>0.8576738371411636</v>
       </c>
       <c r="J94">
-        <v>0.01804580241373385</v>
+        <v>0.1166151692444002</v>
       </c>
       <c r="K94">
-        <v>0.8987114293938844</v>
+        <v>0.4104035237007647</v>
       </c>
       <c r="L94">
-        <v>0.1417699879195555</v>
+        <v>0.1416635995062623</v>
       </c>
       <c r="M94">
-        <v>0.1272892992272354</v>
+        <v>0.8231837229241455</v>
       </c>
       <c r="N94">
-        <v>127.4690910159172</v>
+        <v>83.9617373726096</v>
       </c>
       <c r="O94">
-        <v>134.9538950595487</v>
+        <v>91.44654141624117</v>
       </c>
     </row>
     <row r="95" spans="1:15">
@@ -4842,46 +4842,46 @@
         <v>14</v>
       </c>
       <c r="B95">
-        <v>0.1853976555114463</v>
+        <v>0.2959357644256006</v>
       </c>
       <c r="C95">
-        <v>0.1696209212742318</v>
+        <v>0.004148077057686508</v>
       </c>
       <c r="D95">
-        <v>0.134989491120955</v>
+        <v>0.1032330773747282</v>
       </c>
       <c r="E95">
-        <v>1.37342287886191</v>
+        <v>2.866675797635831</v>
       </c>
       <c r="F95">
-        <v>0.4100810451068528</v>
+        <v>0.1049756429758978</v>
       </c>
       <c r="G95">
-        <v>0.004683385217118749</v>
+        <v>0.4577816926175287</v>
       </c>
       <c r="H95">
-        <v>0.1450053549046264</v>
+        <v>0.14138046988303</v>
       </c>
       <c r="I95">
-        <v>2.828040698059552</v>
+        <v>0.7425045557052437</v>
       </c>
       <c r="J95">
-        <v>0.01865443287446616</v>
+        <v>0.1463397349742969</v>
       </c>
       <c r="K95">
-        <v>0.8958349565950354</v>
+        <v>0.3010612866893817</v>
       </c>
       <c r="L95">
-        <v>0.1424822631229362</v>
+        <v>0.1415058691345712</v>
       </c>
       <c r="M95">
-        <v>0.1309245969680506</v>
+        <v>1.03416017914514</v>
       </c>
       <c r="N95">
-        <v>127.8180475662693</v>
+        <v>82.86992682083354</v>
       </c>
       <c r="O95">
-        <v>135.3028516099008</v>
+        <v>90.35473086446511</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -4889,46 +4889,46 @@
         <v>14</v>
       </c>
       <c r="B96">
-        <v>0.1771103377854474</v>
+        <v>0.3548210807849718</v>
       </c>
       <c r="C96">
-        <v>0.1822997592906367</v>
+        <v>0.0007850001513301794</v>
       </c>
       <c r="D96">
-        <v>0.1327954947214705</v>
+        <v>0.1056634550158886</v>
       </c>
       <c r="E96">
-        <v>1.333707428530797</v>
+        <v>3.358030273869215</v>
       </c>
       <c r="F96">
-        <v>0.4090291859403303</v>
+        <v>0.05340647811430706</v>
       </c>
       <c r="G96">
-        <v>0.004308741677678961</v>
+        <v>0.7099913779539857</v>
       </c>
       <c r="H96">
-        <v>0.1432863918801966</v>
+        <v>0.1436168899660638</v>
       </c>
       <c r="I96">
-        <v>2.854626880983397</v>
+        <v>0.3718676690946783</v>
       </c>
       <c r="J96">
-        <v>-0.001369240043711917</v>
+        <v>0.1580331068619967</v>
       </c>
       <c r="K96">
-        <v>0.9923660269792299</v>
+        <v>0.2658298373646807</v>
       </c>
       <c r="L96">
-        <v>0.143107503711013</v>
+        <v>0.1420244821873208</v>
       </c>
       <c r="M96">
-        <v>-0.009567912291146655</v>
+        <v>1.112717359909551</v>
       </c>
       <c r="N96">
-        <v>127.1312681098048</v>
+        <v>83.44714501037832</v>
       </c>
       <c r="O96">
-        <v>134.6160721534364</v>
+        <v>90.93194905400989</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -4936,46 +4936,46 @@
         <v>14</v>
       </c>
       <c r="B97">
-        <v>0.1867349828142574</v>
+        <v>0.2873495152144097</v>
       </c>
       <c r="C97">
-        <v>0.1548679733945579</v>
+        <v>0.00878849540382118</v>
       </c>
       <c r="D97">
-        <v>0.13126820353393</v>
+        <v>0.1096681109163615</v>
       </c>
       <c r="E97">
-        <v>1.422545428268853</v>
+        <v>2.620173839171508</v>
       </c>
       <c r="F97">
-        <v>0.4148288095102425</v>
+        <v>0.06754850134152615</v>
       </c>
       <c r="G97">
-        <v>0.004032104665609142</v>
+        <v>0.6248661199572956</v>
       </c>
       <c r="H97">
-        <v>0.1442562150367563</v>
+        <v>0.1381457402002617</v>
       </c>
       <c r="I97">
-        <v>2.875639080122439</v>
+        <v>0.4889655029797161</v>
       </c>
       <c r="J97">
-        <v>-0.002190849613371043</v>
+        <v>0.1940561431758522</v>
       </c>
       <c r="K97">
-        <v>0.9877563695731139</v>
+        <v>0.1492063481309071</v>
       </c>
       <c r="L97">
-        <v>0.1427661906533104</v>
+        <v>0.1345425348344095</v>
       </c>
       <c r="M97">
-        <v>-0.01534571738130384</v>
+        <v>1.442340471841787</v>
       </c>
       <c r="N97">
-        <v>127.0772364010979</v>
+        <v>82.3589101429653</v>
       </c>
       <c r="O97">
-        <v>134.5620404447295</v>
+        <v>89.84371418659687</v>
       </c>
     </row>
     <row r="98" spans="1:15">
@@ -4983,46 +4983,46 @@
         <v>14</v>
       </c>
       <c r="B98">
-        <v>0.1755354556553668</v>
+        <v>0.269400603288053</v>
       </c>
       <c r="C98">
-        <v>0.2021194501720837</v>
+        <v>0.01817993913180582</v>
       </c>
       <c r="D98">
-        <v>0.1376169712897031</v>
+        <v>0.1140593870919393</v>
       </c>
       <c r="E98">
-        <v>1.275536396494586</v>
+        <v>2.361932762893935</v>
       </c>
       <c r="F98">
-        <v>0.3364928862888496</v>
+        <v>0.1070161030133297</v>
       </c>
       <c r="G98">
-        <v>0.01905021289736331</v>
+        <v>0.4645250630715185</v>
       </c>
       <c r="H98">
-        <v>0.1435214974461706</v>
+        <v>0.1463135825598437</v>
       </c>
       <c r="I98">
-        <v>2.344546930434969</v>
+        <v>0.7314160527069251</v>
       </c>
       <c r="J98">
-        <v>0.07553167158633436</v>
+        <v>0.1459379829144549</v>
       </c>
       <c r="K98">
-        <v>0.5983987377387471</v>
+        <v>0.3069611660272709</v>
       </c>
       <c r="L98">
-        <v>0.1434042364001998</v>
+        <v>0.142849686743596</v>
       </c>
       <c r="M98">
-        <v>0.5267046042876116</v>
+        <v>1.021619201562564</v>
       </c>
       <c r="N98">
-        <v>131.9361881882196</v>
+        <v>86.06519334996251</v>
       </c>
       <c r="O98">
-        <v>139.4209922318512</v>
+        <v>93.54999739359408</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -5030,46 +5030,46 @@
         <v>14</v>
       </c>
       <c r="B99">
-        <v>0.1716997148248683</v>
+        <v>0.1313073217930865</v>
       </c>
       <c r="C99">
-        <v>0.212323425075514</v>
+        <v>0.2959331609738857</v>
       </c>
       <c r="D99">
-        <v>0.13766792332498</v>
+        <v>0.1256295765724633</v>
       </c>
       <c r="E99">
-        <v>1.247202040082733</v>
+        <v>1.045194335406745</v>
       </c>
       <c r="F99">
-        <v>0.3346079985418607</v>
+        <v>0.2215313540793546</v>
       </c>
       <c r="G99">
-        <v>0.02007392072863901</v>
+        <v>0.174524428202102</v>
       </c>
       <c r="H99">
-        <v>0.1439196882178436</v>
+        <v>0.1631535958353473</v>
       </c>
       <c r="I99">
-        <v>2.324963336742241</v>
+        <v>1.357808591009674</v>
       </c>
       <c r="J99">
-        <v>0.0760872417870917</v>
+        <v>0.2709292661586103</v>
       </c>
       <c r="K99">
-        <v>0.5972277743601373</v>
+        <v>0.1066454025949058</v>
       </c>
       <c r="L99">
-        <v>0.143997907848381</v>
+        <v>0.1679185611607472</v>
       </c>
       <c r="M99">
-        <v>0.528391300429211</v>
+        <v>1.61345633434324</v>
       </c>
       <c r="N99">
-        <v>132.2251495369774</v>
+        <v>100.4612842704981</v>
       </c>
       <c r="O99">
-        <v>139.7099535806089</v>
+        <v>107.9460883141297</v>
       </c>
     </row>
     <row r="100" spans="1:15">
@@ -5077,46 +5077,46 @@
         <v>14</v>
       </c>
       <c r="B100">
-        <v>0.1657013547478861</v>
+        <v>-0.08546400015792109</v>
       </c>
       <c r="C100">
-        <v>0.2256593970085949</v>
+        <v>0.5209782404456228</v>
       </c>
       <c r="D100">
-        <v>0.1367606165501588</v>
+        <v>0.1331550528816381</v>
       </c>
       <c r="E100">
-        <v>1.211616026073653</v>
+        <v>-0.6418382052229761</v>
       </c>
       <c r="F100">
-        <v>0.332104733852827</v>
+        <v>0.5954234564897963</v>
       </c>
       <c r="G100">
-        <v>0.02097376869402834</v>
+        <v>0.0002286220686143741</v>
       </c>
       <c r="H100">
-        <v>0.1438644208263506</v>
+        <v>0.161576378823306</v>
       </c>
       <c r="I100">
-        <v>2.30845633649538</v>
+        <v>3.685089744095142</v>
       </c>
       <c r="J100">
-        <v>0.07682257095691244</v>
+        <v>0.386834735082626</v>
       </c>
       <c r="K100">
-        <v>0.5932231213829571</v>
+        <v>0.04551241549156998</v>
       </c>
       <c r="L100">
-        <v>0.1438163961355308</v>
+        <v>0.1934282499050019</v>
       </c>
       <c r="M100">
-        <v>0.5341711586522847</v>
+        <v>1.999887479065811</v>
       </c>
       <c r="N100">
-        <v>132.2093742867902</v>
+        <v>115.0695484075056</v>
       </c>
       <c r="O100">
-        <v>139.6941783304217</v>
+        <v>122.5543524511372</v>
       </c>
     </row>
     <row r="101" spans="1:15">
@@ -5124,46 +5124,46 @@
         <v>14</v>
       </c>
       <c r="B101">
-        <v>0.1049727666984512</v>
+        <v>0.1061468185485747</v>
       </c>
       <c r="C101">
-        <v>0.471868034496962</v>
+        <v>0.4008898388807653</v>
       </c>
       <c r="D101">
-        <v>0.1459083935129108</v>
+        <v>0.1263602838942971</v>
       </c>
       <c r="E101">
-        <v>0.719442961238297</v>
+        <v>0.8400330806265733</v>
       </c>
       <c r="F101">
-        <v>0.3519857557417175</v>
+        <v>0.3404315777627142</v>
       </c>
       <c r="G101">
-        <v>0.0222080975522835</v>
+        <v>0.02124123183642945</v>
       </c>
       <c r="H101">
-        <v>0.1539213451535149</v>
+        <v>0.147777992061618</v>
       </c>
       <c r="I101">
-        <v>2.286789758695658</v>
+        <v>2.303668990310592</v>
       </c>
       <c r="J101">
-        <v>0.07311108449478146</v>
+        <v>0.1380019767957041</v>
       </c>
       <c r="K101">
-        <v>0.6349396151244537</v>
+        <v>0.4612192334412506</v>
       </c>
       <c r="L101">
-        <v>0.1539874946238363</v>
+        <v>0.1872887560115014</v>
       </c>
       <c r="M101">
-        <v>0.4747858563020242</v>
+        <v>0.7368406931339186</v>
       </c>
       <c r="N101">
-        <v>138.805927003148</v>
+        <v>121.7949681273592</v>
       </c>
       <c r="O101">
-        <v>146.2907310467795</v>
+        <v>129.2797721709908</v>
       </c>
     </row>
     <row r="102" spans="1:15">
@@ -5171,46 +5171,46 @@
         <v>14</v>
       </c>
       <c r="B102">
-        <v>-0.1426285206180569</v>
+        <v>0.153440573224372</v>
       </c>
       <c r="C102">
-        <v>0.547767714095988</v>
+        <v>0.2102793769738714</v>
       </c>
       <c r="D102">
-        <v>0.2372758290487774</v>
+        <v>0.1224783426972012</v>
       </c>
       <c r="E102">
-        <v>-0.6011085123581483</v>
+        <v>1.25279759543871</v>
       </c>
       <c r="F102">
-        <v>0.7543296262710919</v>
+        <v>0.3863258135949832</v>
       </c>
       <c r="G102">
-        <v>0.001273282267751887</v>
+        <v>0.007506604069138108</v>
       </c>
       <c r="H102">
-        <v>0.2341232012937255</v>
+        <v>0.1445023201348044</v>
       </c>
       <c r="I102">
-        <v>3.221934528926621</v>
+        <v>2.67349211579845</v>
       </c>
       <c r="J102">
-        <v>0.005374954043694147</v>
+        <v>0.01104832376143852</v>
       </c>
       <c r="K102">
-        <v>0.9826293592474385</v>
+        <v>0.9381772750396548</v>
       </c>
       <c r="L102">
-        <v>0.2468679250346671</v>
+        <v>0.1424469167825276</v>
       </c>
       <c r="M102">
-        <v>0.02177258970738849</v>
+        <v>0.07756098911081308</v>
       </c>
       <c r="N102">
-        <v>187.2486410283389</v>
+        <v>123.0739561925895</v>
       </c>
       <c r="O102">
-        <v>194.7334450719705</v>
+        <v>130.5587602362211</v>
       </c>
     </row>
     <row r="103" spans="1:15">
@@ -5218,46 +5218,46 @@
         <v>14</v>
       </c>
       <c r="B103">
-        <v>0.1975811584453767</v>
+        <v>0.1389652923054716</v>
       </c>
       <c r="C103">
-        <v>0.5161310266455006</v>
+        <v>0.2545535209862264</v>
       </c>
       <c r="D103">
-        <v>0.3042889589111581</v>
+        <v>0.1219679778540446</v>
       </c>
       <c r="E103">
-        <v>0.6493208269941324</v>
+        <v>1.139358828034086</v>
       </c>
       <c r="F103">
-        <v>-0.349542261787224</v>
+        <v>0.3855241204054858</v>
       </c>
       <c r="G103">
-        <v>0.06128519641148606</v>
+        <v>0.007509479124353981</v>
       </c>
       <c r="H103">
-        <v>0.1867779436375848</v>
+        <v>0.14420938089176</v>
       </c>
       <c r="I103">
-        <v>-1.871432220420306</v>
+        <v>2.673363674550761</v>
       </c>
       <c r="J103">
-        <v>0.1407035695703318</v>
+        <v>-0.003912425545139916</v>
       </c>
       <c r="K103">
-        <v>0.6631137600712451</v>
+        <v>0.9784224048728732</v>
       </c>
       <c r="L103">
-        <v>0.3229974504001594</v>
+        <v>0.1446539043351014</v>
       </c>
       <c r="M103">
-        <v>0.4356182050230274</v>
+        <v>-0.02704680224929495</v>
       </c>
       <c r="N103">
-        <v>213.0870681066552</v>
+        <v>122.7989114937188</v>
       </c>
       <c r="O103">
-        <v>220.5718721502868</v>
+        <v>130.2837155373504</v>
       </c>
     </row>
     <row r="104" spans="1:15">
@@ -5265,46 +5265,46 @@
         <v>14</v>
       </c>
       <c r="B104">
-        <v>0.3169635162600885</v>
+        <v>0.1313400336858587</v>
       </c>
       <c r="C104">
-        <v>0.2858603688913774</v>
+        <v>0.2779616598211592</v>
       </c>
       <c r="D104">
-        <v>0.296991748230283</v>
+        <v>0.1210607997966735</v>
       </c>
       <c r="E104">
-        <v>1.067246878570914</v>
+        <v>1.084909680973937</v>
       </c>
       <c r="F104">
-        <v>-0.2396576680353337</v>
+        <v>0.3795302202084146</v>
       </c>
       <c r="G104">
-        <v>0.09561091904594689</v>
+        <v>0.008229855625669642</v>
       </c>
       <c r="H104">
-        <v>0.1438077029112506</v>
+        <v>0.1436259057531887</v>
       </c>
       <c r="I104">
-        <v>-1.666514819329503</v>
+        <v>2.642491396089863</v>
       </c>
       <c r="J104">
-        <v>-0.131935651083613</v>
+        <v>-0.002682705365234184</v>
       </c>
       <c r="K104">
-        <v>0.450267085076118</v>
+        <v>0.985043575429961</v>
       </c>
       <c r="L104">
-        <v>0.1747561901356629</v>
+        <v>0.1431066509433078</v>
       </c>
       <c r="M104">
-        <v>-0.7549698295733709</v>
+        <v>-0.01874619626377077</v>
       </c>
       <c r="N104">
-        <v>212.8794714614721</v>
+        <v>122.1509300743132</v>
       </c>
       <c r="O104">
-        <v>220.3642755051037</v>
+        <v>129.6357341179448</v>
       </c>
     </row>
     <row r="105" spans="1:15">
@@ -5312,46 +5312,46 @@
         <v>14</v>
       </c>
       <c r="B105">
-        <v>0.4574170819135874</v>
+        <v>0.1868023009942607</v>
       </c>
       <c r="C105">
-        <v>0.09936925597010805</v>
+        <v>0.1278183494869503</v>
       </c>
       <c r="D105">
-        <v>0.2775725205922189</v>
+        <v>0.1226733690295733</v>
       </c>
       <c r="E105">
-        <v>1.647919185003107</v>
+        <v>1.522761643150337</v>
       </c>
       <c r="F105">
-        <v>-0.3038024387735363</v>
+        <v>0.4113958219334716</v>
       </c>
       <c r="G105">
-        <v>0.02107471675558132</v>
+        <v>0.006067210025629616</v>
       </c>
       <c r="H105">
-        <v>0.1317075970585642</v>
+        <v>0.1499186641768847</v>
       </c>
       <c r="I105">
-        <v>-2.306643242746655</v>
+        <v>2.744126784961727</v>
       </c>
       <c r="J105">
-        <v>-0.2121859828010515</v>
+        <v>0.02963340013839363</v>
       </c>
       <c r="K105">
-        <v>0.1044898147083383</v>
+        <v>0.8421938703773613</v>
       </c>
       <c r="L105">
-        <v>0.1306993654267891</v>
+        <v>0.1488457013425155</v>
       </c>
       <c r="M105">
-        <v>-1.623466052097299</v>
+        <v>0.1990880480330626</v>
       </c>
       <c r="N105">
-        <v>205.381992556012</v>
+        <v>123.2673346782205</v>
       </c>
       <c r="O105">
-        <v>212.8667965996435</v>
+        <v>130.7521387218521</v>
       </c>
     </row>
     <row r="106" spans="1:15">
@@ -5359,46 +5359,46 @@
         <v>14</v>
       </c>
       <c r="B106">
-        <v>0.5863212428172949</v>
+        <v>0.1778404656212904</v>
       </c>
       <c r="C106">
-        <v>0.03841880652194445</v>
+        <v>0.1525787492686552</v>
       </c>
       <c r="D106">
-        <v>0.2831979619517374</v>
+        <v>0.1243220639517583</v>
       </c>
       <c r="E106">
-        <v>2.070358270859364</v>
+        <v>1.430481927088175</v>
       </c>
       <c r="F106">
-        <v>-0.3994349527932676</v>
+        <v>0.3994869257531224</v>
       </c>
       <c r="G106">
-        <v>0.003726705873957467</v>
+        <v>0.005693615253467004</v>
       </c>
       <c r="H106">
-        <v>0.1377165504116222</v>
+        <v>0.1444839000596118</v>
       </c>
       <c r="I106">
-        <v>-2.900413578465283</v>
+        <v>2.764923466132215</v>
       </c>
       <c r="J106">
-        <v>-0.2646306097635652</v>
+        <v>0.03092678940585661</v>
       </c>
       <c r="K106">
-        <v>0.04442999186668282</v>
+        <v>0.838745372664206</v>
       </c>
       <c r="L106">
-        <v>0.1316562789874712</v>
+        <v>0.1519754720238874</v>
       </c>
       <c r="M106">
-        <v>-2.01001130974352</v>
+        <v>0.2034985579843803</v>
       </c>
       <c r="N106">
-        <v>206.0345890022862</v>
+        <v>123.6893922951941</v>
       </c>
       <c r="O106">
-        <v>213.5193930459178</v>
+        <v>131.1741963388257</v>
       </c>
     </row>
     <row r="107" spans="1:15">
@@ -5406,46 +5406,46 @@
         <v>14</v>
       </c>
       <c r="B107">
-        <v>0.6697208854875031</v>
+        <v>0.187634532504858</v>
       </c>
       <c r="C107">
-        <v>0.01983517433733205</v>
+        <v>0.1319319088176206</v>
       </c>
       <c r="D107">
-        <v>0.2875015711092626</v>
+        <v>0.1245477291280004</v>
       </c>
       <c r="E107">
-        <v>2.329451219704748</v>
+        <v>1.506527126737268</v>
       </c>
       <c r="F107">
-        <v>-0.406741629653372</v>
+        <v>0.4131258787367731</v>
       </c>
       <c r="G107">
-        <v>0.003403738155594577</v>
+        <v>0.004052536418874447</v>
       </c>
       <c r="H107">
-        <v>0.1388809006088633</v>
+        <v>0.1437438002108983</v>
       </c>
       <c r="I107">
-        <v>-2.928708179959872</v>
+        <v>2.874043110942122</v>
       </c>
       <c r="J107">
-        <v>-0.3048389959353506</v>
+        <v>0.007056566488745988</v>
       </c>
       <c r="K107">
-        <v>0.02919584393974889</v>
+        <v>0.9609286410467289</v>
       </c>
       <c r="L107">
-        <v>0.139781053452275</v>
+        <v>0.1440460333233273</v>
       </c>
       <c r="M107">
-        <v>-2.180832011252733</v>
+        <v>0.04898827358131232</v>
       </c>
       <c r="N107">
-        <v>206.2217124694824</v>
+        <v>122.8074141792978</v>
       </c>
       <c r="O107">
-        <v>213.706516513114</v>
+        <v>130.2922182229294</v>
       </c>
     </row>
     <row r="108" spans="1:15">
@@ -5453,46 +5453,46 @@
         <v>14</v>
       </c>
       <c r="B108">
-        <v>0.6721399012999505</v>
+        <v>0.1906159009485571</v>
       </c>
       <c r="C108">
-        <v>0.02062102253060105</v>
+        <v>0.1354344528897257</v>
       </c>
       <c r="D108">
-        <v>0.2903597490198186</v>
+        <v>0.1276721818167276</v>
       </c>
       <c r="E108">
-        <v>2.314852191355467</v>
+        <v>1.493010444688607</v>
       </c>
       <c r="F108">
-        <v>-0.4006079901357545</v>
+        <v>0.4148182220656881</v>
       </c>
       <c r="G108">
-        <v>0.003721293583702675</v>
+        <v>0.004297588680240346</v>
       </c>
       <c r="H108">
-        <v>0.1380993019104058</v>
+        <v>0.1452724507749169</v>
       </c>
       <c r="I108">
-        <v>-2.900869045635404</v>
+        <v>2.855450017212154</v>
       </c>
       <c r="J108">
-        <v>-0.2917505991143214</v>
+        <v>0.009131918905765882</v>
       </c>
       <c r="K108">
-        <v>0.0353159196237998</v>
+        <v>0.9497149434151364</v>
       </c>
       <c r="L108">
-        <v>0.1386174726194376</v>
+        <v>0.144802268002729</v>
       </c>
       <c r="M108">
-        <v>-2.104717346241751</v>
+        <v>0.06306475051615752</v>
       </c>
       <c r="N108">
-        <v>206.4519243178729</v>
+        <v>124.7934509433777</v>
       </c>
       <c r="O108">
-        <v>213.9367283615045</v>
+        <v>132.2782549870093</v>
       </c>
     </row>
     <row r="109" spans="1:15">
@@ -5500,46 +5500,46 @@
         <v>14</v>
       </c>
       <c r="B109">
-        <v>0.658830155660504</v>
+        <v>0.1937322482572149</v>
       </c>
       <c r="C109">
-        <v>0.02313799810439175</v>
+        <v>0.139548348946029</v>
       </c>
       <c r="D109">
-        <v>0.2900867976560066</v>
+        <v>0.1311238737360054</v>
       </c>
       <c r="E109">
-        <v>2.271148363124626</v>
+        <v>1.477475022185969</v>
       </c>
       <c r="F109">
-        <v>-0.4016523413773242</v>
+        <v>0.4688531496802593</v>
       </c>
       <c r="G109">
-        <v>0.00359979231227277</v>
+        <v>0.001197083697343839</v>
       </c>
       <c r="H109">
-        <v>0.1379653234617633</v>
+        <v>0.1447267879642263</v>
       </c>
       <c r="I109">
-        <v>-2.911255751077487</v>
+        <v>3.239574071084551</v>
       </c>
       <c r="J109">
-        <v>-0.2930042129265577</v>
+        <v>-0.05063097652872951</v>
       </c>
       <c r="K109">
-        <v>0.03388076151613816</v>
+        <v>0.7290322691392677</v>
       </c>
       <c r="L109">
-        <v>0.1381125987023332</v>
+        <v>0.1461577928882969</v>
       </c>
       <c r="M109">
-        <v>-2.121487943022883</v>
+        <v>-0.3464131164557535</v>
       </c>
       <c r="N109">
-        <v>206.3544839459261</v>
+        <v>127.5051766197943</v>
       </c>
       <c r="O109">
-        <v>213.8392879895576</v>
+        <v>134.9899806634259</v>
       </c>
     </row>
     <row r="110" spans="1:15">
@@ -5547,46 +5547,46 @@
         <v>14</v>
       </c>
       <c r="B110">
-        <v>0.6541223361763624</v>
+        <v>0.1813531020696283</v>
       </c>
       <c r="C110">
-        <v>0.01617093995195185</v>
+        <v>0.1613290626696737</v>
       </c>
       <c r="D110">
-        <v>0.2719804400148639</v>
+        <v>0.1294809982586071</v>
       </c>
       <c r="E110">
-        <v>2.405034480202379</v>
+        <v>1.400615569146441</v>
       </c>
       <c r="F110">
-        <v>-0.4553437783875506</v>
+        <v>0.4815593473788521</v>
       </c>
       <c r="G110">
-        <v>0.0007759923670559838</v>
+        <v>0.0007165065877248954</v>
       </c>
       <c r="H110">
-        <v>0.13546982859613</v>
+        <v>0.142339102401152</v>
       </c>
       <c r="I110">
-        <v>-3.361219122414674</v>
+        <v>3.38318381425282</v>
       </c>
       <c r="J110">
-        <v>-0.3091262590966923</v>
+        <v>-0.06003489181687346</v>
       </c>
       <c r="K110">
-        <v>0.02249317699086669</v>
+        <v>0.6730146221256563</v>
       </c>
       <c r="L110">
-        <v>0.1354667230119467</v>
+        <v>0.1422579757933514</v>
       </c>
       <c r="M110">
-        <v>-2.281935018605497</v>
+        <v>-0.4220142419577382</v>
       </c>
       <c r="N110">
-        <v>199.7452776197219</v>
+        <v>126.0247466189283</v>
       </c>
       <c r="O110">
-        <v>207.2300816633535</v>
+        <v>133.5095506625599</v>
       </c>
     </row>
     <row r="111" spans="1:15">
@@ -5594,46 +5594,46 @@
         <v>14</v>
       </c>
       <c r="B111">
-        <v>0.6338692133241772</v>
+        <v>0.1635772049666466</v>
       </c>
       <c r="C111">
-        <v>0.01835229841596315</v>
+        <v>0.2076060110317646</v>
       </c>
       <c r="D111">
-        <v>0.2687671666149032</v>
+        <v>0.1298050848595911</v>
       </c>
       <c r="E111">
-        <v>2.358432472640537</v>
+        <v>1.260175632900564</v>
       </c>
       <c r="F111">
-        <v>-0.4728327376471393</v>
+        <v>0.464914722369805</v>
       </c>
       <c r="G111">
-        <v>0.0005134341482791306</v>
+        <v>0.001302816315492801</v>
       </c>
       <c r="H111">
-        <v>0.1361199349770688</v>
+        <v>0.1445918700747854</v>
       </c>
       <c r="I111">
-        <v>-3.473647983499215</v>
+        <v>3.215358665250978</v>
       </c>
       <c r="J111">
-        <v>-0.318095368313789</v>
+        <v>-0.04783654825621333</v>
       </c>
       <c r="K111">
-        <v>0.0183888747915654</v>
+        <v>0.7389584619708147</v>
       </c>
       <c r="L111">
-        <v>0.1349180394292761</v>
+        <v>0.1435528839170215</v>
       </c>
       <c r="M111">
-        <v>-2.357693379324076</v>
+        <v>-0.3332329309654588</v>
       </c>
       <c r="N111">
-        <v>199.0634823510619</v>
+        <v>126.4233027457904</v>
       </c>
       <c r="O111">
-        <v>206.5482863946934</v>
+        <v>133.908106789422</v>
       </c>
     </row>
     <row r="112" spans="1:15">
@@ -5641,46 +5641,46 @@
         <v>14</v>
       </c>
       <c r="B112">
-        <v>0.6000852497979909</v>
+        <v>0.1674726304671326</v>
       </c>
       <c r="C112">
-        <v>0.02423429207426314</v>
+        <v>0.1937562934022992</v>
       </c>
       <c r="D112">
-        <v>0.266302804687333</v>
+        <v>0.128870011968908</v>
       </c>
       <c r="E112">
-        <v>2.25339440379741</v>
+        <v>1.299546945859974</v>
       </c>
       <c r="F112">
-        <v>-0.4819005718006494</v>
+        <v>0.4504719243100628</v>
       </c>
       <c r="G112">
-        <v>0.0004008104788381866</v>
+        <v>0.001771070488578957</v>
       </c>
       <c r="H112">
-        <v>0.1361474281814001</v>
+        <v>0.1440976709235778</v>
       </c>
       <c r="I112">
-        <v>-3.539549576790938</v>
+        <v>3.126156872785061</v>
       </c>
       <c r="J112">
-        <v>-0.3327439843994221</v>
+        <v>-0.04823451507273305</v>
       </c>
       <c r="K112">
-        <v>0.01447331588065536</v>
+        <v>0.7367141451580093</v>
       </c>
       <c r="L112">
-        <v>0.1360751156092539</v>
+        <v>0.1434663624191288</v>
       </c>
       <c r="M112">
-        <v>-2.445296356425022</v>
+        <v>-0.3362078347802439</v>
       </c>
       <c r="N112">
-        <v>198.7154432008516</v>
+        <v>126.3745290610684</v>
       </c>
       <c r="O112">
-        <v>206.2002472444832</v>
+        <v>133.8593331047</v>
       </c>
     </row>
     <row r="113" spans="1:15">
@@ -5688,46 +5688,46 @@
         <v>14</v>
       </c>
       <c r="B113">
-        <v>0.5374343192579305</v>
+        <v>0.1593966401179251</v>
       </c>
       <c r="C113">
-        <v>0.04092916921343212</v>
+        <v>0.2130825517771089</v>
       </c>
       <c r="D113">
-        <v>0.2629008943571171</v>
+        <v>0.1280156664354913</v>
       </c>
       <c r="E113">
-        <v>2.044246827581708</v>
+        <v>1.245133853974405</v>
       </c>
       <c r="F113">
-        <v>-0.4854301025436767</v>
+        <v>0.4573219201382489</v>
       </c>
       <c r="G113">
-        <v>0.0003161041754491738</v>
+        <v>0.001454995763677111</v>
       </c>
       <c r="H113">
-        <v>0.1347768533689596</v>
+        <v>0.1436532281178843</v>
       </c>
       <c r="I113">
-        <v>-3.601731977038988</v>
+        <v>3.183513006494799</v>
       </c>
       <c r="J113">
-        <v>-0.3374834799330804</v>
+        <v>-0.05259876675180582</v>
       </c>
       <c r="K113">
-        <v>0.01239629175069859</v>
+        <v>0.7123959912635205</v>
       </c>
       <c r="L113">
-        <v>0.1349578855233921</v>
+        <v>0.1426832422830842</v>
       </c>
       <c r="M113">
-        <v>-2.500657732034374</v>
+        <v>-0.3686401143551928</v>
       </c>
       <c r="N113">
-        <v>197.8828362649158</v>
+        <v>126.2030745787335</v>
       </c>
       <c r="O113">
-        <v>205.3676403085474</v>
+        <v>133.6878786223651</v>
       </c>
     </row>
     <row r="114" spans="1:15">
@@ -5735,46 +5735,46 @@
         <v>14</v>
       </c>
       <c r="B114">
-        <v>0.5132381042060387</v>
+        <v>0.1682202431116401</v>
       </c>
       <c r="C114">
-        <v>0.04992223340160812</v>
+        <v>0.1831583278799114</v>
       </c>
       <c r="D114">
-        <v>0.2617720726283433</v>
+        <v>0.1263775039059984</v>
       </c>
       <c r="E114">
-        <v>1.96062971520541</v>
+        <v>1.331093255622179</v>
       </c>
       <c r="F114">
-        <v>-0.4524216994979626</v>
+        <v>0.4679879927902221</v>
       </c>
       <c r="G114">
-        <v>0.0009091777429919706</v>
+        <v>0.001063152908909157</v>
       </c>
       <c r="H114">
-        <v>0.1363857709324073</v>
+        <v>0.1429731345757304</v>
       </c>
       <c r="I114">
-        <v>-3.3172206778241</v>
+        <v>3.273258253580059</v>
       </c>
       <c r="J114">
-        <v>-0.3253851264165818</v>
+        <v>-0.04388248383733274</v>
       </c>
       <c r="K114">
-        <v>0.0163216783799435</v>
+        <v>0.7569722616148826</v>
       </c>
       <c r="L114">
-        <v>0.1354844489151918</v>
+        <v>0.1418037892857789</v>
       </c>
       <c r="M114">
-        <v>-2.401641878620777</v>
+        <v>-0.3094591763616121</v>
       </c>
       <c r="N114">
-        <v>198.066987649529</v>
+        <v>125.4269671264555</v>
       </c>
       <c r="O114">
-        <v>205.5517916931605</v>
+        <v>132.9117711700871</v>
       </c>
     </row>
     <row r="115" spans="1:15">
@@ -5782,46 +5782,46 @@
         <v>14</v>
       </c>
       <c r="B115">
-        <v>0.4883550667635859</v>
+        <v>0.1527331828441004</v>
       </c>
       <c r="C115">
-        <v>0.06014224543857449</v>
+        <v>0.2309732921779243</v>
       </c>
       <c r="D115">
-        <v>0.2597979698958762</v>
+        <v>0.1275055196758276</v>
       </c>
       <c r="E115">
-        <v>1.879749356622427</v>
+        <v>1.197855459374717</v>
       </c>
       <c r="F115">
-        <v>-0.4551825938766707</v>
+        <v>0.46592440982823</v>
       </c>
       <c r="G115">
-        <v>0.0008131215988191255</v>
+        <v>0.001390793575276744</v>
       </c>
       <c r="H115">
-        <v>0.1359448329146251</v>
+        <v>0.1457583006093889</v>
       </c>
       <c r="I115">
-        <v>-3.348289038411122</v>
+        <v>3.196554898625223</v>
       </c>
       <c r="J115">
-        <v>-0.3351910627366981</v>
+        <v>-0.0400237524754839</v>
       </c>
       <c r="K115">
-        <v>0.01367311534153842</v>
+        <v>0.7832541889066964</v>
       </c>
       <c r="L115">
-        <v>0.1359394260675238</v>
+        <v>0.145498186508017</v>
       </c>
       <c r="M115">
-        <v>-2.465738398587926</v>
+        <v>-0.275080765170077</v>
       </c>
       <c r="N115">
-        <v>197.7044675835122</v>
+        <v>126.4752691116682</v>
       </c>
       <c r="O115">
-        <v>205.1892716271437</v>
+        <v>133.9600731552998</v>
       </c>
     </row>
     <row r="116" spans="1:15">
@@ -5829,46 +5829,46 @@
         <v>14</v>
       </c>
       <c r="B116">
-        <v>0.481845091265951</v>
+        <v>0.1236351140389721</v>
       </c>
       <c r="C116">
-        <v>0.06344002322863912</v>
+        <v>0.3208326809803563</v>
       </c>
       <c r="D116">
-        <v>0.2596015291361334</v>
+        <v>0.1245382408954171</v>
       </c>
       <c r="E116">
-        <v>1.856094965501049</v>
+        <v>0.9927481964579588</v>
       </c>
       <c r="F116">
-        <v>-0.4527290393608462</v>
+        <v>0.460051689923771</v>
       </c>
       <c r="G116">
-        <v>0.0008856563149369235</v>
+        <v>0.001047623250488404</v>
       </c>
       <c r="H116">
-        <v>0.1361780915645251</v>
+        <v>0.1403702953767788</v>
       </c>
       <c r="I116">
-        <v>-3.324536525365611</v>
+        <v>3.277414845419472</v>
       </c>
       <c r="J116">
-        <v>-0.3337911092704915</v>
+        <v>-0.02034516958386008</v>
       </c>
       <c r="K116">
-        <v>0.01416572352590514</v>
+        <v>0.8858985101641483</v>
       </c>
       <c r="L116">
-        <v>0.1360728013961441</v>
+        <v>0.1417821874997043</v>
       </c>
       <c r="M116">
-        <v>-2.453033272231509</v>
+        <v>-0.1434959492630378</v>
       </c>
       <c r="N116">
-        <v>197.8082244688284</v>
+        <v>124.3548468704919</v>
       </c>
       <c r="O116">
-        <v>205.29302851246</v>
+        <v>131.8396509141234</v>
       </c>
     </row>
     <row r="117" spans="1:15">
@@ -5876,46 +5876,46 @@
         <v>14</v>
       </c>
       <c r="B117">
-        <v>0.4768365475178873</v>
+        <v>0.1473744456073934</v>
       </c>
       <c r="C117">
-        <v>0.06611648443027199</v>
+        <v>0.2345970486927672</v>
       </c>
       <c r="D117">
-        <v>0.259484083810259</v>
+        <v>0.1239899267763752</v>
       </c>
       <c r="E117">
-        <v>1.837633123835686</v>
+        <v>1.188600150342808</v>
       </c>
       <c r="F117">
-        <v>-0.452402482718154</v>
+        <v>0.4660357658320716</v>
       </c>
       <c r="G117">
-        <v>0.0008915425211897937</v>
+        <v>0.001214078791150184</v>
       </c>
       <c r="H117">
-        <v>0.136155530280069</v>
+        <v>0.1440359490526446</v>
       </c>
       <c r="I117">
-        <v>-3.32268899976058</v>
+        <v>3.235551741751202</v>
       </c>
       <c r="J117">
-        <v>-0.3324803154518182</v>
+        <v>-0.01012993450457401</v>
       </c>
       <c r="K117">
-        <v>0.01467625281395915</v>
+        <v>0.942972929435906</v>
       </c>
       <c r="L117">
-        <v>0.1362472991687922</v>
+        <v>0.1416104737120424</v>
       </c>
       <c r="M117">
-        <v>-2.440270871277378</v>
+        <v>-0.07153379435177032</v>
       </c>
       <c r="N117">
-        <v>197.9019006326783</v>
+        <v>124.5466106068051</v>
       </c>
       <c r="O117">
-        <v>205.3867046763099</v>
+        <v>132.0314146504366</v>
       </c>
     </row>
     <row r="118" spans="1:15">
@@ -5923,46 +5923,46 @@
         <v>14</v>
       </c>
       <c r="B118">
-        <v>0.4402300220723241</v>
+        <v>0.1524556589478365</v>
       </c>
       <c r="C118">
-        <v>0.09201399235918069</v>
+        <v>0.2156573314845034</v>
       </c>
       <c r="D118">
-        <v>0.2612845369848295</v>
+        <v>0.1231309809903997</v>
       </c>
       <c r="E118">
-        <v>1.684868255705022</v>
+        <v>1.238158404339548</v>
       </c>
       <c r="F118">
-        <v>-0.3797396007373646</v>
+        <v>0.4519839642418489</v>
       </c>
       <c r="G118">
-        <v>0.00594819288979587</v>
+        <v>0.001669248514992524</v>
       </c>
       <c r="H118">
-        <v>0.1380558164996376</v>
+        <v>0.1437824211077476</v>
       </c>
       <c r="I118">
-        <v>-2.75062369964225</v>
+        <v>3.14352728768659</v>
       </c>
       <c r="J118">
-        <v>-0.2926730306208346</v>
+        <v>0.01248720495748847</v>
       </c>
       <c r="K118">
-        <v>0.03400867030281143</v>
+        <v>0.9309625428774362</v>
       </c>
       <c r="L118">
-        <v>0.138055343266809</v>
+        <v>0.1441376794432548</v>
       </c>
       <c r="M118">
-        <v>-2.119968874042114</v>
+        <v>0.08663386982308482</v>
       </c>
       <c r="N118">
-        <v>198.6875701879802</v>
+        <v>124.1817836283841</v>
       </c>
       <c r="O118">
-        <v>206.1723742316117</v>
+        <v>131.6665876720157</v>
       </c>
     </row>
     <row r="119" spans="1:15">
@@ -5970,46 +5970,46 @@
         <v>14</v>
       </c>
       <c r="B119">
-        <v>0.4297455569664963</v>
+        <v>0.1494889065307788</v>
       </c>
       <c r="C119">
-        <v>0.1002216978367568</v>
+        <v>0.2268881469102022</v>
       </c>
       <c r="D119">
-        <v>0.2614374261769452</v>
+        <v>0.1237067224831436</v>
       </c>
       <c r="E119">
-        <v>1.643779787962101</v>
+        <v>1.208413767094576</v>
       </c>
       <c r="F119">
-        <v>-0.3783105440516361</v>
+        <v>0.454557691195776</v>
       </c>
       <c r="G119">
-        <v>0.006163750553828818</v>
+        <v>0.001627806988687372</v>
       </c>
       <c r="H119">
-        <v>0.1381229449757737</v>
+        <v>0.1442638371792091</v>
       </c>
       <c r="I119">
-        <v>-2.738940616405121</v>
+        <v>3.150877587091421</v>
       </c>
       <c r="J119">
-        <v>-0.2914310493289787</v>
+        <v>0.01284711006901799</v>
       </c>
       <c r="K119">
-        <v>0.0350023366924939</v>
+        <v>0.9287464029889146</v>
       </c>
       <c r="L119">
-        <v>0.1382282947130797</v>
+        <v>0.1436680603568993</v>
       </c>
       <c r="M119">
-        <v>-2.108331365397379</v>
+        <v>0.08942217245157544</v>
       </c>
       <c r="N119">
-        <v>198.8162627933382</v>
+        <v>124.1402374846148</v>
       </c>
       <c r="O119">
-        <v>206.3010668369697</v>
+        <v>131.6250415282464</v>
       </c>
     </row>
     <row r="120" spans="1:15">
@@ -6017,46 +6017,46 @@
         <v>14</v>
       </c>
       <c r="B120">
-        <v>0.4286139323921373</v>
+        <v>0.1731573876294063</v>
       </c>
       <c r="C120">
-        <v>0.1008179677404912</v>
+        <v>0.1622543939427562</v>
       </c>
       <c r="D120">
-        <v>0.2612064547432345</v>
+        <v>0.1239024895839553</v>
       </c>
       <c r="E120">
-        <v>1.640900998459108</v>
+        <v>1.397529526733813</v>
       </c>
       <c r="F120">
-        <v>-0.3774258873972454</v>
+        <v>0.4592642560495261</v>
       </c>
       <c r="G120">
-        <v>0.006276155096568777</v>
+        <v>0.001431458930271891</v>
       </c>
       <c r="H120">
-        <v>0.1380998062961295</v>
+        <v>0.1440498467786448</v>
       </c>
       <c r="I120">
-        <v>-2.732993604552387</v>
+        <v>3.188231479032794</v>
       </c>
       <c r="J120">
-        <v>-0.2896683894384353</v>
+        <v>0.002833026377453085</v>
       </c>
       <c r="K120">
-        <v>0.03595766300138476</v>
+        <v>0.9843100299994386</v>
       </c>
       <c r="L120">
-        <v>0.1381079338495395</v>
+        <v>0.1440590590867591</v>
       </c>
       <c r="M120">
-        <v>-2.097405857609977</v>
+        <v>0.0196657287324562</v>
       </c>
       <c r="N120">
-        <v>198.8278249470879</v>
+        <v>123.9566770796168</v>
       </c>
       <c r="O120">
-        <v>206.3126289907195</v>
+        <v>131.4414811232483</v>
       </c>
     </row>
     <row r="121" spans="1:15">
@@ -6064,45 +6064,2066 @@
         <v>14</v>
       </c>
       <c r="B121">
+        <v>0.1454628405775277</v>
+      </c>
+      <c r="C121">
+        <v>0.2683424407389586</v>
+      </c>
+      <c r="D121">
+        <v>0.1314160662314246</v>
+      </c>
+      <c r="E121">
+        <v>1.106887801080324</v>
+      </c>
+      <c r="F121">
+        <v>0.4579295938939568</v>
+      </c>
+      <c r="G121">
+        <v>0.001588383363393579</v>
+      </c>
+      <c r="H121">
+        <v>0.1450047533291084</v>
+      </c>
+      <c r="I121">
+        <v>3.158031605037264</v>
+      </c>
+      <c r="J121">
+        <v>-0.01520781428071194</v>
+      </c>
+      <c r="K121">
+        <v>0.9163149032131654</v>
+      </c>
+      <c r="L121">
+        <v>0.1447305270968368</v>
+      </c>
+      <c r="M121">
+        <v>-0.1050767559945155</v>
+      </c>
+      <c r="N121">
+        <v>130.5040364359911</v>
+      </c>
+      <c r="O121">
+        <v>137.9888404796227</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122">
+        <v>0.142443991117107</v>
+      </c>
+      <c r="C122">
+        <v>0.2798327402238375</v>
+      </c>
+      <c r="D122">
+        <v>0.1318077450643252</v>
+      </c>
+      <c r="E122">
+        <v>1.080695152227899</v>
+      </c>
+      <c r="F122">
+        <v>0.4564036408837822</v>
+      </c>
+      <c r="G122">
+        <v>0.001553701169208045</v>
+      </c>
+      <c r="H122">
+        <v>0.1442278928068469</v>
+      </c>
+      <c r="I122">
+        <v>3.164461686305074</v>
+      </c>
+      <c r="J122">
+        <v>-0.01181504281295744</v>
+      </c>
+      <c r="K122">
+        <v>0.9348003855458463</v>
+      </c>
+      <c r="L122">
+        <v>0.1444262521687673</v>
+      </c>
+      <c r="M122">
+        <v>-0.08180675351979036</v>
+      </c>
+      <c r="N122">
+        <v>130.4835160384042</v>
+      </c>
+      <c r="O122">
+        <v>137.9683200820358</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B123">
+        <v>0.1657945550386411</v>
+      </c>
+      <c r="C123">
+        <v>0.2070709255091289</v>
+      </c>
+      <c r="D123">
+        <v>0.1314097862118489</v>
+      </c>
+      <c r="E123">
+        <v>1.261660640489588</v>
+      </c>
+      <c r="F123">
+        <v>0.459177413032191</v>
+      </c>
+      <c r="G123">
+        <v>0.001455304850798433</v>
+      </c>
+      <c r="H123">
+        <v>0.1442388587430024</v>
+      </c>
+      <c r="I123">
+        <v>3.183451512538173</v>
+      </c>
+      <c r="J123">
+        <v>-0.01802434434456361</v>
+      </c>
+      <c r="K123">
+        <v>0.9005563994407312</v>
+      </c>
+      <c r="L123">
+        <v>0.1442426352768171</v>
+      </c>
+      <c r="M123">
+        <v>-0.1249585069627504</v>
+      </c>
+      <c r="N123">
+        <v>130.4417950041899</v>
+      </c>
+      <c r="O123">
+        <v>137.9265990478214</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124">
+        <v>0.1905344611958936</v>
+      </c>
+      <c r="C124">
+        <v>0.138236670748857</v>
+      </c>
+      <c r="D124">
+        <v>0.1285319774093361</v>
+      </c>
+      <c r="E124">
+        <v>1.482389558118274</v>
+      </c>
+      <c r="F124">
+        <v>0.4357868227942802</v>
+      </c>
+      <c r="G124">
+        <v>0.001978639861824578</v>
+      </c>
+      <c r="H124">
+        <v>0.1408754203400923</v>
+      </c>
+      <c r="I124">
+        <v>3.09341985807199</v>
+      </c>
+      <c r="J124">
+        <v>-0.0008178631723952667</v>
+      </c>
+      <c r="K124">
+        <v>0.9953661186541444</v>
+      </c>
+      <c r="L124">
+        <v>0.1408229259567613</v>
+      </c>
+      <c r="M124">
+        <v>-0.005807741650293406</v>
+      </c>
+      <c r="N124">
+        <v>128.1266406238047</v>
+      </c>
+      <c r="O124">
+        <v>135.6114446674363</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B125">
+        <v>0.1835415354877174</v>
+      </c>
+      <c r="C125">
+        <v>0.1547848108379379</v>
+      </c>
+      <c r="D125">
+        <v>0.1289973183829684</v>
+      </c>
+      <c r="E125">
+        <v>1.422832178129608</v>
+      </c>
+      <c r="F125">
+        <v>0.4614080227650884</v>
+      </c>
+      <c r="G125">
+        <v>0.001355172531107668</v>
+      </c>
+      <c r="H125">
+        <v>0.1440085410213699</v>
+      </c>
+      <c r="I125">
+        <v>3.204032340669424</v>
+      </c>
+      <c r="J125">
+        <v>-0.008910428852220362</v>
+      </c>
+      <c r="K125">
+        <v>0.9493151164184694</v>
+      </c>
+      <c r="L125">
+        <v>0.1401741124094676</v>
+      </c>
+      <c r="M125">
+        <v>-0.06356686480162463</v>
+      </c>
+      <c r="N125">
+        <v>127.091178222071</v>
+      </c>
+      <c r="O125">
+        <v>134.5759822657026</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126">
+        <v>0.1734242336039087</v>
+      </c>
+      <c r="C126">
+        <v>0.1824078089282362</v>
+      </c>
+      <c r="D126">
+        <v>0.1300638241933387</v>
+      </c>
+      <c r="E126">
+        <v>1.333377937174254</v>
+      </c>
+      <c r="F126">
+        <v>0.4576416625109767</v>
+      </c>
+      <c r="G126">
+        <v>0.001498899647577605</v>
+      </c>
+      <c r="H126">
+        <v>0.1441438060883312</v>
+      </c>
+      <c r="I126">
+        <v>3.174896479634611</v>
+      </c>
+      <c r="J126">
+        <v>0.003344021869328848</v>
+      </c>
+      <c r="K126">
+        <v>0.9814756521541504</v>
+      </c>
+      <c r="L126">
+        <v>0.1440214641537036</v>
+      </c>
+      <c r="M126">
+        <v>0.02321891315977747</v>
+      </c>
+      <c r="N126">
+        <v>126.9662601854801</v>
+      </c>
+      <c r="O126">
+        <v>134.4510642291116</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127">
+        <v>0.1731190208031083</v>
+      </c>
+      <c r="C127">
+        <v>0.183447522116971</v>
+      </c>
+      <c r="D127">
+        <v>0.1301436624339267</v>
+      </c>
+      <c r="E127">
+        <v>1.330214760868589</v>
+      </c>
+      <c r="F127">
+        <v>0.4591327922505591</v>
+      </c>
+      <c r="G127">
+        <v>0.001467573164224855</v>
+      </c>
+      <c r="H127">
+        <v>0.1443350688220748</v>
+      </c>
+      <c r="I127">
+        <v>3.181020357682739</v>
+      </c>
+      <c r="J127">
+        <v>0.001515050593106915</v>
+      </c>
+      <c r="K127">
+        <v>0.9916222399649189</v>
+      </c>
+      <c r="L127">
+        <v>0.1442883610129998</v>
+      </c>
+      <c r="M127">
+        <v>0.01050015803402476</v>
+      </c>
+      <c r="N127">
+        <v>126.9407236149319</v>
+      </c>
+      <c r="O127">
+        <v>134.4255276585635</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B128">
+        <v>0.1878596770226298</v>
+      </c>
+      <c r="C128">
+        <v>0.1483479854076586</v>
+      </c>
+      <c r="D128">
+        <v>0.1299714946466841</v>
+      </c>
+      <c r="E128">
+        <v>1.445391372418311</v>
+      </c>
+      <c r="F128">
+        <v>0.4582869162469976</v>
+      </c>
+      <c r="G128">
+        <v>0.001498699065817346</v>
+      </c>
+      <c r="H128">
+        <v>0.144345276654219</v>
+      </c>
+      <c r="I128">
+        <v>3.174935313919762</v>
+      </c>
+      <c r="J128">
+        <v>0.002942535555725753</v>
+      </c>
+      <c r="K128">
+        <v>0.9837363006237323</v>
+      </c>
+      <c r="L128">
+        <v>0.1443485299434051</v>
+      </c>
+      <c r="M128">
+        <v>0.02038493607714215</v>
+      </c>
+      <c r="N128">
+        <v>126.9459612823066</v>
+      </c>
+      <c r="O128">
+        <v>134.4307653259382</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129">
+        <v>0.189100668803601</v>
+      </c>
+      <c r="C129">
+        <v>0.1515002009044669</v>
+      </c>
+      <c r="D129">
+        <v>0.1318461428305505</v>
+      </c>
+      <c r="E129">
+        <v>1.43425256699875</v>
+      </c>
+      <c r="F129">
+        <v>0.4451376070776404</v>
+      </c>
+      <c r="G129">
+        <v>0.002036027507615199</v>
+      </c>
+      <c r="H129">
+        <v>0.1442944161269062</v>
+      </c>
+      <c r="I129">
+        <v>3.084926077015649</v>
+      </c>
+      <c r="J129">
+        <v>0.01230678371774277</v>
+      </c>
+      <c r="K129">
+        <v>0.9320377838256035</v>
+      </c>
+      <c r="L129">
+        <v>0.1443081712061973</v>
+      </c>
+      <c r="M129">
+        <v>0.0852812672690447</v>
+      </c>
+      <c r="N129">
+        <v>127.6877459108621</v>
+      </c>
+      <c r="O129">
+        <v>135.1725499544937</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="A130" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B130">
+        <v>0.197849955609833</v>
+      </c>
+      <c r="C130">
+        <v>0.1333905886390255</v>
+      </c>
+      <c r="D130">
+        <v>0.1318239879888397</v>
+      </c>
+      <c r="E130">
+        <v>1.500864589429529</v>
+      </c>
+      <c r="F130">
+        <v>0.4482534147201921</v>
+      </c>
+      <c r="G130">
+        <v>0.001823746879121024</v>
+      </c>
+      <c r="H130">
+        <v>0.143784893044282</v>
+      </c>
+      <c r="I130">
+        <v>3.117527893435519</v>
+      </c>
+      <c r="J130">
+        <v>0.004685530037240024</v>
+      </c>
+      <c r="K130">
+        <v>0.9740051541789283</v>
+      </c>
+      <c r="L130">
+        <v>0.1437919888738971</v>
+      </c>
+      <c r="M130">
+        <v>0.03258547346020193</v>
+      </c>
+      <c r="N130">
+        <v>127.3267249023322</v>
+      </c>
+      <c r="O130">
+        <v>134.8115289459638</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="A131" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B131">
+        <v>0.2015787776417707</v>
+      </c>
+      <c r="C131">
+        <v>0.1275867482605932</v>
+      </c>
+      <c r="D131">
+        <v>0.1322966511869593</v>
+      </c>
+      <c r="E131">
+        <v>1.523687680929301</v>
+      </c>
+      <c r="F131">
+        <v>0.4470189702831492</v>
+      </c>
+      <c r="G131">
+        <v>0.001962555884402316</v>
+      </c>
+      <c r="H131">
+        <v>0.1443933893379302</v>
+      </c>
+      <c r="I131">
+        <v>3.095840968432226</v>
+      </c>
+      <c r="J131">
+        <v>0.004959497390602266</v>
+      </c>
+      <c r="K131">
+        <v>0.9725196793956105</v>
+      </c>
+      <c r="L131">
+        <v>0.143969350071533</v>
+      </c>
+      <c r="M131">
+        <v>0.03444828630634283</v>
+      </c>
+      <c r="N131">
+        <v>127.4148538560688</v>
+      </c>
+      <c r="O131">
+        <v>134.8996578997004</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="A132" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B132">
+        <v>0.2174376940700317</v>
+      </c>
+      <c r="C132">
+        <v>0.1006782852732963</v>
+      </c>
+      <c r="D132">
+        <v>0.1324568201925506</v>
+      </c>
+      <c r="E132">
+        <v>1.641574165482349</v>
+      </c>
+      <c r="F132">
+        <v>0.4479210084834345</v>
+      </c>
+      <c r="G132">
+        <v>0.001867941754480813</v>
+      </c>
+      <c r="H132">
+        <v>0.1440046002888248</v>
+      </c>
+      <c r="I132">
+        <v>3.110463190655407</v>
+      </c>
+      <c r="J132">
+        <v>-0.001901304529919767</v>
+      </c>
+      <c r="K132">
+        <v>0.989457642964053</v>
+      </c>
+      <c r="L132">
+        <v>0.1438935698030488</v>
+      </c>
+      <c r="M132">
+        <v>-0.01321326958892004</v>
+      </c>
+      <c r="N132">
+        <v>127.1647539822728</v>
+      </c>
+      <c r="O132">
+        <v>134.6495580259043</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B133">
+        <v>0.2128904213668585</v>
+      </c>
+      <c r="C133">
+        <v>0.1118694103828293</v>
+      </c>
+      <c r="D133">
+        <v>0.1339062745486123</v>
+      </c>
+      <c r="E133">
+        <v>1.589846495875534</v>
+      </c>
+      <c r="F133">
+        <v>0.4490708923547012</v>
+      </c>
+      <c r="G133">
+        <v>0.001783243586305235</v>
+      </c>
+      <c r="H133">
+        <v>0.1437421501458204</v>
+      </c>
+      <c r="I133">
+        <v>3.124142027228184</v>
+      </c>
+      <c r="J133">
+        <v>0.004912516838736239</v>
+      </c>
+      <c r="K133">
+        <v>0.9726649468922969</v>
+      </c>
+      <c r="L133">
+        <v>0.1433637027130024</v>
+      </c>
+      <c r="M133">
+        <v>0.03426611301028219</v>
+      </c>
+      <c r="N133">
+        <v>127.0876968667508</v>
+      </c>
+      <c r="O133">
+        <v>134.5725009103823</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="A134" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B134">
+        <v>0.2137875956553765</v>
+      </c>
+      <c r="C134">
+        <v>0.1131761178792094</v>
+      </c>
+      <c r="D134">
+        <v>0.1349603260031548</v>
+      </c>
+      <c r="E134">
+        <v>1.584077350631022</v>
+      </c>
+      <c r="F134">
+        <v>0.4441953483950547</v>
+      </c>
+      <c r="G134">
+        <v>0.002090658591344018</v>
+      </c>
+      <c r="H134">
+        <v>0.1443579099878061</v>
+      </c>
+      <c r="I134">
+        <v>3.077041974579542</v>
+      </c>
+      <c r="J134">
+        <v>0.01477413129616106</v>
+      </c>
+      <c r="K134">
+        <v>0.9184673825173949</v>
+      </c>
+      <c r="L134">
+        <v>0.1443287008465282</v>
+      </c>
+      <c r="M134">
+        <v>0.1023644722740983</v>
+      </c>
+      <c r="N134">
+        <v>127.297840324091</v>
+      </c>
+      <c r="O134">
+        <v>134.7826443677226</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135">
+        <v>0.2167665372991584</v>
+      </c>
+      <c r="C135">
+        <v>0.1076974488445637</v>
+      </c>
+      <c r="D135">
+        <v>0.1347523341189193</v>
+      </c>
+      <c r="E135">
+        <v>1.608629184173251</v>
+      </c>
+      <c r="F135">
+        <v>0.4462622309016551</v>
+      </c>
+      <c r="G135">
+        <v>0.001975721385539121</v>
+      </c>
+      <c r="H135">
+        <v>0.1442413502817753</v>
+      </c>
+      <c r="I135">
+        <v>3.093857829463482</v>
+      </c>
+      <c r="J135">
+        <v>0.01446074124354893</v>
+      </c>
+      <c r="K135">
+        <v>0.9200882328583426</v>
+      </c>
+      <c r="L135">
+        <v>0.1441424399006715</v>
+      </c>
+      <c r="M135">
+        <v>0.1003225785099366</v>
+      </c>
+      <c r="N135">
+        <v>127.1865054733433</v>
+      </c>
+      <c r="O135">
+        <v>134.6713095169748</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B136">
+        <v>0.2035928814595658</v>
+      </c>
+      <c r="C136">
+        <v>0.1296208240577135</v>
+      </c>
+      <c r="D136">
+        <v>0.1343316436641403</v>
+      </c>
+      <c r="E136">
+        <v>1.515598826205048</v>
+      </c>
+      <c r="F136">
+        <v>0.4491847582726342</v>
+      </c>
+      <c r="G136">
+        <v>0.001782953951682068</v>
+      </c>
+      <c r="H136">
+        <v>0.1437763977969557</v>
+      </c>
+      <c r="I136">
+        <v>3.124189819437423</v>
+      </c>
+      <c r="J136">
+        <v>0.006262203255451612</v>
+      </c>
+      <c r="K136">
+        <v>0.9652772323627085</v>
+      </c>
+      <c r="L136">
+        <v>0.1438519440379922</v>
+      </c>
+      <c r="M136">
+        <v>0.04353228103610283</v>
+      </c>
+      <c r="N136">
+        <v>126.8226035473705</v>
+      </c>
+      <c r="O136">
+        <v>134.3074075910021</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B137">
+        <v>0.1990603423910912</v>
+      </c>
+      <c r="C137">
+        <v>0.1414137714040944</v>
+      </c>
+      <c r="D137">
+        <v>0.1353648642485421</v>
+      </c>
+      <c r="E137">
+        <v>1.470546611161952</v>
+      </c>
+      <c r="F137">
+        <v>0.4136559955837855</v>
+      </c>
+      <c r="G137">
+        <v>0.003633414208211329</v>
+      </c>
+      <c r="H137">
+        <v>0.1422304721616523</v>
+      </c>
+      <c r="I137">
+        <v>2.908350013164858</v>
+      </c>
+      <c r="J137">
+        <v>0.01804580241373385</v>
+      </c>
+      <c r="K137">
+        <v>0.8987114293938844</v>
+      </c>
+      <c r="L137">
+        <v>0.1417699879195555</v>
+      </c>
+      <c r="M137">
+        <v>0.1272892992272354</v>
+      </c>
+      <c r="N137">
+        <v>127.4690910159172</v>
+      </c>
+      <c r="O137">
+        <v>134.9538950595487</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B138">
+        <v>0.1853976555114463</v>
+      </c>
+      <c r="C138">
+        <v>0.1696209212742318</v>
+      </c>
+      <c r="D138">
+        <v>0.134989491120955</v>
+      </c>
+      <c r="E138">
+        <v>1.37342287886191</v>
+      </c>
+      <c r="F138">
+        <v>0.4100810451068528</v>
+      </c>
+      <c r="G138">
+        <v>0.004683385217118749</v>
+      </c>
+      <c r="H138">
+        <v>0.1450053549046264</v>
+      </c>
+      <c r="I138">
+        <v>2.828040698059552</v>
+      </c>
+      <c r="J138">
+        <v>0.01865443287446616</v>
+      </c>
+      <c r="K138">
+        <v>0.8958349565950354</v>
+      </c>
+      <c r="L138">
+        <v>0.1424822631229362</v>
+      </c>
+      <c r="M138">
+        <v>0.1309245969680506</v>
+      </c>
+      <c r="N138">
+        <v>127.8180475662693</v>
+      </c>
+      <c r="O138">
+        <v>135.3028516099008</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B139">
+        <v>0.1771103377854474</v>
+      </c>
+      <c r="C139">
+        <v>0.1822997592906367</v>
+      </c>
+      <c r="D139">
+        <v>0.1327954947214705</v>
+      </c>
+      <c r="E139">
+        <v>1.333707428530797</v>
+      </c>
+      <c r="F139">
+        <v>0.4090291859403303</v>
+      </c>
+      <c r="G139">
+        <v>0.004308741677678961</v>
+      </c>
+      <c r="H139">
+        <v>0.1432863918801966</v>
+      </c>
+      <c r="I139">
+        <v>2.854626880983397</v>
+      </c>
+      <c r="J139">
+        <v>-0.001369240043711917</v>
+      </c>
+      <c r="K139">
+        <v>0.9923660269792299</v>
+      </c>
+      <c r="L139">
+        <v>0.143107503711013</v>
+      </c>
+      <c r="M139">
+        <v>-0.009567912291146655</v>
+      </c>
+      <c r="N139">
+        <v>127.1312681098048</v>
+      </c>
+      <c r="O139">
+        <v>134.6160721534364</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="A140" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B140">
+        <v>0.1867349828142574</v>
+      </c>
+      <c r="C140">
+        <v>0.1548679733945579</v>
+      </c>
+      <c r="D140">
+        <v>0.13126820353393</v>
+      </c>
+      <c r="E140">
+        <v>1.422545428268853</v>
+      </c>
+      <c r="F140">
+        <v>0.4148288095102425</v>
+      </c>
+      <c r="G140">
+        <v>0.004032104665609142</v>
+      </c>
+      <c r="H140">
+        <v>0.1442562150367563</v>
+      </c>
+      <c r="I140">
+        <v>2.875639080122439</v>
+      </c>
+      <c r="J140">
+        <v>-0.002190849613371043</v>
+      </c>
+      <c r="K140">
+        <v>0.9877563695731139</v>
+      </c>
+      <c r="L140">
+        <v>0.1427661906533104</v>
+      </c>
+      <c r="M140">
+        <v>-0.01534571738130384</v>
+      </c>
+      <c r="N140">
+        <v>127.0772364010979</v>
+      </c>
+      <c r="O140">
+        <v>134.5620404447295</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
+      <c r="A141" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B141">
+        <v>0.1755354556553668</v>
+      </c>
+      <c r="C141">
+        <v>0.2021194501720837</v>
+      </c>
+      <c r="D141">
+        <v>0.1376169712897031</v>
+      </c>
+      <c r="E141">
+        <v>1.275536396494586</v>
+      </c>
+      <c r="F141">
+        <v>0.3364928862888496</v>
+      </c>
+      <c r="G141">
+        <v>0.01905021289736331</v>
+      </c>
+      <c r="H141">
+        <v>0.1435214974461706</v>
+      </c>
+      <c r="I141">
+        <v>2.344546930434969</v>
+      </c>
+      <c r="J141">
+        <v>0.07553167158633436</v>
+      </c>
+      <c r="K141">
+        <v>0.5983987377387471</v>
+      </c>
+      <c r="L141">
+        <v>0.1434042364001998</v>
+      </c>
+      <c r="M141">
+        <v>0.5267046042876116</v>
+      </c>
+      <c r="N141">
+        <v>131.9361881882196</v>
+      </c>
+      <c r="O141">
+        <v>139.4209922318512</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
+      <c r="A142" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B142">
+        <v>0.1716997148248683</v>
+      </c>
+      <c r="C142">
+        <v>0.212323425075514</v>
+      </c>
+      <c r="D142">
+        <v>0.13766792332498</v>
+      </c>
+      <c r="E142">
+        <v>1.247202040082733</v>
+      </c>
+      <c r="F142">
+        <v>0.3346079985418607</v>
+      </c>
+      <c r="G142">
+        <v>0.02007392072863901</v>
+      </c>
+      <c r="H142">
+        <v>0.1439196882178436</v>
+      </c>
+      <c r="I142">
+        <v>2.324963336742241</v>
+      </c>
+      <c r="J142">
+        <v>0.0760872417870917</v>
+      </c>
+      <c r="K142">
+        <v>0.5972277743601373</v>
+      </c>
+      <c r="L142">
+        <v>0.143997907848381</v>
+      </c>
+      <c r="M142">
+        <v>0.528391300429211</v>
+      </c>
+      <c r="N142">
+        <v>132.2251495369774</v>
+      </c>
+      <c r="O142">
+        <v>139.7099535806089</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
+      <c r="A143" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B143">
+        <v>0.1657013547478861</v>
+      </c>
+      <c r="C143">
+        <v>0.2256593970085949</v>
+      </c>
+      <c r="D143">
+        <v>0.1367606165501588</v>
+      </c>
+      <c r="E143">
+        <v>1.211616026073653</v>
+      </c>
+      <c r="F143">
+        <v>0.332104733852827</v>
+      </c>
+      <c r="G143">
+        <v>0.02097376869402834</v>
+      </c>
+      <c r="H143">
+        <v>0.1438644208263506</v>
+      </c>
+      <c r="I143">
+        <v>2.30845633649538</v>
+      </c>
+      <c r="J143">
+        <v>0.07682257095691244</v>
+      </c>
+      <c r="K143">
+        <v>0.5932231213829571</v>
+      </c>
+      <c r="L143">
+        <v>0.1438163961355308</v>
+      </c>
+      <c r="M143">
+        <v>0.5341711586522847</v>
+      </c>
+      <c r="N143">
+        <v>132.2093742867902</v>
+      </c>
+      <c r="O143">
+        <v>139.6941783304217</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="A144" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B144">
+        <v>0.1049727666984512</v>
+      </c>
+      <c r="C144">
+        <v>0.471868034496962</v>
+      </c>
+      <c r="D144">
+        <v>0.1459083935129108</v>
+      </c>
+      <c r="E144">
+        <v>0.719442961238297</v>
+      </c>
+      <c r="F144">
+        <v>0.3519857557417175</v>
+      </c>
+      <c r="G144">
+        <v>0.0222080975522835</v>
+      </c>
+      <c r="H144">
+        <v>0.1539213451535149</v>
+      </c>
+      <c r="I144">
+        <v>2.286789758695658</v>
+      </c>
+      <c r="J144">
+        <v>0.07311108449478146</v>
+      </c>
+      <c r="K144">
+        <v>0.6349396151244537</v>
+      </c>
+      <c r="L144">
+        <v>0.1539874946238363</v>
+      </c>
+      <c r="M144">
+        <v>0.4747858563020242</v>
+      </c>
+      <c r="N144">
+        <v>138.805927003148</v>
+      </c>
+      <c r="O144">
+        <v>146.2907310467795</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
+      <c r="A145" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B145">
+        <v>-0.1426285206180569</v>
+      </c>
+      <c r="C145">
+        <v>0.547767714095988</v>
+      </c>
+      <c r="D145">
+        <v>0.2372758290487774</v>
+      </c>
+      <c r="E145">
+        <v>-0.6011085123581483</v>
+      </c>
+      <c r="F145">
+        <v>0.7543296262710919</v>
+      </c>
+      <c r="G145">
+        <v>0.001273282267751887</v>
+      </c>
+      <c r="H145">
+        <v>0.2341232012937255</v>
+      </c>
+      <c r="I145">
+        <v>3.221934528926621</v>
+      </c>
+      <c r="J145">
+        <v>0.005374954043694147</v>
+      </c>
+      <c r="K145">
+        <v>0.9826293592474385</v>
+      </c>
+      <c r="L145">
+        <v>0.2468679250346671</v>
+      </c>
+      <c r="M145">
+        <v>0.02177258970738849</v>
+      </c>
+      <c r="N145">
+        <v>187.2486410283389</v>
+      </c>
+      <c r="O145">
+        <v>194.7334450719705</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
+      <c r="A146" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B146">
+        <v>0.1975811584453767</v>
+      </c>
+      <c r="C146">
+        <v>0.5161310266455006</v>
+      </c>
+      <c r="D146">
+        <v>0.3042889589111581</v>
+      </c>
+      <c r="E146">
+        <v>0.6493208269941324</v>
+      </c>
+      <c r="F146">
+        <v>-0.349542261787224</v>
+      </c>
+      <c r="G146">
+        <v>0.06128519641148606</v>
+      </c>
+      <c r="H146">
+        <v>0.1867779436375848</v>
+      </c>
+      <c r="I146">
+        <v>-1.871432220420306</v>
+      </c>
+      <c r="J146">
+        <v>0.1407035695703318</v>
+      </c>
+      <c r="K146">
+        <v>0.6631137600712451</v>
+      </c>
+      <c r="L146">
+        <v>0.3229974504001594</v>
+      </c>
+      <c r="M146">
+        <v>0.4356182050230274</v>
+      </c>
+      <c r="N146">
+        <v>213.0870681066552</v>
+      </c>
+      <c r="O146">
+        <v>220.5718721502868</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
+      <c r="A147" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B147">
+        <v>0.3169635162600885</v>
+      </c>
+      <c r="C147">
+        <v>0.2858603688913774</v>
+      </c>
+      <c r="D147">
+        <v>0.296991748230283</v>
+      </c>
+      <c r="E147">
+        <v>1.067246878570914</v>
+      </c>
+      <c r="F147">
+        <v>-0.2396576680353337</v>
+      </c>
+      <c r="G147">
+        <v>0.09561091904594689</v>
+      </c>
+      <c r="H147">
+        <v>0.1438077029112506</v>
+      </c>
+      <c r="I147">
+        <v>-1.666514819329503</v>
+      </c>
+      <c r="J147">
+        <v>-0.131935651083613</v>
+      </c>
+      <c r="K147">
+        <v>0.450267085076118</v>
+      </c>
+      <c r="L147">
+        <v>0.1747561901356629</v>
+      </c>
+      <c r="M147">
+        <v>-0.7549698295733709</v>
+      </c>
+      <c r="N147">
+        <v>212.8794714614721</v>
+      </c>
+      <c r="O147">
+        <v>220.3642755051037</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
+      <c r="A148" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B148">
+        <v>0.4574170819135874</v>
+      </c>
+      <c r="C148">
+        <v>0.09936925597010805</v>
+      </c>
+      <c r="D148">
+        <v>0.2775725205922189</v>
+      </c>
+      <c r="E148">
+        <v>1.647919185003107</v>
+      </c>
+      <c r="F148">
+        <v>-0.3038024387735363</v>
+      </c>
+      <c r="G148">
+        <v>0.02107471675558132</v>
+      </c>
+      <c r="H148">
+        <v>0.1317075970585642</v>
+      </c>
+      <c r="I148">
+        <v>-2.306643242746655</v>
+      </c>
+      <c r="J148">
+        <v>-0.2121859828010515</v>
+      </c>
+      <c r="K148">
+        <v>0.1044898147083383</v>
+      </c>
+      <c r="L148">
+        <v>0.1306993654267891</v>
+      </c>
+      <c r="M148">
+        <v>-1.623466052097299</v>
+      </c>
+      <c r="N148">
+        <v>205.381992556012</v>
+      </c>
+      <c r="O148">
+        <v>212.8667965996435</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
+      <c r="A149" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B149">
+        <v>0.5863212428172949</v>
+      </c>
+      <c r="C149">
+        <v>0.03841880652194445</v>
+      </c>
+      <c r="D149">
+        <v>0.2831979619517374</v>
+      </c>
+      <c r="E149">
+        <v>2.070358270859364</v>
+      </c>
+      <c r="F149">
+        <v>-0.3994349527932676</v>
+      </c>
+      <c r="G149">
+        <v>0.003726705873957467</v>
+      </c>
+      <c r="H149">
+        <v>0.1377165504116222</v>
+      </c>
+      <c r="I149">
+        <v>-2.900413578465283</v>
+      </c>
+      <c r="J149">
+        <v>-0.2646306097635652</v>
+      </c>
+      <c r="K149">
+        <v>0.04442999186668282</v>
+      </c>
+      <c r="L149">
+        <v>0.1316562789874712</v>
+      </c>
+      <c r="M149">
+        <v>-2.01001130974352</v>
+      </c>
+      <c r="N149">
+        <v>206.0345890022862</v>
+      </c>
+      <c r="O149">
+        <v>213.5193930459178</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
+      <c r="A150" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B150">
+        <v>0.6697208854875031</v>
+      </c>
+      <c r="C150">
+        <v>0.01983517433733205</v>
+      </c>
+      <c r="D150">
+        <v>0.2875015711092626</v>
+      </c>
+      <c r="E150">
+        <v>2.329451219704748</v>
+      </c>
+      <c r="F150">
+        <v>-0.406741629653372</v>
+      </c>
+      <c r="G150">
+        <v>0.003403738155594577</v>
+      </c>
+      <c r="H150">
+        <v>0.1388809006088633</v>
+      </c>
+      <c r="I150">
+        <v>-2.928708179959872</v>
+      </c>
+      <c r="J150">
+        <v>-0.3048389959353506</v>
+      </c>
+      <c r="K150">
+        <v>0.02919584393974889</v>
+      </c>
+      <c r="L150">
+        <v>0.139781053452275</v>
+      </c>
+      <c r="M150">
+        <v>-2.180832011252733</v>
+      </c>
+      <c r="N150">
+        <v>206.2217124694824</v>
+      </c>
+      <c r="O150">
+        <v>213.706516513114</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
+      <c r="A151" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B151">
+        <v>0.6721399012999505</v>
+      </c>
+      <c r="C151">
+        <v>0.02062102253060105</v>
+      </c>
+      <c r="D151">
+        <v>0.2903597490198186</v>
+      </c>
+      <c r="E151">
+        <v>2.314852191355467</v>
+      </c>
+      <c r="F151">
+        <v>-0.4006079901357545</v>
+      </c>
+      <c r="G151">
+        <v>0.003721293583702675</v>
+      </c>
+      <c r="H151">
+        <v>0.1380993019104058</v>
+      </c>
+      <c r="I151">
+        <v>-2.900869045635404</v>
+      </c>
+      <c r="J151">
+        <v>-0.2917505991143214</v>
+      </c>
+      <c r="K151">
+        <v>0.0353159196237998</v>
+      </c>
+      <c r="L151">
+        <v>0.1386174726194376</v>
+      </c>
+      <c r="M151">
+        <v>-2.104717346241751</v>
+      </c>
+      <c r="N151">
+        <v>206.4519243178729</v>
+      </c>
+      <c r="O151">
+        <v>213.9367283615045</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
+      <c r="A152" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B152">
+        <v>0.658830155660504</v>
+      </c>
+      <c r="C152">
+        <v>0.02313799810439175</v>
+      </c>
+      <c r="D152">
+        <v>0.2900867976560066</v>
+      </c>
+      <c r="E152">
+        <v>2.271148363124626</v>
+      </c>
+      <c r="F152">
+        <v>-0.4016523413773242</v>
+      </c>
+      <c r="G152">
+        <v>0.00359979231227277</v>
+      </c>
+      <c r="H152">
+        <v>0.1379653234617633</v>
+      </c>
+      <c r="I152">
+        <v>-2.911255751077487</v>
+      </c>
+      <c r="J152">
+        <v>-0.2930042129265577</v>
+      </c>
+      <c r="K152">
+        <v>0.03388076151613816</v>
+      </c>
+      <c r="L152">
+        <v>0.1381125987023332</v>
+      </c>
+      <c r="M152">
+        <v>-2.121487943022883</v>
+      </c>
+      <c r="N152">
+        <v>206.3544839459261</v>
+      </c>
+      <c r="O152">
+        <v>213.8392879895576</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
+      <c r="A153" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B153">
+        <v>0.6541223361763624</v>
+      </c>
+      <c r="C153">
+        <v>0.01617093995195185</v>
+      </c>
+      <c r="D153">
+        <v>0.2719804400148639</v>
+      </c>
+      <c r="E153">
+        <v>2.405034480202379</v>
+      </c>
+      <c r="F153">
+        <v>-0.4553437783875506</v>
+      </c>
+      <c r="G153">
+        <v>0.0007759923670559838</v>
+      </c>
+      <c r="H153">
+        <v>0.13546982859613</v>
+      </c>
+      <c r="I153">
+        <v>-3.361219122414674</v>
+      </c>
+      <c r="J153">
+        <v>-0.3091262590966923</v>
+      </c>
+      <c r="K153">
+        <v>0.02249317699086669</v>
+      </c>
+      <c r="L153">
+        <v>0.1354667230119467</v>
+      </c>
+      <c r="M153">
+        <v>-2.281935018605497</v>
+      </c>
+      <c r="N153">
+        <v>199.7452776197219</v>
+      </c>
+      <c r="O153">
+        <v>207.2300816633535</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
+      <c r="A154" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B154">
+        <v>0.6338692133241772</v>
+      </c>
+      <c r="C154">
+        <v>0.01835229841596315</v>
+      </c>
+      <c r="D154">
+        <v>0.2687671666149032</v>
+      </c>
+      <c r="E154">
+        <v>2.358432472640537</v>
+      </c>
+      <c r="F154">
+        <v>-0.4728327376471393</v>
+      </c>
+      <c r="G154">
+        <v>0.0005134341482791306</v>
+      </c>
+      <c r="H154">
+        <v>0.1361199349770688</v>
+      </c>
+      <c r="I154">
+        <v>-3.473647983499215</v>
+      </c>
+      <c r="J154">
+        <v>-0.318095368313789</v>
+      </c>
+      <c r="K154">
+        <v>0.0183888747915654</v>
+      </c>
+      <c r="L154">
+        <v>0.1349180394292761</v>
+      </c>
+      <c r="M154">
+        <v>-2.357693379324076</v>
+      </c>
+      <c r="N154">
+        <v>199.0634823510619</v>
+      </c>
+      <c r="O154">
+        <v>206.5482863946934</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
+      <c r="A155" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B155">
+        <v>0.6000852497979909</v>
+      </c>
+      <c r="C155">
+        <v>0.02423429207426314</v>
+      </c>
+      <c r="D155">
+        <v>0.266302804687333</v>
+      </c>
+      <c r="E155">
+        <v>2.25339440379741</v>
+      </c>
+      <c r="F155">
+        <v>-0.4819005718006494</v>
+      </c>
+      <c r="G155">
+        <v>0.0004008104788381866</v>
+      </c>
+      <c r="H155">
+        <v>0.1361474281814001</v>
+      </c>
+      <c r="I155">
+        <v>-3.539549576790938</v>
+      </c>
+      <c r="J155">
+        <v>-0.3327439843994221</v>
+      </c>
+      <c r="K155">
+        <v>0.01447331588065536</v>
+      </c>
+      <c r="L155">
+        <v>0.1360751156092539</v>
+      </c>
+      <c r="M155">
+        <v>-2.445296356425022</v>
+      </c>
+      <c r="N155">
+        <v>198.7154432008516</v>
+      </c>
+      <c r="O155">
+        <v>206.2002472444832</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
+      <c r="A156" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B156">
+        <v>0.5374343192579305</v>
+      </c>
+      <c r="C156">
+        <v>0.04092916921343212</v>
+      </c>
+      <c r="D156">
+        <v>0.2629008943571171</v>
+      </c>
+      <c r="E156">
+        <v>2.044246827581708</v>
+      </c>
+      <c r="F156">
+        <v>-0.4854301025436767</v>
+      </c>
+      <c r="G156">
+        <v>0.0003161041754491738</v>
+      </c>
+      <c r="H156">
+        <v>0.1347768533689596</v>
+      </c>
+      <c r="I156">
+        <v>-3.601731977038988</v>
+      </c>
+      <c r="J156">
+        <v>-0.3374834799330804</v>
+      </c>
+      <c r="K156">
+        <v>0.01239629175069859</v>
+      </c>
+      <c r="L156">
+        <v>0.1349578855233921</v>
+      </c>
+      <c r="M156">
+        <v>-2.500657732034374</v>
+      </c>
+      <c r="N156">
+        <v>197.8828362649158</v>
+      </c>
+      <c r="O156">
+        <v>205.3676403085474</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
+      <c r="A157" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B157">
+        <v>0.5132381042060387</v>
+      </c>
+      <c r="C157">
+        <v>0.04992223340160812</v>
+      </c>
+      <c r="D157">
+        <v>0.2617720726283433</v>
+      </c>
+      <c r="E157">
+        <v>1.96062971520541</v>
+      </c>
+      <c r="F157">
+        <v>-0.4524216994979626</v>
+      </c>
+      <c r="G157">
+        <v>0.0009091777429919706</v>
+      </c>
+      <c r="H157">
+        <v>0.1363857709324073</v>
+      </c>
+      <c r="I157">
+        <v>-3.3172206778241</v>
+      </c>
+      <c r="J157">
+        <v>-0.3253851264165818</v>
+      </c>
+      <c r="K157">
+        <v>0.0163216783799435</v>
+      </c>
+      <c r="L157">
+        <v>0.1354844489151918</v>
+      </c>
+      <c r="M157">
+        <v>-2.401641878620777</v>
+      </c>
+      <c r="N157">
+        <v>198.066987649529</v>
+      </c>
+      <c r="O157">
+        <v>205.5517916931605</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
+      <c r="A158" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B158">
+        <v>0.4883550667635859</v>
+      </c>
+      <c r="C158">
+        <v>0.06014224543857449</v>
+      </c>
+      <c r="D158">
+        <v>0.2597979698958762</v>
+      </c>
+      <c r="E158">
+        <v>1.879749356622427</v>
+      </c>
+      <c r="F158">
+        <v>-0.4551825938766707</v>
+      </c>
+      <c r="G158">
+        <v>0.0008131215988191255</v>
+      </c>
+      <c r="H158">
+        <v>0.1359448329146251</v>
+      </c>
+      <c r="I158">
+        <v>-3.348289038411122</v>
+      </c>
+      <c r="J158">
+        <v>-0.3351910627366981</v>
+      </c>
+      <c r="K158">
+        <v>0.01367311534153842</v>
+      </c>
+      <c r="L158">
+        <v>0.1359394260675238</v>
+      </c>
+      <c r="M158">
+        <v>-2.465738398587926</v>
+      </c>
+      <c r="N158">
+        <v>197.7044675835122</v>
+      </c>
+      <c r="O158">
+        <v>205.1892716271437</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
+      <c r="A159" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B159">
+        <v>0.481845091265951</v>
+      </c>
+      <c r="C159">
+        <v>0.06344002322863912</v>
+      </c>
+      <c r="D159">
+        <v>0.2596015291361334</v>
+      </c>
+      <c r="E159">
+        <v>1.856094965501049</v>
+      </c>
+      <c r="F159">
+        <v>-0.4527290393608462</v>
+      </c>
+      <c r="G159">
+        <v>0.0008856563149369235</v>
+      </c>
+      <c r="H159">
+        <v>0.1361780915645251</v>
+      </c>
+      <c r="I159">
+        <v>-3.324536525365611</v>
+      </c>
+      <c r="J159">
+        <v>-0.3337911092704915</v>
+      </c>
+      <c r="K159">
+        <v>0.01416572352590514</v>
+      </c>
+      <c r="L159">
+        <v>0.1360728013961441</v>
+      </c>
+      <c r="M159">
+        <v>-2.453033272231509</v>
+      </c>
+      <c r="N159">
+        <v>197.8082244688284</v>
+      </c>
+      <c r="O159">
+        <v>205.29302851246</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
+      <c r="A160" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B160">
+        <v>0.4768365475178873</v>
+      </c>
+      <c r="C160">
+        <v>0.06611648443027199</v>
+      </c>
+      <c r="D160">
+        <v>0.259484083810259</v>
+      </c>
+      <c r="E160">
+        <v>1.837633123835686</v>
+      </c>
+      <c r="F160">
+        <v>-0.452402482718154</v>
+      </c>
+      <c r="G160">
+        <v>0.0008915425211897937</v>
+      </c>
+      <c r="H160">
+        <v>0.136155530280069</v>
+      </c>
+      <c r="I160">
+        <v>-3.32268899976058</v>
+      </c>
+      <c r="J160">
+        <v>-0.3324803154518182</v>
+      </c>
+      <c r="K160">
+        <v>0.01467625281395915</v>
+      </c>
+      <c r="L160">
+        <v>0.1362472991687922</v>
+      </c>
+      <c r="M160">
+        <v>-2.440270871277378</v>
+      </c>
+      <c r="N160">
+        <v>197.9019006326783</v>
+      </c>
+      <c r="O160">
+        <v>205.3867046763099</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
+      <c r="A161" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B161">
+        <v>0.4402300220723241</v>
+      </c>
+      <c r="C161">
+        <v>0.09201399235918069</v>
+      </c>
+      <c r="D161">
+        <v>0.2612845369848295</v>
+      </c>
+      <c r="E161">
+        <v>1.684868255705022</v>
+      </c>
+      <c r="F161">
+        <v>-0.3797396007373646</v>
+      </c>
+      <c r="G161">
+        <v>0.00594819288979587</v>
+      </c>
+      <c r="H161">
+        <v>0.1380558164996376</v>
+      </c>
+      <c r="I161">
+        <v>-2.75062369964225</v>
+      </c>
+      <c r="J161">
+        <v>-0.2926730306208346</v>
+      </c>
+      <c r="K161">
+        <v>0.03400867030281143</v>
+      </c>
+      <c r="L161">
+        <v>0.138055343266809</v>
+      </c>
+      <c r="M161">
+        <v>-2.119968874042114</v>
+      </c>
+      <c r="N161">
+        <v>198.6875701879802</v>
+      </c>
+      <c r="O161">
+        <v>206.1723742316117</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
+      <c r="A162" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B162">
+        <v>0.4297455569664963</v>
+      </c>
+      <c r="C162">
+        <v>0.1002216978367568</v>
+      </c>
+      <c r="D162">
+        <v>0.2614374261769452</v>
+      </c>
+      <c r="E162">
+        <v>1.643779787962101</v>
+      </c>
+      <c r="F162">
+        <v>-0.3783105440516361</v>
+      </c>
+      <c r="G162">
+        <v>0.006163750553828818</v>
+      </c>
+      <c r="H162">
+        <v>0.1381229449757737</v>
+      </c>
+      <c r="I162">
+        <v>-2.738940616405121</v>
+      </c>
+      <c r="J162">
+        <v>-0.2914310493289787</v>
+      </c>
+      <c r="K162">
+        <v>0.0350023366924939</v>
+      </c>
+      <c r="L162">
+        <v>0.1382282947130797</v>
+      </c>
+      <c r="M162">
+        <v>-2.108331365397379</v>
+      </c>
+      <c r="N162">
+        <v>198.8162627933382</v>
+      </c>
+      <c r="O162">
+        <v>206.3010668369697</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
+      <c r="A163" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B163">
+        <v>0.4286139323921373</v>
+      </c>
+      <c r="C163">
+        <v>0.1008179677404912</v>
+      </c>
+      <c r="D163">
+        <v>0.2612064547432345</v>
+      </c>
+      <c r="E163">
+        <v>1.640900998459108</v>
+      </c>
+      <c r="F163">
+        <v>-0.3774258873972454</v>
+      </c>
+      <c r="G163">
+        <v>0.006276155096568777</v>
+      </c>
+      <c r="H163">
+        <v>0.1380998062961295</v>
+      </c>
+      <c r="I163">
+        <v>-2.732993604552387</v>
+      </c>
+      <c r="J163">
+        <v>-0.2896683894384353</v>
+      </c>
+      <c r="K163">
+        <v>0.03595766300138476</v>
+      </c>
+      <c r="L163">
+        <v>0.1381079338495395</v>
+      </c>
+      <c r="M163">
+        <v>-2.097405857609977</v>
+      </c>
+      <c r="N163">
+        <v>198.8278249470879</v>
+      </c>
+      <c r="O163">
+        <v>206.3126289907195</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15">
+      <c r="A164" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B164">
         <v>0.4504612813666546</v>
       </c>
-      <c r="C121">
+      <c r="C164">
         <v>0.08345959188880792</v>
       </c>
-      <c r="D121">
+      <c r="D164">
         <v>0.2602384181788523</v>
       </c>
-      <c r="E121">
+      <c r="E164">
         <v>1.730956115238409</v>
       </c>
-      <c r="F121">
+      <c r="F164">
         <v>-0.3810978406344331</v>
       </c>
-      <c r="G121">
+      <c r="G164">
         <v>0.005622043746374832</v>
       </c>
-      <c r="H121">
+      <c r="H164">
         <v>0.1376277727582979</v>
       </c>
-      <c r="I121">
+      <c r="I164">
         <v>-2.769047503978123</v>
       </c>
-      <c r="J121">
+      <c r="J164">
         <v>-0.2909289210161251</v>
       </c>
-      <c r="K121">
+      <c r="K164">
         <v>0.03445619038859235</v>
       </c>
-      <c r="L121">
+      <c r="L164">
         <v>0.1375750675657087</v>
       </c>
-      <c r="M121">
+      <c r="M164">
         <v>-2.114692190699245</v>
       </c>
-      <c r="N121">
+      <c r="N164">
         <v>198.4670837299067</v>
       </c>
-      <c r="O121">
+      <c r="O164">
         <v>205.9518877735383</v>
       </c>
     </row>

--- a/1_Result_Tables/1_Naive_Forecaster_Outputs/Results_SMA_2_9/AR2_50_model_statistics.xlsx
+++ b/1_Result_Tables/1_Naive_Forecaster_Outputs/Results_SMA_2_9/AR2_50_model_statistics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="15">
   <si>
     <t>coefficient_Intercept</t>
   </si>
@@ -416,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O164"/>
+  <dimension ref="A1:O148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,46 +471,46 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>0.4089909744362552</v>
+        <v>0.7944131255234372</v>
       </c>
       <c r="C2">
-        <v>0.0170689149187959</v>
+        <v>3.423376200912223E-05</v>
       </c>
       <c r="D2">
-        <v>0.1714688754696649</v>
+        <v>0.1917342102409693</v>
       </c>
       <c r="E2">
-        <v>2.38521990253917</v>
+        <v>4.143304027617336</v>
       </c>
       <c r="F2">
-        <v>-0.02044251537751675</v>
+        <v>-0.3296899055590768</v>
       </c>
       <c r="G2">
-        <v>0.8888971853766366</v>
+        <v>0.02292053572637995</v>
       </c>
       <c r="H2">
-        <v>0.1463317452999748</v>
+        <v>0.1449341468796782</v>
       </c>
       <c r="I2">
-        <v>-0.1396997988072263</v>
+        <v>-2.27475658881671</v>
       </c>
       <c r="J2">
-        <v>0.228800168391993</v>
+        <v>-0.09877540944491459</v>
       </c>
       <c r="K2">
-        <v>0.1337101322036766</v>
+        <v>0.4984590943971892</v>
       </c>
       <c r="L2">
-        <v>0.1525710248562397</v>
+        <v>0.1459196905258943</v>
       </c>
       <c r="M2">
-        <v>1.499630539990016</v>
+        <v>-0.6769162481699913</v>
       </c>
       <c r="N2">
-        <v>137.008924183317</v>
+        <v>143.6452624506602</v>
       </c>
       <c r="O2">
-        <v>144.4937282269486</v>
+        <v>151.1300664942918</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -518,46 +518,46 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>0.4377804449858119</v>
+        <v>0.7704593471080061</v>
       </c>
       <c r="C3">
-        <v>0.01014750199526506</v>
+        <v>5.418346547172738E-05</v>
       </c>
       <c r="D3">
-        <v>0.1702920903830368</v>
+        <v>0.1908585745161832</v>
       </c>
       <c r="E3">
-        <v>2.570762059477428</v>
+        <v>4.036807615592234</v>
       </c>
       <c r="F3">
-        <v>-0.009541982525137424</v>
+        <v>-0.3050379208647678</v>
       </c>
       <c r="G3">
-        <v>0.9460041995589075</v>
+        <v>0.03253589775572711</v>
       </c>
       <c r="H3">
-        <v>0.140892150276615</v>
+        <v>0.1426901720940471</v>
       </c>
       <c r="I3">
-        <v>-0.06772543755208188</v>
+        <v>-2.137764054722124</v>
       </c>
       <c r="J3">
-        <v>0.1646449489851025</v>
+        <v>-0.09085720499822367</v>
       </c>
       <c r="K3">
-        <v>0.2515044567886615</v>
+        <v>0.5243572731647217</v>
       </c>
       <c r="L3">
-        <v>0.143581181979174</v>
+        <v>0.1427129099597167</v>
       </c>
       <c r="M3">
-        <v>1.14670283887887</v>
+        <v>-0.6366432092504438</v>
       </c>
       <c r="N3">
-        <v>136.8873568019857</v>
+        <v>142.9993090166954</v>
       </c>
       <c r="O3">
-        <v>144.3721608456173</v>
+        <v>150.484113060327</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -565,46 +565,46 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>0.4613327370257006</v>
+        <v>0.7665027382538869</v>
       </c>
       <c r="C4">
-        <v>0.007538293917467491</v>
+        <v>6.075910051911123E-05</v>
       </c>
       <c r="D4">
-        <v>0.1726493744246048</v>
+        <v>0.191155293050196</v>
       </c>
       <c r="E4">
-        <v>2.672078821966207</v>
+        <v>4.009843128186929</v>
       </c>
       <c r="F4">
-        <v>-0.03620956115365011</v>
+        <v>-0.3094307044260253</v>
       </c>
       <c r="G4">
-        <v>0.8017156842756128</v>
+        <v>0.03143104757784149</v>
       </c>
       <c r="H4">
-        <v>0.1441880677210244</v>
+        <v>0.1438160779084735</v>
       </c>
       <c r="I4">
-        <v>-0.2511273070370047</v>
+        <v>-2.151572403628968</v>
       </c>
       <c r="J4">
-        <v>0.06643748541938864</v>
+        <v>-0.07778605307174213</v>
       </c>
       <c r="K4">
-        <v>0.6413666882676498</v>
+        <v>0.5839221525622738</v>
       </c>
       <c r="L4">
-        <v>0.1426343581638596</v>
+        <v>0.1420322555234379</v>
       </c>
       <c r="M4">
-        <v>0.4657887922281997</v>
+        <v>-0.5476647032399342</v>
       </c>
       <c r="N4">
-        <v>138.0851109251383</v>
+        <v>143.0554473183674</v>
       </c>
       <c r="O4">
-        <v>145.5699149687698</v>
+        <v>150.540251361999</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -612,46 +612,46 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>0.4745697017636504</v>
+        <v>0.7675013921934425</v>
       </c>
       <c r="C5">
-        <v>0.005455627091681322</v>
+        <v>5.893916628556357E-05</v>
       </c>
       <c r="D5">
-        <v>0.1707808412284167</v>
+        <v>0.1910624618225359</v>
       </c>
       <c r="E5">
-        <v>2.778822837211118</v>
+        <v>4.017018229914357</v>
       </c>
       <c r="F5">
-        <v>-0.05083598289819707</v>
+        <v>-0.3116790610805322</v>
       </c>
       <c r="G5">
-        <v>0.7245643842117286</v>
+        <v>0.03023076622080884</v>
       </c>
       <c r="H5">
-        <v>0.144270718172697</v>
+        <v>0.1438261882168376</v>
       </c>
       <c r="I5">
-        <v>-0.3523652168789002</v>
+        <v>-2.167053614816195</v>
       </c>
       <c r="J5">
-        <v>0.06488802138903735</v>
+        <v>-0.08297890404612182</v>
       </c>
       <c r="K5">
-        <v>0.653484668119347</v>
+        <v>0.5644414855977011</v>
       </c>
       <c r="L5">
-        <v>0.1445404074997588</v>
+        <v>0.1439963499645608</v>
       </c>
       <c r="M5">
-        <v>0.4489265148165965</v>
+        <v>-0.5762569958651306</v>
       </c>
       <c r="N5">
-        <v>138.2571091164476</v>
+        <v>143.0137247175128</v>
       </c>
       <c r="O5">
-        <v>145.7419131600791</v>
+        <v>150.4985287611443</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -659,46 +659,46 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.5003305945304364</v>
+        <v>0.7819039079715406</v>
       </c>
       <c r="C6">
-        <v>0.00332557004071206</v>
+        <v>4.102072739345949E-05</v>
       </c>
       <c r="D6">
-        <v>0.1704168050325915</v>
+        <v>0.1906313646722141</v>
       </c>
       <c r="E6">
-        <v>2.935922865322761</v>
+        <v>4.10165404478956</v>
       </c>
       <c r="F6">
-        <v>-0.04033284367426861</v>
+        <v>-0.3105020414652404</v>
       </c>
       <c r="G6">
-        <v>0.7813540675444711</v>
+        <v>0.03049158078603684</v>
       </c>
       <c r="H6">
-        <v>0.1453148393594015</v>
+        <v>0.1435087530694565</v>
       </c>
       <c r="I6">
-        <v>-0.2775548860121226</v>
+        <v>-2.163645316567981</v>
       </c>
       <c r="J6">
-        <v>0.04790170776840233</v>
+        <v>-0.07593689284909647</v>
       </c>
       <c r="K6">
-        <v>0.7422619356574385</v>
+        <v>0.5967737093245125</v>
       </c>
       <c r="L6">
-        <v>0.1456601285817254</v>
+        <v>0.1435355865006264</v>
       </c>
       <c r="M6">
-        <v>0.3288594362425415</v>
+        <v>-0.5290457558325794</v>
       </c>
       <c r="N6">
-        <v>139.1060226359518</v>
+        <v>142.7918141014975</v>
       </c>
       <c r="O6">
-        <v>146.5908266795833</v>
+        <v>150.276618145129</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -706,46 +706,46 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.5069594294366235</v>
+        <v>0.7650911257944666</v>
       </c>
       <c r="C7">
-        <v>0.003071281288170645</v>
+        <v>6.266713992437946E-05</v>
       </c>
       <c r="D7">
-        <v>0.1712404559228212</v>
+        <v>0.1911515933667138</v>
       </c>
       <c r="E7">
-        <v>2.96051202798194</v>
+        <v>4.002535957556375</v>
       </c>
       <c r="F7">
-        <v>-0.0391558208040071</v>
+        <v>-0.293532340192175</v>
       </c>
       <c r="G7">
-        <v>0.7857468441945257</v>
+        <v>0.040387507667609</v>
       </c>
       <c r="H7">
-        <v>0.144041191108971</v>
+        <v>0.1432030228809896</v>
       </c>
       <c r="I7">
-        <v>-0.2718376632583153</v>
+        <v>-2.049763575424789</v>
       </c>
       <c r="J7">
-        <v>0.0507097325508372</v>
+        <v>-0.07304724361297982</v>
       </c>
       <c r="K7">
-        <v>0.7267398291172715</v>
+        <v>0.6091324356847651</v>
       </c>
       <c r="L7">
-        <v>0.1451065275723621</v>
+        <v>0.1428623019712295</v>
       </c>
       <c r="M7">
-        <v>0.349465550580067</v>
+        <v>-0.5113122398636032</v>
       </c>
       <c r="N7">
-        <v>139.0167248261211</v>
+        <v>142.3133153167701</v>
       </c>
       <c r="O7">
-        <v>146.5015288697526</v>
+        <v>149.7981193604017</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -753,46 +753,46 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.4874162061468005</v>
+        <v>0.7741697926837159</v>
       </c>
       <c r="C8">
-        <v>0.005328474280498811</v>
+        <v>8.676755982823336E-05</v>
       </c>
       <c r="D8">
-        <v>0.1749221585843107</v>
+        <v>0.1972459858858079</v>
       </c>
       <c r="E8">
-        <v>2.786474910277709</v>
+        <v>3.924895045174241</v>
       </c>
       <c r="F8">
-        <v>-0.04029779607558203</v>
+        <v>-0.2703760767325923</v>
       </c>
       <c r="G8">
-        <v>0.7824902028685904</v>
+        <v>0.06832602449064611</v>
       </c>
       <c r="H8">
-        <v>0.1459666643261863</v>
+        <v>0.1483259678911316</v>
       </c>
       <c r="I8">
-        <v>-0.2760753372121325</v>
+        <v>-1.822850580897898</v>
       </c>
       <c r="J8">
-        <v>0.03114744583356055</v>
+        <v>-0.05392918587934514</v>
       </c>
       <c r="K8">
-        <v>0.8308855785337033</v>
+        <v>0.7135551486413998</v>
       </c>
       <c r="L8">
-        <v>0.1458446455943312</v>
+        <v>0.1469117340196772</v>
       </c>
       <c r="M8">
-        <v>0.2135659194523848</v>
+        <v>-0.367085626204112</v>
       </c>
       <c r="N8">
-        <v>140.2161514730331</v>
+        <v>145.190772259587</v>
       </c>
       <c r="O8">
-        <v>147.7009555166647</v>
+        <v>152.6755763032186</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -800,46 +800,46 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5186472597050484</v>
+        <v>0.7715823925068086</v>
       </c>
       <c r="C9">
-        <v>0.002779352764100286</v>
+        <v>9.102732650592675E-05</v>
       </c>
       <c r="D9">
-        <v>0.1733943358577159</v>
+        <v>0.1971671062760352</v>
       </c>
       <c r="E9">
-        <v>2.991143033245565</v>
+        <v>3.913342377843636</v>
       </c>
       <c r="F9">
-        <v>-0.05109731599420322</v>
+        <v>-0.2588715213831549</v>
       </c>
       <c r="G9">
-        <v>0.7234057135311067</v>
+        <v>0.07270903141331625</v>
       </c>
       <c r="H9">
-        <v>0.1443790702274994</v>
+        <v>0.1442460168559406</v>
       </c>
       <c r="I9">
-        <v>-0.3539108259506639</v>
+        <v>-1.794652823181187</v>
       </c>
       <c r="J9">
-        <v>0.02841997036246355</v>
+        <v>-0.04338070762338359</v>
       </c>
       <c r="K9">
-        <v>0.8457411393134542</v>
+        <v>0.7685184584719368</v>
       </c>
       <c r="L9">
-        <v>0.1460766052369508</v>
+        <v>0.1473963207759122</v>
       </c>
       <c r="M9">
-        <v>0.1945552493937242</v>
+        <v>-0.2943133681697225</v>
       </c>
       <c r="N9">
-        <v>140.2893401614519</v>
+        <v>145.264425118038</v>
       </c>
       <c r="O9">
-        <v>147.7741442050834</v>
+        <v>152.7492291616696</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -847,46 +847,46 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.5386116125924751</v>
+        <v>0.7546483082996314</v>
       </c>
       <c r="C10">
-        <v>0.001818603040523511</v>
+        <v>0.0001960386079312496</v>
       </c>
       <c r="D10">
-        <v>0.1727226979913843</v>
+        <v>0.2026408874795245</v>
       </c>
       <c r="E10">
-        <v>3.118360347864308</v>
+        <v>3.724067327606249</v>
       </c>
       <c r="F10">
-        <v>-0.05394694055820395</v>
+        <v>-0.2477529277142724</v>
       </c>
       <c r="G10">
-        <v>0.7078351608824528</v>
+        <v>0.09171839713010424</v>
       </c>
       <c r="H10">
-        <v>0.1439486719323159</v>
+        <v>0.1469121408787853</v>
       </c>
       <c r="I10">
-        <v>-0.374765114773477</v>
+        <v>-1.686401996678335</v>
       </c>
       <c r="J10">
-        <v>0.02545632979154958</v>
+        <v>0.005737018061302834</v>
       </c>
       <c r="K10">
-        <v>0.8597982149497995</v>
+        <v>0.9688447114422479</v>
       </c>
       <c r="L10">
-        <v>0.1441215004598113</v>
+        <v>0.1468872480980039</v>
       </c>
       <c r="M10">
-        <v>0.1766310349970867</v>
+        <v>0.03905729146396061</v>
       </c>
       <c r="N10">
-        <v>140.0681706786406</v>
+        <v>147.0482429467154</v>
       </c>
       <c r="O10">
-        <v>147.5529747222721</v>
+        <v>154.533046990347</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -894,46 +894,46 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.6044563742830713</v>
+        <v>0.745192560619705</v>
       </c>
       <c r="C11">
-        <v>0.0003532929763788324</v>
+        <v>0.0003089655121765237</v>
       </c>
       <c r="D11">
-        <v>0.1691866251486105</v>
+        <v>0.2065581588610949</v>
       </c>
       <c r="E11">
-        <v>3.572719615112173</v>
+        <v>3.607664614791749</v>
       </c>
       <c r="F11">
-        <v>-0.0729313689804377</v>
+        <v>-0.2124499458908243</v>
       </c>
       <c r="G11">
-        <v>0.6001485431076374</v>
+        <v>0.147858878684409</v>
       </c>
       <c r="H11">
-        <v>0.1391323730397292</v>
+        <v>0.1468071886287864</v>
       </c>
       <c r="I11">
-        <v>-0.5241869119821034</v>
+        <v>-1.447135851283282</v>
       </c>
       <c r="J11">
-        <v>0.007290847699912811</v>
+        <v>0.01373602066306207</v>
       </c>
       <c r="K11">
-        <v>0.9581162272590721</v>
+        <v>0.9266954836322991</v>
       </c>
       <c r="L11">
-        <v>0.1388266013592511</v>
+        <v>0.1492993518033337</v>
       </c>
       <c r="M11">
-        <v>0.05251765604378506</v>
+        <v>0.09200321700763978</v>
       </c>
       <c r="N11">
-        <v>136.5733779903395</v>
+        <v>148.6784381846584</v>
       </c>
       <c r="O11">
-        <v>144.058182033971</v>
+        <v>156.16324222829</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -941,46 +941,46 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.6373070502210219</v>
+        <v>0.7057321204355155</v>
       </c>
       <c r="C12">
-        <v>0.0008125207275211637</v>
+        <v>0.001014850544909513</v>
       </c>
       <c r="D12">
-        <v>0.1903264785304463</v>
+        <v>0.2147447181360063</v>
       </c>
       <c r="E12">
-        <v>3.348493888721177</v>
+        <v>3.286377083270321</v>
       </c>
       <c r="F12">
-        <v>-0.1627615844392491</v>
+        <v>-0.1414599448405341</v>
       </c>
       <c r="G12">
-        <v>0.2986994247803446</v>
+        <v>0.3478276682494601</v>
       </c>
       <c r="H12">
-        <v>0.1566180133631319</v>
+        <v>0.1506798589387863</v>
       </c>
       <c r="I12">
-        <v>-1.039226465361125</v>
+        <v>-0.9388112375257948</v>
       </c>
       <c r="J12">
-        <v>-0.02854044684260448</v>
+        <v>0.0993082021417153</v>
       </c>
       <c r="K12">
-        <v>0.8502611119524772</v>
+        <v>0.5138514261101846</v>
       </c>
       <c r="L12">
-        <v>0.1511794106211022</v>
+        <v>0.1521143205521785</v>
       </c>
       <c r="M12">
-        <v>-0.1887852765489</v>
+        <v>0.6528524190307936</v>
       </c>
       <c r="N12">
-        <v>144.4150190176928</v>
+        <v>152.8151586509209</v>
       </c>
       <c r="O12">
-        <v>151.8998230613243</v>
+        <v>160.2999626945525</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -988,46 +988,46 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.7847585358353616</v>
+        <v>0.6438161963884947</v>
       </c>
       <c r="C13">
-        <v>3.669281738440957E-05</v>
+        <v>0.001649649131474561</v>
       </c>
       <c r="D13">
-        <v>0.1901350335788304</v>
+        <v>0.2045820797528549</v>
       </c>
       <c r="E13">
-        <v>4.127374745538408</v>
+        <v>3.146982361144515</v>
       </c>
       <c r="F13">
-        <v>-0.2757574193221679</v>
+        <v>-0.0991319989808746</v>
       </c>
       <c r="G13">
-        <v>0.05358391004724124</v>
+        <v>0.4700699048705904</v>
       </c>
       <c r="H13">
-        <v>0.1428657918686349</v>
+        <v>0.1372325009179162</v>
       </c>
       <c r="I13">
-        <v>-1.930185075904852</v>
+        <v>-0.7223653166546099</v>
       </c>
       <c r="J13">
-        <v>-0.09051132148835164</v>
+        <v>0.09663317013354035</v>
       </c>
       <c r="K13">
-        <v>0.5625842316010381</v>
+        <v>0.4971770579819387</v>
       </c>
       <c r="L13">
-        <v>0.1563215486298998</v>
+        <v>0.1423298594900306</v>
       </c>
       <c r="M13">
-        <v>-0.5790073235689495</v>
+        <v>0.6789381404561069</v>
       </c>
       <c r="N13">
-        <v>143.466731847675</v>
+        <v>148.3935866479033</v>
       </c>
       <c r="O13">
-        <v>150.9515358913066</v>
+        <v>155.8783906915349</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1035,46 +1035,46 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.7912915757346921</v>
+        <v>0.6595050258517998</v>
       </c>
       <c r="C14">
-        <v>3.980105338515464E-05</v>
+        <v>0.001472415951239936</v>
       </c>
       <c r="D14">
-        <v>0.1925924905172039</v>
+        <v>0.2073872238855824</v>
       </c>
       <c r="E14">
-        <v>4.108631513148264</v>
+        <v>3.180065837689478</v>
       </c>
       <c r="F14">
-        <v>-0.2665474568744003</v>
+        <v>-0.1021332996315149</v>
       </c>
       <c r="G14">
-        <v>0.06405635128111109</v>
+        <v>0.4839016013234722</v>
       </c>
       <c r="H14">
-        <v>0.1439406329613825</v>
+        <v>0.1458961354839991</v>
       </c>
       <c r="I14">
-        <v>-1.85178744452174</v>
+        <v>-0.7000411579970617</v>
       </c>
       <c r="J14">
-        <v>-0.1051413858907581</v>
+        <v>0.04407647872184554</v>
       </c>
       <c r="K14">
-        <v>0.472722954216287</v>
+        <v>0.7505699072041021</v>
       </c>
       <c r="L14">
-        <v>0.1464251149746609</v>
+        <v>0.1386541199138302</v>
       </c>
       <c r="M14">
-        <v>-0.7180556826535731</v>
+        <v>0.3178879844986783</v>
       </c>
       <c r="N14">
-        <v>143.5364483132621</v>
+        <v>149.8834030131133</v>
       </c>
       <c r="O14">
-        <v>151.0212523568936</v>
+        <v>157.3682070567449</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1082,46 +1082,46 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.7416524022605426</v>
+        <v>0.6618619190300952</v>
       </c>
       <c r="C15">
-        <v>0.0001218922186280892</v>
+        <v>0.001225611683450643</v>
       </c>
       <c r="D15">
-        <v>0.1930235891555794</v>
+        <v>0.2047300588381932</v>
       </c>
       <c r="E15">
-        <v>3.842288942533141</v>
+        <v>3.232851701338066</v>
       </c>
       <c r="F15">
-        <v>-0.2605690596902319</v>
+        <v>-0.1054382403611872</v>
       </c>
       <c r="G15">
-        <v>0.06723149136212191</v>
+        <v>0.464508940600512</v>
       </c>
       <c r="H15">
-        <v>0.1423778649637311</v>
+        <v>0.1441511077931024</v>
       </c>
       <c r="I15">
-        <v>-1.83012338158469</v>
+        <v>-0.7314424562905261</v>
       </c>
       <c r="J15">
-        <v>-0.03362359027880751</v>
+        <v>0.05251744187154485</v>
       </c>
       <c r="K15">
-        <v>0.8128663303212598</v>
+        <v>0.7184045980719684</v>
       </c>
       <c r="L15">
-        <v>0.1420335538338168</v>
+        <v>0.1456423511940133</v>
       </c>
       <c r="M15">
-        <v>-0.2367299090336643</v>
+        <v>0.3605918295124558</v>
       </c>
       <c r="N15">
-        <v>142.7369606919189</v>
+        <v>149.8602537721731</v>
       </c>
       <c r="O15">
-        <v>150.2217647355505</v>
+        <v>157.3450578158046</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1129,46 +1129,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7435045774532438</v>
+        <v>0.683376660101212</v>
       </c>
       <c r="C16">
-        <v>0.000135165515901422</v>
+        <v>0.0008599052021419966</v>
       </c>
       <c r="D16">
-        <v>0.1947952639536369</v>
+        <v>0.2050485523092521</v>
       </c>
       <c r="E16">
-        <v>3.816851407795031</v>
+        <v>3.332755351866861</v>
       </c>
       <c r="F16">
-        <v>-0.3095582393020988</v>
+        <v>-0.1036106557393075</v>
       </c>
       <c r="G16">
-        <v>0.0333449592468358</v>
+        <v>0.4746921189845831</v>
       </c>
       <c r="H16">
-        <v>0.1454755904549314</v>
+        <v>0.1449372600160005</v>
       </c>
       <c r="I16">
-        <v>-2.12790502058832</v>
+        <v>-0.7148655613323259</v>
       </c>
       <c r="J16">
-        <v>-0.05598340686740649</v>
+        <v>0.03681183704765552</v>
       </c>
       <c r="K16">
-        <v>0.6977099108586393</v>
+        <v>0.799612837293797</v>
       </c>
       <c r="L16">
-        <v>0.1441334524002399</v>
+        <v>0.1450151608983312</v>
       </c>
       <c r="M16">
-        <v>-0.388413695329713</v>
+        <v>0.2538481964204003</v>
       </c>
       <c r="N16">
-        <v>143.5469084906815</v>
+        <v>150.3881382719306</v>
       </c>
       <c r="O16">
-        <v>151.031712534313</v>
+        <v>157.8729423155622</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1176,46 +1176,46 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>0.7736921154405019</v>
+        <v>0.7023444003601962</v>
       </c>
       <c r="C17">
-        <v>5.486710954702497E-05</v>
+        <v>0.0005559463153813402</v>
       </c>
       <c r="D17">
-        <v>0.1917992621470511</v>
+        <v>0.2034458038543661</v>
       </c>
       <c r="E17">
-        <v>4.033863878200521</v>
+        <v>3.452243236547458</v>
       </c>
       <c r="F17">
-        <v>-0.3486109832043511</v>
+        <v>-0.1084505587046366</v>
       </c>
       <c r="G17">
-        <v>0.01491584967954454</v>
+        <v>0.4468315536029124</v>
       </c>
       <c r="H17">
-        <v>0.1432010846788468</v>
+        <v>0.1425653109846684</v>
       </c>
       <c r="I17">
-        <v>-2.43441580059377</v>
+        <v>-0.7607079026138378</v>
       </c>
       <c r="J17">
-        <v>-0.08152320117962839</v>
+        <v>0.03345411304214232</v>
       </c>
       <c r="K17">
-        <v>0.576678312042705</v>
+        <v>0.8152753808898618</v>
       </c>
       <c r="L17">
-        <v>0.1460352734512365</v>
+        <v>0.1431951938871787</v>
       </c>
       <c r="M17">
-        <v>-0.5582432192784594</v>
+        <v>0.2336259488464419</v>
       </c>
       <c r="N17">
-        <v>142.9386624305603</v>
+        <v>149.2664965762354</v>
       </c>
       <c r="O17">
-        <v>150.4234664741918</v>
+        <v>156.7513006198669</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1223,46 +1223,46 @@
         <v>14</v>
       </c>
       <c r="B18">
-        <v>0.7944131255234372</v>
+        <v>0.727810082913941</v>
       </c>
       <c r="C18">
-        <v>3.423376200912223E-05</v>
+        <v>0.0003724251819877396</v>
       </c>
       <c r="D18">
-        <v>0.1917342102409693</v>
+        <v>0.2045047873719131</v>
       </c>
       <c r="E18">
-        <v>4.143304027617336</v>
+        <v>3.558890196493753</v>
       </c>
       <c r="F18">
-        <v>-0.3296899055590768</v>
+        <v>-0.1273173950287867</v>
       </c>
       <c r="G18">
-        <v>0.02292053572637995</v>
+        <v>0.3744037106029492</v>
       </c>
       <c r="H18">
-        <v>0.1449341468796782</v>
+        <v>0.1433343179459779</v>
       </c>
       <c r="I18">
-        <v>-2.27475658881671</v>
+        <v>-0.8882547937805944</v>
       </c>
       <c r="J18">
-        <v>-0.09877540944491459</v>
+        <v>0.02302506561104227</v>
       </c>
       <c r="K18">
-        <v>0.4984590943971892</v>
+        <v>0.8709643940796882</v>
       </c>
       <c r="L18">
-        <v>0.1459196905258943</v>
+        <v>0.1417506117575199</v>
       </c>
       <c r="M18">
-        <v>-0.6769162481699913</v>
+        <v>0.1624336242754931</v>
       </c>
       <c r="N18">
-        <v>143.6452624506602</v>
+        <v>148.6514481738702</v>
       </c>
       <c r="O18">
-        <v>151.1300664942918</v>
+        <v>156.1362522175017</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1270,46 +1270,46 @@
         <v>14</v>
       </c>
       <c r="B19">
-        <v>0.7704593471080061</v>
+        <v>0.7393364486094323</v>
       </c>
       <c r="C19">
-        <v>5.418346547172738E-05</v>
+        <v>0.0003649764677229633</v>
       </c>
       <c r="D19">
-        <v>0.1908585745161832</v>
+        <v>0.2074344229331303</v>
       </c>
       <c r="E19">
-        <v>4.036807615592234</v>
+        <v>3.564193628787296</v>
       </c>
       <c r="F19">
-        <v>-0.3050379208647678</v>
+        <v>-0.1333609755858153</v>
       </c>
       <c r="G19">
-        <v>0.03253589775572711</v>
+        <v>0.3552329973447579</v>
       </c>
       <c r="H19">
-        <v>0.1426901720940471</v>
+        <v>0.144254084289212</v>
       </c>
       <c r="I19">
-        <v>-2.137764054722124</v>
+        <v>-0.9244866531365771</v>
       </c>
       <c r="J19">
-        <v>-0.09085720499822367</v>
+        <v>0.01192586011221393</v>
       </c>
       <c r="K19">
-        <v>0.5243572731647217</v>
+        <v>0.9338112827383899</v>
       </c>
       <c r="L19">
-        <v>0.1427129099597167</v>
+        <v>0.1435974693694763</v>
       </c>
       <c r="M19">
-        <v>-0.6366432092504438</v>
+        <v>0.08305062870940082</v>
       </c>
       <c r="N19">
-        <v>142.9993090166954</v>
+        <v>148.6222843678065</v>
       </c>
       <c r="O19">
-        <v>150.484113060327</v>
+        <v>156.1070884114381</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1317,46 +1317,46 @@
         <v>14</v>
       </c>
       <c r="B20">
-        <v>0.7665027382538869</v>
+        <v>0.6066088323864807</v>
       </c>
       <c r="C20">
-        <v>6.075910051911123E-05</v>
+        <v>0.005720152172957039</v>
       </c>
       <c r="D20">
-        <v>0.191155293050196</v>
+        <v>0.2195148947147769</v>
       </c>
       <c r="E20">
-        <v>4.009843128186929</v>
+        <v>2.763406251656262</v>
       </c>
       <c r="F20">
-        <v>-0.3094307044260253</v>
+        <v>-0.08144499988397198</v>
       </c>
       <c r="G20">
-        <v>0.03143104757784149</v>
+        <v>0.5923280017358614</v>
       </c>
       <c r="H20">
-        <v>0.1438160779084735</v>
+        <v>0.1521012997624443</v>
       </c>
       <c r="I20">
-        <v>-2.151572403628968</v>
+        <v>-0.5354655089152748</v>
       </c>
       <c r="J20">
-        <v>-0.07778605307174213</v>
+        <v>0.0665223589430545</v>
       </c>
       <c r="K20">
-        <v>0.5839221525622738</v>
+        <v>0.6618797951101598</v>
       </c>
       <c r="L20">
-        <v>0.1420322555234379</v>
+        <v>0.1521139309997998</v>
       </c>
       <c r="M20">
-        <v>-0.5476647032399342</v>
+        <v>0.4373193073495816</v>
       </c>
       <c r="N20">
-        <v>143.0554473183674</v>
+        <v>153.6588105093543</v>
       </c>
       <c r="O20">
-        <v>150.540251361999</v>
+        <v>161.1436145529859</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1364,46 +1364,46 @@
         <v>14</v>
       </c>
       <c r="B21">
-        <v>0.7675013921934425</v>
+        <v>0.6187250281826153</v>
       </c>
       <c r="C21">
-        <v>5.893916628556357E-05</v>
+        <v>0.00308830442835938</v>
       </c>
       <c r="D21">
-        <v>0.1910624618225359</v>
+        <v>0.2091128649375975</v>
       </c>
       <c r="E21">
-        <v>4.017018229914357</v>
+        <v>2.958809006644581</v>
       </c>
       <c r="F21">
-        <v>-0.3116790610805322</v>
+        <v>-0.06974691992871419</v>
       </c>
       <c r="G21">
-        <v>0.03023076622080884</v>
+        <v>0.6265176805966133</v>
       </c>
       <c r="H21">
-        <v>0.1438261882168376</v>
+        <v>0.1433251910929908</v>
       </c>
       <c r="I21">
-        <v>-2.167053614816195</v>
+        <v>-0.4866340620014362</v>
       </c>
       <c r="J21">
-        <v>-0.08297890404612182</v>
+        <v>0.05802873417186215</v>
       </c>
       <c r="K21">
-        <v>0.5644414855977011</v>
+        <v>0.6998326872160279</v>
       </c>
       <c r="L21">
-        <v>0.1439963499645608</v>
+        <v>0.1505104043296395</v>
       </c>
       <c r="M21">
-        <v>-0.5762569958651306</v>
+        <v>0.3855463310348357</v>
       </c>
       <c r="N21">
-        <v>143.0137247175128</v>
+        <v>153.1739671971245</v>
       </c>
       <c r="O21">
-        <v>150.4985287611443</v>
+        <v>160.6587712407561</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1411,46 +1411,46 @@
         <v>14</v>
       </c>
       <c r="B22">
-        <v>0.7819039079715406</v>
+        <v>0.6408656424108929</v>
       </c>
       <c r="C22">
-        <v>4.102072739345949E-05</v>
+        <v>0.001616616850794253</v>
       </c>
       <c r="D22">
-        <v>0.1906313646722141</v>
+        <v>0.2032628050001269</v>
       </c>
       <c r="E22">
-        <v>4.10165404478956</v>
+        <v>3.152891855499548</v>
       </c>
       <c r="F22">
-        <v>-0.3105020414652404</v>
+        <v>-0.07656549377291103</v>
       </c>
       <c r="G22">
-        <v>0.03049158078603684</v>
+        <v>0.5948019774813159</v>
       </c>
       <c r="H22">
-        <v>0.1435087530694565</v>
+        <v>0.1439497845780738</v>
       </c>
       <c r="I22">
-        <v>-2.163645316567981</v>
+        <v>-0.5318902976988086</v>
       </c>
       <c r="J22">
-        <v>-0.07593689284909647</v>
+        <v>0.05169908213794357</v>
       </c>
       <c r="K22">
-        <v>0.5967737093245125</v>
+        <v>0.717762746987392</v>
       </c>
       <c r="L22">
-        <v>0.1435355865006264</v>
+        <v>0.1430322842640051</v>
       </c>
       <c r="M22">
-        <v>-0.5290457558325794</v>
+        <v>0.3614504403951125</v>
       </c>
       <c r="N22">
-        <v>142.7918141014975</v>
+        <v>153.0641191960817</v>
       </c>
       <c r="O22">
-        <v>150.276618145129</v>
+        <v>160.5489232397132</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1458,46 +1458,46 @@
         <v>14</v>
       </c>
       <c r="B23">
-        <v>0.7650911257944666</v>
+        <v>0.6500946914679746</v>
       </c>
       <c r="C23">
-        <v>6.266713992437946E-05</v>
+        <v>0.001591520253167326</v>
       </c>
       <c r="D23">
-        <v>0.1911515933667138</v>
+        <v>0.2058918970105656</v>
       </c>
       <c r="E23">
-        <v>4.002535957556375</v>
+        <v>3.157456417212059</v>
       </c>
       <c r="F23">
-        <v>-0.293532340192175</v>
+        <v>-0.0831249642810335</v>
       </c>
       <c r="G23">
-        <v>0.040387507667609</v>
+        <v>0.5646001741145213</v>
       </c>
       <c r="H23">
-        <v>0.1432030228809896</v>
+        <v>0.1443086114141806</v>
       </c>
       <c r="I23">
-        <v>-2.049763575424789</v>
+        <v>-0.576022203154989</v>
       </c>
       <c r="J23">
-        <v>-0.07304724361297982</v>
+        <v>0.04018041242703344</v>
       </c>
       <c r="K23">
-        <v>0.6091324356847651</v>
+        <v>0.7804876113991883</v>
       </c>
       <c r="L23">
-        <v>0.1428623019712295</v>
+        <v>0.1441792961225931</v>
       </c>
       <c r="M23">
-        <v>-0.5113122398636032</v>
+        <v>0.2786836495086558</v>
       </c>
       <c r="N23">
-        <v>142.3133153167701</v>
+        <v>153.1753274347352</v>
       </c>
       <c r="O23">
-        <v>149.7981193604017</v>
+        <v>160.6601314783668</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1505,46 +1505,46 @@
         <v>14</v>
       </c>
       <c r="B24">
-        <v>0.7741697926837159</v>
+        <v>0.6728873939910827</v>
       </c>
       <c r="C24">
-        <v>8.676755982823336E-05</v>
+        <v>0.001146397776470889</v>
       </c>
       <c r="D24">
-        <v>0.1972459858858079</v>
+        <v>0.2069218470473314</v>
       </c>
       <c r="E24">
-        <v>3.924895045174241</v>
+        <v>3.251891492333171</v>
       </c>
       <c r="F24">
-        <v>-0.2703760767325923</v>
+        <v>-0.09328399412093763</v>
       </c>
       <c r="G24">
-        <v>0.06832602449064611</v>
+        <v>0.5182854134769508</v>
       </c>
       <c r="H24">
-        <v>0.1483259678911316</v>
+        <v>0.1444045587083116</v>
       </c>
       <c r="I24">
-        <v>-1.822850580897898</v>
+        <v>-0.6459906456926029</v>
       </c>
       <c r="J24">
-        <v>-0.05392918587934514</v>
+        <v>0.03858939929227637</v>
       </c>
       <c r="K24">
-        <v>0.7135551486413998</v>
+        <v>0.7895151271340175</v>
       </c>
       <c r="L24">
-        <v>0.1469117340196772</v>
+        <v>0.1445619087188016</v>
       </c>
       <c r="M24">
-        <v>-0.367085626204112</v>
+        <v>0.266940300071297</v>
       </c>
       <c r="N24">
-        <v>145.190772259587</v>
+        <v>153.2974754015216</v>
       </c>
       <c r="O24">
-        <v>152.6755763032186</v>
+        <v>160.7822794451532</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1552,46 +1552,46 @@
         <v>14</v>
       </c>
       <c r="B25">
-        <v>0.7715823925068086</v>
+        <v>0.7298695767329756</v>
       </c>
       <c r="C25">
-        <v>9.102732650592675E-05</v>
+        <v>0.0003953353338251409</v>
       </c>
       <c r="D25">
-        <v>0.1971671062760352</v>
+        <v>0.2059929016410445</v>
       </c>
       <c r="E25">
-        <v>3.913342377843636</v>
+        <v>3.543178288758798</v>
       </c>
       <c r="F25">
-        <v>-0.2588715213831549</v>
+        <v>-0.09443245247177537</v>
       </c>
       <c r="G25">
-        <v>0.07270903141331625</v>
+        <v>0.5080313675646908</v>
       </c>
       <c r="H25">
-        <v>0.1442460168559406</v>
+        <v>0.1426674338969967</v>
       </c>
       <c r="I25">
-        <v>-1.794652823181187</v>
+        <v>-0.6619061539997553</v>
       </c>
       <c r="J25">
-        <v>-0.04338070762338359</v>
+        <v>0.01313018249217379</v>
       </c>
       <c r="K25">
-        <v>0.7685184584719368</v>
+        <v>0.9268276742084098</v>
       </c>
       <c r="L25">
-        <v>0.1473963207759122</v>
+        <v>0.1429729354184991</v>
       </c>
       <c r="M25">
-        <v>-0.2943133681697225</v>
+        <v>0.09183683928528258</v>
       </c>
       <c r="N25">
-        <v>145.264425118038</v>
+        <v>152.2513847569343</v>
       </c>
       <c r="O25">
-        <v>152.7492291616696</v>
+        <v>159.7361888005658</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1599,46 +1599,46 @@
         <v>14</v>
       </c>
       <c r="B26">
-        <v>0.7546483082996314</v>
+        <v>0.8008989436018312</v>
       </c>
       <c r="C26">
-        <v>0.0001960386079312496</v>
+        <v>8.818592007278959E-05</v>
       </c>
       <c r="D26">
-        <v>0.2026408874795245</v>
+        <v>0.2042593686934988</v>
       </c>
       <c r="E26">
-        <v>3.724067327606249</v>
+        <v>3.920990007580114</v>
       </c>
       <c r="F26">
-        <v>-0.2477529277142724</v>
+        <v>-0.1355128310186008</v>
       </c>
       <c r="G26">
-        <v>0.09171839713010424</v>
+        <v>0.3336643536917604</v>
       </c>
       <c r="H26">
-        <v>0.1469121408787853</v>
+        <v>0.140172248723936</v>
       </c>
       <c r="I26">
-        <v>-1.686401996678335</v>
+        <v>-0.9667593425392514</v>
       </c>
       <c r="J26">
-        <v>0.005737018061302834</v>
+        <v>0.002322226325974966</v>
       </c>
       <c r="K26">
-        <v>0.9688447114422479</v>
+        <v>0.9866290687115699</v>
       </c>
       <c r="L26">
-        <v>0.1468872480980039</v>
+        <v>0.1385678951078897</v>
       </c>
       <c r="M26">
-        <v>0.03905729146396061</v>
+        <v>0.0167587616465334</v>
       </c>
       <c r="N26">
-        <v>147.0482429467154</v>
+        <v>149.4486731428362</v>
       </c>
       <c r="O26">
-        <v>154.533046990347</v>
+        <v>156.9334771864678</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1646,46 +1646,46 @@
         <v>14</v>
       </c>
       <c r="B27">
-        <v>0.745192560619705</v>
+        <v>0.845534555276712</v>
       </c>
       <c r="C27">
-        <v>0.0003089655121765237</v>
+        <v>6.856668744826163E-05</v>
       </c>
       <c r="D27">
-        <v>0.2065581588610949</v>
+        <v>0.2123815494046033</v>
       </c>
       <c r="E27">
-        <v>3.607664614791749</v>
+        <v>3.981205324318936</v>
       </c>
       <c r="F27">
-        <v>-0.2124499458908243</v>
+        <v>-0.1602965053811418</v>
       </c>
       <c r="G27">
-        <v>0.147858878684409</v>
+        <v>0.2642040533401662</v>
       </c>
       <c r="H27">
-        <v>0.1468071886287864</v>
+        <v>0.1435693003068693</v>
       </c>
       <c r="I27">
-        <v>-1.447135851283282</v>
+        <v>-1.116509623147283</v>
       </c>
       <c r="J27">
-        <v>0.01373602066306207</v>
+        <v>-0.01849843828381749</v>
       </c>
       <c r="K27">
-        <v>0.9266954836322991</v>
+        <v>0.894979648914767</v>
       </c>
       <c r="L27">
-        <v>0.1492993518033337</v>
+        <v>0.1401334524377313</v>
       </c>
       <c r="M27">
-        <v>0.09200321700763978</v>
+        <v>-0.1320058698477962</v>
       </c>
       <c r="N27">
-        <v>148.6784381846584</v>
+        <v>148.9366091084953</v>
       </c>
       <c r="O27">
-        <v>156.16324222829</v>
+        <v>156.4214131521268</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -1693,46 +1693,46 @@
         <v>14</v>
       </c>
       <c r="B28">
-        <v>0.7057321204355155</v>
+        <v>0.8280557681368071</v>
       </c>
       <c r="C28">
-        <v>0.001014850544909513</v>
+        <v>0.0001523185076353015</v>
       </c>
       <c r="D28">
-        <v>0.2147447181360063</v>
+        <v>0.2186425170668332</v>
       </c>
       <c r="E28">
-        <v>3.286377083270321</v>
+        <v>3.78725866883289</v>
       </c>
       <c r="F28">
-        <v>-0.1414599448405341</v>
+        <v>-0.1578090970326701</v>
       </c>
       <c r="G28">
-        <v>0.3478276682494601</v>
+        <v>0.2753085657977198</v>
       </c>
       <c r="H28">
-        <v>0.1506798589387863</v>
+        <v>0.1446570370005857</v>
       </c>
       <c r="I28">
-        <v>-0.9388112375257948</v>
+        <v>-1.090918909337478</v>
       </c>
       <c r="J28">
-        <v>0.0993082021417153</v>
+        <v>-0.01442552187367235</v>
       </c>
       <c r="K28">
-        <v>0.5138514261101846</v>
+        <v>0.9203844180784855</v>
       </c>
       <c r="L28">
-        <v>0.1521143205521785</v>
+        <v>0.1443281050188301</v>
       </c>
       <c r="M28">
-        <v>0.6528524190307936</v>
+        <v>-0.09994949959185208</v>
       </c>
       <c r="N28">
-        <v>152.8151586509209</v>
+        <v>149.1662783928611</v>
       </c>
       <c r="O28">
-        <v>160.2999626945525</v>
+        <v>156.6510824364926</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1740,46 +1740,46 @@
         <v>14</v>
       </c>
       <c r="B29">
-        <v>0.6438161963884947</v>
+        <v>0.8266785320106345</v>
       </c>
       <c r="C29">
-        <v>0.001649649131474561</v>
+        <v>0.0001478009708943311</v>
       </c>
       <c r="D29">
-        <v>0.2045820797528549</v>
+        <v>0.2178487920737958</v>
       </c>
       <c r="E29">
-        <v>3.146982361144515</v>
+        <v>3.794735440766634</v>
       </c>
       <c r="F29">
-        <v>-0.0991319989808746</v>
+        <v>-0.1614875928409391</v>
       </c>
       <c r="G29">
-        <v>0.4700699048705904</v>
+        <v>0.2628526106204411</v>
       </c>
       <c r="H29">
-        <v>0.1372325009179162</v>
+        <v>0.1442273016207797</v>
       </c>
       <c r="I29">
-        <v>-0.7223653166546099</v>
+        <v>-1.119674229679082</v>
       </c>
       <c r="J29">
-        <v>0.09663317013354035</v>
+        <v>-0.01190008497104612</v>
       </c>
       <c r="K29">
-        <v>0.4971770579819387</v>
+        <v>0.9343641904121228</v>
       </c>
       <c r="L29">
-        <v>0.1423298594900306</v>
+        <v>0.1444969144566538</v>
       </c>
       <c r="M29">
-        <v>0.6789381404561069</v>
+        <v>-0.08235528776371147</v>
       </c>
       <c r="N29">
-        <v>148.3935866479033</v>
+        <v>149.1029006987745</v>
       </c>
       <c r="O29">
-        <v>155.8783906915349</v>
+        <v>156.587704742406</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1787,46 +1787,46 @@
         <v>14</v>
       </c>
       <c r="B30">
-        <v>0.6595050258517998</v>
+        <v>0.8220726475677422</v>
       </c>
       <c r="C30">
-        <v>0.001472415951239936</v>
+        <v>0.000142972943062871</v>
       </c>
       <c r="D30">
-        <v>0.2073872238855824</v>
+        <v>0.2161660813572345</v>
       </c>
       <c r="E30">
-        <v>3.180065837689478</v>
+        <v>3.802967803303011</v>
       </c>
       <c r="F30">
-        <v>-0.1021332996315149</v>
+        <v>-0.1584805155215425</v>
       </c>
       <c r="G30">
-        <v>0.4839016013234722</v>
+        <v>0.270614017379616</v>
       </c>
       <c r="H30">
-        <v>0.1458961354839991</v>
+        <v>0.1438574564511678</v>
       </c>
       <c r="I30">
-        <v>-0.7000411579970617</v>
+        <v>-1.101649642855589</v>
       </c>
       <c r="J30">
-        <v>0.04407647872184554</v>
+        <v>-0.001893733184550724</v>
       </c>
       <c r="K30">
-        <v>0.7505699072041021</v>
+        <v>0.9894971735623852</v>
       </c>
       <c r="L30">
-        <v>0.1386541199138302</v>
+        <v>0.1438600211411447</v>
       </c>
       <c r="M30">
-        <v>0.3178879844986783</v>
+        <v>-0.01316372102220626</v>
       </c>
       <c r="N30">
-        <v>149.8834030131133</v>
+        <v>148.7898250160968</v>
       </c>
       <c r="O30">
-        <v>157.3682070567449</v>
+        <v>156.2746290597283</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -1834,46 +1834,46 @@
         <v>14</v>
       </c>
       <c r="B31">
-        <v>0.6618619190300952</v>
+        <v>0.7808102856911785</v>
       </c>
       <c r="C31">
-        <v>0.001225611683450643</v>
+        <v>0.0003638916955644933</v>
       </c>
       <c r="D31">
-        <v>0.2047300588381932</v>
+        <v>0.2190226903852004</v>
       </c>
       <c r="E31">
-        <v>3.232851701338066</v>
+        <v>3.564974406614899</v>
       </c>
       <c r="F31">
-        <v>-0.1054382403611872</v>
+        <v>-0.1364305159432343</v>
       </c>
       <c r="G31">
-        <v>0.464508940600512</v>
+        <v>0.3495387705301237</v>
       </c>
       <c r="H31">
-        <v>0.1441511077931024</v>
+        <v>0.1458394501223281</v>
       </c>
       <c r="I31">
-        <v>-0.7314424562905261</v>
+        <v>-0.9354843002273958</v>
       </c>
       <c r="J31">
-        <v>0.05251744187154485</v>
+        <v>-0.01179976210652846</v>
       </c>
       <c r="K31">
-        <v>0.7184045980719684</v>
+        <v>0.9351950883013378</v>
       </c>
       <c r="L31">
-        <v>0.1456423511940133</v>
+        <v>0.1451199275369776</v>
       </c>
       <c r="M31">
-        <v>0.3605918295124558</v>
+        <v>-0.08131041895346726</v>
       </c>
       <c r="N31">
-        <v>149.8602537721731</v>
+        <v>149.6246390820631</v>
       </c>
       <c r="O31">
-        <v>157.3450578158046</v>
+        <v>157.1094431256947</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -1881,46 +1881,46 @@
         <v>14</v>
       </c>
       <c r="B32">
-        <v>0.683376660101212</v>
+        <v>0.707113060464248</v>
       </c>
       <c r="C32">
-        <v>0.0008599052021419966</v>
+        <v>0.001037955821577716</v>
       </c>
       <c r="D32">
-        <v>0.2050485523092521</v>
+        <v>0.2155811949928536</v>
       </c>
       <c r="E32">
-        <v>3.332755351866861</v>
+        <v>3.280031268440128</v>
       </c>
       <c r="F32">
-        <v>-0.1036106557393075</v>
+        <v>-0.1289316261755481</v>
       </c>
       <c r="G32">
-        <v>0.4746921189845831</v>
+        <v>0.3748563425402556</v>
       </c>
       <c r="H32">
-        <v>0.1449372600160005</v>
+        <v>0.1452892398311654</v>
       </c>
       <c r="I32">
-        <v>-0.7148655613323259</v>
+        <v>-0.8874134541923008</v>
       </c>
       <c r="J32">
-        <v>0.03681183704765552</v>
+        <v>0.03128610479543494</v>
       </c>
       <c r="K32">
-        <v>0.799612837293797</v>
+        <v>0.8298813539145141</v>
       </c>
       <c r="L32">
-        <v>0.1450151608983312</v>
+        <v>0.1456158269599732</v>
       </c>
       <c r="M32">
-        <v>0.2538481964204003</v>
+        <v>0.2148537384197588</v>
       </c>
       <c r="N32">
-        <v>150.3881382719306</v>
+        <v>149.4946988403225</v>
       </c>
       <c r="O32">
-        <v>157.8729423155622</v>
+        <v>156.979502883954</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -1928,46 +1928,46 @@
         <v>14</v>
       </c>
       <c r="B33">
-        <v>0.7023444003601962</v>
+        <v>0.7434178244556414</v>
       </c>
       <c r="C33">
-        <v>0.0005559463153813402</v>
+        <v>0.0002108343369784955</v>
       </c>
       <c r="D33">
-        <v>0.2034458038543661</v>
+        <v>0.2006164144983767</v>
       </c>
       <c r="E33">
-        <v>3.452243236547458</v>
+        <v>3.705667984917838</v>
       </c>
       <c r="F33">
-        <v>-0.1084505587046366</v>
+        <v>-0.1122357480748423</v>
       </c>
       <c r="G33">
-        <v>0.4468315536029124</v>
+        <v>0.4170703435170544</v>
       </c>
       <c r="H33">
-        <v>0.1425653109846684</v>
+        <v>0.1383040795189461</v>
       </c>
       <c r="I33">
-        <v>-0.7607079026138378</v>
+        <v>-0.8115143708358019</v>
       </c>
       <c r="J33">
-        <v>0.03345411304214232</v>
+        <v>0.0507280700015962</v>
       </c>
       <c r="K33">
-        <v>0.8152753808898618</v>
+        <v>0.7159694717262663</v>
       </c>
       <c r="L33">
-        <v>0.1431951938871787</v>
+        <v>0.1394200000647877</v>
       </c>
       <c r="M33">
-        <v>0.2336259488464419</v>
+        <v>0.3638507386172941</v>
       </c>
       <c r="N33">
-        <v>149.2664965762354</v>
+        <v>145.0492370571056</v>
       </c>
       <c r="O33">
-        <v>156.7513006198669</v>
+        <v>152.5340411007372</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -1975,46 +1975,46 @@
         <v>14</v>
       </c>
       <c r="B34">
-        <v>0.727810082913941</v>
+        <v>0.6662575296551996</v>
       </c>
       <c r="C34">
-        <v>0.0003724251819877396</v>
+        <v>0.0007391805215920999</v>
       </c>
       <c r="D34">
-        <v>0.2045047873719131</v>
+        <v>0.1974319485757166</v>
       </c>
       <c r="E34">
-        <v>3.558890196493753</v>
+        <v>3.374618619031078</v>
       </c>
       <c r="F34">
-        <v>-0.1273173950287867</v>
+        <v>-0.03066860765773786</v>
       </c>
       <c r="G34">
-        <v>0.3744037106029492</v>
+        <v>0.8254956251661638</v>
       </c>
       <c r="H34">
-        <v>0.1433343179459779</v>
+        <v>0.1390978779330181</v>
       </c>
       <c r="I34">
-        <v>-0.8882547937805944</v>
+        <v>-0.2204822108968921</v>
       </c>
       <c r="J34">
-        <v>0.02302506561104227</v>
+        <v>0.03393872130272645</v>
       </c>
       <c r="K34">
-        <v>0.8709643940796882</v>
+        <v>0.7990934585371856</v>
       </c>
       <c r="L34">
-        <v>0.1417506117575199</v>
+        <v>0.1333437563732651</v>
       </c>
       <c r="M34">
-        <v>0.1624336242754931</v>
+        <v>0.2545205131894052</v>
       </c>
       <c r="N34">
-        <v>148.6514481738702</v>
+        <v>141.9963176715672</v>
       </c>
       <c r="O34">
-        <v>156.1362522175017</v>
+        <v>149.4811217151987</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2022,46 +2022,46 @@
         <v>14</v>
       </c>
       <c r="B35">
-        <v>0.7393364486094323</v>
+        <v>0.6669346092278441</v>
       </c>
       <c r="C35">
-        <v>0.0003649764677229633</v>
+        <v>0.0006980534955092005</v>
       </c>
       <c r="D35">
-        <v>0.2074344229331303</v>
+        <v>0.1967159975547174</v>
       </c>
       <c r="E35">
-        <v>3.564193628787296</v>
+        <v>3.390342511631944</v>
       </c>
       <c r="F35">
-        <v>-0.1333609755858153</v>
+        <v>-0.0513845996032099</v>
       </c>
       <c r="G35">
-        <v>0.3552329973447579</v>
+        <v>0.7225326695485611</v>
       </c>
       <c r="H35">
-        <v>0.144254084289212</v>
+        <v>0.1447143773122712</v>
       </c>
       <c r="I35">
-        <v>-0.9244866531365771</v>
+        <v>-0.3550759817894935</v>
       </c>
       <c r="J35">
-        <v>0.01192586011221393</v>
+        <v>0.007068554642407437</v>
       </c>
       <c r="K35">
-        <v>0.9338112827383899</v>
+        <v>0.9592745014774146</v>
       </c>
       <c r="L35">
-        <v>0.1435974693694763</v>
+        <v>0.1384253291943339</v>
       </c>
       <c r="M35">
-        <v>0.08305062870940082</v>
+        <v>0.05106402624106434</v>
       </c>
       <c r="N35">
-        <v>148.6222843678065</v>
+        <v>141.6239758177929</v>
       </c>
       <c r="O35">
-        <v>156.1070884114381</v>
+        <v>149.1087798614244</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2069,46 +2069,46 @@
         <v>14</v>
       </c>
       <c r="B36">
-        <v>0.6066088323864807</v>
+        <v>0.6446141175895677</v>
       </c>
       <c r="C36">
-        <v>0.005720152172957039</v>
+        <v>0.0007855193924580261</v>
       </c>
       <c r="D36">
-        <v>0.2195148947147769</v>
+        <v>0.1919724224209542</v>
       </c>
       <c r="E36">
-        <v>2.763406251656262</v>
+        <v>3.357847494240957</v>
       </c>
       <c r="F36">
-        <v>-0.08144499988397198</v>
+        <v>-0.0406888269599496</v>
       </c>
       <c r="G36">
-        <v>0.5923280017358614</v>
+        <v>0.7744173347427263</v>
       </c>
       <c r="H36">
-        <v>0.1521012997624443</v>
+        <v>0.1419699571352037</v>
       </c>
       <c r="I36">
-        <v>-0.5354655089152748</v>
+        <v>-0.2866016710929904</v>
       </c>
       <c r="J36">
-        <v>0.0665223589430545</v>
+        <v>0.06087291428180062</v>
       </c>
       <c r="K36">
-        <v>0.6618797951101598</v>
+        <v>0.6690701636925321</v>
       </c>
       <c r="L36">
-        <v>0.1521139309997998</v>
+        <v>0.1424179332149302</v>
       </c>
       <c r="M36">
-        <v>0.4373193073495816</v>
+        <v>0.4274245027129707</v>
       </c>
       <c r="N36">
-        <v>153.6588105093543</v>
+        <v>140.0388097347407</v>
       </c>
       <c r="O36">
-        <v>161.1436145529859</v>
+        <v>147.5236137783723</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2116,46 +2116,46 @@
         <v>14</v>
       </c>
       <c r="B37">
-        <v>0.6187250281826153</v>
+        <v>0.6275174492065232</v>
       </c>
       <c r="C37">
-        <v>0.00308830442835938</v>
+        <v>0.001084600168713327</v>
       </c>
       <c r="D37">
-        <v>0.2091128649375975</v>
+        <v>0.1920417685404205</v>
       </c>
       <c r="E37">
-        <v>2.958809006644581</v>
+        <v>3.267609197602472</v>
       </c>
       <c r="F37">
-        <v>-0.06974691992871419</v>
+        <v>-0.03986847208845762</v>
       </c>
       <c r="G37">
-        <v>0.6265176805966133</v>
+        <v>0.7818666775107123</v>
       </c>
       <c r="H37">
-        <v>0.1433251910929908</v>
+        <v>0.1439881072727775</v>
       </c>
       <c r="I37">
-        <v>-0.4866340620014362</v>
+        <v>-0.2768872571741567</v>
       </c>
       <c r="J37">
-        <v>0.05802873417186215</v>
+        <v>0.07528155427265362</v>
       </c>
       <c r="K37">
-        <v>0.6998326872160279</v>
+        <v>0.596049668376434</v>
       </c>
       <c r="L37">
-        <v>0.1505104043296395</v>
+        <v>0.1420166050860007</v>
       </c>
       <c r="M37">
-        <v>0.3855463310348357</v>
+        <v>0.530089803421688</v>
       </c>
       <c r="N37">
-        <v>153.1739671971245</v>
+        <v>140.5718928727847</v>
       </c>
       <c r="O37">
-        <v>160.6587712407561</v>
+        <v>148.0566969164163</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2163,46 +2163,46 @@
         <v>14</v>
       </c>
       <c r="B38">
-        <v>0.6408656424108929</v>
+        <v>0.6066370950875095</v>
       </c>
       <c r="C38">
-        <v>0.001616616850794253</v>
+        <v>0.001599433639816557</v>
       </c>
       <c r="D38">
-        <v>0.2032628050001269</v>
+        <v>0.1922164665486978</v>
       </c>
       <c r="E38">
-        <v>3.152891855499548</v>
+        <v>3.156010023385893</v>
       </c>
       <c r="F38">
-        <v>-0.07656549377291103</v>
+        <v>-0.04614370626165165</v>
       </c>
       <c r="G38">
-        <v>0.5948019774813159</v>
+        <v>0.7469523678961359</v>
       </c>
       <c r="H38">
-        <v>0.1439497845780738</v>
+        <v>0.1430100861625549</v>
       </c>
       <c r="I38">
-        <v>-0.5318902976988086</v>
+        <v>-0.3226605024851296</v>
       </c>
       <c r="J38">
-        <v>0.05169908213794357</v>
+        <v>0.09287896661072724</v>
       </c>
       <c r="K38">
-        <v>0.717762746987392</v>
+        <v>0.5161504663364249</v>
       </c>
       <c r="L38">
-        <v>0.1430322842640051</v>
+        <v>0.143046804905035</v>
       </c>
       <c r="M38">
-        <v>0.3614504403951125</v>
+        <v>0.6492907455876915</v>
       </c>
       <c r="N38">
-        <v>153.0641191960817</v>
+        <v>139.7990162325381</v>
       </c>
       <c r="O38">
-        <v>160.5489232397132</v>
+        <v>147.2838202761697</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2210,46 +2210,46 @@
         <v>14</v>
       </c>
       <c r="B39">
-        <v>0.6500946914679746</v>
+        <v>0.5852448817787568</v>
       </c>
       <c r="C39">
-        <v>0.001591520253167326</v>
+        <v>0.002142682637703265</v>
       </c>
       <c r="D39">
-        <v>0.2058918970105656</v>
+        <v>0.1906516557517289</v>
       </c>
       <c r="E39">
-        <v>3.157456417212059</v>
+        <v>3.069707836898497</v>
       </c>
       <c r="F39">
-        <v>-0.0831249642810335</v>
+        <v>-0.03602814748288605</v>
       </c>
       <c r="G39">
-        <v>0.5646001741145213</v>
+        <v>0.8020790151983281</v>
       </c>
       <c r="H39">
-        <v>0.1443086114141806</v>
+        <v>0.1437346372213259</v>
       </c>
       <c r="I39">
-        <v>-0.576022203154989</v>
+        <v>-0.2506573793163654</v>
       </c>
       <c r="J39">
-        <v>0.04018041242703344</v>
+        <v>0.1052669071142093</v>
       </c>
       <c r="K39">
-        <v>0.7804876113991883</v>
+        <v>0.4617365809944728</v>
       </c>
       <c r="L39">
-        <v>0.1441792961225931</v>
+        <v>0.1430275676477299</v>
       </c>
       <c r="M39">
-        <v>0.2786836495086558</v>
+        <v>0.7359903328110613</v>
       </c>
       <c r="N39">
-        <v>153.1753274347352</v>
+        <v>138.8493691881008</v>
       </c>
       <c r="O39">
-        <v>160.6601314783668</v>
+        <v>146.3341732317324</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2257,46 +2257,46 @@
         <v>14</v>
       </c>
       <c r="B40">
-        <v>0.6728873939910827</v>
+        <v>0.6085322281436516</v>
       </c>
       <c r="C40">
-        <v>0.001146397776470889</v>
+        <v>0.00108205860970858</v>
       </c>
       <c r="D40">
-        <v>0.2069218470473314</v>
+        <v>0.186193806497339</v>
       </c>
       <c r="E40">
-        <v>3.251891492333171</v>
+        <v>3.268273201946427</v>
       </c>
       <c r="F40">
-        <v>-0.09328399412093763</v>
+        <v>-0.04106498082446347</v>
       </c>
       <c r="G40">
-        <v>0.5182854134769508</v>
+        <v>0.7706012107493738</v>
       </c>
       <c r="H40">
-        <v>0.1444045587083116</v>
+        <v>0.1408319260233055</v>
       </c>
       <c r="I40">
-        <v>-0.6459906456926029</v>
+        <v>-0.2915885764259722</v>
       </c>
       <c r="J40">
-        <v>0.03858939929227637</v>
+        <v>0.1260159418888459</v>
       </c>
       <c r="K40">
-        <v>0.7895151271340175</v>
+        <v>0.3714853001875148</v>
       </c>
       <c r="L40">
-        <v>0.1445619087188016</v>
+        <v>0.1410055939472755</v>
       </c>
       <c r="M40">
-        <v>0.266940300071297</v>
+        <v>0.8936946284270503</v>
       </c>
       <c r="N40">
-        <v>153.2974754015216</v>
+        <v>137.1676804634924</v>
       </c>
       <c r="O40">
-        <v>160.7822794451532</v>
+        <v>144.6524845071239</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2304,46 +2304,46 @@
         <v>14</v>
       </c>
       <c r="B41">
-        <v>0.7298695767329756</v>
+        <v>0.5801452642162591</v>
       </c>
       <c r="C41">
-        <v>0.0003953353338251409</v>
+        <v>0.002207531649884111</v>
       </c>
       <c r="D41">
-        <v>0.2059929016410445</v>
+        <v>0.1895409629908329</v>
       </c>
       <c r="E41">
-        <v>3.543178288758798</v>
+        <v>3.0607909502091</v>
       </c>
       <c r="F41">
-        <v>-0.09443245247177537</v>
+        <v>-0.04155707600330502</v>
       </c>
       <c r="G41">
-        <v>0.5080313675646908</v>
+        <v>0.771455501935749</v>
       </c>
       <c r="H41">
-        <v>0.1426674338969967</v>
+        <v>0.1430676221934905</v>
       </c>
       <c r="I41">
-        <v>-0.6619061539997553</v>
+        <v>-0.290471564188727</v>
       </c>
       <c r="J41">
-        <v>0.01313018249217379</v>
+        <v>0.1352535641706808</v>
       </c>
       <c r="K41">
-        <v>0.9268276742084098</v>
+        <v>0.3400518560826156</v>
       </c>
       <c r="L41">
-        <v>0.1429729354184991</v>
+        <v>0.1417658926968105</v>
       </c>
       <c r="M41">
-        <v>0.09183683928528258</v>
+        <v>0.9540627974596304</v>
       </c>
       <c r="N41">
-        <v>152.2513847569343</v>
+        <v>138.6711231390464</v>
       </c>
       <c r="O41">
-        <v>159.7361888005658</v>
+        <v>146.155927182678</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2351,46 +2351,46 @@
         <v>14</v>
       </c>
       <c r="B42">
-        <v>0.8008989436018312</v>
+        <v>0.5708750010218681</v>
       </c>
       <c r="C42">
-        <v>8.818592007278959E-05</v>
+        <v>0.002795545239360861</v>
       </c>
       <c r="D42">
-        <v>0.2042593686934988</v>
+        <v>0.1909684113475377</v>
       </c>
       <c r="E42">
-        <v>3.920990007580114</v>
+        <v>2.989368749488886</v>
       </c>
       <c r="F42">
-        <v>-0.1355128310186008</v>
+        <v>-0.04833489540428682</v>
       </c>
       <c r="G42">
-        <v>0.3336643536917604</v>
+        <v>0.7349884303172909</v>
       </c>
       <c r="H42">
-        <v>0.140172248723936</v>
+        <v>0.1427925407637105</v>
       </c>
       <c r="I42">
-        <v>-0.9667593425392514</v>
+        <v>-0.3384973412880872</v>
       </c>
       <c r="J42">
-        <v>0.002322226325974966</v>
+        <v>0.1479200460055909</v>
       </c>
       <c r="K42">
-        <v>0.9866290687115699</v>
+        <v>0.3008174398947823</v>
       </c>
       <c r="L42">
-        <v>0.1385678951078897</v>
+        <v>0.1429618418654425</v>
       </c>
       <c r="M42">
-        <v>0.0167587616465334</v>
+        <v>1.034682010776101</v>
       </c>
       <c r="N42">
-        <v>149.4486731428362</v>
+        <v>138.5564436254008</v>
       </c>
       <c r="O42">
-        <v>156.9334771864678</v>
+        <v>146.0412476690323</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2398,46 +2398,46 @@
         <v>14</v>
       </c>
       <c r="B43">
-        <v>0.845534555276712</v>
+        <v>0.5359737934381914</v>
       </c>
       <c r="C43">
-        <v>6.856668744826163E-05</v>
+        <v>0.004910462122493033</v>
       </c>
       <c r="D43">
-        <v>0.2123815494046033</v>
+        <v>0.1905447785463848</v>
       </c>
       <c r="E43">
-        <v>3.981205324318936</v>
+        <v>2.812849543960177</v>
       </c>
       <c r="F43">
-        <v>-0.1602965053811418</v>
+        <v>-0.05582018931750612</v>
       </c>
       <c r="G43">
-        <v>0.2642040533401662</v>
+        <v>0.6975455410091397</v>
       </c>
       <c r="H43">
-        <v>0.1435693003068693</v>
+        <v>0.1436310853061295</v>
       </c>
       <c r="I43">
-        <v>-1.116509623147283</v>
+        <v>-0.3886358527371232</v>
       </c>
       <c r="J43">
-        <v>-0.01849843828381749</v>
+        <v>0.1695813261595977</v>
       </c>
       <c r="K43">
-        <v>0.894979648914767</v>
+        <v>0.2380055492324339</v>
       </c>
       <c r="L43">
-        <v>0.1401334524377313</v>
+        <v>0.1437146217383511</v>
       </c>
       <c r="M43">
-        <v>-0.1320058698477962</v>
+        <v>1.179986588061581</v>
       </c>
       <c r="N43">
-        <v>148.9366091084953</v>
+        <v>138.9979745009784</v>
       </c>
       <c r="O43">
-        <v>156.4214131521268</v>
+        <v>146.4827785446099</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2445,46 +2445,46 @@
         <v>14</v>
       </c>
       <c r="B44">
-        <v>0.8280557681368071</v>
+        <v>0.6054167299092134</v>
       </c>
       <c r="C44">
-        <v>0.0001523185076353015</v>
+        <v>0.0002937403713638462</v>
       </c>
       <c r="D44">
-        <v>0.2186425170668332</v>
+        <v>0.167207146181598</v>
       </c>
       <c r="E44">
-        <v>3.78725866883289</v>
+        <v>3.620758704007128</v>
       </c>
       <c r="F44">
-        <v>-0.1578090970326701</v>
+        <v>-0.02632512203298443</v>
       </c>
       <c r="G44">
-        <v>0.2753085657977198</v>
+        <v>0.8369844946433006</v>
       </c>
       <c r="H44">
-        <v>0.1446570370005857</v>
+        <v>0.127945772884305</v>
       </c>
       <c r="I44">
-        <v>-1.090918909337478</v>
+        <v>-0.2057521826593593</v>
       </c>
       <c r="J44">
-        <v>-0.01442552187367235</v>
+        <v>0.08322322176036534</v>
       </c>
       <c r="K44">
-        <v>0.9203844180784855</v>
+        <v>0.5170963101566327</v>
       </c>
       <c r="L44">
-        <v>0.1443281050188301</v>
+        <v>0.1284650292774559</v>
       </c>
       <c r="M44">
-        <v>-0.09994949959185208</v>
+        <v>0.6478278347691159</v>
       </c>
       <c r="N44">
-        <v>149.1662783928611</v>
+        <v>130.9062791114581</v>
       </c>
       <c r="O44">
-        <v>156.6510824364926</v>
+        <v>138.3910831550897</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -2492,46 +2492,46 @@
         <v>14</v>
       </c>
       <c r="B45">
-        <v>0.8266785320106345</v>
+        <v>0.4979668465930522</v>
       </c>
       <c r="C45">
-        <v>0.0001478009708943311</v>
+        <v>0.003588155511352982</v>
       </c>
       <c r="D45">
-        <v>0.2178487920737958</v>
+        <v>0.1709894086180355</v>
       </c>
       <c r="E45">
-        <v>3.794735440766634</v>
+        <v>2.912267201914446</v>
       </c>
       <c r="F45">
-        <v>-0.1614875928409391</v>
+        <v>0.07273425341207654</v>
       </c>
       <c r="G45">
-        <v>0.2628526106204411</v>
+        <v>0.6016111247712952</v>
       </c>
       <c r="H45">
-        <v>0.1442273016207797</v>
+        <v>0.1393149552080012</v>
       </c>
       <c r="I45">
-        <v>-1.119674229679082</v>
+        <v>0.5220850360500223</v>
       </c>
       <c r="J45">
-        <v>-0.01190008497104612</v>
+        <v>0.07001464178718524</v>
       </c>
       <c r="K45">
-        <v>0.9343641904121228</v>
+        <v>0.5747553338623606</v>
       </c>
       <c r="L45">
-        <v>0.1444969144566538</v>
+        <v>0.1247895118952867</v>
       </c>
       <c r="M45">
-        <v>-0.08235528776371147</v>
+        <v>0.5610619091605702</v>
       </c>
       <c r="N45">
-        <v>149.1029006987745</v>
+        <v>130.9861448833853</v>
       </c>
       <c r="O45">
-        <v>156.587704742406</v>
+        <v>138.4709489270168</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -2539,46 +2539,46 @@
         <v>14</v>
       </c>
       <c r="B46">
-        <v>0.8220726475677422</v>
+        <v>0.5011057082775096</v>
       </c>
       <c r="C46">
-        <v>0.000142972943062871</v>
+        <v>0.003742528087772853</v>
       </c>
       <c r="D46">
-        <v>0.2161660813572345</v>
+        <v>0.1728495783276821</v>
       </c>
       <c r="E46">
-        <v>3.802967803303011</v>
+        <v>2.89908551195613</v>
       </c>
       <c r="F46">
-        <v>-0.1584805155215425</v>
+        <v>0.04715441879617926</v>
       </c>
       <c r="G46">
-        <v>0.270614017379616</v>
+        <v>0.7427849013201271</v>
       </c>
       <c r="H46">
-        <v>0.1438574564511678</v>
+        <v>0.1436900251320226</v>
       </c>
       <c r="I46">
-        <v>-1.101649642855589</v>
+        <v>0.328167656403802</v>
       </c>
       <c r="J46">
-        <v>-0.001893733184550724</v>
+        <v>0.09487785682721619</v>
       </c>
       <c r="K46">
-        <v>0.9894971735623852</v>
+        <v>0.4954293447437889</v>
       </c>
       <c r="L46">
-        <v>0.1438600211411447</v>
+        <v>0.1391785328875655</v>
       </c>
       <c r="M46">
-        <v>-0.01316372102220626</v>
+        <v>0.6816989291291259</v>
       </c>
       <c r="N46">
-        <v>148.7898250160968</v>
+        <v>130.9823069427827</v>
       </c>
       <c r="O46">
-        <v>156.2746290597283</v>
+        <v>138.4671109864142</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -2586,46 +2586,46 @@
         <v>14</v>
       </c>
       <c r="B47">
-        <v>0.7808102856911785</v>
+        <v>0.5022958503634486</v>
       </c>
       <c r="C47">
-        <v>0.0003638916955644933</v>
+        <v>0.002709150507102698</v>
       </c>
       <c r="D47">
-        <v>0.2190226903852004</v>
+        <v>0.1674907784080235</v>
       </c>
       <c r="E47">
-        <v>3.564974406614899</v>
+        <v>2.998946301030425</v>
       </c>
       <c r="F47">
-        <v>-0.1364305159432343</v>
+        <v>0.06753471165033351</v>
       </c>
       <c r="G47">
-        <v>0.3495387705301237</v>
+        <v>0.6347211519065639</v>
       </c>
       <c r="H47">
-        <v>0.1458394501223281</v>
+        <v>0.1421507036491199</v>
       </c>
       <c r="I47">
-        <v>-0.9354843002273958</v>
+        <v>0.4750923485896628</v>
       </c>
       <c r="J47">
-        <v>-0.01179976210652846</v>
+        <v>0.05356452450832267</v>
       </c>
       <c r="K47">
-        <v>0.9351950883013378</v>
+        <v>0.7065512832954246</v>
       </c>
       <c r="L47">
-        <v>0.1451199275369776</v>
+        <v>0.1422727382233404</v>
       </c>
       <c r="M47">
-        <v>-0.08131041895346726</v>
+        <v>0.3764918365754432</v>
       </c>
       <c r="N47">
-        <v>149.6246390820631</v>
+        <v>128.3940847855326</v>
       </c>
       <c r="O47">
-        <v>157.1094431256947</v>
+        <v>135.8788888291642</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -2633,46 +2633,46 @@
         <v>14</v>
       </c>
       <c r="B48">
-        <v>0.707113060464248</v>
+        <v>0.5015358188571248</v>
       </c>
       <c r="C48">
-        <v>0.001037955821577716</v>
+        <v>0.001770982136813841</v>
       </c>
       <c r="D48">
-        <v>0.2155811949928536</v>
+        <v>0.160431317338768</v>
       </c>
       <c r="E48">
-        <v>3.280031268440128</v>
+        <v>3.126171542916885</v>
       </c>
       <c r="F48">
-        <v>-0.1289316261755481</v>
+        <v>0.1195772180848063</v>
       </c>
       <c r="G48">
-        <v>0.3748563425402556</v>
+        <v>0.3887955170801984</v>
       </c>
       <c r="H48">
-        <v>0.1452892398311654</v>
+        <v>0.1387522589637026</v>
       </c>
       <c r="I48">
-        <v>-0.8874134541923008</v>
+        <v>0.8618037571272084</v>
       </c>
       <c r="J48">
-        <v>0.03128610479543494</v>
+        <v>0.05959070107686146</v>
       </c>
       <c r="K48">
-        <v>0.8298813539145141</v>
+        <v>0.6632295049242523</v>
       </c>
       <c r="L48">
-        <v>0.1456158269599732</v>
+        <v>0.1368458134104913</v>
       </c>
       <c r="M48">
-        <v>0.2148537384197588</v>
+        <v>0.4354587078094194</v>
       </c>
       <c r="N48">
-        <v>149.4946988403225</v>
+        <v>124.844836246766</v>
       </c>
       <c r="O48">
-        <v>156.979502883954</v>
+        <v>132.3296402903976</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -2680,46 +2680,46 @@
         <v>14</v>
       </c>
       <c r="B49">
-        <v>0.7434178244556414</v>
+        <v>0.4632993235452697</v>
       </c>
       <c r="C49">
-        <v>0.0002108343369784955</v>
+        <v>0.003223184408476178</v>
       </c>
       <c r="D49">
-        <v>0.2006164144983767</v>
+        <v>0.1572846751528744</v>
       </c>
       <c r="E49">
-        <v>3.705667984917838</v>
+        <v>2.945610073549513</v>
       </c>
       <c r="F49">
-        <v>-0.1122357480748423</v>
+        <v>0.1831701560625518</v>
       </c>
       <c r="G49">
-        <v>0.4170703435170544</v>
+        <v>0.1910388146534991</v>
       </c>
       <c r="H49">
-        <v>0.1383040795189461</v>
+        <v>0.1400905905375749</v>
       </c>
       <c r="I49">
-        <v>-0.8115143708358019</v>
+        <v>1.307512198782703</v>
       </c>
       <c r="J49">
-        <v>0.0507280700015962</v>
+        <v>0.03265036223584632</v>
       </c>
       <c r="K49">
-        <v>0.7159694717262663</v>
+        <v>0.8097963937843091</v>
       </c>
       <c r="L49">
-        <v>0.1394200000647877</v>
+        <v>0.1356539029901648</v>
       </c>
       <c r="M49">
-        <v>0.3638507386172941</v>
+        <v>0.240688704977501</v>
       </c>
       <c r="N49">
-        <v>145.0492370571056</v>
+        <v>122.0199374073091</v>
       </c>
       <c r="O49">
-        <v>152.5340411007372</v>
+        <v>129.5047414509407</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -2727,46 +2727,46 @@
         <v>14</v>
       </c>
       <c r="B50">
-        <v>0.6662575296551996</v>
+        <v>0.4533983169851622</v>
       </c>
       <c r="C50">
-        <v>0.0007391805215920999</v>
+        <v>0.004038315886130899</v>
       </c>
       <c r="D50">
-        <v>0.1974319485757166</v>
+        <v>0.1576953630057825</v>
       </c>
       <c r="E50">
-        <v>3.374618619031078</v>
+        <v>2.875153132870094</v>
       </c>
       <c r="F50">
-        <v>-0.03066860765773786</v>
+        <v>0.1722896293343067</v>
       </c>
       <c r="G50">
-        <v>0.8254956251661638</v>
+        <v>0.2315926598269356</v>
       </c>
       <c r="H50">
-        <v>0.1390978779330181</v>
+        <v>0.1440228074584856</v>
       </c>
       <c r="I50">
-        <v>-0.2204822108968921</v>
+        <v>1.196266288476352</v>
       </c>
       <c r="J50">
-        <v>0.03393872130272645</v>
+        <v>0.04706755845099329</v>
       </c>
       <c r="K50">
-        <v>0.7990934585371856</v>
+        <v>0.7391603381632165</v>
       </c>
       <c r="L50">
-        <v>0.1333437563732651</v>
+        <v>0.1413586716830622</v>
       </c>
       <c r="M50">
-        <v>0.2545205131894052</v>
+        <v>0.3329654834089176</v>
       </c>
       <c r="N50">
-        <v>141.9963176715672</v>
+        <v>121.5815832308167</v>
       </c>
       <c r="O50">
-        <v>149.4811217151987</v>
+        <v>129.0663872744482</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -2774,46 +2774,46 @@
         <v>14</v>
       </c>
       <c r="B51">
-        <v>0.6669346092278441</v>
+        <v>0.4515044354569274</v>
       </c>
       <c r="C51">
-        <v>0.0006980534955092005</v>
+        <v>0.004197455699413982</v>
       </c>
       <c r="D51">
-        <v>0.1967159975547174</v>
+        <v>0.1577072117086172</v>
       </c>
       <c r="E51">
-        <v>3.390342511631944</v>
+        <v>2.86292827427027</v>
       </c>
       <c r="F51">
-        <v>-0.0513845996032099</v>
+        <v>0.1712524530063749</v>
       </c>
       <c r="G51">
-        <v>0.7225326695485611</v>
+        <v>0.2338646567808869</v>
       </c>
       <c r="H51">
-        <v>0.1447143773122712</v>
+        <v>0.1438537136663981</v>
       </c>
       <c r="I51">
-        <v>-0.3550759817894935</v>
+        <v>1.190462509737604</v>
       </c>
       <c r="J51">
-        <v>0.007068554642407437</v>
+        <v>0.01744001151347732</v>
       </c>
       <c r="K51">
-        <v>0.9592745014774146</v>
+        <v>0.9032578717586026</v>
       </c>
       <c r="L51">
-        <v>0.1384253291943339</v>
+        <v>0.143483807273736</v>
       </c>
       <c r="M51">
-        <v>0.05106402624106434</v>
+        <v>0.1215468967881899</v>
       </c>
       <c r="N51">
-        <v>141.6239758177929</v>
+        <v>121.7915904056743</v>
       </c>
       <c r="O51">
-        <v>149.1087798614244</v>
+        <v>129.2763944493059</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -2821,46 +2821,46 @@
         <v>14</v>
       </c>
       <c r="B52">
-        <v>0.6446141175895677</v>
+        <v>0.446747707784392</v>
       </c>
       <c r="C52">
-        <v>0.0007855193924580261</v>
+        <v>0.004054516742294898</v>
       </c>
       <c r="D52">
-        <v>0.1919724224209542</v>
+        <v>0.1554505887332773</v>
       </c>
       <c r="E52">
-        <v>3.357847494240957</v>
+        <v>2.873888812032249</v>
       </c>
       <c r="F52">
-        <v>-0.0406888269599496</v>
+        <v>0.166099789114328</v>
       </c>
       <c r="G52">
-        <v>0.7744173347427263</v>
+        <v>0.2488579056647654</v>
       </c>
       <c r="H52">
-        <v>0.1419699571352037</v>
+        <v>0.1440428195972688</v>
       </c>
       <c r="I52">
-        <v>-0.2866016710929904</v>
+        <v>1.153127865580031</v>
       </c>
       <c r="J52">
-        <v>0.06087291428180062</v>
+        <v>0.01374345097137601</v>
       </c>
       <c r="K52">
-        <v>0.6690701636925321</v>
+        <v>0.9236691335279543</v>
       </c>
       <c r="L52">
-        <v>0.1424179332149302</v>
+        <v>0.1434404350877465</v>
       </c>
       <c r="M52">
-        <v>0.4274245027129707</v>
+        <v>0.09581294816185382</v>
       </c>
       <c r="N52">
-        <v>140.0388097347407</v>
+        <v>121.6101224360664</v>
       </c>
       <c r="O52">
-        <v>147.5236137783723</v>
+        <v>129.094926479698</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -2868,46 +2868,46 @@
         <v>14</v>
       </c>
       <c r="B53">
-        <v>0.6275174492065232</v>
+        <v>0.4394241467556857</v>
       </c>
       <c r="C53">
-        <v>0.001084600168713327</v>
+        <v>0.005682348531957886</v>
       </c>
       <c r="D53">
-        <v>0.1920417685404205</v>
+        <v>0.1588910124453665</v>
       </c>
       <c r="E53">
-        <v>3.267609197602472</v>
+        <v>2.765569556092913</v>
       </c>
       <c r="F53">
-        <v>-0.03986847208845762</v>
+        <v>0.1343127220059082</v>
       </c>
       <c r="G53">
-        <v>0.7818666775107123</v>
+        <v>0.353464751567896</v>
       </c>
       <c r="H53">
-        <v>0.1439881072727775</v>
+        <v>0.1447507304967678</v>
       </c>
       <c r="I53">
-        <v>-0.2768872571741567</v>
+        <v>0.9278897698475339</v>
       </c>
       <c r="J53">
-        <v>0.07528155427265362</v>
+        <v>0.05120739182937427</v>
       </c>
       <c r="K53">
-        <v>0.596049668376434</v>
+        <v>0.7227349915425668</v>
       </c>
       <c r="L53">
-        <v>0.1420166050860007</v>
+        <v>0.1443250764806462</v>
       </c>
       <c r="M53">
-        <v>0.530089803421688</v>
+        <v>0.3548059220064999</v>
       </c>
       <c r="N53">
-        <v>140.5718928727847</v>
+        <v>125.1358654124153</v>
       </c>
       <c r="O53">
-        <v>148.0566969164163</v>
+        <v>132.6206694560468</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -2915,46 +2915,46 @@
         <v>14</v>
       </c>
       <c r="B54">
-        <v>0.6066370950875095</v>
+        <v>0.4151923521094243</v>
       </c>
       <c r="C54">
-        <v>0.001599433639816557</v>
+        <v>0.008508818657700814</v>
       </c>
       <c r="D54">
-        <v>0.1922164665486978</v>
+        <v>0.1577968314796635</v>
       </c>
       <c r="E54">
-        <v>3.156010023385893</v>
+        <v>2.631183073932212</v>
       </c>
       <c r="F54">
-        <v>-0.04614370626165165</v>
+        <v>0.1466339042897455</v>
       </c>
       <c r="G54">
-        <v>0.7469523678961359</v>
+        <v>0.3105914201619943</v>
       </c>
       <c r="H54">
-        <v>0.1430100861625549</v>
+        <v>0.1446119636911757</v>
       </c>
       <c r="I54">
-        <v>-0.3226605024851296</v>
+        <v>1.013981834883923</v>
       </c>
       <c r="J54">
-        <v>0.09287896661072724</v>
+        <v>0.04714056195935076</v>
       </c>
       <c r="K54">
-        <v>0.5161504663364249</v>
+        <v>0.7456207542924485</v>
       </c>
       <c r="L54">
-        <v>0.143046804905035</v>
+        <v>0.1453075993609349</v>
       </c>
       <c r="M54">
-        <v>0.6492907455876915</v>
+        <v>0.3244191093010667</v>
       </c>
       <c r="N54">
-        <v>139.7990162325381</v>
+        <v>125.443917709466</v>
       </c>
       <c r="O54">
-        <v>147.2838202761697</v>
+        <v>132.9287217530975</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -2962,46 +2962,46 @@
         <v>14</v>
       </c>
       <c r="B55">
-        <v>0.5852448817787568</v>
+        <v>0.3894012718863752</v>
       </c>
       <c r="C55">
-        <v>0.002142682637703265</v>
+        <v>0.01341809932484734</v>
       </c>
       <c r="D55">
-        <v>0.1906516557517289</v>
+        <v>0.1574945056384066</v>
       </c>
       <c r="E55">
-        <v>3.069707836898497</v>
+        <v>2.472475279743446</v>
       </c>
       <c r="F55">
-        <v>-0.03602814748288605</v>
+        <v>0.1164409804180529</v>
       </c>
       <c r="G55">
-        <v>0.8020790151983281</v>
+        <v>0.4191911641759297</v>
       </c>
       <c r="H55">
-        <v>0.1437346372213259</v>
+        <v>0.1441412912340044</v>
       </c>
       <c r="I55">
-        <v>-0.2506573793163654</v>
+        <v>0.8078252901801626</v>
       </c>
       <c r="J55">
-        <v>0.1052669071142093</v>
+        <v>0.06572249427397883</v>
       </c>
       <c r="K55">
-        <v>0.4617365809944728</v>
+        <v>0.650048545287811</v>
       </c>
       <c r="L55">
-        <v>0.1430275676477299</v>
+        <v>0.144860600882372</v>
       </c>
       <c r="M55">
-        <v>0.7359903328110613</v>
+        <v>0.4536947511859765</v>
       </c>
       <c r="N55">
-        <v>138.8493691881008</v>
+        <v>127.1968301809137</v>
       </c>
       <c r="O55">
-        <v>146.3341732317324</v>
+        <v>134.6816342245453</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3009,46 +3009,46 @@
         <v>14</v>
       </c>
       <c r="B56">
-        <v>0.6085322281436516</v>
+        <v>0.3719007229553573</v>
       </c>
       <c r="C56">
-        <v>0.00108205860970858</v>
+        <v>0.01237985635239018</v>
       </c>
       <c r="D56">
-        <v>0.186193806497339</v>
+        <v>0.1486932223372653</v>
       </c>
       <c r="E56">
-        <v>3.268273201946427</v>
+        <v>2.50112760426843</v>
       </c>
       <c r="F56">
-        <v>-0.04106498082446347</v>
+        <v>0.09165293870977448</v>
       </c>
       <c r="G56">
-        <v>0.7706012107493738</v>
+        <v>0.5099416207998106</v>
       </c>
       <c r="H56">
-        <v>0.1408319260233055</v>
+        <v>0.139093885180916</v>
       </c>
       <c r="I56">
-        <v>-0.2915885764259722</v>
+        <v>0.6589285976918666</v>
       </c>
       <c r="J56">
-        <v>0.1260159418888459</v>
+        <v>0.05556842768512929</v>
       </c>
       <c r="K56">
-        <v>0.3714853001875148</v>
+        <v>0.6900056669279246</v>
       </c>
       <c r="L56">
-        <v>0.1410055939472755</v>
+        <v>0.139322535741192</v>
       </c>
       <c r="M56">
-        <v>0.8936946284270503</v>
+        <v>0.3988473751895685</v>
       </c>
       <c r="N56">
-        <v>137.1676804634924</v>
+        <v>123.8496880126517</v>
       </c>
       <c r="O56">
-        <v>144.6524845071239</v>
+        <v>131.3344920562833</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3056,46 +3056,46 @@
         <v>14</v>
       </c>
       <c r="B57">
-        <v>0.5801452642162591</v>
+        <v>0.3972713820058391</v>
       </c>
       <c r="C57">
-        <v>0.002207531649884111</v>
+        <v>0.007903915383353491</v>
       </c>
       <c r="D57">
-        <v>0.1895409629908329</v>
+        <v>0.1495667909412516</v>
       </c>
       <c r="E57">
-        <v>3.0607909502091</v>
+        <v>2.656146992963721</v>
       </c>
       <c r="F57">
-        <v>-0.04155707600330502</v>
+        <v>0.09040945607541898</v>
       </c>
       <c r="G57">
-        <v>0.771455501935749</v>
+        <v>0.5311354017493541</v>
       </c>
       <c r="H57">
-        <v>0.1430676221934905</v>
+        <v>0.144360922448989</v>
       </c>
       <c r="I57">
-        <v>-0.290471564188727</v>
+        <v>0.6262737487519574</v>
       </c>
       <c r="J57">
-        <v>0.1352535641706808</v>
+        <v>0.009495207723090551</v>
       </c>
       <c r="K57">
-        <v>0.3400518560826156</v>
+        <v>0.9456012014086128</v>
       </c>
       <c r="L57">
-        <v>0.1417658926968105</v>
+        <v>0.1391612582674302</v>
       </c>
       <c r="M57">
-        <v>0.9540627974596304</v>
+        <v>0.0682316892022012</v>
       </c>
       <c r="N57">
-        <v>138.6711231390464</v>
+        <v>126.6524951564532</v>
       </c>
       <c r="O57">
-        <v>146.155927182678</v>
+        <v>134.1372992000847</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3103,46 +3103,46 @@
         <v>14</v>
       </c>
       <c r="B58">
-        <v>0.5708750010218681</v>
+        <v>0.3889016238057809</v>
       </c>
       <c r="C58">
-        <v>0.002795545239360861</v>
+        <v>0.005902564489732191</v>
       </c>
       <c r="D58">
-        <v>0.1909684113475377</v>
+        <v>0.1412571963619586</v>
       </c>
       <c r="E58">
-        <v>2.989368749488886</v>
+        <v>2.75314556583196</v>
       </c>
       <c r="F58">
-        <v>-0.04833489540428682</v>
+        <v>0.09707538323778948</v>
       </c>
       <c r="G58">
-        <v>0.7349884303172909</v>
+        <v>0.4808985727849442</v>
       </c>
       <c r="H58">
-        <v>0.1427925407637105</v>
+        <v>0.1377233074684246</v>
       </c>
       <c r="I58">
-        <v>-0.3384973412880872</v>
+        <v>0.7048580594105006</v>
       </c>
       <c r="J58">
-        <v>0.1479200460055909</v>
+        <v>-0.06779359268765577</v>
       </c>
       <c r="K58">
-        <v>0.3008174398947823</v>
+        <v>0.62297822010149</v>
       </c>
       <c r="L58">
-        <v>0.1429618418654425</v>
+        <v>0.1378944814030866</v>
       </c>
       <c r="M58">
-        <v>1.034682010776101</v>
+        <v>-0.4916338347833135</v>
       </c>
       <c r="N58">
-        <v>138.5564436254008</v>
+        <v>122.228674301993</v>
       </c>
       <c r="O58">
-        <v>146.0412476690323</v>
+        <v>129.7134783456246</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3150,46 +3150,46 @@
         <v>14</v>
       </c>
       <c r="B59">
-        <v>0.5359737934381914</v>
+        <v>0.3792062566052663</v>
       </c>
       <c r="C59">
-        <v>0.004910462122493033</v>
+        <v>0.005421451239922672</v>
       </c>
       <c r="D59">
-        <v>0.1905447785463848</v>
+        <v>0.1363627680549893</v>
       </c>
       <c r="E59">
-        <v>2.812849543960177</v>
+        <v>2.780863589189893</v>
       </c>
       <c r="F59">
-        <v>-0.05582018931750612</v>
+        <v>0.02964147805383555</v>
       </c>
       <c r="G59">
-        <v>0.6975455410091397</v>
+        <v>0.832849444922809</v>
       </c>
       <c r="H59">
-        <v>0.1436310853061295</v>
+        <v>0.1404486715141415</v>
       </c>
       <c r="I59">
-        <v>-0.3886358527371232</v>
+        <v>0.2110484758188048</v>
       </c>
       <c r="J59">
-        <v>0.1695813261595977</v>
+        <v>-0.05996878398467979</v>
       </c>
       <c r="K59">
-        <v>0.2380055492324339</v>
+        <v>0.6553888840541784</v>
       </c>
       <c r="L59">
-        <v>0.1437146217383511</v>
+        <v>0.1343722458836051</v>
       </c>
       <c r="M59">
-        <v>1.179986588061581</v>
+        <v>-0.4462884696935518</v>
       </c>
       <c r="N59">
-        <v>138.9979745009784</v>
+        <v>119.8361971402753</v>
       </c>
       <c r="O59">
-        <v>146.4827785446099</v>
+        <v>127.3210011839068</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3197,46 +3197,46 @@
         <v>14</v>
       </c>
       <c r="B60">
-        <v>0.6054167299092134</v>
+        <v>0.4082288784498245</v>
       </c>
       <c r="C60">
-        <v>0.0002937403713638462</v>
+        <v>0.0005682585051968788</v>
       </c>
       <c r="D60">
-        <v>0.167207146181598</v>
+        <v>0.1184532593047027</v>
       </c>
       <c r="E60">
-        <v>3.620758704007128</v>
+        <v>3.446328795391935</v>
       </c>
       <c r="F60">
-        <v>-0.02632512203298443</v>
+        <v>-0.07806888401058314</v>
       </c>
       <c r="G60">
-        <v>0.8369844946433006</v>
+        <v>0.5357232345425398</v>
       </c>
       <c r="H60">
-        <v>0.127945772884305</v>
+        <v>0.1260612681659815</v>
       </c>
       <c r="I60">
-        <v>-0.2057521826593593</v>
+        <v>-0.6192931829607798</v>
       </c>
       <c r="J60">
-        <v>0.08322322176036534</v>
+        <v>-0.1918758309792275</v>
       </c>
       <c r="K60">
-        <v>0.5170963101566327</v>
+        <v>0.1169962173186521</v>
       </c>
       <c r="L60">
-        <v>0.1284650292774559</v>
+        <v>0.1224082722723663</v>
       </c>
       <c r="M60">
-        <v>0.6478278347691159</v>
+        <v>-1.567507059917417</v>
       </c>
       <c r="N60">
-        <v>130.9062791114581</v>
+        <v>107.037832418823</v>
       </c>
       <c r="O60">
-        <v>138.3910831550897</v>
+        <v>114.5226364624546</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3244,46 +3244,46 @@
         <v>14</v>
       </c>
       <c r="B61">
-        <v>0.4979668465930522</v>
+        <v>0.3933310829492113</v>
       </c>
       <c r="C61">
-        <v>0.003588155511352982</v>
+        <v>0.0008651525223113806</v>
       </c>
       <c r="D61">
-        <v>0.1709894086180355</v>
+        <v>0.1180797754817882</v>
       </c>
       <c r="E61">
-        <v>2.912267201914446</v>
+        <v>3.331062252992477</v>
       </c>
       <c r="F61">
-        <v>0.07273425341207654</v>
+        <v>-0.03745936462468441</v>
       </c>
       <c r="G61">
-        <v>0.6016111247712952</v>
+        <v>0.7902457026087935</v>
       </c>
       <c r="H61">
-        <v>0.1393149552080012</v>
+        <v>0.1408291429912725</v>
       </c>
       <c r="I61">
-        <v>0.5220850360500223</v>
+        <v>-0.2659915684284598</v>
       </c>
       <c r="J61">
-        <v>0.07001464178718524</v>
+        <v>-0.1878817314821149</v>
       </c>
       <c r="K61">
-        <v>0.5747553338623606</v>
+        <v>0.1377961187021314</v>
       </c>
       <c r="L61">
-        <v>0.1247895118952867</v>
+        <v>0.1266008234928817</v>
       </c>
       <c r="M61">
-        <v>0.5610619091605702</v>
+        <v>-1.48404825733759</v>
       </c>
       <c r="N61">
-        <v>130.9861448833853</v>
+        <v>106.7331705892996</v>
       </c>
       <c r="O61">
-        <v>138.4709489270168</v>
+        <v>114.2179746329311</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3291,46 +3291,46 @@
         <v>14</v>
       </c>
       <c r="B62">
-        <v>0.5011057082775096</v>
+        <v>0.380092491776297</v>
       </c>
       <c r="C62">
-        <v>0.003742528087772853</v>
+        <v>0.0009274031444909437</v>
       </c>
       <c r="D62">
-        <v>0.1728495783276821</v>
+        <v>0.114773603138322</v>
       </c>
       <c r="E62">
-        <v>2.89908551195613</v>
+        <v>3.311671685676889</v>
       </c>
       <c r="F62">
-        <v>0.04715441879617926</v>
+        <v>-0.04578366657062735</v>
       </c>
       <c r="G62">
-        <v>0.7427849013201271</v>
+        <v>0.7433046029005566</v>
       </c>
       <c r="H62">
-        <v>0.1436900251320226</v>
+        <v>0.1398058435945187</v>
       </c>
       <c r="I62">
-        <v>0.328167656403802</v>
+        <v>-0.3274803498444208</v>
       </c>
       <c r="J62">
-        <v>0.09487785682721619</v>
+        <v>-0.1173344667836503</v>
       </c>
       <c r="K62">
-        <v>0.4954293447437889</v>
+        <v>0.3995486041037987</v>
       </c>
       <c r="L62">
-        <v>0.1391785328875655</v>
+        <v>0.1392813524863599</v>
       </c>
       <c r="M62">
-        <v>0.6816989291291259</v>
+        <v>-0.8424276810145208</v>
       </c>
       <c r="N62">
-        <v>130.9823069427827</v>
+        <v>106.0059517500986</v>
       </c>
       <c r="O62">
-        <v>138.4671109864142</v>
+        <v>113.4907557937302</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -3338,46 +3338,46 @@
         <v>14</v>
       </c>
       <c r="B63">
-        <v>0.5022958503634486</v>
+        <v>0.3260469079587777</v>
       </c>
       <c r="C63">
-        <v>0.002709150507102698</v>
+        <v>0.004172442087584403</v>
       </c>
       <c r="D63">
-        <v>0.1674907784080235</v>
+        <v>0.1138105443591424</v>
       </c>
       <c r="E63">
-        <v>2.998946301030425</v>
+        <v>2.864821619075108</v>
       </c>
       <c r="F63">
-        <v>0.06753471165033351</v>
+        <v>0.006996467234812065</v>
       </c>
       <c r="G63">
-        <v>0.6347211519065639</v>
+        <v>0.9599541859510967</v>
       </c>
       <c r="H63">
-        <v>0.1421507036491199</v>
+        <v>0.1393411156078678</v>
       </c>
       <c r="I63">
-        <v>0.4750923485896628</v>
+        <v>0.05021107520411595</v>
       </c>
       <c r="J63">
-        <v>0.05356452450832267</v>
+        <v>-0.0824201388863909</v>
       </c>
       <c r="K63">
-        <v>0.7065512832954246</v>
+        <v>0.544764511888314</v>
       </c>
       <c r="L63">
-        <v>0.1422727382233404</v>
+        <v>0.1360912863334857</v>
       </c>
       <c r="M63">
-        <v>0.3764918365754432</v>
+        <v>-0.6056239242564287</v>
       </c>
       <c r="N63">
-        <v>128.3940847855326</v>
+        <v>103.3407708122961</v>
       </c>
       <c r="O63">
-        <v>135.8788888291642</v>
+        <v>110.8255748559277</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3385,46 +3385,46 @@
         <v>14</v>
       </c>
       <c r="B64">
-        <v>0.5015358188571248</v>
+        <v>0.2931083722171199</v>
       </c>
       <c r="C64">
-        <v>0.001770982136813841</v>
+        <v>0.003872586831304422</v>
       </c>
       <c r="D64">
-        <v>0.160431317338768</v>
+        <v>0.1014792347237291</v>
       </c>
       <c r="E64">
-        <v>3.126171542916885</v>
+        <v>2.888358125828296</v>
       </c>
       <c r="F64">
-        <v>0.1195772180848063</v>
+        <v>-0.07932639918147003</v>
       </c>
       <c r="G64">
-        <v>0.3887955170801984</v>
+        <v>0.5404927182979157</v>
       </c>
       <c r="H64">
-        <v>0.1387522589637026</v>
+        <v>0.1296038828748394</v>
       </c>
       <c r="I64">
-        <v>0.8618037571272084</v>
+        <v>-0.6120680755998402</v>
       </c>
       <c r="J64">
-        <v>0.05959070107686146</v>
+        <v>-0.008987948069407906</v>
       </c>
       <c r="K64">
-        <v>0.6632295049242523</v>
+        <v>0.9429204441134529</v>
       </c>
       <c r="L64">
-        <v>0.1368458134104913</v>
+        <v>0.1255304504562159</v>
       </c>
       <c r="M64">
-        <v>0.4354587078094194</v>
+        <v>-0.07159974362190979</v>
       </c>
       <c r="N64">
-        <v>124.844836246766</v>
+        <v>92.84092131591275</v>
       </c>
       <c r="O64">
-        <v>132.3296402903976</v>
+        <v>100.3257253595443</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -3432,46 +3432,46 @@
         <v>14</v>
       </c>
       <c r="B65">
-        <v>0.4632993235452697</v>
+        <v>0.2530211503112246</v>
       </c>
       <c r="C65">
-        <v>0.003223184408476178</v>
+        <v>0.007934001362461758</v>
       </c>
       <c r="D65">
-        <v>0.1572846751528744</v>
+        <v>0.09530469293856839</v>
       </c>
       <c r="E65">
-        <v>2.945610073549513</v>
+        <v>2.654865594859188</v>
       </c>
       <c r="F65">
-        <v>0.1831701560625518</v>
+        <v>0.08895183374453272</v>
       </c>
       <c r="G65">
-        <v>0.1910388146534991</v>
+        <v>0.5082009429199602</v>
       </c>
       <c r="H65">
-        <v>0.1400905905375749</v>
+        <v>0.1344411148012589</v>
       </c>
       <c r="I65">
-        <v>1.307512198782703</v>
+        <v>0.6616415958468369</v>
       </c>
       <c r="J65">
-        <v>0.03265036223584632</v>
+        <v>0.07265281491354139</v>
       </c>
       <c r="K65">
-        <v>0.8097963937843091</v>
+        <v>0.5472451287084167</v>
       </c>
       <c r="L65">
-        <v>0.1356539029901648</v>
+        <v>0.1207071227485991</v>
       </c>
       <c r="M65">
-        <v>0.240688704977501</v>
+        <v>0.6018933535915518</v>
       </c>
       <c r="N65">
-        <v>122.0199374073091</v>
+        <v>86.54025948621224</v>
       </c>
       <c r="O65">
-        <v>129.5047414509407</v>
+        <v>94.02506352984381</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -3479,46 +3479,46 @@
         <v>14</v>
       </c>
       <c r="B66">
-        <v>0.4533983169851622</v>
+        <v>0.2639604355650362</v>
       </c>
       <c r="C66">
-        <v>0.004038315886130899</v>
+        <v>0.004327084054854705</v>
       </c>
       <c r="D66">
-        <v>0.1576953630057825</v>
+        <v>0.09251131415204598</v>
       </c>
       <c r="E66">
-        <v>2.875153132870094</v>
+        <v>2.853277331367349</v>
       </c>
       <c r="F66">
-        <v>0.1722896293343067</v>
+        <v>-0.001503653894545188</v>
       </c>
       <c r="G66">
-        <v>0.2315926598269356</v>
+        <v>0.9914070790345626</v>
       </c>
       <c r="H66">
-        <v>0.1440228074584856</v>
+        <v>0.1396171382910258</v>
       </c>
       <c r="I66">
-        <v>1.196266288476352</v>
+        <v>-0.01076983752102759</v>
       </c>
       <c r="J66">
-        <v>0.04706755845099329</v>
+        <v>0.1722523978031073</v>
       </c>
       <c r="K66">
-        <v>0.7391603381632165</v>
+        <v>0.1867730538642568</v>
       </c>
       <c r="L66">
-        <v>0.1413586716830622</v>
+        <v>0.1304758936716758</v>
       </c>
       <c r="M66">
-        <v>0.3329654834089176</v>
+        <v>1.320185614030407</v>
       </c>
       <c r="N66">
-        <v>121.5815832308167</v>
+        <v>83.65464892343365</v>
       </c>
       <c r="O66">
-        <v>129.0663872744482</v>
+        <v>91.13945296706522</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -3526,46 +3526,46 @@
         <v>14</v>
       </c>
       <c r="B67">
-        <v>0.4515044354569274</v>
+        <v>0.2434766685034349</v>
       </c>
       <c r="C67">
-        <v>0.004197455699413982</v>
+        <v>0.01339027036885766</v>
       </c>
       <c r="D67">
-        <v>0.1577072117086172</v>
+        <v>0.09844532069540884</v>
       </c>
       <c r="E67">
-        <v>2.86292827427027</v>
+        <v>2.47321728227952</v>
       </c>
       <c r="F67">
-        <v>0.1712524530063749</v>
+        <v>0.01406462672941721</v>
       </c>
       <c r="G67">
-        <v>0.2338646567808869</v>
+        <v>0.9218501628759643</v>
       </c>
       <c r="H67">
-        <v>0.1438537136663981</v>
+        <v>0.1433652884585735</v>
       </c>
       <c r="I67">
-        <v>1.190462509737604</v>
+        <v>0.09810343131616057</v>
       </c>
       <c r="J67">
-        <v>0.01744001151347732</v>
+        <v>0.1748552261719328</v>
       </c>
       <c r="K67">
-        <v>0.9032578717586026</v>
+        <v>0.2144274773011633</v>
       </c>
       <c r="L67">
-        <v>0.143483807273736</v>
+        <v>0.1408438661047029</v>
       </c>
       <c r="M67">
-        <v>0.1215468967881899</v>
+        <v>1.24148272131316</v>
       </c>
       <c r="N67">
-        <v>121.7915904056743</v>
+        <v>84.88170267113725</v>
       </c>
       <c r="O67">
-        <v>129.2763944493059</v>
+        <v>92.36650671476882</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -3573,46 +3573,46 @@
         <v>14</v>
       </c>
       <c r="B68">
-        <v>0.446747707784392</v>
+        <v>0.3768287136013244</v>
       </c>
       <c r="C68">
-        <v>0.004054516742294898</v>
+        <v>0.0001752233703541348</v>
       </c>
       <c r="D68">
-        <v>0.1554505887332773</v>
+        <v>0.100426206403678</v>
       </c>
       <c r="E68">
-        <v>2.873888812032249</v>
+        <v>3.752294616074669</v>
       </c>
       <c r="F68">
-        <v>0.166099789114328</v>
+        <v>0.01376442326713444</v>
       </c>
       <c r="G68">
-        <v>0.2488579056647654</v>
+        <v>0.9191192362687559</v>
       </c>
       <c r="H68">
-        <v>0.1440428195972688</v>
+        <v>0.1355523380186976</v>
       </c>
       <c r="I68">
-        <v>1.153127865580031</v>
+        <v>0.1015432376034401</v>
       </c>
       <c r="J68">
-        <v>0.01374345097137601</v>
+        <v>0.02377684280666749</v>
       </c>
       <c r="K68">
-        <v>0.9236691335279543</v>
+        <v>0.8612890273367593</v>
       </c>
       <c r="L68">
-        <v>0.1434404350877465</v>
+        <v>0.1360748797793114</v>
       </c>
       <c r="M68">
-        <v>0.09581294816185382</v>
+        <v>0.1747335205824116</v>
       </c>
       <c r="N68">
-        <v>121.6101224360664</v>
+        <v>84.41654384639294</v>
       </c>
       <c r="O68">
-        <v>129.094926479698</v>
+        <v>91.90134789002451</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -3620,46 +3620,46 @@
         <v>14</v>
       </c>
       <c r="B69">
-        <v>0.4394241467556857</v>
+        <v>0.3624785058054921</v>
       </c>
       <c r="C69">
-        <v>0.005682348531957886</v>
+        <v>0.0005763960422714138</v>
       </c>
       <c r="D69">
-        <v>0.1588910124453665</v>
+        <v>0.1052955978922192</v>
       </c>
       <c r="E69">
-        <v>2.765569556092913</v>
+        <v>3.442484900237955</v>
       </c>
       <c r="F69">
-        <v>0.1343127220059082</v>
+        <v>0.009086025995362512</v>
       </c>
       <c r="G69">
-        <v>0.353464751567896</v>
+        <v>0.9499881471889903</v>
       </c>
       <c r="H69">
-        <v>0.1447507304967678</v>
+        <v>0.1448626461090392</v>
       </c>
       <c r="I69">
-        <v>0.9278897698475339</v>
+        <v>0.06272166248104701</v>
       </c>
       <c r="J69">
-        <v>0.05120739182937427</v>
+        <v>0.03146906057486817</v>
       </c>
       <c r="K69">
-        <v>0.7227349915425668</v>
+        <v>0.8153279133281044</v>
       </c>
       <c r="L69">
-        <v>0.1443250764806462</v>
+        <v>0.134737503081258</v>
       </c>
       <c r="M69">
-        <v>0.3548059220064999</v>
+        <v>0.2335582881915935</v>
       </c>
       <c r="N69">
-        <v>125.1358654124153</v>
+        <v>85.62337616589537</v>
       </c>
       <c r="O69">
-        <v>132.6206694560468</v>
+        <v>93.10818020952694</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -3667,46 +3667,46 @@
         <v>14</v>
       </c>
       <c r="B70">
-        <v>0.4151923521094243</v>
+        <v>0.3342928952823093</v>
       </c>
       <c r="C70">
-        <v>0.008508818657700814</v>
+        <v>0.001988038636470755</v>
       </c>
       <c r="D70">
-        <v>0.1577968314796635</v>
+        <v>0.108114956259904</v>
       </c>
       <c r="E70">
-        <v>2.631183073932212</v>
+        <v>3.092013416521972</v>
       </c>
       <c r="F70">
-        <v>0.1466339042897455</v>
+        <v>0.02403211465513586</v>
       </c>
       <c r="G70">
-        <v>0.3105914201619943</v>
+        <v>0.866819422729924</v>
       </c>
       <c r="H70">
-        <v>0.1446119636911757</v>
+        <v>0.1433043393216069</v>
       </c>
       <c r="I70">
-        <v>1.013981834883923</v>
+        <v>0.1676998391598069</v>
       </c>
       <c r="J70">
-        <v>0.04714056195935076</v>
+        <v>0.08269983535069922</v>
       </c>
       <c r="K70">
-        <v>0.7456207542924485</v>
+        <v>0.5636971842613852</v>
       </c>
       <c r="L70">
-        <v>0.1453075993609349</v>
+        <v>0.1432382310979328</v>
       </c>
       <c r="M70">
-        <v>0.3244191093010667</v>
+        <v>0.5773586752419251</v>
       </c>
       <c r="N70">
-        <v>125.443917709466</v>
+        <v>84.27070052030653</v>
       </c>
       <c r="O70">
-        <v>132.9287217530975</v>
+        <v>91.7555045639381</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -3714,46 +3714,46 @@
         <v>14</v>
       </c>
       <c r="B71">
-        <v>0.3894012718863752</v>
+        <v>0.3340851239102414</v>
       </c>
       <c r="C71">
-        <v>0.01341809932484734</v>
+        <v>0.0020753932111602</v>
       </c>
       <c r="D71">
-        <v>0.1574945056384066</v>
+        <v>0.1084964683024082</v>
       </c>
       <c r="E71">
-        <v>2.472475279743446</v>
+        <v>3.079225795433804</v>
       </c>
       <c r="F71">
-        <v>0.1164409804180529</v>
+        <v>0.02692589861430188</v>
       </c>
       <c r="G71">
-        <v>0.4191911641759297</v>
+        <v>0.8519726875823905</v>
       </c>
       <c r="H71">
-        <v>0.1441412912340044</v>
+        <v>0.144295862861131</v>
       </c>
       <c r="I71">
-        <v>0.8078252901801626</v>
+        <v>0.1866020139483495</v>
       </c>
       <c r="J71">
-        <v>0.06572249427397883</v>
+        <v>0.07809113811153597</v>
       </c>
       <c r="K71">
-        <v>0.650048545287811</v>
+        <v>0.5870174675155141</v>
       </c>
       <c r="L71">
-        <v>0.144860600882372</v>
+        <v>0.1437710499232197</v>
       </c>
       <c r="M71">
-        <v>0.4536947511859765</v>
+        <v>0.5431631622168732</v>
       </c>
       <c r="N71">
-        <v>127.1968301809137</v>
+        <v>84.51707024795022</v>
       </c>
       <c r="O71">
-        <v>134.6816342245453</v>
+        <v>92.00187429158179</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -3761,46 +3761,46 @@
         <v>14</v>
       </c>
       <c r="B72">
-        <v>0.3719007229553573</v>
+        <v>0.3232784079778101</v>
       </c>
       <c r="C72">
-        <v>0.01237985635239018</v>
+        <v>0.002205942162868025</v>
       </c>
       <c r="D72">
-        <v>0.1486932223372653</v>
+        <v>0.1056117963792571</v>
       </c>
       <c r="E72">
-        <v>2.50112760426843</v>
+        <v>3.061006621049239</v>
       </c>
       <c r="F72">
-        <v>0.09165293870977448</v>
+        <v>0.0462687555788872</v>
       </c>
       <c r="G72">
-        <v>0.5099416207998106</v>
+        <v>0.7416928062147174</v>
       </c>
       <c r="H72">
-        <v>0.139093885180916</v>
+        <v>0.1403731992112953</v>
       </c>
       <c r="I72">
-        <v>0.6589285976918666</v>
+        <v>0.3296124604899944</v>
       </c>
       <c r="J72">
-        <v>0.05556842768512929</v>
+        <v>0.04716450234194525</v>
       </c>
       <c r="K72">
-        <v>0.6900056669279246</v>
+        <v>0.7375869134823697</v>
       </c>
       <c r="L72">
-        <v>0.139322535741192</v>
+        <v>0.1407682951646189</v>
       </c>
       <c r="M72">
-        <v>0.3988473751895685</v>
+        <v>0.3350506041633138</v>
       </c>
       <c r="N72">
-        <v>123.8496880126517</v>
+        <v>82.10565608060026</v>
       </c>
       <c r="O72">
-        <v>131.3344920562833</v>
+        <v>89.59046012423183</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -3808,46 +3808,46 @@
         <v>14</v>
       </c>
       <c r="B73">
-        <v>0.3972713820058391</v>
+        <v>0.3219204927523893</v>
       </c>
       <c r="C73">
-        <v>0.007903915383353491</v>
+        <v>0.002367118337891157</v>
       </c>
       <c r="D73">
-        <v>0.1495667909412516</v>
+        <v>0.1059008260630551</v>
       </c>
       <c r="E73">
-        <v>2.656146992963721</v>
+        <v>3.039829855158188</v>
       </c>
       <c r="F73">
-        <v>0.09040945607541898</v>
+        <v>0.04368431348562872</v>
       </c>
       <c r="G73">
-        <v>0.5311354017493541</v>
+        <v>0.7637403192943477</v>
       </c>
       <c r="H73">
-        <v>0.144360922448989</v>
+        <v>0.1453369096244077</v>
       </c>
       <c r="I73">
-        <v>0.6262737487519574</v>
+        <v>0.3005727423166044</v>
       </c>
       <c r="J73">
-        <v>0.009495207723090551</v>
+        <v>0.07841317681632951</v>
       </c>
       <c r="K73">
-        <v>0.9456012014086128</v>
+        <v>0.580468956135884</v>
       </c>
       <c r="L73">
-        <v>0.1391612582674302</v>
+        <v>0.1418729837284783</v>
       </c>
       <c r="M73">
-        <v>0.0682316892022012</v>
+        <v>0.5526998499333707</v>
       </c>
       <c r="N73">
-        <v>126.6524951564532</v>
+        <v>84.60349893988811</v>
       </c>
       <c r="O73">
-        <v>134.1372992000847</v>
+        <v>92.08830298351968</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -3855,46 +3855,46 @@
         <v>14</v>
       </c>
       <c r="B74">
-        <v>0.3889016238057809</v>
+        <v>0.323746993852595</v>
       </c>
       <c r="C74">
-        <v>0.005902564489732191</v>
+        <v>0.00239730770053788</v>
       </c>
       <c r="D74">
-        <v>0.1412571963619586</v>
+        <v>0.1066356525759772</v>
       </c>
       <c r="E74">
-        <v>2.75314556583196</v>
+        <v>3.03601080906714</v>
       </c>
       <c r="F74">
-        <v>0.09707538323778948</v>
+        <v>0.06298220519482819</v>
       </c>
       <c r="G74">
-        <v>0.4808985727849442</v>
+        <v>0.6603726238916465</v>
       </c>
       <c r="H74">
-        <v>0.1377233074684246</v>
+        <v>0.1433372388320654</v>
       </c>
       <c r="I74">
-        <v>0.7048580594105006</v>
+        <v>0.4393987613269045</v>
       </c>
       <c r="J74">
-        <v>-0.06779359268765577</v>
+        <v>0.05998004011020665</v>
       </c>
       <c r="K74">
-        <v>0.62297822010149</v>
+        <v>0.6810180871878636</v>
       </c>
       <c r="L74">
-        <v>0.1378944814030866</v>
+        <v>0.1459104757581548</v>
       </c>
       <c r="M74">
-        <v>-0.4916338347833135</v>
+        <v>0.4110742549398783</v>
       </c>
       <c r="N74">
-        <v>122.228674301993</v>
+        <v>85.2302999814943</v>
       </c>
       <c r="O74">
-        <v>129.7134783456246</v>
+        <v>92.71510402512587</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -3902,46 +3902,46 @@
         <v>14</v>
       </c>
       <c r="B75">
-        <v>0.3792062566052663</v>
+        <v>0.3157981188223178</v>
       </c>
       <c r="C75">
-        <v>0.005421451239922672</v>
+        <v>0.003361684010588153</v>
       </c>
       <c r="D75">
-        <v>0.1363627680549893</v>
+        <v>0.107686447814641</v>
       </c>
       <c r="E75">
-        <v>2.780863589189893</v>
+        <v>2.932570673757353</v>
       </c>
       <c r="F75">
-        <v>0.02964147805383555</v>
+        <v>0.07563431719011117</v>
       </c>
       <c r="G75">
-        <v>0.832849444922809</v>
+        <v>0.5999426905872137</v>
       </c>
       <c r="H75">
-        <v>0.1404486715141415</v>
+        <v>0.1442073956945893</v>
       </c>
       <c r="I75">
-        <v>0.2110484758188048</v>
+        <v>0.5244829283949756</v>
       </c>
       <c r="J75">
-        <v>-0.05996878398467979</v>
+        <v>0.08713381462977739</v>
       </c>
       <c r="K75">
-        <v>0.6553888840541784</v>
+        <v>0.5453446960694848</v>
       </c>
       <c r="L75">
-        <v>0.1343722458836051</v>
+        <v>0.144082220140402</v>
       </c>
       <c r="M75">
-        <v>-0.4462884696935518</v>
+        <v>0.6047506385234013</v>
       </c>
       <c r="N75">
-        <v>119.8361971402753</v>
+        <v>86.19968796680176</v>
       </c>
       <c r="O75">
-        <v>127.3210011839068</v>
+        <v>93.68449201043333</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -3949,46 +3949,46 @@
         <v>14</v>
       </c>
       <c r="B76">
-        <v>0.4082288784498245</v>
+        <v>0.3140622373519842</v>
       </c>
       <c r="C76">
-        <v>0.0005682585051968788</v>
+        <v>0.003586717261941778</v>
       </c>
       <c r="D76">
-        <v>0.1184532593047027</v>
+        <v>0.1078365110696358</v>
       </c>
       <c r="E76">
-        <v>3.446328795391935</v>
+        <v>2.912392419198147</v>
       </c>
       <c r="F76">
-        <v>-0.07806888401058314</v>
+        <v>0.09409773656592169</v>
       </c>
       <c r="G76">
-        <v>0.5357232345425398</v>
+        <v>0.5106501255831212</v>
       </c>
       <c r="H76">
-        <v>0.1260612681659815</v>
+        <v>0.1430435657249083</v>
       </c>
       <c r="I76">
-        <v>-0.6192931829607798</v>
+        <v>0.6578257196614077</v>
       </c>
       <c r="J76">
-        <v>-0.1918758309792275</v>
+        <v>0.1055855541688528</v>
       </c>
       <c r="K76">
-        <v>0.1169962173186521</v>
+        <v>0.463638871615209</v>
       </c>
       <c r="L76">
-        <v>0.1224082722723663</v>
+        <v>0.144071698493285</v>
       </c>
       <c r="M76">
-        <v>-1.567507059917417</v>
+        <v>0.7328681154805294</v>
       </c>
       <c r="N76">
-        <v>107.037832418823</v>
+        <v>86.43886032391286</v>
       </c>
       <c r="O76">
-        <v>114.5226364624546</v>
+        <v>93.92366436754443</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -3996,46 +3996,46 @@
         <v>14</v>
       </c>
       <c r="B77">
-        <v>0.3933310829492113</v>
+        <v>0.2810027429982421</v>
       </c>
       <c r="C77">
-        <v>0.0008651525223113806</v>
+        <v>0.00741832821372435</v>
       </c>
       <c r="D77">
-        <v>0.1180797754817882</v>
+        <v>0.1049513398185754</v>
       </c>
       <c r="E77">
-        <v>3.331062252992477</v>
+        <v>2.677457414874348</v>
       </c>
       <c r="F77">
-        <v>-0.03745936462468441</v>
+        <v>0.1132978163670363</v>
       </c>
       <c r="G77">
-        <v>0.7902457026087935</v>
+        <v>0.4231176508110562</v>
       </c>
       <c r="H77">
-        <v>0.1408291429912725</v>
+        <v>0.1414411948517658</v>
       </c>
       <c r="I77">
-        <v>-0.2659915684284598</v>
+        <v>0.801024174645693</v>
       </c>
       <c r="J77">
-        <v>-0.1878817314821149</v>
+        <v>0.1188800603568959</v>
       </c>
       <c r="K77">
-        <v>0.1377961187021314</v>
+        <v>0.4002327303593505</v>
       </c>
       <c r="L77">
-        <v>0.1266008234928817</v>
+        <v>0.1413210419752344</v>
       </c>
       <c r="M77">
-        <v>-1.48404825733759</v>
+        <v>0.8412056597893528</v>
       </c>
       <c r="N77">
-        <v>106.7331705892996</v>
+        <v>83.92577526190605</v>
       </c>
       <c r="O77">
-        <v>114.2179746329311</v>
+        <v>91.41057930553762</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4043,46 +4043,46 @@
         <v>14</v>
       </c>
       <c r="B78">
-        <v>0.380092491776297</v>
+        <v>0.2905192371184852</v>
       </c>
       <c r="C78">
-        <v>0.0009274031444909437</v>
+        <v>0.00550514474671315</v>
       </c>
       <c r="D78">
-        <v>0.114773603138322</v>
+        <v>0.1046581883859568</v>
       </c>
       <c r="E78">
-        <v>3.311671685676889</v>
+        <v>2.775886355371572</v>
       </c>
       <c r="F78">
-        <v>-0.04578366657062735</v>
+        <v>0.1229380628970874</v>
       </c>
       <c r="G78">
-        <v>0.7433046029005566</v>
+        <v>0.3910725906471387</v>
       </c>
       <c r="H78">
-        <v>0.1398058435945187</v>
+        <v>0.1433389449150857</v>
       </c>
       <c r="I78">
-        <v>-0.3274803498444208</v>
+        <v>0.8576738371411636</v>
       </c>
       <c r="J78">
-        <v>-0.1173344667836503</v>
+        <v>0.1166151692444002</v>
       </c>
       <c r="K78">
-        <v>0.3995486041037987</v>
+        <v>0.4104035237007647</v>
       </c>
       <c r="L78">
-        <v>0.1392813524863599</v>
+        <v>0.1416635995062623</v>
       </c>
       <c r="M78">
-        <v>-0.8424276810145208</v>
+        <v>0.8231837229241455</v>
       </c>
       <c r="N78">
-        <v>106.0059517500986</v>
+        <v>83.9617373726096</v>
       </c>
       <c r="O78">
-        <v>113.4907557937302</v>
+        <v>91.44654141624117</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -4090,46 +4090,46 @@
         <v>14</v>
       </c>
       <c r="B79">
-        <v>0.3260469079587777</v>
+        <v>0.2959357644256006</v>
       </c>
       <c r="C79">
-        <v>0.004172442087584403</v>
+        <v>0.004148077057686508</v>
       </c>
       <c r="D79">
-        <v>0.1138105443591424</v>
+        <v>0.1032330773747282</v>
       </c>
       <c r="E79">
-        <v>2.864821619075108</v>
+        <v>2.866675797635831</v>
       </c>
       <c r="F79">
-        <v>0.006996467234812065</v>
+        <v>0.1049756429758978</v>
       </c>
       <c r="G79">
-        <v>0.9599541859510967</v>
+        <v>0.4577816926175287</v>
       </c>
       <c r="H79">
-        <v>0.1393411156078678</v>
+        <v>0.14138046988303</v>
       </c>
       <c r="I79">
-        <v>0.05021107520411595</v>
+        <v>0.7425045557052437</v>
       </c>
       <c r="J79">
-        <v>-0.0824201388863909</v>
+        <v>0.1463397349742969</v>
       </c>
       <c r="K79">
-        <v>0.544764511888314</v>
+        <v>0.3010612866893817</v>
       </c>
       <c r="L79">
-        <v>0.1360912863334857</v>
+        <v>0.1415058691345712</v>
       </c>
       <c r="M79">
-        <v>-0.6056239242564287</v>
+        <v>1.03416017914514</v>
       </c>
       <c r="N79">
-        <v>103.3407708122961</v>
+        <v>82.86992682083354</v>
       </c>
       <c r="O79">
-        <v>110.8255748559277</v>
+        <v>90.35473086446511</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -4137,46 +4137,46 @@
         <v>14</v>
       </c>
       <c r="B80">
-        <v>0.2931083722171199</v>
+        <v>0.3548210807849718</v>
       </c>
       <c r="C80">
-        <v>0.003872586831304422</v>
+        <v>0.0007850001513301794</v>
       </c>
       <c r="D80">
-        <v>0.1014792347237291</v>
+        <v>0.1056634550158886</v>
       </c>
       <c r="E80">
-        <v>2.888358125828296</v>
+        <v>3.358030273869215</v>
       </c>
       <c r="F80">
-        <v>-0.07932639918147003</v>
+        <v>0.05340647811430706</v>
       </c>
       <c r="G80">
-        <v>0.5404927182979157</v>
+        <v>0.7099913779539857</v>
       </c>
       <c r="H80">
-        <v>0.1296038828748394</v>
+        <v>0.1436168899660638</v>
       </c>
       <c r="I80">
-        <v>-0.6120680755998402</v>
+        <v>0.3718676690946783</v>
       </c>
       <c r="J80">
-        <v>-0.008987948069407906</v>
+        <v>0.1580331068619967</v>
       </c>
       <c r="K80">
-        <v>0.9429204441134529</v>
+        <v>0.2658298373646807</v>
       </c>
       <c r="L80">
-        <v>0.1255304504562159</v>
+        <v>0.1420244821873208</v>
       </c>
       <c r="M80">
-        <v>-0.07159974362190979</v>
+        <v>1.112717359909551</v>
       </c>
       <c r="N80">
-        <v>92.84092131591275</v>
+        <v>83.44714501037832</v>
       </c>
       <c r="O80">
-        <v>100.3257253595443</v>
+        <v>90.93194905400989</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -4184,46 +4184,46 @@
         <v>14</v>
       </c>
       <c r="B81">
-        <v>0.2530211503112246</v>
+        <v>0.2873495152144097</v>
       </c>
       <c r="C81">
-        <v>0.007934001362461758</v>
+        <v>0.00878849540382118</v>
       </c>
       <c r="D81">
-        <v>0.09530469293856839</v>
+        <v>0.1096681109163615</v>
       </c>
       <c r="E81">
-        <v>2.654865594859188</v>
+        <v>2.620173839171508</v>
       </c>
       <c r="F81">
-        <v>0.08895183374453272</v>
+        <v>0.06754850134152615</v>
       </c>
       <c r="G81">
-        <v>0.5082009429199602</v>
+        <v>0.6248661199572956</v>
       </c>
       <c r="H81">
-        <v>0.1344411148012589</v>
+        <v>0.1381457402002617</v>
       </c>
       <c r="I81">
-        <v>0.6616415958468369</v>
+        <v>0.4889655029797161</v>
       </c>
       <c r="J81">
-        <v>0.07265281491354139</v>
+        <v>0.1940561431758522</v>
       </c>
       <c r="K81">
-        <v>0.5472451287084167</v>
+        <v>0.1492063481309071</v>
       </c>
       <c r="L81">
-        <v>0.1207071227485991</v>
+        <v>0.1345425348344095</v>
       </c>
       <c r="M81">
-        <v>0.6018933535915518</v>
+        <v>1.442340471841787</v>
       </c>
       <c r="N81">
-        <v>86.54025948621224</v>
+        <v>82.3589101429653</v>
       </c>
       <c r="O81">
-        <v>94.02506352984381</v>
+        <v>89.84371418659687</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -4231,46 +4231,46 @@
         <v>14</v>
       </c>
       <c r="B82">
-        <v>0.2639604355650362</v>
+        <v>0.269400603288053</v>
       </c>
       <c r="C82">
-        <v>0.004327084054854705</v>
+        <v>0.01817993913180582</v>
       </c>
       <c r="D82">
-        <v>0.09251131415204598</v>
+        <v>0.1140593870919393</v>
       </c>
       <c r="E82">
-        <v>2.853277331367349</v>
+        <v>2.361932762893935</v>
       </c>
       <c r="F82">
-        <v>-0.001503653894545188</v>
+        <v>0.1070161030133297</v>
       </c>
       <c r="G82">
-        <v>0.9914070790345626</v>
+        <v>0.4645250630715185</v>
       </c>
       <c r="H82">
-        <v>0.1396171382910258</v>
+        <v>0.1463135825598437</v>
       </c>
       <c r="I82">
-        <v>-0.01076983752102759</v>
+        <v>0.7314160527069251</v>
       </c>
       <c r="J82">
-        <v>0.1722523978031073</v>
+        <v>0.1459379829144549</v>
       </c>
       <c r="K82">
-        <v>0.1867730538642568</v>
+        <v>0.3069611660272709</v>
       </c>
       <c r="L82">
-        <v>0.1304758936716758</v>
+        <v>0.142849686743596</v>
       </c>
       <c r="M82">
-        <v>1.320185614030407</v>
+        <v>1.021619201562564</v>
       </c>
       <c r="N82">
-        <v>83.65464892343365</v>
+        <v>86.06519334996251</v>
       </c>
       <c r="O82">
-        <v>91.13945296706522</v>
+        <v>93.54999739359408</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -4278,46 +4278,46 @@
         <v>14</v>
       </c>
       <c r="B83">
-        <v>0.2434766685034349</v>
+        <v>0.1313073217930865</v>
       </c>
       <c r="C83">
-        <v>0.01339027036885766</v>
+        <v>0.2959331609738857</v>
       </c>
       <c r="D83">
-        <v>0.09844532069540884</v>
+        <v>0.1256295765724633</v>
       </c>
       <c r="E83">
-        <v>2.47321728227952</v>
+        <v>1.045194335406745</v>
       </c>
       <c r="F83">
-        <v>0.01406462672941721</v>
+        <v>0.2215313540793546</v>
       </c>
       <c r="G83">
-        <v>0.9218501628759643</v>
+        <v>0.174524428202102</v>
       </c>
       <c r="H83">
-        <v>0.1433652884585735</v>
+        <v>0.1631535958353473</v>
       </c>
       <c r="I83">
-        <v>0.09810343131616057</v>
+        <v>1.357808591009674</v>
       </c>
       <c r="J83">
-        <v>0.1748552261719328</v>
+        <v>0.2709292661586103</v>
       </c>
       <c r="K83">
-        <v>0.2144274773011633</v>
+        <v>0.1066454025949058</v>
       </c>
       <c r="L83">
-        <v>0.1408438661047029</v>
+        <v>0.1679185611607472</v>
       </c>
       <c r="M83">
-        <v>1.24148272131316</v>
+        <v>1.61345633434324</v>
       </c>
       <c r="N83">
-        <v>84.88170267113725</v>
+        <v>100.4612842704981</v>
       </c>
       <c r="O83">
-        <v>92.36650671476882</v>
+        <v>107.9460883141297</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -4325,46 +4325,46 @@
         <v>14</v>
       </c>
       <c r="B84">
-        <v>0.3768287136013244</v>
+        <v>-0.08546400015792109</v>
       </c>
       <c r="C84">
-        <v>0.0001752233703541348</v>
+        <v>0.5209782404456228</v>
       </c>
       <c r="D84">
-        <v>0.100426206403678</v>
+        <v>0.1331550528816381</v>
       </c>
       <c r="E84">
-        <v>3.752294616074669</v>
+        <v>-0.6418382052229761</v>
       </c>
       <c r="F84">
-        <v>0.01376442326713444</v>
+        <v>0.5954234564897963</v>
       </c>
       <c r="G84">
-        <v>0.9191192362687559</v>
+        <v>0.0002286220686143741</v>
       </c>
       <c r="H84">
-        <v>0.1355523380186976</v>
+        <v>0.161576378823306</v>
       </c>
       <c r="I84">
-        <v>0.1015432376034401</v>
+        <v>3.685089744095142</v>
       </c>
       <c r="J84">
-        <v>0.02377684280666749</v>
+        <v>0.386834735082626</v>
       </c>
       <c r="K84">
-        <v>0.8612890273367593</v>
+        <v>0.04551241549156998</v>
       </c>
       <c r="L84">
-        <v>0.1360748797793114</v>
+        <v>0.1934282499050019</v>
       </c>
       <c r="M84">
-        <v>0.1747335205824116</v>
+        <v>1.999887479065811</v>
       </c>
       <c r="N84">
-        <v>84.41654384639294</v>
+        <v>115.0695484075056</v>
       </c>
       <c r="O84">
-        <v>91.90134789002451</v>
+        <v>122.5543524511372</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -4372,46 +4372,46 @@
         <v>14</v>
       </c>
       <c r="B85">
-        <v>0.3624785058054921</v>
+        <v>0.1061468185485747</v>
       </c>
       <c r="C85">
-        <v>0.0005763960422714138</v>
+        <v>0.4008898388807653</v>
       </c>
       <c r="D85">
-        <v>0.1052955978922192</v>
+        <v>0.1263602838942971</v>
       </c>
       <c r="E85">
-        <v>3.442484900237955</v>
+        <v>0.8400330806265733</v>
       </c>
       <c r="F85">
-        <v>0.009086025995362512</v>
+        <v>0.3404315777627142</v>
       </c>
       <c r="G85">
-        <v>0.9499881471889903</v>
+        <v>0.02124123183642945</v>
       </c>
       <c r="H85">
-        <v>0.1448626461090392</v>
+        <v>0.147777992061618</v>
       </c>
       <c r="I85">
-        <v>0.06272166248104701</v>
+        <v>2.303668990310592</v>
       </c>
       <c r="J85">
-        <v>0.03146906057486817</v>
+        <v>0.1380019767957041</v>
       </c>
       <c r="K85">
-        <v>0.8153279133281044</v>
+        <v>0.4612192334412506</v>
       </c>
       <c r="L85">
-        <v>0.134737503081258</v>
+        <v>0.1872887560115014</v>
       </c>
       <c r="M85">
-        <v>0.2335582881915935</v>
+        <v>0.7368406931339186</v>
       </c>
       <c r="N85">
-        <v>85.62337616589537</v>
+        <v>121.7949681273592</v>
       </c>
       <c r="O85">
-        <v>93.10818020952694</v>
+        <v>129.2797721709908</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -4419,46 +4419,46 @@
         <v>14</v>
       </c>
       <c r="B86">
-        <v>0.3342928952823093</v>
+        <v>0.153440573224372</v>
       </c>
       <c r="C86">
-        <v>0.001988038636470755</v>
+        <v>0.2102793769738714</v>
       </c>
       <c r="D86">
-        <v>0.108114956259904</v>
+        <v>0.1224783426972012</v>
       </c>
       <c r="E86">
-        <v>3.092013416521972</v>
+        <v>1.25279759543871</v>
       </c>
       <c r="F86">
-        <v>0.02403211465513586</v>
+        <v>0.3863258135949832</v>
       </c>
       <c r="G86">
-        <v>0.866819422729924</v>
+        <v>0.007506604069138108</v>
       </c>
       <c r="H86">
-        <v>0.1433043393216069</v>
+        <v>0.1445023201348044</v>
       </c>
       <c r="I86">
-        <v>0.1676998391598069</v>
+        <v>2.67349211579845</v>
       </c>
       <c r="J86">
-        <v>0.08269983535069922</v>
+        <v>0.01104832376143852</v>
       </c>
       <c r="K86">
-        <v>0.5636971842613852</v>
+        <v>0.9381772750396548</v>
       </c>
       <c r="L86">
-        <v>0.1432382310979328</v>
+        <v>0.1424469167825276</v>
       </c>
       <c r="M86">
-        <v>0.5773586752419251</v>
+        <v>0.07756098911081308</v>
       </c>
       <c r="N86">
-        <v>84.27070052030653</v>
+        <v>123.0739561925895</v>
       </c>
       <c r="O86">
-        <v>91.7555045639381</v>
+        <v>130.5587602362211</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -4466,46 +4466,46 @@
         <v>14</v>
       </c>
       <c r="B87">
-        <v>0.3340851239102414</v>
+        <v>0.1389652923054716</v>
       </c>
       <c r="C87">
-        <v>0.0020753932111602</v>
+        <v>0.2545535209862264</v>
       </c>
       <c r="D87">
-        <v>0.1084964683024082</v>
+        <v>0.1219679778540446</v>
       </c>
       <c r="E87">
-        <v>3.079225795433804</v>
+        <v>1.139358828034086</v>
       </c>
       <c r="F87">
-        <v>0.02692589861430188</v>
+        <v>0.3855241204054858</v>
       </c>
       <c r="G87">
-        <v>0.8519726875823905</v>
+        <v>0.007509479124353981</v>
       </c>
       <c r="H87">
-        <v>0.144295862861131</v>
+        <v>0.14420938089176</v>
       </c>
       <c r="I87">
-        <v>0.1866020139483495</v>
+        <v>2.673363674550761</v>
       </c>
       <c r="J87">
-        <v>0.07809113811153597</v>
+        <v>-0.003912425545139916</v>
       </c>
       <c r="K87">
-        <v>0.5870174675155141</v>
+        <v>0.9784224048728732</v>
       </c>
       <c r="L87">
-        <v>0.1437710499232197</v>
+        <v>0.1446539043351014</v>
       </c>
       <c r="M87">
-        <v>0.5431631622168732</v>
+        <v>-0.02704680224929495</v>
       </c>
       <c r="N87">
-        <v>84.51707024795022</v>
+        <v>122.7989114937188</v>
       </c>
       <c r="O87">
-        <v>92.00187429158179</v>
+        <v>130.2837155373504</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -4513,46 +4513,46 @@
         <v>14</v>
       </c>
       <c r="B88">
-        <v>0.3232784079778101</v>
+        <v>0.1313400336858587</v>
       </c>
       <c r="C88">
-        <v>0.002205942162868025</v>
+        <v>0.2779616598211592</v>
       </c>
       <c r="D88">
-        <v>0.1056117963792571</v>
+        <v>0.1210607997966735</v>
       </c>
       <c r="E88">
-        <v>3.061006621049239</v>
+        <v>1.084909680973937</v>
       </c>
       <c r="F88">
-        <v>0.0462687555788872</v>
+        <v>0.3795302202084146</v>
       </c>
       <c r="G88">
-        <v>0.7416928062147174</v>
+        <v>0.008229855625669642</v>
       </c>
       <c r="H88">
-        <v>0.1403731992112953</v>
+        <v>0.1436259057531887</v>
       </c>
       <c r="I88">
-        <v>0.3296124604899944</v>
+        <v>2.642491396089863</v>
       </c>
       <c r="J88">
-        <v>0.04716450234194525</v>
+        <v>-0.002682705365234184</v>
       </c>
       <c r="K88">
-        <v>0.7375869134823697</v>
+        <v>0.985043575429961</v>
       </c>
       <c r="L88">
-        <v>0.1407682951646189</v>
+        <v>0.1431066509433078</v>
       </c>
       <c r="M88">
-        <v>0.3350506041633138</v>
+        <v>-0.01874619626377077</v>
       </c>
       <c r="N88">
-        <v>82.10565608060026</v>
+        <v>122.1509300743132</v>
       </c>
       <c r="O88">
-        <v>89.59046012423183</v>
+        <v>129.6357341179448</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -4560,46 +4560,46 @@
         <v>14</v>
       </c>
       <c r="B89">
-        <v>0.3219204927523893</v>
+        <v>0.1868023009942607</v>
       </c>
       <c r="C89">
-        <v>0.002367118337891157</v>
+        <v>0.1278183494869503</v>
       </c>
       <c r="D89">
-        <v>0.1059008260630551</v>
+        <v>0.1226733690295733</v>
       </c>
       <c r="E89">
-        <v>3.039829855158188</v>
+        <v>1.522761643150337</v>
       </c>
       <c r="F89">
-        <v>0.04368431348562872</v>
+        <v>0.4113958219334716</v>
       </c>
       <c r="G89">
-        <v>0.7637403192943477</v>
+        <v>0.006067210025629616</v>
       </c>
       <c r="H89">
-        <v>0.1453369096244077</v>
+        <v>0.1499186641768847</v>
       </c>
       <c r="I89">
-        <v>0.3005727423166044</v>
+        <v>2.744126784961727</v>
       </c>
       <c r="J89">
-        <v>0.07841317681632951</v>
+        <v>0.02963340013839363</v>
       </c>
       <c r="K89">
-        <v>0.580468956135884</v>
+        <v>0.8421938703773613</v>
       </c>
       <c r="L89">
-        <v>0.1418729837284783</v>
+        <v>0.1488457013425155</v>
       </c>
       <c r="M89">
-        <v>0.5526998499333707</v>
+        <v>0.1990880480330626</v>
       </c>
       <c r="N89">
-        <v>84.60349893988811</v>
+        <v>123.2673346782205</v>
       </c>
       <c r="O89">
-        <v>92.08830298351968</v>
+        <v>130.7521387218521</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -4607,46 +4607,46 @@
         <v>14</v>
       </c>
       <c r="B90">
-        <v>0.323746993852595</v>
+        <v>0.1778404656212904</v>
       </c>
       <c r="C90">
-        <v>0.00239730770053788</v>
+        <v>0.1525787492686552</v>
       </c>
       <c r="D90">
-        <v>0.1066356525759772</v>
+        <v>0.1243220639517583</v>
       </c>
       <c r="E90">
-        <v>3.03601080906714</v>
+        <v>1.430481927088175</v>
       </c>
       <c r="F90">
-        <v>0.06298220519482819</v>
+        <v>0.3994869257531224</v>
       </c>
       <c r="G90">
-        <v>0.6603726238916465</v>
+        <v>0.005693615253467004</v>
       </c>
       <c r="H90">
-        <v>0.1433372388320654</v>
+        <v>0.1444839000596118</v>
       </c>
       <c r="I90">
-        <v>0.4393987613269045</v>
+        <v>2.764923466132215</v>
       </c>
       <c r="J90">
-        <v>0.05998004011020665</v>
+        <v>0.03092678940585661</v>
       </c>
       <c r="K90">
-        <v>0.6810180871878636</v>
+        <v>0.838745372664206</v>
       </c>
       <c r="L90">
-        <v>0.1459104757581548</v>
+        <v>0.1519754720238874</v>
       </c>
       <c r="M90">
-        <v>0.4110742549398783</v>
+        <v>0.2034985579843803</v>
       </c>
       <c r="N90">
-        <v>85.2302999814943</v>
+        <v>123.6893922951941</v>
       </c>
       <c r="O90">
-        <v>92.71510402512587</v>
+        <v>131.1741963388257</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -4654,46 +4654,46 @@
         <v>14</v>
       </c>
       <c r="B91">
-        <v>0.3157981188223178</v>
+        <v>0.187634532504858</v>
       </c>
       <c r="C91">
-        <v>0.003361684010588153</v>
+        <v>0.1319319088176206</v>
       </c>
       <c r="D91">
-        <v>0.107686447814641</v>
+        <v>0.1245477291280004</v>
       </c>
       <c r="E91">
-        <v>2.932570673757353</v>
+        <v>1.506527126737268</v>
       </c>
       <c r="F91">
-        <v>0.07563431719011117</v>
+        <v>0.4131258787367731</v>
       </c>
       <c r="G91">
-        <v>0.5999426905872137</v>
+        <v>0.004052536418874447</v>
       </c>
       <c r="H91">
-        <v>0.1442073956945893</v>
+        <v>0.1437438002108983</v>
       </c>
       <c r="I91">
-        <v>0.5244829283949756</v>
+        <v>2.874043110942122</v>
       </c>
       <c r="J91">
-        <v>0.08713381462977739</v>
+        <v>0.007056566488745988</v>
       </c>
       <c r="K91">
-        <v>0.5453446960694848</v>
+        <v>0.9609286410467289</v>
       </c>
       <c r="L91">
-        <v>0.144082220140402</v>
+        <v>0.1440460333233273</v>
       </c>
       <c r="M91">
-        <v>0.6047506385234013</v>
+        <v>0.04898827358131232</v>
       </c>
       <c r="N91">
-        <v>86.19968796680176</v>
+        <v>122.8074141792978</v>
       </c>
       <c r="O91">
-        <v>93.68449201043333</v>
+        <v>130.2922182229294</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -4701,46 +4701,46 @@
         <v>14</v>
       </c>
       <c r="B92">
-        <v>0.3140622373519842</v>
+        <v>0.1906159009485571</v>
       </c>
       <c r="C92">
-        <v>0.003586717261941778</v>
+        <v>0.1354344528897257</v>
       </c>
       <c r="D92">
-        <v>0.1078365110696358</v>
+        <v>0.1276721818167276</v>
       </c>
       <c r="E92">
-        <v>2.912392419198147</v>
+        <v>1.493010444688607</v>
       </c>
       <c r="F92">
-        <v>0.09409773656592169</v>
+        <v>0.4148182220656881</v>
       </c>
       <c r="G92">
-        <v>0.5106501255831212</v>
+        <v>0.004297588680240346</v>
       </c>
       <c r="H92">
-        <v>0.1430435657249083</v>
+        <v>0.1452724507749169</v>
       </c>
       <c r="I92">
-        <v>0.6578257196614077</v>
+        <v>2.855450017212154</v>
       </c>
       <c r="J92">
-        <v>0.1055855541688528</v>
+        <v>0.009131918905765882</v>
       </c>
       <c r="K92">
-        <v>0.463638871615209</v>
+        <v>0.9497149434151364</v>
       </c>
       <c r="L92">
-        <v>0.144071698493285</v>
+        <v>0.144802268002729</v>
       </c>
       <c r="M92">
-        <v>0.7328681154805294</v>
+        <v>0.06306475051615752</v>
       </c>
       <c r="N92">
-        <v>86.43886032391286</v>
+        <v>124.7934509433777</v>
       </c>
       <c r="O92">
-        <v>93.92366436754443</v>
+        <v>132.2782549870093</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -4748,46 +4748,46 @@
         <v>14</v>
       </c>
       <c r="B93">
-        <v>0.2810027429982421</v>
+        <v>0.1937322482572149</v>
       </c>
       <c r="C93">
-        <v>0.00741832821372435</v>
+        <v>0.139548348946029</v>
       </c>
       <c r="D93">
-        <v>0.1049513398185754</v>
+        <v>0.1311238737360054</v>
       </c>
       <c r="E93">
-        <v>2.677457414874348</v>
+        <v>1.477475022185969</v>
       </c>
       <c r="F93">
-        <v>0.1132978163670363</v>
+        <v>0.4688531496802593</v>
       </c>
       <c r="G93">
-        <v>0.4231176508110562</v>
+        <v>0.001197083697343839</v>
       </c>
       <c r="H93">
-        <v>0.1414411948517658</v>
+        <v>0.1447267879642263</v>
       </c>
       <c r="I93">
-        <v>0.801024174645693</v>
+        <v>3.239574071084551</v>
       </c>
       <c r="J93">
-        <v>0.1188800603568959</v>
+        <v>-0.05063097652872951</v>
       </c>
       <c r="K93">
-        <v>0.4002327303593505</v>
+        <v>0.7290322691392677</v>
       </c>
       <c r="L93">
-        <v>0.1413210419752344</v>
+        <v>0.1461577928882969</v>
       </c>
       <c r="M93">
-        <v>0.8412056597893528</v>
+        <v>-0.3464131164557535</v>
       </c>
       <c r="N93">
-        <v>83.92577526190605</v>
+        <v>127.5051766197943</v>
       </c>
       <c r="O93">
-        <v>91.41057930553762</v>
+        <v>134.9899806634259</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -4795,46 +4795,46 @@
         <v>14</v>
       </c>
       <c r="B94">
-        <v>0.2905192371184852</v>
+        <v>0.1813531020696283</v>
       </c>
       <c r="C94">
-        <v>0.00550514474671315</v>
+        <v>0.1613290626696737</v>
       </c>
       <c r="D94">
-        <v>0.1046581883859568</v>
+        <v>0.1294809982586071</v>
       </c>
       <c r="E94">
-        <v>2.775886355371572</v>
+        <v>1.400615569146441</v>
       </c>
       <c r="F94">
-        <v>0.1229380628970874</v>
+        <v>0.4815593473788521</v>
       </c>
       <c r="G94">
-        <v>0.3910725906471387</v>
+        <v>0.0007165065877248954</v>
       </c>
       <c r="H94">
-        <v>0.1433389449150857</v>
+        <v>0.142339102401152</v>
       </c>
       <c r="I94">
-        <v>0.8576738371411636</v>
+        <v>3.38318381425282</v>
       </c>
       <c r="J94">
-        <v>0.1166151692444002</v>
+        <v>-0.06003489181687346</v>
       </c>
       <c r="K94">
-        <v>0.4104035237007647</v>
+        <v>0.6730146221256563</v>
       </c>
       <c r="L94">
-        <v>0.1416635995062623</v>
+        <v>0.1422579757933514</v>
       </c>
       <c r="M94">
-        <v>0.8231837229241455</v>
+        <v>-0.4220142419577382</v>
       </c>
       <c r="N94">
-        <v>83.9617373726096</v>
+        <v>126.0247466189283</v>
       </c>
       <c r="O94">
-        <v>91.44654141624117</v>
+        <v>133.5095506625599</v>
       </c>
     </row>
     <row r="95" spans="1:15">
@@ -4842,46 +4842,46 @@
         <v>14</v>
       </c>
       <c r="B95">
-        <v>0.2959357644256006</v>
+        <v>0.1635772049666466</v>
       </c>
       <c r="C95">
-        <v>0.004148077057686508</v>
+        <v>0.2076060110317646</v>
       </c>
       <c r="D95">
-        <v>0.1032330773747282</v>
+        <v>0.1298050848595911</v>
       </c>
       <c r="E95">
-        <v>2.866675797635831</v>
+        <v>1.260175632900564</v>
       </c>
       <c r="F95">
-        <v>0.1049756429758978</v>
+        <v>0.464914722369805</v>
       </c>
       <c r="G95">
-        <v>0.4577816926175287</v>
+        <v>0.001302816315492801</v>
       </c>
       <c r="H95">
-        <v>0.14138046988303</v>
+        <v>0.1445918700747854</v>
       </c>
       <c r="I95">
-        <v>0.7425045557052437</v>
+        <v>3.215358665250978</v>
       </c>
       <c r="J95">
-        <v>0.1463397349742969</v>
+        <v>-0.04783654825621333</v>
       </c>
       <c r="K95">
-        <v>0.3010612866893817</v>
+        <v>0.7389584619708147</v>
       </c>
       <c r="L95">
-        <v>0.1415058691345712</v>
+        <v>0.1435528839170215</v>
       </c>
       <c r="M95">
-        <v>1.03416017914514</v>
+        <v>-0.3332329309654588</v>
       </c>
       <c r="N95">
-        <v>82.86992682083354</v>
+        <v>126.4233027457904</v>
       </c>
       <c r="O95">
-        <v>90.35473086446511</v>
+        <v>133.908106789422</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -4889,46 +4889,46 @@
         <v>14</v>
       </c>
       <c r="B96">
-        <v>0.3548210807849718</v>
+        <v>0.1674726304671326</v>
       </c>
       <c r="C96">
-        <v>0.0007850001513301794</v>
+        <v>0.1937562934022992</v>
       </c>
       <c r="D96">
-        <v>0.1056634550158886</v>
+        <v>0.128870011968908</v>
       </c>
       <c r="E96">
-        <v>3.358030273869215</v>
+        <v>1.299546945859974</v>
       </c>
       <c r="F96">
-        <v>0.05340647811430706</v>
+        <v>0.4504719243100628</v>
       </c>
       <c r="G96">
-        <v>0.7099913779539857</v>
+        <v>0.001771070488578957</v>
       </c>
       <c r="H96">
-        <v>0.1436168899660638</v>
+        <v>0.1440976709235778</v>
       </c>
       <c r="I96">
-        <v>0.3718676690946783</v>
+        <v>3.126156872785061</v>
       </c>
       <c r="J96">
-        <v>0.1580331068619967</v>
+        <v>-0.04823451507273305</v>
       </c>
       <c r="K96">
-        <v>0.2658298373646807</v>
+        <v>0.7367141451580093</v>
       </c>
       <c r="L96">
-        <v>0.1420244821873208</v>
+        <v>0.1434663624191288</v>
       </c>
       <c r="M96">
-        <v>1.112717359909551</v>
+        <v>-0.3362078347802439</v>
       </c>
       <c r="N96">
-        <v>83.44714501037832</v>
+        <v>126.3745290610684</v>
       </c>
       <c r="O96">
-        <v>90.93194905400989</v>
+        <v>133.8593331047</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -4936,46 +4936,46 @@
         <v>14</v>
       </c>
       <c r="B97">
-        <v>0.2873495152144097</v>
+        <v>0.1593966401179251</v>
       </c>
       <c r="C97">
-        <v>0.00878849540382118</v>
+        <v>0.2130825517771089</v>
       </c>
       <c r="D97">
-        <v>0.1096681109163615</v>
+        <v>0.1280156664354913</v>
       </c>
       <c r="E97">
-        <v>2.620173839171508</v>
+        <v>1.245133853974405</v>
       </c>
       <c r="F97">
-        <v>0.06754850134152615</v>
+        <v>0.4573219201382489</v>
       </c>
       <c r="G97">
-        <v>0.6248661199572956</v>
+        <v>0.001454995763677111</v>
       </c>
       <c r="H97">
-        <v>0.1381457402002617</v>
+        <v>0.1436532281178843</v>
       </c>
       <c r="I97">
-        <v>0.4889655029797161</v>
+        <v>3.183513006494799</v>
       </c>
       <c r="J97">
-        <v>0.1940561431758522</v>
+        <v>-0.05259876675180582</v>
       </c>
       <c r="K97">
-        <v>0.1492063481309071</v>
+        <v>0.7123959912635205</v>
       </c>
       <c r="L97">
-        <v>0.1345425348344095</v>
+        <v>0.1426832422830842</v>
       </c>
       <c r="M97">
-        <v>1.442340471841787</v>
+        <v>-0.3686401143551928</v>
       </c>
       <c r="N97">
-        <v>82.3589101429653</v>
+        <v>126.2030745787335</v>
       </c>
       <c r="O97">
-        <v>89.84371418659687</v>
+        <v>133.6878786223651</v>
       </c>
     </row>
     <row r="98" spans="1:15">
@@ -4983,46 +4983,46 @@
         <v>14</v>
       </c>
       <c r="B98">
-        <v>0.269400603288053</v>
+        <v>0.1682202431116401</v>
       </c>
       <c r="C98">
-        <v>0.01817993913180582</v>
+        <v>0.1831583278799114</v>
       </c>
       <c r="D98">
-        <v>0.1140593870919393</v>
+        <v>0.1263775039059984</v>
       </c>
       <c r="E98">
-        <v>2.361932762893935</v>
+        <v>1.331093255622179</v>
       </c>
       <c r="F98">
-        <v>0.1070161030133297</v>
+        <v>0.4679879927902221</v>
       </c>
       <c r="G98">
-        <v>0.4645250630715185</v>
+        <v>0.001063152908909157</v>
       </c>
       <c r="H98">
-        <v>0.1463135825598437</v>
+        <v>0.1429731345757304</v>
       </c>
       <c r="I98">
-        <v>0.7314160527069251</v>
+        <v>3.273258253580059</v>
       </c>
       <c r="J98">
-        <v>0.1459379829144549</v>
+        <v>-0.04388248383733274</v>
       </c>
       <c r="K98">
-        <v>0.3069611660272709</v>
+        <v>0.7569722616148826</v>
       </c>
       <c r="L98">
-        <v>0.142849686743596</v>
+        <v>0.1418037892857789</v>
       </c>
       <c r="M98">
-        <v>1.021619201562564</v>
+        <v>-0.3094591763616121</v>
       </c>
       <c r="N98">
-        <v>86.06519334996251</v>
+        <v>125.4269671264555</v>
       </c>
       <c r="O98">
-        <v>93.54999739359408</v>
+        <v>132.9117711700871</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -5030,46 +5030,46 @@
         <v>14</v>
       </c>
       <c r="B99">
-        <v>0.1313073217930865</v>
+        <v>0.1527331828441004</v>
       </c>
       <c r="C99">
-        <v>0.2959331609738857</v>
+        <v>0.2309732921779243</v>
       </c>
       <c r="D99">
-        <v>0.1256295765724633</v>
+        <v>0.1275055196758276</v>
       </c>
       <c r="E99">
-        <v>1.045194335406745</v>
+        <v>1.197855459374717</v>
       </c>
       <c r="F99">
-        <v>0.2215313540793546</v>
+        <v>0.46592440982823</v>
       </c>
       <c r="G99">
-        <v>0.174524428202102</v>
+        <v>0.001390793575276744</v>
       </c>
       <c r="H99">
-        <v>0.1631535958353473</v>
+        <v>0.1457583006093889</v>
       </c>
       <c r="I99">
-        <v>1.357808591009674</v>
+        <v>3.196554898625223</v>
       </c>
       <c r="J99">
-        <v>0.2709292661586103</v>
+        <v>-0.0400237524754839</v>
       </c>
       <c r="K99">
-        <v>0.1066454025949058</v>
+        <v>0.7832541889066964</v>
       </c>
       <c r="L99">
-        <v>0.1679185611607472</v>
+        <v>0.145498186508017</v>
       </c>
       <c r="M99">
-        <v>1.61345633434324</v>
+        <v>-0.275080765170077</v>
       </c>
       <c r="N99">
-        <v>100.4612842704981</v>
+        <v>126.4752691116682</v>
       </c>
       <c r="O99">
-        <v>107.9460883141297</v>
+        <v>133.9600731552998</v>
       </c>
     </row>
     <row r="100" spans="1:15">
@@ -5077,46 +5077,46 @@
         <v>14</v>
       </c>
       <c r="B100">
-        <v>-0.08546400015792109</v>
+        <v>0.1236351140389721</v>
       </c>
       <c r="C100">
-        <v>0.5209782404456228</v>
+        <v>0.3208326809803563</v>
       </c>
       <c r="D100">
-        <v>0.1331550528816381</v>
+        <v>0.1245382408954171</v>
       </c>
       <c r="E100">
-        <v>-0.6418382052229761</v>
+        <v>0.9927481964579588</v>
       </c>
       <c r="F100">
-        <v>0.5954234564897963</v>
+        <v>0.460051689923771</v>
       </c>
       <c r="G100">
-        <v>0.0002286220686143741</v>
+        <v>0.001047623250488404</v>
       </c>
       <c r="H100">
-        <v>0.161576378823306</v>
+        <v>0.1403702953767788</v>
       </c>
       <c r="I100">
-        <v>3.685089744095142</v>
+        <v>3.277414845419472</v>
       </c>
       <c r="J100">
-        <v>0.386834735082626</v>
+        <v>-0.02034516958386008</v>
       </c>
       <c r="K100">
-        <v>0.04551241549156998</v>
+        <v>0.8858985101641483</v>
       </c>
       <c r="L100">
-        <v>0.1934282499050019</v>
+        <v>0.1417821874997043</v>
       </c>
       <c r="M100">
-        <v>1.999887479065811</v>
+        <v>-0.1434959492630378</v>
       </c>
       <c r="N100">
-        <v>115.0695484075056</v>
+        <v>124.3548468704919</v>
       </c>
       <c r="O100">
-        <v>122.5543524511372</v>
+        <v>131.8396509141234</v>
       </c>
     </row>
     <row r="101" spans="1:15">
@@ -5124,46 +5124,46 @@
         <v>14</v>
       </c>
       <c r="B101">
-        <v>0.1061468185485747</v>
+        <v>0.1473744456073934</v>
       </c>
       <c r="C101">
-        <v>0.4008898388807653</v>
+        <v>0.2345970486927672</v>
       </c>
       <c r="D101">
-        <v>0.1263602838942971</v>
+        <v>0.1239899267763752</v>
       </c>
       <c r="E101">
-        <v>0.8400330806265733</v>
+        <v>1.188600150342808</v>
       </c>
       <c r="F101">
-        <v>0.3404315777627142</v>
+        <v>0.4660357658320716</v>
       </c>
       <c r="G101">
-        <v>0.02124123183642945</v>
+        <v>0.001214078791150184</v>
       </c>
       <c r="H101">
-        <v>0.147777992061618</v>
+        <v>0.1440359490526446</v>
       </c>
       <c r="I101">
-        <v>2.303668990310592</v>
+        <v>3.235551741751202</v>
       </c>
       <c r="J101">
-        <v>0.1380019767957041</v>
+        <v>-0.01012993450457401</v>
       </c>
       <c r="K101">
-        <v>0.4612192334412506</v>
+        <v>0.942972929435906</v>
       </c>
       <c r="L101">
-        <v>0.1872887560115014</v>
+        <v>0.1416104737120424</v>
       </c>
       <c r="M101">
-        <v>0.7368406931339186</v>
+        <v>-0.07153379435177032</v>
       </c>
       <c r="N101">
-        <v>121.7949681273592</v>
+        <v>124.5466106068051</v>
       </c>
       <c r="O101">
-        <v>129.2797721709908</v>
+        <v>132.0314146504366</v>
       </c>
     </row>
     <row r="102" spans="1:15">
@@ -5171,46 +5171,46 @@
         <v>14</v>
       </c>
       <c r="B102">
-        <v>0.153440573224372</v>
+        <v>0.1524556589478365</v>
       </c>
       <c r="C102">
-        <v>0.2102793769738714</v>
+        <v>0.2156573314845034</v>
       </c>
       <c r="D102">
-        <v>0.1224783426972012</v>
+        <v>0.1231309809903997</v>
       </c>
       <c r="E102">
-        <v>1.25279759543871</v>
+        <v>1.238158404339548</v>
       </c>
       <c r="F102">
-        <v>0.3863258135949832</v>
+        <v>0.4519839642418489</v>
       </c>
       <c r="G102">
-        <v>0.007506604069138108</v>
+        <v>0.001669248514992524</v>
       </c>
       <c r="H102">
-        <v>0.1445023201348044</v>
+        <v>0.1437824211077476</v>
       </c>
       <c r="I102">
-        <v>2.67349211579845</v>
+        <v>3.14352728768659</v>
       </c>
       <c r="J102">
-        <v>0.01104832376143852</v>
+        <v>0.01248720495748847</v>
       </c>
       <c r="K102">
-        <v>0.9381772750396548</v>
+        <v>0.9309625428774362</v>
       </c>
       <c r="L102">
-        <v>0.1424469167825276</v>
+        <v>0.1441376794432548</v>
       </c>
       <c r="M102">
-        <v>0.07756098911081308</v>
+        <v>0.08663386982308482</v>
       </c>
       <c r="N102">
-        <v>123.0739561925895</v>
+        <v>124.1817836283841</v>
       </c>
       <c r="O102">
-        <v>130.5587602362211</v>
+        <v>131.6665876720157</v>
       </c>
     </row>
     <row r="103" spans="1:15">
@@ -5218,46 +5218,46 @@
         <v>14</v>
       </c>
       <c r="B103">
-        <v>0.1389652923054716</v>
+        <v>0.1494889065307788</v>
       </c>
       <c r="C103">
-        <v>0.2545535209862264</v>
+        <v>0.2268881469102022</v>
       </c>
       <c r="D103">
-        <v>0.1219679778540446</v>
+        <v>0.1237067224831436</v>
       </c>
       <c r="E103">
-        <v>1.139358828034086</v>
+        <v>1.208413767094576</v>
       </c>
       <c r="F103">
-        <v>0.3855241204054858</v>
+        <v>0.454557691195776</v>
       </c>
       <c r="G103">
-        <v>0.007509479124353981</v>
+        <v>0.001627806988687372</v>
       </c>
       <c r="H103">
-        <v>0.14420938089176</v>
+        <v>0.1442638371792091</v>
       </c>
       <c r="I103">
-        <v>2.673363674550761</v>
+        <v>3.150877587091421</v>
       </c>
       <c r="J103">
-        <v>-0.003912425545139916</v>
+        <v>0.01284711006901799</v>
       </c>
       <c r="K103">
-        <v>0.9784224048728732</v>
+        <v>0.9287464029889146</v>
       </c>
       <c r="L103">
-        <v>0.1446539043351014</v>
+        <v>0.1436680603568993</v>
       </c>
       <c r="M103">
-        <v>-0.02704680224929495</v>
+        <v>0.08942217245157544</v>
       </c>
       <c r="N103">
-        <v>122.7989114937188</v>
+        <v>124.1402374846148</v>
       </c>
       <c r="O103">
-        <v>130.2837155373504</v>
+        <v>131.6250415282464</v>
       </c>
     </row>
     <row r="104" spans="1:15">
@@ -5265,46 +5265,46 @@
         <v>14</v>
       </c>
       <c r="B104">
-        <v>0.1313400336858587</v>
+        <v>0.1731573876294063</v>
       </c>
       <c r="C104">
-        <v>0.2779616598211592</v>
+        <v>0.1622543939427562</v>
       </c>
       <c r="D104">
-        <v>0.1210607997966735</v>
+        <v>0.1239024895839553</v>
       </c>
       <c r="E104">
-        <v>1.084909680973937</v>
+        <v>1.397529526733813</v>
       </c>
       <c r="F104">
-        <v>0.3795302202084146</v>
+        <v>0.4592642560495261</v>
       </c>
       <c r="G104">
-        <v>0.008229855625669642</v>
+        <v>0.001431458930271891</v>
       </c>
       <c r="H104">
-        <v>0.1436259057531887</v>
+        <v>0.1440498467786448</v>
       </c>
       <c r="I104">
-        <v>2.642491396089863</v>
+        <v>3.188231479032794</v>
       </c>
       <c r="J104">
-        <v>-0.002682705365234184</v>
+        <v>0.002833026377453085</v>
       </c>
       <c r="K104">
-        <v>0.985043575429961</v>
+        <v>0.9843100299994386</v>
       </c>
       <c r="L104">
-        <v>0.1431066509433078</v>
+        <v>0.1440590590867591</v>
       </c>
       <c r="M104">
-        <v>-0.01874619626377077</v>
+        <v>0.0196657287324562</v>
       </c>
       <c r="N104">
-        <v>122.1509300743132</v>
+        <v>123.9566770796168</v>
       </c>
       <c r="O104">
-        <v>129.6357341179448</v>
+        <v>131.4414811232483</v>
       </c>
     </row>
     <row r="105" spans="1:15">
@@ -5312,46 +5312,46 @@
         <v>14</v>
       </c>
       <c r="B105">
-        <v>0.1868023009942607</v>
+        <v>0.1454628405775277</v>
       </c>
       <c r="C105">
-        <v>0.1278183494869503</v>
+        <v>0.2683424407389586</v>
       </c>
       <c r="D105">
-        <v>0.1226733690295733</v>
+        <v>0.1314160662314246</v>
       </c>
       <c r="E105">
-        <v>1.522761643150337</v>
+        <v>1.106887801080324</v>
       </c>
       <c r="F105">
-        <v>0.4113958219334716</v>
+        <v>0.4579295938939568</v>
       </c>
       <c r="G105">
-        <v>0.006067210025629616</v>
+        <v>0.001588383363393579</v>
       </c>
       <c r="H105">
-        <v>0.1499186641768847</v>
+        <v>0.1450047533291084</v>
       </c>
       <c r="I105">
-        <v>2.744126784961727</v>
+        <v>3.158031605037264</v>
       </c>
       <c r="J105">
-        <v>0.02963340013839363</v>
+        <v>-0.01520781428071194</v>
       </c>
       <c r="K105">
-        <v>0.8421938703773613</v>
+        <v>0.9163149032131654</v>
       </c>
       <c r="L105">
-        <v>0.1488457013425155</v>
+        <v>0.1447305270968368</v>
       </c>
       <c r="M105">
-        <v>0.1990880480330626</v>
+        <v>-0.1050767559945155</v>
       </c>
       <c r="N105">
-        <v>123.2673346782205</v>
+        <v>130.5040364359911</v>
       </c>
       <c r="O105">
-        <v>130.7521387218521</v>
+        <v>137.9888404796227</v>
       </c>
     </row>
     <row r="106" spans="1:15">
@@ -5359,46 +5359,46 @@
         <v>14</v>
       </c>
       <c r="B106">
-        <v>0.1778404656212904</v>
+        <v>0.142443991117107</v>
       </c>
       <c r="C106">
-        <v>0.1525787492686552</v>
+        <v>0.2798327402238375</v>
       </c>
       <c r="D106">
-        <v>0.1243220639517583</v>
+        <v>0.1318077450643252</v>
       </c>
       <c r="E106">
-        <v>1.430481927088175</v>
+        <v>1.080695152227899</v>
       </c>
       <c r="F106">
-        <v>0.3994869257531224</v>
+        <v>0.4564036408837822</v>
       </c>
       <c r="G106">
-        <v>0.005693615253467004</v>
+        <v>0.001553701169208045</v>
       </c>
       <c r="H106">
-        <v>0.1444839000596118</v>
+        <v>0.1442278928068469</v>
       </c>
       <c r="I106">
-        <v>2.764923466132215</v>
+        <v>3.164461686305074</v>
       </c>
       <c r="J106">
-        <v>0.03092678940585661</v>
+        <v>-0.01181504281295744</v>
       </c>
       <c r="K106">
-        <v>0.838745372664206</v>
+        <v>0.9348003855458463</v>
       </c>
       <c r="L106">
-        <v>0.1519754720238874</v>
+        <v>0.1444262521687673</v>
       </c>
       <c r="M106">
-        <v>0.2034985579843803</v>
+        <v>-0.08180675351979036</v>
       </c>
       <c r="N106">
-        <v>123.6893922951941</v>
+        <v>130.4835160384042</v>
       </c>
       <c r="O106">
-        <v>131.1741963388257</v>
+        <v>137.9683200820358</v>
       </c>
     </row>
     <row r="107" spans="1:15">
@@ -5406,46 +5406,46 @@
         <v>14</v>
       </c>
       <c r="B107">
-        <v>0.187634532504858</v>
+        <v>0.1657945550386411</v>
       </c>
       <c r="C107">
-        <v>0.1319319088176206</v>
+        <v>0.2070709255091289</v>
       </c>
       <c r="D107">
-        <v>0.1245477291280004</v>
+        <v>0.1314097862118489</v>
       </c>
       <c r="E107">
-        <v>1.506527126737268</v>
+        <v>1.261660640489588</v>
       </c>
       <c r="F107">
-        <v>0.4131258787367731</v>
+        <v>0.459177413032191</v>
       </c>
       <c r="G107">
-        <v>0.004052536418874447</v>
+        <v>0.001455304850798433</v>
       </c>
       <c r="H107">
-        <v>0.1437438002108983</v>
+        <v>0.1442388587430024</v>
       </c>
       <c r="I107">
-        <v>2.874043110942122</v>
+        <v>3.183451512538173</v>
       </c>
       <c r="J107">
-        <v>0.007056566488745988</v>
+        <v>-0.01802434434456361</v>
       </c>
       <c r="K107">
-        <v>0.9609286410467289</v>
+        <v>0.9005563994407312</v>
       </c>
       <c r="L107">
-        <v>0.1440460333233273</v>
+        <v>0.1442426352768171</v>
       </c>
       <c r="M107">
-        <v>0.04898827358131232</v>
+        <v>-0.1249585069627504</v>
       </c>
       <c r="N107">
-        <v>122.8074141792978</v>
+        <v>130.4417950041899</v>
       </c>
       <c r="O107">
-        <v>130.2922182229294</v>
+        <v>137.9265990478214</v>
       </c>
     </row>
     <row r="108" spans="1:15">
@@ -5453,46 +5453,46 @@
         <v>14</v>
       </c>
       <c r="B108">
-        <v>0.1906159009485571</v>
+        <v>0.1905344611958936</v>
       </c>
       <c r="C108">
-        <v>0.1354344528897257</v>
+        <v>0.138236670748857</v>
       </c>
       <c r="D108">
-        <v>0.1276721818167276</v>
+        <v>0.1285319774093361</v>
       </c>
       <c r="E108">
-        <v>1.493010444688607</v>
+        <v>1.482389558118274</v>
       </c>
       <c r="F108">
-        <v>0.4148182220656881</v>
+        <v>0.4357868227942802</v>
       </c>
       <c r="G108">
-        <v>0.004297588680240346</v>
+        <v>0.001978639861824578</v>
       </c>
       <c r="H108">
-        <v>0.1452724507749169</v>
+        <v>0.1408754203400923</v>
       </c>
       <c r="I108">
-        <v>2.855450017212154</v>
+        <v>3.09341985807199</v>
       </c>
       <c r="J108">
-        <v>0.009131918905765882</v>
+        <v>-0.0008178631723952667</v>
       </c>
       <c r="K108">
-        <v>0.9497149434151364</v>
+        <v>0.9953661186541444</v>
       </c>
       <c r="L108">
-        <v>0.144802268002729</v>
+        <v>0.1408229259567613</v>
       </c>
       <c r="M108">
-        <v>0.06306475051615752</v>
+        <v>-0.005807741650293406</v>
       </c>
       <c r="N108">
-        <v>124.7934509433777</v>
+        <v>128.1266406238047</v>
       </c>
       <c r="O108">
-        <v>132.2782549870093</v>
+        <v>135.6114446674363</v>
       </c>
     </row>
     <row r="109" spans="1:15">
@@ -5500,46 +5500,46 @@
         <v>14</v>
       </c>
       <c r="B109">
-        <v>0.1937322482572149</v>
+        <v>0.1835415354877174</v>
       </c>
       <c r="C109">
-        <v>0.139548348946029</v>
+        <v>0.1547848108379379</v>
       </c>
       <c r="D109">
-        <v>0.1311238737360054</v>
+        <v>0.1289973183829684</v>
       </c>
       <c r="E109">
-        <v>1.477475022185969</v>
+        <v>1.422832178129608</v>
       </c>
       <c r="F109">
-        <v>0.4688531496802593</v>
+        <v>0.4614080227650884</v>
       </c>
       <c r="G109">
-        <v>0.001197083697343839</v>
+        <v>0.001355172531107668</v>
       </c>
       <c r="H109">
-        <v>0.1447267879642263</v>
+        <v>0.1440085410213699</v>
       </c>
       <c r="I109">
-        <v>3.239574071084551</v>
+        <v>3.204032340669424</v>
       </c>
       <c r="J109">
-        <v>-0.05063097652872951</v>
+        <v>-0.008910428852220362</v>
       </c>
       <c r="K109">
-        <v>0.7290322691392677</v>
+        <v>0.9493151164184694</v>
       </c>
       <c r="L109">
-        <v>0.1461577928882969</v>
+        <v>0.1401741124094676</v>
       </c>
       <c r="M109">
-        <v>-0.3464131164557535</v>
+        <v>-0.06356686480162463</v>
       </c>
       <c r="N109">
-        <v>127.5051766197943</v>
+        <v>127.091178222071</v>
       </c>
       <c r="O109">
-        <v>134.9899806634259</v>
+        <v>134.5759822657026</v>
       </c>
     </row>
     <row r="110" spans="1:15">
@@ -5547,46 +5547,46 @@
         <v>14</v>
       </c>
       <c r="B110">
-        <v>0.1813531020696283</v>
+        <v>0.1734242336039087</v>
       </c>
       <c r="C110">
-        <v>0.1613290626696737</v>
+        <v>0.1824078089282362</v>
       </c>
       <c r="D110">
-        <v>0.1294809982586071</v>
+        <v>0.1300638241933387</v>
       </c>
       <c r="E110">
-        <v>1.400615569146441</v>
+        <v>1.333377937174254</v>
       </c>
       <c r="F110">
-        <v>0.4815593473788521</v>
+        <v>0.4576416625109767</v>
       </c>
       <c r="G110">
-        <v>0.0007165065877248954</v>
+        <v>0.001498899647577605</v>
       </c>
       <c r="H110">
-        <v>0.142339102401152</v>
+        <v>0.1441438060883312</v>
       </c>
       <c r="I110">
-        <v>3.38318381425282</v>
+        <v>3.174896479634611</v>
       </c>
       <c r="J110">
-        <v>-0.06003489181687346</v>
+        <v>0.003344021869328848</v>
       </c>
       <c r="K110">
-        <v>0.6730146221256563</v>
+        <v>0.9814756521541504</v>
       </c>
       <c r="L110">
-        <v>0.1422579757933514</v>
+        <v>0.1440214641537036</v>
       </c>
       <c r="M110">
-        <v>-0.4220142419577382</v>
+        <v>0.02321891315977747</v>
       </c>
       <c r="N110">
-        <v>126.0247466189283</v>
+        <v>126.9662601854801</v>
       </c>
       <c r="O110">
-        <v>133.5095506625599</v>
+        <v>134.4510642291116</v>
       </c>
     </row>
     <row r="111" spans="1:15">
@@ -5594,46 +5594,46 @@
         <v>14</v>
       </c>
       <c r="B111">
-        <v>0.1635772049666466</v>
+        <v>0.1731190208031083</v>
       </c>
       <c r="C111">
-        <v>0.2076060110317646</v>
+        <v>0.183447522116971</v>
       </c>
       <c r="D111">
-        <v>0.1298050848595911</v>
+        <v>0.1301436624339267</v>
       </c>
       <c r="E111">
-        <v>1.260175632900564</v>
+        <v>1.330214760868589</v>
       </c>
       <c r="F111">
-        <v>0.464914722369805</v>
+        <v>0.4591327922505591</v>
       </c>
       <c r="G111">
-        <v>0.001302816315492801</v>
+        <v>0.001467573164224855</v>
       </c>
       <c r="H111">
-        <v>0.1445918700747854</v>
+        <v>0.1443350688220748</v>
       </c>
       <c r="I111">
-        <v>3.215358665250978</v>
+        <v>3.181020357682739</v>
       </c>
       <c r="J111">
-        <v>-0.04783654825621333</v>
+        <v>0.001515050593106915</v>
       </c>
       <c r="K111">
-        <v>0.7389584619708147</v>
+        <v>0.9916222399649189</v>
       </c>
       <c r="L111">
-        <v>0.1435528839170215</v>
+        <v>0.1442883610129998</v>
       </c>
       <c r="M111">
-        <v>-0.3332329309654588</v>
+        <v>0.01050015803402476</v>
       </c>
       <c r="N111">
-        <v>126.4233027457904</v>
+        <v>126.9407236149319</v>
       </c>
       <c r="O111">
-        <v>133.908106789422</v>
+        <v>134.4255276585635</v>
       </c>
     </row>
     <row r="112" spans="1:15">
@@ -5641,46 +5641,46 @@
         <v>14</v>
       </c>
       <c r="B112">
-        <v>0.1674726304671326</v>
+        <v>0.1878596770226298</v>
       </c>
       <c r="C112">
-        <v>0.1937562934022992</v>
+        <v>0.1483479854076586</v>
       </c>
       <c r="D112">
-        <v>0.128870011968908</v>
+        <v>0.1299714946466841</v>
       </c>
       <c r="E112">
-        <v>1.299546945859974</v>
+        <v>1.445391372418311</v>
       </c>
       <c r="F112">
-        <v>0.4504719243100628</v>
+        <v>0.4582869162469976</v>
       </c>
       <c r="G112">
-        <v>0.001771070488578957</v>
+        <v>0.001498699065817346</v>
       </c>
       <c r="H112">
-        <v>0.1440976709235778</v>
+        <v>0.144345276654219</v>
       </c>
       <c r="I112">
-        <v>3.126156872785061</v>
+        <v>3.174935313919762</v>
       </c>
       <c r="J112">
-        <v>-0.04823451507273305</v>
+        <v>0.002942535555725753</v>
       </c>
       <c r="K112">
-        <v>0.7367141451580093</v>
+        <v>0.9837363006237323</v>
       </c>
       <c r="L112">
-        <v>0.1434663624191288</v>
+        <v>0.1443485299434051</v>
       </c>
       <c r="M112">
-        <v>-0.3362078347802439</v>
+        <v>0.02038493607714215</v>
       </c>
       <c r="N112">
-        <v>126.3745290610684</v>
+        <v>126.9459612823066</v>
       </c>
       <c r="O112">
-        <v>133.8593331047</v>
+        <v>134.4307653259382</v>
       </c>
     </row>
     <row r="113" spans="1:15">
@@ -5688,46 +5688,46 @@
         <v>14</v>
       </c>
       <c r="B113">
-        <v>0.1593966401179251</v>
+        <v>0.189100668803601</v>
       </c>
       <c r="C113">
-        <v>0.2130825517771089</v>
+        <v>0.1515002009044669</v>
       </c>
       <c r="D113">
-        <v>0.1280156664354913</v>
+        <v>0.1318461428305505</v>
       </c>
       <c r="E113">
-        <v>1.245133853974405</v>
+        <v>1.43425256699875</v>
       </c>
       <c r="F113">
-        <v>0.4573219201382489</v>
+        <v>0.4451376070776404</v>
       </c>
       <c r="G113">
-        <v>0.001454995763677111</v>
+        <v>0.002036027507615199</v>
       </c>
       <c r="H113">
-        <v>0.1436532281178843</v>
+        <v>0.1442944161269062</v>
       </c>
       <c r="I113">
-        <v>3.183513006494799</v>
+        <v>3.084926077015649</v>
       </c>
       <c r="J113">
-        <v>-0.05259876675180582</v>
+        <v>0.01230678371774277</v>
       </c>
       <c r="K113">
-        <v>0.7123959912635205</v>
+        <v>0.9320377838256035</v>
       </c>
       <c r="L113">
-        <v>0.1426832422830842</v>
+        <v>0.1443081712061973</v>
       </c>
       <c r="M113">
-        <v>-0.3686401143551928</v>
+        <v>0.0852812672690447</v>
       </c>
       <c r="N113">
-        <v>126.2030745787335</v>
+        <v>127.6877459108621</v>
       </c>
       <c r="O113">
-        <v>133.6878786223651</v>
+        <v>135.1725499544937</v>
       </c>
     </row>
     <row r="114" spans="1:15">
@@ -5735,46 +5735,46 @@
         <v>14</v>
       </c>
       <c r="B114">
-        <v>0.1682202431116401</v>
+        <v>0.197849955609833</v>
       </c>
       <c r="C114">
-        <v>0.1831583278799114</v>
+        <v>0.1333905886390255</v>
       </c>
       <c r="D114">
-        <v>0.1263775039059984</v>
+        <v>0.1318239879888397</v>
       </c>
       <c r="E114">
-        <v>1.331093255622179</v>
+        <v>1.500864589429529</v>
       </c>
       <c r="F114">
-        <v>0.4679879927902221</v>
+        <v>0.4482534147201921</v>
       </c>
       <c r="G114">
-        <v>0.001063152908909157</v>
+        <v>0.001823746879121024</v>
       </c>
       <c r="H114">
-        <v>0.1429731345757304</v>
+        <v>0.143784893044282</v>
       </c>
       <c r="I114">
-        <v>3.273258253580059</v>
+        <v>3.117527893435519</v>
       </c>
       <c r="J114">
-        <v>-0.04388248383733274</v>
+        <v>0.004685530037240024</v>
       </c>
       <c r="K114">
-        <v>0.7569722616148826</v>
+        <v>0.9740051541789283</v>
       </c>
       <c r="L114">
-        <v>0.1418037892857789</v>
+        <v>0.1437919888738971</v>
       </c>
       <c r="M114">
-        <v>-0.3094591763616121</v>
+        <v>0.03258547346020193</v>
       </c>
       <c r="N114">
-        <v>125.4269671264555</v>
+        <v>127.3267249023322</v>
       </c>
       <c r="O114">
-        <v>132.9117711700871</v>
+        <v>134.8115289459638</v>
       </c>
     </row>
     <row r="115" spans="1:15">
@@ -5782,46 +5782,46 @@
         <v>14</v>
       </c>
       <c r="B115">
-        <v>0.1527331828441004</v>
+        <v>0.2015787776417707</v>
       </c>
       <c r="C115">
-        <v>0.2309732921779243</v>
+        <v>0.1275867482605932</v>
       </c>
       <c r="D115">
-        <v>0.1275055196758276</v>
+        <v>0.1322966511869593</v>
       </c>
       <c r="E115">
-        <v>1.197855459374717</v>
+        <v>1.523687680929301</v>
       </c>
       <c r="F115">
-        <v>0.46592440982823</v>
+        <v>0.4470189702831492</v>
       </c>
       <c r="G115">
-        <v>0.001390793575276744</v>
+        <v>0.001962555884402316</v>
       </c>
       <c r="H115">
-        <v>0.1457583006093889</v>
+        <v>0.1443933893379302</v>
       </c>
       <c r="I115">
-        <v>3.196554898625223</v>
+        <v>3.095840968432226</v>
       </c>
       <c r="J115">
-        <v>-0.0400237524754839</v>
+        <v>0.004959497390602266</v>
       </c>
       <c r="K115">
-        <v>0.7832541889066964</v>
+        <v>0.9725196793956105</v>
       </c>
       <c r="L115">
-        <v>0.145498186508017</v>
+        <v>0.143969350071533</v>
       </c>
       <c r="M115">
-        <v>-0.275080765170077</v>
+        <v>0.03444828630634283</v>
       </c>
       <c r="N115">
-        <v>126.4752691116682</v>
+        <v>127.4148538560688</v>
       </c>
       <c r="O115">
-        <v>133.9600731552998</v>
+        <v>134.8996578997004</v>
       </c>
     </row>
     <row r="116" spans="1:15">
@@ -5829,46 +5829,46 @@
         <v>14</v>
       </c>
       <c r="B116">
-        <v>0.1236351140389721</v>
+        <v>0.2174376940700317</v>
       </c>
       <c r="C116">
-        <v>0.3208326809803563</v>
+        <v>0.1006782852732963</v>
       </c>
       <c r="D116">
-        <v>0.1245382408954171</v>
+        <v>0.1324568201925506</v>
       </c>
       <c r="E116">
-        <v>0.9927481964579588</v>
+        <v>1.641574165482349</v>
       </c>
       <c r="F116">
-        <v>0.460051689923771</v>
+        <v>0.4479210084834345</v>
       </c>
       <c r="G116">
-        <v>0.001047623250488404</v>
+        <v>0.001867941754480813</v>
       </c>
       <c r="H116">
-        <v>0.1403702953767788</v>
+        <v>0.1440046002888248</v>
       </c>
       <c r="I116">
-        <v>3.277414845419472</v>
+        <v>3.110463190655407</v>
       </c>
       <c r="J116">
-        <v>-0.02034516958386008</v>
+        <v>-0.001901304529919767</v>
       </c>
       <c r="K116">
-        <v>0.8858985101641483</v>
+        <v>0.989457642964053</v>
       </c>
       <c r="L116">
-        <v>0.1417821874997043</v>
+        <v>0.1438935698030488</v>
       </c>
       <c r="M116">
-        <v>-0.1434959492630378</v>
+        <v>-0.01321326958892004</v>
       </c>
       <c r="N116">
-        <v>124.3548468704919</v>
+        <v>127.1647539822728</v>
       </c>
       <c r="O116">
-        <v>131.8396509141234</v>
+        <v>134.6495580259043</v>
       </c>
     </row>
     <row r="117" spans="1:15">
@@ -5876,46 +5876,46 @@
         <v>14</v>
       </c>
       <c r="B117">
-        <v>0.1473744456073934</v>
+        <v>0.2128904213668585</v>
       </c>
       <c r="C117">
-        <v>0.2345970486927672</v>
+        <v>0.1118694103828293</v>
       </c>
       <c r="D117">
-        <v>0.1239899267763752</v>
+        <v>0.1339062745486123</v>
       </c>
       <c r="E117">
-        <v>1.188600150342808</v>
+        <v>1.589846495875534</v>
       </c>
       <c r="F117">
-        <v>0.4660357658320716</v>
+        <v>0.4490708923547012</v>
       </c>
       <c r="G117">
-        <v>0.001214078791150184</v>
+        <v>0.001783243586305235</v>
       </c>
       <c r="H117">
-        <v>0.1440359490526446</v>
+        <v>0.1437421501458204</v>
       </c>
       <c r="I117">
-        <v>3.235551741751202</v>
+        <v>3.124142027228184</v>
       </c>
       <c r="J117">
-        <v>-0.01012993450457401</v>
+        <v>0.004912516838736239</v>
       </c>
       <c r="K117">
-        <v>0.942972929435906</v>
+        <v>0.9726649468922969</v>
       </c>
       <c r="L117">
-        <v>0.1416104737120424</v>
+        <v>0.1433637027130024</v>
       </c>
       <c r="M117">
-        <v>-0.07153379435177032</v>
+        <v>0.03426611301028219</v>
       </c>
       <c r="N117">
-        <v>124.5466106068051</v>
+        <v>127.0876968667508</v>
       </c>
       <c r="O117">
-        <v>132.0314146504366</v>
+        <v>134.5725009103823</v>
       </c>
     </row>
     <row r="118" spans="1:15">
@@ -5923,46 +5923,46 @@
         <v>14</v>
       </c>
       <c r="B118">
-        <v>0.1524556589478365</v>
+        <v>0.2137875956553765</v>
       </c>
       <c r="C118">
-        <v>0.2156573314845034</v>
+        <v>0.1131761178792094</v>
       </c>
       <c r="D118">
-        <v>0.1231309809903997</v>
+        <v>0.1349603260031548</v>
       </c>
       <c r="E118">
-        <v>1.238158404339548</v>
+        <v>1.584077350631022</v>
       </c>
       <c r="F118">
-        <v>0.4519839642418489</v>
+        <v>0.4441953483950547</v>
       </c>
       <c r="G118">
-        <v>0.001669248514992524</v>
+        <v>0.002090658591344018</v>
       </c>
       <c r="H118">
-        <v>0.1437824211077476</v>
+        <v>0.1443579099878061</v>
       </c>
       <c r="I118">
-        <v>3.14352728768659</v>
+        <v>3.077041974579542</v>
       </c>
       <c r="J118">
-        <v>0.01248720495748847</v>
+        <v>0.01477413129616106</v>
       </c>
       <c r="K118">
-        <v>0.9309625428774362</v>
+        <v>0.9184673825173949</v>
       </c>
       <c r="L118">
-        <v>0.1441376794432548</v>
+        <v>0.1443287008465282</v>
       </c>
       <c r="M118">
-        <v>0.08663386982308482</v>
+        <v>0.1023644722740983</v>
       </c>
       <c r="N118">
-        <v>124.1817836283841</v>
+        <v>127.297840324091</v>
       </c>
       <c r="O118">
-        <v>131.6665876720157</v>
+        <v>134.7826443677226</v>
       </c>
     </row>
     <row r="119" spans="1:15">
@@ -5970,46 +5970,46 @@
         <v>14</v>
       </c>
       <c r="B119">
-        <v>0.1494889065307788</v>
+        <v>0.2167665372991584</v>
       </c>
       <c r="C119">
-        <v>0.2268881469102022</v>
+        <v>0.1076974488445637</v>
       </c>
       <c r="D119">
-        <v>0.1237067224831436</v>
+        <v>0.1347523341189193</v>
       </c>
       <c r="E119">
-        <v>1.208413767094576</v>
+        <v>1.608629184173251</v>
       </c>
       <c r="F119">
-        <v>0.454557691195776</v>
+        <v>0.4462622309016551</v>
       </c>
       <c r="G119">
-        <v>0.001627806988687372</v>
+        <v>0.001975721385539121</v>
       </c>
       <c r="H119">
-        <v>0.1442638371792091</v>
+        <v>0.1442413502817753</v>
       </c>
       <c r="I119">
-        <v>3.150877587091421</v>
+        <v>3.093857829463482</v>
       </c>
       <c r="J119">
-        <v>0.01284711006901799</v>
+        <v>0.01446074124354893</v>
       </c>
       <c r="K119">
-        <v>0.9287464029889146</v>
+        <v>0.9200882328583426</v>
       </c>
       <c r="L119">
-        <v>0.1436680603568993</v>
+        <v>0.1441424399006715</v>
       </c>
       <c r="M119">
-        <v>0.08942217245157544</v>
+        <v>0.1003225785099366</v>
       </c>
       <c r="N119">
-        <v>124.1402374846148</v>
+        <v>127.1865054733433</v>
       </c>
       <c r="O119">
-        <v>131.6250415282464</v>
+        <v>134.6713095169748</v>
       </c>
     </row>
     <row r="120" spans="1:15">
@@ -6017,46 +6017,46 @@
         <v>14</v>
       </c>
       <c r="B120">
-        <v>0.1731573876294063</v>
+        <v>0.2035928814595658</v>
       </c>
       <c r="C120">
-        <v>0.1622543939427562</v>
+        <v>0.1296208240577135</v>
       </c>
       <c r="D120">
-        <v>0.1239024895839553</v>
+        <v>0.1343316436641403</v>
       </c>
       <c r="E120">
-        <v>1.397529526733813</v>
+        <v>1.515598826205048</v>
       </c>
       <c r="F120">
-        <v>0.4592642560495261</v>
+        <v>0.4491847582726342</v>
       </c>
       <c r="G120">
-        <v>0.001431458930271891</v>
+        <v>0.001782953951682068</v>
       </c>
       <c r="H120">
-        <v>0.1440498467786448</v>
+        <v>0.1437763977969557</v>
       </c>
       <c r="I120">
-        <v>3.188231479032794</v>
+        <v>3.124189819437423</v>
       </c>
       <c r="J120">
-        <v>0.002833026377453085</v>
+        <v>0.006262203255451612</v>
       </c>
       <c r="K120">
-        <v>0.9843100299994386</v>
+        <v>0.9652772323627085</v>
       </c>
       <c r="L120">
-        <v>0.1440590590867591</v>
+        <v>0.1438519440379922</v>
       </c>
       <c r="M120">
-        <v>0.0196657287324562</v>
+        <v>0.04353228103610283</v>
       </c>
       <c r="N120">
-        <v>123.9566770796168</v>
+        <v>126.8226035473705</v>
       </c>
       <c r="O120">
-        <v>131.4414811232483</v>
+        <v>134.3074075910021</v>
       </c>
     </row>
     <row r="121" spans="1:15">
@@ -6064,46 +6064,46 @@
         <v>14</v>
       </c>
       <c r="B121">
-        <v>0.1454628405775277</v>
+        <v>0.1990603423910912</v>
       </c>
       <c r="C121">
-        <v>0.2683424407389586</v>
+        <v>0.1414137714040944</v>
       </c>
       <c r="D121">
-        <v>0.1314160662314246</v>
+        <v>0.1353648642485421</v>
       </c>
       <c r="E121">
-        <v>1.106887801080324</v>
+        <v>1.470546611161952</v>
       </c>
       <c r="F121">
-        <v>0.4579295938939568</v>
+        <v>0.4136559955837855</v>
       </c>
       <c r="G121">
-        <v>0.001588383363393579</v>
+        <v>0.003633414208211329</v>
       </c>
       <c r="H121">
-        <v>0.1450047533291084</v>
+        <v>0.1422304721616523</v>
       </c>
       <c r="I121">
-        <v>3.158031605037264</v>
+        <v>2.908350013164858</v>
       </c>
       <c r="J121">
-        <v>-0.01520781428071194</v>
+        <v>0.01804580241373385</v>
       </c>
       <c r="K121">
-        <v>0.9163149032131654</v>
+        <v>0.8987114293938844</v>
       </c>
       <c r="L121">
-        <v>0.1447305270968368</v>
+        <v>0.1417699879195555</v>
       </c>
       <c r="M121">
-        <v>-0.1050767559945155</v>
+        <v>0.1272892992272354</v>
       </c>
       <c r="N121">
-        <v>130.5040364359911</v>
+        <v>127.4690910159172</v>
       </c>
       <c r="O121">
-        <v>137.9888404796227</v>
+        <v>134.9538950595487</v>
       </c>
     </row>
     <row r="122" spans="1:15">
@@ -6111,46 +6111,46 @@
         <v>14</v>
       </c>
       <c r="B122">
-        <v>0.142443991117107</v>
+        <v>0.1853976555114463</v>
       </c>
       <c r="C122">
-        <v>0.2798327402238375</v>
+        <v>0.1696209212742318</v>
       </c>
       <c r="D122">
-        <v>0.1318077450643252</v>
+        <v>0.134989491120955</v>
       </c>
       <c r="E122">
-        <v>1.080695152227899</v>
+        <v>1.37342287886191</v>
       </c>
       <c r="F122">
-        <v>0.4564036408837822</v>
+        <v>0.4100810451068528</v>
       </c>
       <c r="G122">
-        <v>0.001553701169208045</v>
+        <v>0.004683385217118749</v>
       </c>
       <c r="H122">
-        <v>0.1442278928068469</v>
+        <v>0.1450053549046264</v>
       </c>
       <c r="I122">
-        <v>3.164461686305074</v>
+        <v>2.828040698059552</v>
       </c>
       <c r="J122">
-        <v>-0.01181504281295744</v>
+        <v>0.01865443287446616</v>
       </c>
       <c r="K122">
-        <v>0.9348003855458463</v>
+        <v>0.8958349565950354</v>
       </c>
       <c r="L122">
-        <v>0.1444262521687673</v>
+        <v>0.1424822631229362</v>
       </c>
       <c r="M122">
-        <v>-0.08180675351979036</v>
+        <v>0.1309245969680506</v>
       </c>
       <c r="N122">
-        <v>130.4835160384042</v>
+        <v>127.8180475662693</v>
       </c>
       <c r="O122">
-        <v>137.9683200820358</v>
+        <v>135.3028516099008</v>
       </c>
     </row>
     <row r="123" spans="1:15">
@@ -6158,46 +6158,46 @@
         <v>14</v>
       </c>
       <c r="B123">
-        <v>0.1657945550386411</v>
+        <v>0.1771103377854474</v>
       </c>
       <c r="C123">
-        <v>0.2070709255091289</v>
+        <v>0.1822997592906367</v>
       </c>
       <c r="D123">
-        <v>0.1314097862118489</v>
+        <v>0.1327954947214705</v>
       </c>
       <c r="E123">
-        <v>1.261660640489588</v>
+        <v>1.333707428530797</v>
       </c>
       <c r="F123">
-        <v>0.459177413032191</v>
+        <v>0.4090291859403303</v>
       </c>
       <c r="G123">
-        <v>0.001455304850798433</v>
+        <v>0.004308741677678961</v>
       </c>
       <c r="H123">
-        <v>0.1442388587430024</v>
+        <v>0.1432863918801966</v>
       </c>
       <c r="I123">
-        <v>3.183451512538173</v>
+        <v>2.854626880983397</v>
       </c>
       <c r="J123">
-        <v>-0.01802434434456361</v>
+        <v>-0.001369240043711917</v>
       </c>
       <c r="K123">
-        <v>0.9005563994407312</v>
+        <v>0.9923660269792299</v>
       </c>
       <c r="L123">
-        <v>0.1442426352768171</v>
+        <v>0.143107503711013</v>
       </c>
       <c r="M123">
-        <v>-0.1249585069627504</v>
+        <v>-0.009567912291146655</v>
       </c>
       <c r="N123">
-        <v>130.4417950041899</v>
+        <v>127.1312681098048</v>
       </c>
       <c r="O123">
-        <v>137.9265990478214</v>
+        <v>134.6160721534364</v>
       </c>
     </row>
     <row r="124" spans="1:15">
@@ -6205,46 +6205,46 @@
         <v>14</v>
       </c>
       <c r="B124">
-        <v>0.1905344611958936</v>
+        <v>0.1867349828142574</v>
       </c>
       <c r="C124">
-        <v>0.138236670748857</v>
+        <v>0.1548679733945579</v>
       </c>
       <c r="D124">
-        <v>0.1285319774093361</v>
+        <v>0.13126820353393</v>
       </c>
       <c r="E124">
-        <v>1.482389558118274</v>
+        <v>1.422545428268853</v>
       </c>
       <c r="F124">
-        <v>0.4357868227942802</v>
+        <v>0.4148288095102425</v>
       </c>
       <c r="G124">
-        <v>0.001978639861824578</v>
+        <v>0.004032104665609142</v>
       </c>
       <c r="H124">
-        <v>0.1408754203400923</v>
+        <v>0.1442562150367563</v>
       </c>
       <c r="I124">
-        <v>3.09341985807199</v>
+        <v>2.875639080122439</v>
       </c>
       <c r="J124">
-        <v>-0.0008178631723952667</v>
+        <v>-0.002190849613371043</v>
       </c>
       <c r="K124">
-        <v>0.9953661186541444</v>
+        <v>0.9877563695731139</v>
       </c>
       <c r="L124">
-        <v>0.1408229259567613</v>
+        <v>0.1427661906533104</v>
       </c>
       <c r="M124">
-        <v>-0.005807741650293406</v>
+        <v>-0.01534571738130384</v>
       </c>
       <c r="N124">
-        <v>128.1266406238047</v>
+        <v>127.0772364010979</v>
       </c>
       <c r="O124">
-        <v>135.6114446674363</v>
+        <v>134.5620404447295</v>
       </c>
     </row>
     <row r="125" spans="1:15">
@@ -6252,46 +6252,46 @@
         <v>14</v>
       </c>
       <c r="B125">
-        <v>0.1835415354877174</v>
+        <v>0.1755354556553668</v>
       </c>
       <c r="C125">
-        <v>0.1547848108379379</v>
+        <v>0.2021194501720837</v>
       </c>
       <c r="D125">
-        <v>0.1289973183829684</v>
+        <v>0.1376169712897031</v>
       </c>
       <c r="E125">
-        <v>1.422832178129608</v>
+        <v>1.275536396494586</v>
       </c>
       <c r="F125">
-        <v>0.4614080227650884</v>
+        <v>0.3364928862888496</v>
       </c>
       <c r="G125">
-        <v>0.001355172531107668</v>
+        <v>0.01905021289736331</v>
       </c>
       <c r="H125">
-        <v>0.1440085410213699</v>
+        <v>0.1435214974461706</v>
       </c>
       <c r="I125">
-        <v>3.204032340669424</v>
+        <v>2.344546930434969</v>
       </c>
       <c r="J125">
-        <v>-0.008910428852220362</v>
+        <v>0.07553167158633436</v>
       </c>
       <c r="K125">
-        <v>0.9493151164184694</v>
+        <v>0.5983987377387471</v>
       </c>
       <c r="L125">
-        <v>0.1401741124094676</v>
+        <v>0.1434042364001998</v>
       </c>
       <c r="M125">
-        <v>-0.06356686480162463</v>
+        <v>0.5267046042876116</v>
       </c>
       <c r="N125">
-        <v>127.091178222071</v>
+        <v>131.9361881882196</v>
       </c>
       <c r="O125">
-        <v>134.5759822657026</v>
+        <v>139.4209922318512</v>
       </c>
     </row>
     <row r="126" spans="1:15">
@@ -6299,46 +6299,46 @@
         <v>14</v>
       </c>
       <c r="B126">
-        <v>0.1734242336039087</v>
+        <v>0.1716997148248683</v>
       </c>
       <c r="C126">
-        <v>0.1824078089282362</v>
+        <v>0.212323425075514</v>
       </c>
       <c r="D126">
-        <v>0.1300638241933387</v>
+        <v>0.13766792332498</v>
       </c>
       <c r="E126">
-        <v>1.333377937174254</v>
+        <v>1.247202040082733</v>
       </c>
       <c r="F126">
-        <v>0.4576416625109767</v>
+        <v>0.3346079985418607</v>
       </c>
       <c r="G126">
-        <v>0.001498899647577605</v>
+        <v>0.02007392072863901</v>
       </c>
       <c r="H126">
-        <v>0.1441438060883312</v>
+        <v>0.1439196882178436</v>
       </c>
       <c r="I126">
-        <v>3.174896479634611</v>
+        <v>2.324963336742241</v>
       </c>
       <c r="J126">
-        <v>0.003344021869328848</v>
+        <v>0.0760872417870917</v>
       </c>
       <c r="K126">
-        <v>0.9814756521541504</v>
+        <v>0.5972277743601373</v>
       </c>
       <c r="L126">
-        <v>0.1440214641537036</v>
+        <v>0.143997907848381</v>
       </c>
       <c r="M126">
-        <v>0.02321891315977747</v>
+        <v>0.528391300429211</v>
       </c>
       <c r="N126">
-        <v>126.9662601854801</v>
+        <v>132.2251495369774</v>
       </c>
       <c r="O126">
-        <v>134.4510642291116</v>
+        <v>139.7099535806089</v>
       </c>
     </row>
     <row r="127" spans="1:15">
@@ -6346,46 +6346,46 @@
         <v>14</v>
       </c>
       <c r="B127">
-        <v>0.1731190208031083</v>
+        <v>0.1657013547478861</v>
       </c>
       <c r="C127">
-        <v>0.183447522116971</v>
+        <v>0.2256593970085949</v>
       </c>
       <c r="D127">
-        <v>0.1301436624339267</v>
+        <v>0.1367606165501588</v>
       </c>
       <c r="E127">
-        <v>1.330214760868589</v>
+        <v>1.211616026073653</v>
       </c>
       <c r="F127">
-        <v>0.4591327922505591</v>
+        <v>0.332104733852827</v>
       </c>
       <c r="G127">
-        <v>0.001467573164224855</v>
+        <v>0.02097376869402834</v>
       </c>
       <c r="H127">
-        <v>0.1443350688220748</v>
+        <v>0.1438644208263506</v>
       </c>
       <c r="I127">
-        <v>3.181020357682739</v>
+        <v>2.30845633649538</v>
       </c>
       <c r="J127">
-        <v>0.001515050593106915</v>
+        <v>0.07682257095691244</v>
       </c>
       <c r="K127">
-        <v>0.9916222399649189</v>
+        <v>0.5932231213829571</v>
       </c>
       <c r="L127">
-        <v>0.1442883610129998</v>
+        <v>0.1438163961355308</v>
       </c>
       <c r="M127">
-        <v>0.01050015803402476</v>
+        <v>0.5341711586522847</v>
       </c>
       <c r="N127">
-        <v>126.9407236149319</v>
+        <v>132.2093742867902</v>
       </c>
       <c r="O127">
-        <v>134.4255276585635</v>
+        <v>139.6941783304217</v>
       </c>
     </row>
     <row r="128" spans="1:15">
@@ -6393,46 +6393,46 @@
         <v>14</v>
       </c>
       <c r="B128">
-        <v>0.1878596770226298</v>
+        <v>0.1049727666984512</v>
       </c>
       <c r="C128">
-        <v>0.1483479854076586</v>
+        <v>0.471868034496962</v>
       </c>
       <c r="D128">
-        <v>0.1299714946466841</v>
+        <v>0.1459083935129108</v>
       </c>
       <c r="E128">
-        <v>1.445391372418311</v>
+        <v>0.719442961238297</v>
       </c>
       <c r="F128">
-        <v>0.4582869162469976</v>
+        <v>0.3519857557417175</v>
       </c>
       <c r="G128">
-        <v>0.001498699065817346</v>
+        <v>0.0222080975522835</v>
       </c>
       <c r="H128">
-        <v>0.144345276654219</v>
+        <v>0.1539213451535149</v>
       </c>
       <c r="I128">
-        <v>3.174935313919762</v>
+        <v>2.286789758695658</v>
       </c>
       <c r="J128">
-        <v>0.002942535555725753</v>
+        <v>0.07311108449478146</v>
       </c>
       <c r="K128">
-        <v>0.9837363006237323</v>
+        <v>0.6349396151244537</v>
       </c>
       <c r="L128">
-        <v>0.1443485299434051</v>
+        <v>0.1539874946238363</v>
       </c>
       <c r="M128">
-        <v>0.02038493607714215</v>
+        <v>0.4747858563020242</v>
       </c>
       <c r="N128">
-        <v>126.9459612823066</v>
+        <v>138.805927003148</v>
       </c>
       <c r="O128">
-        <v>134.4307653259382</v>
+        <v>146.2907310467795</v>
       </c>
     </row>
     <row r="129" spans="1:15">
@@ -6440,46 +6440,46 @@
         <v>14</v>
       </c>
       <c r="B129">
-        <v>0.189100668803601</v>
+        <v>-0.1426285206180569</v>
       </c>
       <c r="C129">
-        <v>0.1515002009044669</v>
+        <v>0.547767714095988</v>
       </c>
       <c r="D129">
-        <v>0.1318461428305505</v>
+        <v>0.2372758290487774</v>
       </c>
       <c r="E129">
-        <v>1.43425256699875</v>
+        <v>-0.6011085123581483</v>
       </c>
       <c r="F129">
-        <v>0.4451376070776404</v>
+        <v>0.7543296262710919</v>
       </c>
       <c r="G129">
-        <v>0.002036027507615199</v>
+        <v>0.001273282267751887</v>
       </c>
       <c r="H129">
-        <v>0.1442944161269062</v>
+        <v>0.2341232012937255</v>
       </c>
       <c r="I129">
-        <v>3.084926077015649</v>
+        <v>3.221934528926621</v>
       </c>
       <c r="J129">
-        <v>0.01230678371774277</v>
+        <v>0.005374954043694147</v>
       </c>
       <c r="K129">
-        <v>0.9320377838256035</v>
+        <v>0.9826293592474385</v>
       </c>
       <c r="L129">
-        <v>0.1443081712061973</v>
+        <v>0.2468679250346671</v>
       </c>
       <c r="M129">
-        <v>0.0852812672690447</v>
+        <v>0.02177258970738849</v>
       </c>
       <c r="N129">
-        <v>127.6877459108621</v>
+        <v>187.2486410283389</v>
       </c>
       <c r="O129">
-        <v>135.1725499544937</v>
+        <v>194.7334450719705</v>
       </c>
     </row>
     <row r="130" spans="1:15">
@@ -6487,46 +6487,46 @@
         <v>14</v>
       </c>
       <c r="B130">
-        <v>0.197849955609833</v>
+        <v>0.1975811584453767</v>
       </c>
       <c r="C130">
-        <v>0.1333905886390255</v>
+        <v>0.5161310266455006</v>
       </c>
       <c r="D130">
-        <v>0.1318239879888397</v>
+        <v>0.3042889589111581</v>
       </c>
       <c r="E130">
-        <v>1.500864589429529</v>
+        <v>0.6493208269941324</v>
       </c>
       <c r="F130">
-        <v>0.4482534147201921</v>
+        <v>-0.349542261787224</v>
       </c>
       <c r="G130">
-        <v>0.001823746879121024</v>
+        <v>0.06128519641148606</v>
       </c>
       <c r="H130">
-        <v>0.143784893044282</v>
+        <v>0.1867779436375848</v>
       </c>
       <c r="I130">
-        <v>3.117527893435519</v>
+        <v>-1.871432220420306</v>
       </c>
       <c r="J130">
-        <v>0.004685530037240024</v>
+        <v>0.1407035695703318</v>
       </c>
       <c r="K130">
-        <v>0.9740051541789283</v>
+        <v>0.6631137600712451</v>
       </c>
       <c r="L130">
-        <v>0.1437919888738971</v>
+        <v>0.3229974504001594</v>
       </c>
       <c r="M130">
-        <v>0.03258547346020193</v>
+        <v>0.4356182050230274</v>
       </c>
       <c r="N130">
-        <v>127.3267249023322</v>
+        <v>213.0870681066552</v>
       </c>
       <c r="O130">
-        <v>134.8115289459638</v>
+        <v>220.5718721502868</v>
       </c>
     </row>
     <row r="131" spans="1:15">
@@ -6534,46 +6534,46 @@
         <v>14</v>
       </c>
       <c r="B131">
-        <v>0.2015787776417707</v>
+        <v>0.3169635162600885</v>
       </c>
       <c r="C131">
-        <v>0.1275867482605932</v>
+        <v>0.2858603688913774</v>
       </c>
       <c r="D131">
-        <v>0.1322966511869593</v>
+        <v>0.296991748230283</v>
       </c>
       <c r="E131">
-        <v>1.523687680929301</v>
+        <v>1.067246878570914</v>
       </c>
       <c r="F131">
-        <v>0.4470189702831492</v>
+        <v>-0.2396576680353337</v>
       </c>
       <c r="G131">
-        <v>0.001962555884402316</v>
+        <v>0.09561091904594689</v>
       </c>
       <c r="H131">
-        <v>0.1443933893379302</v>
+        <v>0.1438077029112506</v>
       </c>
       <c r="I131">
-        <v>3.095840968432226</v>
+        <v>-1.666514819329503</v>
       </c>
       <c r="J131">
-        <v>0.004959497390602266</v>
+        <v>-0.131935651083613</v>
       </c>
       <c r="K131">
-        <v>0.9725196793956105</v>
+        <v>0.450267085076118</v>
       </c>
       <c r="L131">
-        <v>0.143969350071533</v>
+        <v>0.1747561901356629</v>
       </c>
       <c r="M131">
-        <v>0.03444828630634283</v>
+        <v>-0.7549698295733709</v>
       </c>
       <c r="N131">
-        <v>127.4148538560688</v>
+        <v>212.8794714614721</v>
       </c>
       <c r="O131">
-        <v>134.8996578997004</v>
+        <v>220.3642755051037</v>
       </c>
     </row>
     <row r="132" spans="1:15">
@@ -6581,46 +6581,46 @@
         <v>14</v>
       </c>
       <c r="B132">
-        <v>0.2174376940700317</v>
+        <v>0.4574170819135874</v>
       </c>
       <c r="C132">
-        <v>0.1006782852732963</v>
+        <v>0.09936925597010805</v>
       </c>
       <c r="D132">
-        <v>0.1324568201925506</v>
+        <v>0.2775725205922189</v>
       </c>
       <c r="E132">
-        <v>1.641574165482349</v>
+        <v>1.647919185003107</v>
       </c>
       <c r="F132">
-        <v>0.4479210084834345</v>
+        <v>-0.3038024387735363</v>
       </c>
       <c r="G132">
-        <v>0.001867941754480813</v>
+        <v>0.02107471675558132</v>
       </c>
       <c r="H132">
-        <v>0.1440046002888248</v>
+        <v>0.1317075970585642</v>
       </c>
       <c r="I132">
-        <v>3.110463190655407</v>
+        <v>-2.306643242746655</v>
       </c>
       <c r="J132">
-        <v>-0.001901304529919767</v>
+        <v>-0.2121859828010515</v>
       </c>
       <c r="K132">
-        <v>0.989457642964053</v>
+        <v>0.1044898147083383</v>
       </c>
       <c r="L132">
-        <v>0.1438935698030488</v>
+        <v>0.1306993654267891</v>
       </c>
       <c r="M132">
-        <v>-0.01321326958892004</v>
+        <v>-1.623466052097299</v>
       </c>
       <c r="N132">
-        <v>127.1647539822728</v>
+        <v>205.381992556012</v>
       </c>
       <c r="O132">
-        <v>134.6495580259043</v>
+        <v>212.8667965996435</v>
       </c>
     </row>
     <row r="133" spans="1:15">
@@ -6628,46 +6628,46 @@
         <v>14</v>
       </c>
       <c r="B133">
-        <v>0.2128904213668585</v>
+        <v>0.5863212428172949</v>
       </c>
       <c r="C133">
-        <v>0.1118694103828293</v>
+        <v>0.03841880652194445</v>
       </c>
       <c r="D133">
-        <v>0.1339062745486123</v>
+        <v>0.2831979619517374</v>
       </c>
       <c r="E133">
-        <v>1.589846495875534</v>
+        <v>2.070358270859364</v>
       </c>
       <c r="F133">
-        <v>0.4490708923547012</v>
+        <v>-0.3994349527932676</v>
       </c>
       <c r="G133">
-        <v>0.001783243586305235</v>
+        <v>0.003726705873957467</v>
       </c>
       <c r="H133">
-        <v>0.1437421501458204</v>
+        <v>0.1377165504116222</v>
       </c>
       <c r="I133">
-        <v>3.124142027228184</v>
+        <v>-2.900413578465283</v>
       </c>
       <c r="J133">
-        <v>0.004912516838736239</v>
+        <v>-0.2646306097635652</v>
       </c>
       <c r="K133">
-        <v>0.9726649468922969</v>
+        <v>0.04442999186668282</v>
       </c>
       <c r="L133">
-        <v>0.1433637027130024</v>
+        <v>0.1316562789874712</v>
       </c>
       <c r="M133">
-        <v>0.03426611301028219</v>
+        <v>-2.01001130974352</v>
       </c>
       <c r="N133">
-        <v>127.0876968667508</v>
+        <v>206.0345890022862</v>
       </c>
       <c r="O133">
-        <v>134.5725009103823</v>
+        <v>213.5193930459178</v>
       </c>
     </row>
     <row r="134" spans="1:15">
@@ -6675,46 +6675,46 @@
         <v>14</v>
       </c>
       <c r="B134">
-        <v>0.2137875956553765</v>
+        <v>0.6697208854875031</v>
       </c>
       <c r="C134">
-        <v>0.1131761178792094</v>
+        <v>0.01983517433733205</v>
       </c>
       <c r="D134">
-        <v>0.1349603260031548</v>
+        <v>0.2875015711092626</v>
       </c>
       <c r="E134">
-        <v>1.584077350631022</v>
+        <v>2.329451219704748</v>
       </c>
       <c r="F134">
-        <v>0.4441953483950547</v>
+        <v>-0.406741629653372</v>
       </c>
       <c r="G134">
-        <v>0.002090658591344018</v>
+        <v>0.003403738155594577</v>
       </c>
       <c r="H134">
-        <v>0.1443579099878061</v>
+        <v>0.1388809006088633</v>
       </c>
       <c r="I134">
-        <v>3.077041974579542</v>
+        <v>-2.928708179959872</v>
       </c>
       <c r="J134">
-        <v>0.01477413129616106</v>
+        <v>-0.3048389959353506</v>
       </c>
       <c r="K134">
-        <v>0.9184673825173949</v>
+        <v>0.02919584393974889</v>
       </c>
       <c r="L134">
-        <v>0.1443287008465282</v>
+        <v>0.139781053452275</v>
       </c>
       <c r="M134">
-        <v>0.1023644722740983</v>
+        <v>-2.180832011252733</v>
       </c>
       <c r="N134">
-        <v>127.297840324091</v>
+        <v>206.2217124694824</v>
       </c>
       <c r="O134">
-        <v>134.7826443677226</v>
+        <v>213.706516513114</v>
       </c>
     </row>
     <row r="135" spans="1:15">
@@ -6722,46 +6722,46 @@
         <v>14</v>
       </c>
       <c r="B135">
-        <v>0.2167665372991584</v>
+        <v>0.6721399012999505</v>
       </c>
       <c r="C135">
-        <v>0.1076974488445637</v>
+        <v>0.02062102253060105</v>
       </c>
       <c r="D135">
-        <v>0.1347523341189193</v>
+        <v>0.2903597490198186</v>
       </c>
       <c r="E135">
-        <v>1.608629184173251</v>
+        <v>2.314852191355467</v>
       </c>
       <c r="F135">
-        <v>0.4462622309016551</v>
+        <v>-0.4006079901357545</v>
       </c>
       <c r="G135">
-        <v>0.001975721385539121</v>
+        <v>0.003721293583702675</v>
       </c>
       <c r="H135">
-        <v>0.1442413502817753</v>
+        <v>0.1380993019104058</v>
       </c>
       <c r="I135">
-        <v>3.093857829463482</v>
+        <v>-2.900869045635404</v>
       </c>
       <c r="J135">
-        <v>0.01446074124354893</v>
+        <v>-0.2917505991143214</v>
       </c>
       <c r="K135">
-        <v>0.9200882328583426</v>
+        <v>0.0353159196237998</v>
       </c>
       <c r="L135">
-        <v>0.1441424399006715</v>
+        <v>0.1386174726194376</v>
       </c>
       <c r="M135">
-        <v>0.1003225785099366</v>
+        <v>-2.104717346241751</v>
       </c>
       <c r="N135">
-        <v>127.1865054733433</v>
+        <v>206.4519243178729</v>
       </c>
       <c r="O135">
-        <v>134.6713095169748</v>
+        <v>213.9367283615045</v>
       </c>
     </row>
     <row r="136" spans="1:15">
@@ -6769,46 +6769,46 @@
         <v>14</v>
       </c>
       <c r="B136">
-        <v>0.2035928814595658</v>
+        <v>0.658830155660504</v>
       </c>
       <c r="C136">
-        <v>0.1296208240577135</v>
+        <v>0.02313799810439175</v>
       </c>
       <c r="D136">
-        <v>0.1343316436641403</v>
+        <v>0.2900867976560066</v>
       </c>
       <c r="E136">
-        <v>1.515598826205048</v>
+        <v>2.271148363124626</v>
       </c>
       <c r="F136">
-        <v>0.4491847582726342</v>
+        <v>-0.4016523413773242</v>
       </c>
       <c r="G136">
-        <v>0.001782953951682068</v>
+        <v>0.00359979231227277</v>
       </c>
       <c r="H136">
-        <v>0.1437763977969557</v>
+        <v>0.1379653234617633</v>
       </c>
       <c r="I136">
-        <v>3.124189819437423</v>
+        <v>-2.911255751077487</v>
       </c>
       <c r="J136">
-        <v>0.006262203255451612</v>
+        <v>-0.2930042129265577</v>
       </c>
       <c r="K136">
-        <v>0.9652772323627085</v>
+        <v>0.03388076151613816</v>
       </c>
       <c r="L136">
-        <v>0.1438519440379922</v>
+        <v>0.1381125987023332</v>
       </c>
       <c r="M136">
-        <v>0.04353228103610283</v>
+        <v>-2.121487943022883</v>
       </c>
       <c r="N136">
-        <v>126.8226035473705</v>
+        <v>206.3544839459261</v>
       </c>
       <c r="O136">
-        <v>134.3074075910021</v>
+        <v>213.8392879895576</v>
       </c>
     </row>
     <row r="137" spans="1:15">
@@ -6816,46 +6816,46 @@
         <v>14</v>
       </c>
       <c r="B137">
-        <v>0.1990603423910912</v>
+        <v>0.6541223361763624</v>
       </c>
       <c r="C137">
-        <v>0.1414137714040944</v>
+        <v>0.01617093995195185</v>
       </c>
       <c r="D137">
-        <v>0.1353648642485421</v>
+        <v>0.2719804400148639</v>
       </c>
       <c r="E137">
-        <v>1.470546611161952</v>
+        <v>2.405034480202379</v>
       </c>
       <c r="F137">
-        <v>0.4136559955837855</v>
+        <v>-0.4553437783875506</v>
       </c>
       <c r="G137">
-        <v>0.003633414208211329</v>
+        <v>0.0007759923670559838</v>
       </c>
       <c r="H137">
-        <v>0.1422304721616523</v>
+        <v>0.13546982859613</v>
       </c>
       <c r="I137">
-        <v>2.908350013164858</v>
+        <v>-3.361219122414674</v>
       </c>
       <c r="J137">
-        <v>0.01804580241373385</v>
+        <v>-0.3091262590966923</v>
       </c>
       <c r="K137">
-        <v>0.8987114293938844</v>
+        <v>0.02249317699086669</v>
       </c>
       <c r="L137">
-        <v>0.1417699879195555</v>
+        <v>0.1354667230119467</v>
       </c>
       <c r="M137">
-        <v>0.1272892992272354</v>
+        <v>-2.281935018605497</v>
       </c>
       <c r="N137">
-        <v>127.4690910159172</v>
+        <v>199.7452776197219</v>
       </c>
       <c r="O137">
-        <v>134.9538950595487</v>
+        <v>207.2300816633535</v>
       </c>
     </row>
     <row r="138" spans="1:15">
@@ -6863,46 +6863,46 @@
         <v>14</v>
       </c>
       <c r="B138">
-        <v>0.1853976555114463</v>
+        <v>0.6338692133241772</v>
       </c>
       <c r="C138">
-        <v>0.1696209212742318</v>
+        <v>0.01835229841596315</v>
       </c>
       <c r="D138">
-        <v>0.134989491120955</v>
+        <v>0.2687671666149032</v>
       </c>
       <c r="E138">
-        <v>1.37342287886191</v>
+        <v>2.358432472640537</v>
       </c>
       <c r="F138">
-        <v>0.4100810451068528</v>
+        <v>-0.4728327376471393</v>
       </c>
       <c r="G138">
-        <v>0.004683385217118749</v>
+        <v>0.0005134341482791306</v>
       </c>
       <c r="H138">
-        <v>0.1450053549046264</v>
+        <v>0.1361199349770688</v>
       </c>
       <c r="I138">
-        <v>2.828040698059552</v>
+        <v>-3.473647983499215</v>
       </c>
       <c r="J138">
-        <v>0.01865443287446616</v>
+        <v>-0.318095368313789</v>
       </c>
       <c r="K138">
-        <v>0.8958349565950354</v>
+        <v>0.0183888747915654</v>
       </c>
       <c r="L138">
-        <v>0.1424822631229362</v>
+        <v>0.1349180394292761</v>
       </c>
       <c r="M138">
-        <v>0.1309245969680506</v>
+        <v>-2.357693379324076</v>
       </c>
       <c r="N138">
-        <v>127.8180475662693</v>
+        <v>199.0634823510619</v>
       </c>
       <c r="O138">
-        <v>135.3028516099008</v>
+        <v>206.5482863946934</v>
       </c>
     </row>
     <row r="139" spans="1:15">
@@ -6910,46 +6910,46 @@
         <v>14</v>
       </c>
       <c r="B139">
-        <v>0.1771103377854474</v>
+        <v>0.6000852497979909</v>
       </c>
       <c r="C139">
-        <v>0.1822997592906367</v>
+        <v>0.02423429207426314</v>
       </c>
       <c r="D139">
-        <v>0.1327954947214705</v>
+        <v>0.266302804687333</v>
       </c>
       <c r="E139">
-        <v>1.333707428530797</v>
+        <v>2.25339440379741</v>
       </c>
       <c r="F139">
-        <v>0.4090291859403303</v>
+        <v>-0.4819005718006494</v>
       </c>
       <c r="G139">
-        <v>0.004308741677678961</v>
+        <v>0.0004008104788381866</v>
       </c>
       <c r="H139">
-        <v>0.1432863918801966</v>
+        <v>0.1361474281814001</v>
       </c>
       <c r="I139">
-        <v>2.854626880983397</v>
+        <v>-3.539549576790938</v>
       </c>
       <c r="J139">
-        <v>-0.001369240043711917</v>
+        <v>-0.3327439843994221</v>
       </c>
       <c r="K139">
-        <v>0.9923660269792299</v>
+        <v>0.01447331588065536</v>
       </c>
       <c r="L139">
-        <v>0.143107503711013</v>
+        <v>0.1360751156092539</v>
       </c>
       <c r="M139">
-        <v>-0.009567912291146655</v>
+        <v>-2.445296356425022</v>
       </c>
       <c r="N139">
-        <v>127.1312681098048</v>
+        <v>198.7154432008516</v>
       </c>
       <c r="O139">
-        <v>134.6160721534364</v>
+        <v>206.2002472444832</v>
       </c>
     </row>
     <row r="140" spans="1:15">
@@ -6957,46 +6957,46 @@
         <v>14</v>
       </c>
       <c r="B140">
-        <v>0.1867349828142574</v>
+        <v>0.5374343192579305</v>
       </c>
       <c r="C140">
-        <v>0.1548679733945579</v>
+        <v>0.04092916921343212</v>
       </c>
       <c r="D140">
-        <v>0.13126820353393</v>
+        <v>0.2629008943571171</v>
       </c>
       <c r="E140">
-        <v>1.422545428268853</v>
+        <v>2.044246827581708</v>
       </c>
       <c r="F140">
-        <v>0.4148288095102425</v>
+        <v>-0.4854301025436767</v>
       </c>
       <c r="G140">
-        <v>0.004032104665609142</v>
+        <v>0.0003161041754491738</v>
       </c>
       <c r="H140">
-        <v>0.1442562150367563</v>
+        <v>0.1347768533689596</v>
       </c>
       <c r="I140">
-        <v>2.875639080122439</v>
+        <v>-3.601731977038988</v>
       </c>
       <c r="J140">
-        <v>-0.002190849613371043</v>
+        <v>-0.3374834799330804</v>
       </c>
       <c r="K140">
-        <v>0.9877563695731139</v>
+        <v>0.01239629175069859</v>
       </c>
       <c r="L140">
-        <v>0.1427661906533104</v>
+        <v>0.1349578855233921</v>
       </c>
       <c r="M140">
-        <v>-0.01534571738130384</v>
+        <v>-2.500657732034374</v>
       </c>
       <c r="N140">
-        <v>127.0772364010979</v>
+        <v>197.8828362649158</v>
       </c>
       <c r="O140">
-        <v>134.5620404447295</v>
+        <v>205.3676403085474</v>
       </c>
     </row>
     <row r="141" spans="1:15">
@@ -7004,46 +7004,46 @@
         <v>14</v>
       </c>
       <c r="B141">
-        <v>0.1755354556553668</v>
+        <v>0.5132381042060387</v>
       </c>
       <c r="C141">
-        <v>0.2021194501720837</v>
+        <v>0.04992223340160812</v>
       </c>
       <c r="D141">
-        <v>0.1376169712897031</v>
+        <v>0.2617720726283433</v>
       </c>
       <c r="E141">
-        <v>1.275536396494586</v>
+        <v>1.96062971520541</v>
       </c>
       <c r="F141">
-        <v>0.3364928862888496</v>
+        <v>-0.4524216994979626</v>
       </c>
       <c r="G141">
-        <v>0.01905021289736331</v>
+        <v>0.0009091777429919706</v>
       </c>
       <c r="H141">
-        <v>0.1435214974461706</v>
+        <v>0.1363857709324073</v>
       </c>
       <c r="I141">
-        <v>2.344546930434969</v>
+        <v>-3.3172206778241</v>
       </c>
       <c r="J141">
-        <v>0.07553167158633436</v>
+        <v>-0.3253851264165818</v>
       </c>
       <c r="K141">
-        <v>0.5983987377387471</v>
+        <v>0.0163216783799435</v>
       </c>
       <c r="L141">
-        <v>0.1434042364001998</v>
+        <v>0.1354844489151918</v>
       </c>
       <c r="M141">
-        <v>0.5267046042876116</v>
+        <v>-2.401641878620777</v>
       </c>
       <c r="N141">
-        <v>131.9361881882196</v>
+        <v>198.066987649529</v>
       </c>
       <c r="O141">
-        <v>139.4209922318512</v>
+        <v>205.5517916931605</v>
       </c>
     </row>
     <row r="142" spans="1:15">
@@ -7051,46 +7051,46 @@
         <v>14</v>
       </c>
       <c r="B142">
-        <v>0.1716997148248683</v>
+        <v>0.4883550667635859</v>
       </c>
       <c r="C142">
-        <v>0.212323425075514</v>
+        <v>0.06014224543857449</v>
       </c>
       <c r="D142">
-        <v>0.13766792332498</v>
+        <v>0.2597979698958762</v>
       </c>
       <c r="E142">
-        <v>1.247202040082733</v>
+        <v>1.879749356622427</v>
       </c>
       <c r="F142">
-        <v>0.3346079985418607</v>
+        <v>-0.4551825938766707</v>
       </c>
       <c r="G142">
-        <v>0.02007392072863901</v>
+        <v>0.0008131215988191255</v>
       </c>
       <c r="H142">
-        <v>0.1439196882178436</v>
+        <v>0.1359448329146251</v>
       </c>
       <c r="I142">
-        <v>2.324963336742241</v>
+        <v>-3.348289038411122</v>
       </c>
       <c r="J142">
-        <v>0.0760872417870917</v>
+        <v>-0.3351910627366981</v>
       </c>
       <c r="K142">
-        <v>0.5972277743601373</v>
+        <v>0.01367311534153842</v>
       </c>
       <c r="L142">
-        <v>0.143997907848381</v>
+        <v>0.1359394260675238</v>
       </c>
       <c r="M142">
-        <v>0.528391300429211</v>
+        <v>-2.465738398587926</v>
       </c>
       <c r="N142">
-        <v>132.2251495369774</v>
+        <v>197.7044675835122</v>
       </c>
       <c r="O142">
-        <v>139.7099535806089</v>
+        <v>205.1892716271437</v>
       </c>
     </row>
     <row r="143" spans="1:15">
@@ -7098,46 +7098,46 @@
         <v>14</v>
       </c>
       <c r="B143">
-        <v>0.1657013547478861</v>
+        <v>0.481845091265951</v>
       </c>
       <c r="C143">
-        <v>0.2256593970085949</v>
+        <v>0.06344002322863912</v>
       </c>
       <c r="D143">
-        <v>0.1367606165501588</v>
+        <v>0.2596015291361334</v>
       </c>
       <c r="E143">
-        <v>1.211616026073653</v>
+        <v>1.856094965501049</v>
       </c>
       <c r="F143">
-        <v>0.332104733852827</v>
+        <v>-0.4527290393608462</v>
       </c>
       <c r="G143">
-        <v>0.02097376869402834</v>
+        <v>0.0008856563149369235</v>
       </c>
       <c r="H143">
-        <v>0.1438644208263506</v>
+        <v>0.1361780915645251</v>
       </c>
       <c r="I143">
-        <v>2.30845633649538</v>
+        <v>-3.324536525365611</v>
       </c>
       <c r="J143">
-        <v>0.07682257095691244</v>
+        <v>-0.3337911092704915</v>
       </c>
       <c r="K143">
-        <v>0.5932231213829571</v>
+        <v>0.01416572352590514</v>
       </c>
       <c r="L143">
-        <v>0.1438163961355308</v>
+        <v>0.1360728013961441</v>
       </c>
       <c r="M143">
-        <v>0.5341711586522847</v>
+        <v>-2.453033272231509</v>
       </c>
       <c r="N143">
-        <v>132.2093742867902</v>
+        <v>197.8082244688284</v>
       </c>
       <c r="O143">
-        <v>139.6941783304217</v>
+        <v>205.29302851246</v>
       </c>
     </row>
     <row r="144" spans="1:15">
@@ -7145,46 +7145,46 @@
         <v>14</v>
       </c>
       <c r="B144">
-        <v>0.1049727666984512</v>
+        <v>0.4768365475178873</v>
       </c>
       <c r="C144">
-        <v>0.471868034496962</v>
+        <v>0.06611648443027199</v>
       </c>
       <c r="D144">
-        <v>0.1459083935129108</v>
+        <v>0.259484083810259</v>
       </c>
       <c r="E144">
-        <v>0.719442961238297</v>
+        <v>1.837633123835686</v>
       </c>
       <c r="F144">
-        <v>0.3519857557417175</v>
+        <v>-0.452402482718154</v>
       </c>
       <c r="G144">
-        <v>0.0222080975522835</v>
+        <v>0.0008915425211897937</v>
       </c>
       <c r="H144">
-        <v>0.1539213451535149</v>
+        <v>0.136155530280069</v>
       </c>
       <c r="I144">
-        <v>2.286789758695658</v>
+        <v>-3.32268899976058</v>
       </c>
       <c r="J144">
-        <v>0.07311108449478146</v>
+        <v>-0.3324803154518182</v>
       </c>
       <c r="K144">
-        <v>0.6349396151244537</v>
+        <v>0.01467625281395915</v>
       </c>
       <c r="L144">
-        <v>0.1539874946238363</v>
+        <v>0.1362472991687922</v>
       </c>
       <c r="M144">
-        <v>0.4747858563020242</v>
+        <v>-2.440270871277378</v>
       </c>
       <c r="N144">
-        <v>138.805927003148</v>
+        <v>197.9019006326783</v>
       </c>
       <c r="O144">
-        <v>146.2907310467795</v>
+        <v>205.3867046763099</v>
       </c>
     </row>
     <row r="145" spans="1:15">
@@ -7192,46 +7192,46 @@
         <v>14</v>
       </c>
       <c r="B145">
-        <v>-0.1426285206180569</v>
+        <v>0.4402300220723241</v>
       </c>
       <c r="C145">
-        <v>0.547767714095988</v>
+        <v>0.09201399235918069</v>
       </c>
       <c r="D145">
-        <v>0.2372758290487774</v>
+        <v>0.2612845369848295</v>
       </c>
       <c r="E145">
-        <v>-0.6011085123581483</v>
+        <v>1.684868255705022</v>
       </c>
       <c r="F145">
-        <v>0.7543296262710919</v>
+        <v>-0.3797396007373646</v>
       </c>
       <c r="G145">
-        <v>0.001273282267751887</v>
+        <v>0.00594819288979587</v>
       </c>
       <c r="H145">
-        <v>0.2341232012937255</v>
+        <v>0.1380558164996376</v>
       </c>
       <c r="I145">
-        <v>3.221934528926621</v>
+        <v>-2.75062369964225</v>
       </c>
       <c r="J145">
-        <v>0.005374954043694147</v>
+        <v>-0.2926730306208346</v>
       </c>
       <c r="K145">
-        <v>0.9826293592474385</v>
+        <v>0.03400867030281143</v>
       </c>
       <c r="L145">
-        <v>0.2468679250346671</v>
+        <v>0.138055343266809</v>
       </c>
       <c r="M145">
-        <v>0.02177258970738849</v>
+        <v>-2.119968874042114</v>
       </c>
       <c r="N145">
-        <v>187.2486410283389</v>
+        <v>198.6875701879802</v>
       </c>
       <c r="O145">
-        <v>194.7334450719705</v>
+        <v>206.1723742316117</v>
       </c>
     </row>
     <row r="146" spans="1:15">
@@ -7239,46 +7239,46 @@
         <v>14</v>
       </c>
       <c r="B146">
-        <v>0.1975811584453767</v>
+        <v>0.4297455569664963</v>
       </c>
       <c r="C146">
-        <v>0.5161310266455006</v>
+        <v>0.1002216978367568</v>
       </c>
       <c r="D146">
-        <v>0.3042889589111581</v>
+        <v>0.2614374261769452</v>
       </c>
       <c r="E146">
-        <v>0.6493208269941324</v>
+        <v>1.643779787962101</v>
       </c>
       <c r="F146">
-        <v>-0.349542261787224</v>
+        <v>-0.3783105440516361</v>
       </c>
       <c r="G146">
-        <v>0.06128519641148606</v>
+        <v>0.006163750553828818</v>
       </c>
       <c r="H146">
-        <v>0.1867779436375848</v>
+        <v>0.1381229449757737</v>
       </c>
       <c r="I146">
-        <v>-1.871432220420306</v>
+        <v>-2.738940616405121</v>
       </c>
       <c r="J146">
-        <v>0.1407035695703318</v>
+        <v>-0.2914310493289787</v>
       </c>
       <c r="K146">
-        <v>0.6631137600712451</v>
+        <v>0.0350023366924939</v>
       </c>
       <c r="L146">
-        <v>0.3229974504001594</v>
+        <v>0.1382282947130797</v>
       </c>
       <c r="M146">
-        <v>0.4356182050230274</v>
+        <v>-2.108331365397379</v>
       </c>
       <c r="N146">
-        <v>213.0870681066552</v>
+        <v>198.8162627933382</v>
       </c>
       <c r="O146">
-        <v>220.5718721502868</v>
+        <v>206.3010668369697</v>
       </c>
     </row>
     <row r="147" spans="1:15">
@@ -7286,46 +7286,46 @@
         <v>14</v>
       </c>
       <c r="B147">
-        <v>0.3169635162600885</v>
+        <v>0.4286139323921373</v>
       </c>
       <c r="C147">
-        <v>0.2858603688913774</v>
+        <v>0.1008179677404912</v>
       </c>
       <c r="D147">
-        <v>0.296991748230283</v>
+        <v>0.2612064547432345</v>
       </c>
       <c r="E147">
-        <v>1.067246878570914</v>
+        <v>1.640900998459108</v>
       </c>
       <c r="F147">
-        <v>-0.2396576680353337</v>
+        <v>-0.3774258873972454</v>
       </c>
       <c r="G147">
-        <v>0.09561091904594689</v>
+        <v>0.006276155096568777</v>
       </c>
       <c r="H147">
-        <v>0.1438077029112506</v>
+        <v>0.1380998062961295</v>
       </c>
       <c r="I147">
-        <v>-1.666514819329503</v>
+        <v>-2.732993604552387</v>
       </c>
       <c r="J147">
-        <v>-0.131935651083613</v>
+        <v>-0.2896683894384353</v>
       </c>
       <c r="K147">
-        <v>0.450267085076118</v>
+        <v>0.03595766300138476</v>
       </c>
       <c r="L147">
-        <v>0.1747561901356629</v>
+        <v>0.1381079338495395</v>
       </c>
       <c r="M147">
-        <v>-0.7549698295733709</v>
+        <v>-2.097405857609977</v>
       </c>
       <c r="N147">
-        <v>212.8794714614721</v>
+        <v>198.8278249470879</v>
       </c>
       <c r="O147">
-        <v>220.3642755051037</v>
+        <v>206.3126289907195</v>
       </c>
     </row>
     <row r="148" spans="1:15">
@@ -7333,797 +7333,45 @@
         <v>14</v>
       </c>
       <c r="B148">
-        <v>0.4574170819135874</v>
+        <v>0.4504612813666546</v>
       </c>
       <c r="C148">
-        <v>0.09936925597010805</v>
+        <v>0.08345959188880792</v>
       </c>
       <c r="D148">
-        <v>0.2775725205922189</v>
+        <v>0.2602384181788523</v>
       </c>
       <c r="E148">
-        <v>1.647919185003107</v>
+        <v>1.730956115238409</v>
       </c>
       <c r="F148">
-        <v>-0.3038024387735363</v>
+        <v>-0.3810978406344331</v>
       </c>
       <c r="G148">
-        <v>0.02107471675558132</v>
+        <v>0.005622043746374832</v>
       </c>
       <c r="H148">
-        <v>0.1317075970585642</v>
+        <v>0.1376277727582979</v>
       </c>
       <c r="I148">
-        <v>-2.306643242746655</v>
+        <v>-2.769047503978123</v>
       </c>
       <c r="J148">
-        <v>-0.2121859828010515</v>
+        <v>-0.2909289210161251</v>
       </c>
       <c r="K148">
-        <v>0.1044898147083383</v>
+        <v>0.03445619038859235</v>
       </c>
       <c r="L148">
-        <v>0.1306993654267891</v>
+        <v>0.1375750675657087</v>
       </c>
       <c r="M148">
-        <v>-1.623466052097299</v>
+        <v>-2.114692190699245</v>
       </c>
       <c r="N148">
-        <v>205.381992556012</v>
+        <v>198.4670837299067</v>
       </c>
       <c r="O148">
-        <v>212.8667965996435</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15">
-      <c r="A149" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B149">
-        <v>0.5863212428172949</v>
-      </c>
-      <c r="C149">
-        <v>0.03841880652194445</v>
-      </c>
-      <c r="D149">
-        <v>0.2831979619517374</v>
-      </c>
-      <c r="E149">
-        <v>2.070358270859364</v>
-      </c>
-      <c r="F149">
-        <v>-0.3994349527932676</v>
-      </c>
-      <c r="G149">
-        <v>0.003726705873957467</v>
-      </c>
-      <c r="H149">
-        <v>0.1377165504116222</v>
-      </c>
-      <c r="I149">
-        <v>-2.900413578465283</v>
-      </c>
-      <c r="J149">
-        <v>-0.2646306097635652</v>
-      </c>
-      <c r="K149">
-        <v>0.04442999186668282</v>
-      </c>
-      <c r="L149">
-        <v>0.1316562789874712</v>
-      </c>
-      <c r="M149">
-        <v>-2.01001130974352</v>
-      </c>
-      <c r="N149">
-        <v>206.0345890022862</v>
-      </c>
-      <c r="O149">
-        <v>213.5193930459178</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15">
-      <c r="A150" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B150">
-        <v>0.6697208854875031</v>
-      </c>
-      <c r="C150">
-        <v>0.01983517433733205</v>
-      </c>
-      <c r="D150">
-        <v>0.2875015711092626</v>
-      </c>
-      <c r="E150">
-        <v>2.329451219704748</v>
-      </c>
-      <c r="F150">
-        <v>-0.406741629653372</v>
-      </c>
-      <c r="G150">
-        <v>0.003403738155594577</v>
-      </c>
-      <c r="H150">
-        <v>0.1388809006088633</v>
-      </c>
-      <c r="I150">
-        <v>-2.928708179959872</v>
-      </c>
-      <c r="J150">
-        <v>-0.3048389959353506</v>
-      </c>
-      <c r="K150">
-        <v>0.02919584393974889</v>
-      </c>
-      <c r="L150">
-        <v>0.139781053452275</v>
-      </c>
-      <c r="M150">
-        <v>-2.180832011252733</v>
-      </c>
-      <c r="N150">
-        <v>206.2217124694824</v>
-      </c>
-      <c r="O150">
-        <v>213.706516513114</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15">
-      <c r="A151" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B151">
-        <v>0.6721399012999505</v>
-      </c>
-      <c r="C151">
-        <v>0.02062102253060105</v>
-      </c>
-      <c r="D151">
-        <v>0.2903597490198186</v>
-      </c>
-      <c r="E151">
-        <v>2.314852191355467</v>
-      </c>
-      <c r="F151">
-        <v>-0.4006079901357545</v>
-      </c>
-      <c r="G151">
-        <v>0.003721293583702675</v>
-      </c>
-      <c r="H151">
-        <v>0.1380993019104058</v>
-      </c>
-      <c r="I151">
-        <v>-2.900869045635404</v>
-      </c>
-      <c r="J151">
-        <v>-0.2917505991143214</v>
-      </c>
-      <c r="K151">
-        <v>0.0353159196237998</v>
-      </c>
-      <c r="L151">
-        <v>0.1386174726194376</v>
-      </c>
-      <c r="M151">
-        <v>-2.104717346241751</v>
-      </c>
-      <c r="N151">
-        <v>206.4519243178729</v>
-      </c>
-      <c r="O151">
-        <v>213.9367283615045</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15">
-      <c r="A152" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B152">
-        <v>0.658830155660504</v>
-      </c>
-      <c r="C152">
-        <v>0.02313799810439175</v>
-      </c>
-      <c r="D152">
-        <v>0.2900867976560066</v>
-      </c>
-      <c r="E152">
-        <v>2.271148363124626</v>
-      </c>
-      <c r="F152">
-        <v>-0.4016523413773242</v>
-      </c>
-      <c r="G152">
-        <v>0.00359979231227277</v>
-      </c>
-      <c r="H152">
-        <v>0.1379653234617633</v>
-      </c>
-      <c r="I152">
-        <v>-2.911255751077487</v>
-      </c>
-      <c r="J152">
-        <v>-0.2930042129265577</v>
-      </c>
-      <c r="K152">
-        <v>0.03388076151613816</v>
-      </c>
-      <c r="L152">
-        <v>0.1381125987023332</v>
-      </c>
-      <c r="M152">
-        <v>-2.121487943022883</v>
-      </c>
-      <c r="N152">
-        <v>206.3544839459261</v>
-      </c>
-      <c r="O152">
-        <v>213.8392879895576</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15">
-      <c r="A153" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B153">
-        <v>0.6541223361763624</v>
-      </c>
-      <c r="C153">
-        <v>0.01617093995195185</v>
-      </c>
-      <c r="D153">
-        <v>0.2719804400148639</v>
-      </c>
-      <c r="E153">
-        <v>2.405034480202379</v>
-      </c>
-      <c r="F153">
-        <v>-0.4553437783875506</v>
-      </c>
-      <c r="G153">
-        <v>0.0007759923670559838</v>
-      </c>
-      <c r="H153">
-        <v>0.13546982859613</v>
-      </c>
-      <c r="I153">
-        <v>-3.361219122414674</v>
-      </c>
-      <c r="J153">
-        <v>-0.3091262590966923</v>
-      </c>
-      <c r="K153">
-        <v>0.02249317699086669</v>
-      </c>
-      <c r="L153">
-        <v>0.1354667230119467</v>
-      </c>
-      <c r="M153">
-        <v>-2.281935018605497</v>
-      </c>
-      <c r="N153">
-        <v>199.7452776197219</v>
-      </c>
-      <c r="O153">
-        <v>207.2300816633535</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15">
-      <c r="A154" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B154">
-        <v>0.6338692133241772</v>
-      </c>
-      <c r="C154">
-        <v>0.01835229841596315</v>
-      </c>
-      <c r="D154">
-        <v>0.2687671666149032</v>
-      </c>
-      <c r="E154">
-        <v>2.358432472640537</v>
-      </c>
-      <c r="F154">
-        <v>-0.4728327376471393</v>
-      </c>
-      <c r="G154">
-        <v>0.0005134341482791306</v>
-      </c>
-      <c r="H154">
-        <v>0.1361199349770688</v>
-      </c>
-      <c r="I154">
-        <v>-3.473647983499215</v>
-      </c>
-      <c r="J154">
-        <v>-0.318095368313789</v>
-      </c>
-      <c r="K154">
-        <v>0.0183888747915654</v>
-      </c>
-      <c r="L154">
-        <v>0.1349180394292761</v>
-      </c>
-      <c r="M154">
-        <v>-2.357693379324076</v>
-      </c>
-      <c r="N154">
-        <v>199.0634823510619</v>
-      </c>
-      <c r="O154">
-        <v>206.5482863946934</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15">
-      <c r="A155" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B155">
-        <v>0.6000852497979909</v>
-      </c>
-      <c r="C155">
-        <v>0.02423429207426314</v>
-      </c>
-      <c r="D155">
-        <v>0.266302804687333</v>
-      </c>
-      <c r="E155">
-        <v>2.25339440379741</v>
-      </c>
-      <c r="F155">
-        <v>-0.4819005718006494</v>
-      </c>
-      <c r="G155">
-        <v>0.0004008104788381866</v>
-      </c>
-      <c r="H155">
-        <v>0.1361474281814001</v>
-      </c>
-      <c r="I155">
-        <v>-3.539549576790938</v>
-      </c>
-      <c r="J155">
-        <v>-0.3327439843994221</v>
-      </c>
-      <c r="K155">
-        <v>0.01447331588065536</v>
-      </c>
-      <c r="L155">
-        <v>0.1360751156092539</v>
-      </c>
-      <c r="M155">
-        <v>-2.445296356425022</v>
-      </c>
-      <c r="N155">
-        <v>198.7154432008516</v>
-      </c>
-      <c r="O155">
-        <v>206.2002472444832</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15">
-      <c r="A156" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B156">
-        <v>0.5374343192579305</v>
-      </c>
-      <c r="C156">
-        <v>0.04092916921343212</v>
-      </c>
-      <c r="D156">
-        <v>0.2629008943571171</v>
-      </c>
-      <c r="E156">
-        <v>2.044246827581708</v>
-      </c>
-      <c r="F156">
-        <v>-0.4854301025436767</v>
-      </c>
-      <c r="G156">
-        <v>0.0003161041754491738</v>
-      </c>
-      <c r="H156">
-        <v>0.1347768533689596</v>
-      </c>
-      <c r="I156">
-        <v>-3.601731977038988</v>
-      </c>
-      <c r="J156">
-        <v>-0.3374834799330804</v>
-      </c>
-      <c r="K156">
-        <v>0.01239629175069859</v>
-      </c>
-      <c r="L156">
-        <v>0.1349578855233921</v>
-      </c>
-      <c r="M156">
-        <v>-2.500657732034374</v>
-      </c>
-      <c r="N156">
-        <v>197.8828362649158</v>
-      </c>
-      <c r="O156">
-        <v>205.3676403085474</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15">
-      <c r="A157" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B157">
-        <v>0.5132381042060387</v>
-      </c>
-      <c r="C157">
-        <v>0.04992223340160812</v>
-      </c>
-      <c r="D157">
-        <v>0.2617720726283433</v>
-      </c>
-      <c r="E157">
-        <v>1.96062971520541</v>
-      </c>
-      <c r="F157">
-        <v>-0.4524216994979626</v>
-      </c>
-      <c r="G157">
-        <v>0.0009091777429919706</v>
-      </c>
-      <c r="H157">
-        <v>0.1363857709324073</v>
-      </c>
-      <c r="I157">
-        <v>-3.3172206778241</v>
-      </c>
-      <c r="J157">
-        <v>-0.3253851264165818</v>
-      </c>
-      <c r="K157">
-        <v>0.0163216783799435</v>
-      </c>
-      <c r="L157">
-        <v>0.1354844489151918</v>
-      </c>
-      <c r="M157">
-        <v>-2.401641878620777</v>
-      </c>
-      <c r="N157">
-        <v>198.066987649529</v>
-      </c>
-      <c r="O157">
-        <v>205.5517916931605</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15">
-      <c r="A158" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B158">
-        <v>0.4883550667635859</v>
-      </c>
-      <c r="C158">
-        <v>0.06014224543857449</v>
-      </c>
-      <c r="D158">
-        <v>0.2597979698958762</v>
-      </c>
-      <c r="E158">
-        <v>1.879749356622427</v>
-      </c>
-      <c r="F158">
-        <v>-0.4551825938766707</v>
-      </c>
-      <c r="G158">
-        <v>0.0008131215988191255</v>
-      </c>
-      <c r="H158">
-        <v>0.1359448329146251</v>
-      </c>
-      <c r="I158">
-        <v>-3.348289038411122</v>
-      </c>
-      <c r="J158">
-        <v>-0.3351910627366981</v>
-      </c>
-      <c r="K158">
-        <v>0.01367311534153842</v>
-      </c>
-      <c r="L158">
-        <v>0.1359394260675238</v>
-      </c>
-      <c r="M158">
-        <v>-2.465738398587926</v>
-      </c>
-      <c r="N158">
-        <v>197.7044675835122</v>
-      </c>
-      <c r="O158">
-        <v>205.1892716271437</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15">
-      <c r="A159" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B159">
-        <v>0.481845091265951</v>
-      </c>
-      <c r="C159">
-        <v>0.06344002322863912</v>
-      </c>
-      <c r="D159">
-        <v>0.2596015291361334</v>
-      </c>
-      <c r="E159">
-        <v>1.856094965501049</v>
-      </c>
-      <c r="F159">
-        <v>-0.4527290393608462</v>
-      </c>
-      <c r="G159">
-        <v>0.0008856563149369235</v>
-      </c>
-      <c r="H159">
-        <v>0.1361780915645251</v>
-      </c>
-      <c r="I159">
-        <v>-3.324536525365611</v>
-      </c>
-      <c r="J159">
-        <v>-0.3337911092704915</v>
-      </c>
-      <c r="K159">
-        <v>0.01416572352590514</v>
-      </c>
-      <c r="L159">
-        <v>0.1360728013961441</v>
-      </c>
-      <c r="M159">
-        <v>-2.453033272231509</v>
-      </c>
-      <c r="N159">
-        <v>197.8082244688284</v>
-      </c>
-      <c r="O159">
-        <v>205.29302851246</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15">
-      <c r="A160" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B160">
-        <v>0.4768365475178873</v>
-      </c>
-      <c r="C160">
-        <v>0.06611648443027199</v>
-      </c>
-      <c r="D160">
-        <v>0.259484083810259</v>
-      </c>
-      <c r="E160">
-        <v>1.837633123835686</v>
-      </c>
-      <c r="F160">
-        <v>-0.452402482718154</v>
-      </c>
-      <c r="G160">
-        <v>0.0008915425211897937</v>
-      </c>
-      <c r="H160">
-        <v>0.136155530280069</v>
-      </c>
-      <c r="I160">
-        <v>-3.32268899976058</v>
-      </c>
-      <c r="J160">
-        <v>-0.3324803154518182</v>
-      </c>
-      <c r="K160">
-        <v>0.01467625281395915</v>
-      </c>
-      <c r="L160">
-        <v>0.1362472991687922</v>
-      </c>
-      <c r="M160">
-        <v>-2.440270871277378</v>
-      </c>
-      <c r="N160">
-        <v>197.9019006326783</v>
-      </c>
-      <c r="O160">
-        <v>205.3867046763099</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15">
-      <c r="A161" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B161">
-        <v>0.4402300220723241</v>
-      </c>
-      <c r="C161">
-        <v>0.09201399235918069</v>
-      </c>
-      <c r="D161">
-        <v>0.2612845369848295</v>
-      </c>
-      <c r="E161">
-        <v>1.684868255705022</v>
-      </c>
-      <c r="F161">
-        <v>-0.3797396007373646</v>
-      </c>
-      <c r="G161">
-        <v>0.00594819288979587</v>
-      </c>
-      <c r="H161">
-        <v>0.1380558164996376</v>
-      </c>
-      <c r="I161">
-        <v>-2.75062369964225</v>
-      </c>
-      <c r="J161">
-        <v>-0.2926730306208346</v>
-      </c>
-      <c r="K161">
-        <v>0.03400867030281143</v>
-      </c>
-      <c r="L161">
-        <v>0.138055343266809</v>
-      </c>
-      <c r="M161">
-        <v>-2.119968874042114</v>
-      </c>
-      <c r="N161">
-        <v>198.6875701879802</v>
-      </c>
-      <c r="O161">
-        <v>206.1723742316117</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15">
-      <c r="A162" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B162">
-        <v>0.4297455569664963</v>
-      </c>
-      <c r="C162">
-        <v>0.1002216978367568</v>
-      </c>
-      <c r="D162">
-        <v>0.2614374261769452</v>
-      </c>
-      <c r="E162">
-        <v>1.643779787962101</v>
-      </c>
-      <c r="F162">
-        <v>-0.3783105440516361</v>
-      </c>
-      <c r="G162">
-        <v>0.006163750553828818</v>
-      </c>
-      <c r="H162">
-        <v>0.1381229449757737</v>
-      </c>
-      <c r="I162">
-        <v>-2.738940616405121</v>
-      </c>
-      <c r="J162">
-        <v>-0.2914310493289787</v>
-      </c>
-      <c r="K162">
-        <v>0.0350023366924939</v>
-      </c>
-      <c r="L162">
-        <v>0.1382282947130797</v>
-      </c>
-      <c r="M162">
-        <v>-2.108331365397379</v>
-      </c>
-      <c r="N162">
-        <v>198.8162627933382</v>
-      </c>
-      <c r="O162">
-        <v>206.3010668369697</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15">
-      <c r="A163" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B163">
-        <v>0.4286139323921373</v>
-      </c>
-      <c r="C163">
-        <v>0.1008179677404912</v>
-      </c>
-      <c r="D163">
-        <v>0.2612064547432345</v>
-      </c>
-      <c r="E163">
-        <v>1.640900998459108</v>
-      </c>
-      <c r="F163">
-        <v>-0.3774258873972454</v>
-      </c>
-      <c r="G163">
-        <v>0.006276155096568777</v>
-      </c>
-      <c r="H163">
-        <v>0.1380998062961295</v>
-      </c>
-      <c r="I163">
-        <v>-2.732993604552387</v>
-      </c>
-      <c r="J163">
-        <v>-0.2896683894384353</v>
-      </c>
-      <c r="K163">
-        <v>0.03595766300138476</v>
-      </c>
-      <c r="L163">
-        <v>0.1381079338495395</v>
-      </c>
-      <c r="M163">
-        <v>-2.097405857609977</v>
-      </c>
-      <c r="N163">
-        <v>198.8278249470879</v>
-      </c>
-      <c r="O163">
-        <v>206.3126289907195</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15">
-      <c r="A164" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B164">
-        <v>0.4504612813666546</v>
-      </c>
-      <c r="C164">
-        <v>0.08345959188880792</v>
-      </c>
-      <c r="D164">
-        <v>0.2602384181788523</v>
-      </c>
-      <c r="E164">
-        <v>1.730956115238409</v>
-      </c>
-      <c r="F164">
-        <v>-0.3810978406344331</v>
-      </c>
-      <c r="G164">
-        <v>0.005622043746374832</v>
-      </c>
-      <c r="H164">
-        <v>0.1376277727582979</v>
-      </c>
-      <c r="I164">
-        <v>-2.769047503978123</v>
-      </c>
-      <c r="J164">
-        <v>-0.2909289210161251</v>
-      </c>
-      <c r="K164">
-        <v>0.03445619038859235</v>
-      </c>
-      <c r="L164">
-        <v>0.1375750675657087</v>
-      </c>
-      <c r="M164">
-        <v>-2.114692190699245</v>
-      </c>
-      <c r="N164">
-        <v>198.4670837299067</v>
-      </c>
-      <c r="O164">
         <v>205.9518877735383</v>
       </c>
     </row>
